--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\ENERGY BRANCH\Statistics\R Shiny\Reorganised\Structure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\SESH\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D48ACC1-264F-414E-BAB1-E1A2953399D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD393E07-6AE8-4EFB-990D-E6B4C267D0E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{43A60663-816A-4C42-943C-262521E3E8B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{43A60663-816A-4C42-943C-262521E3E8B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Code</t>
   </si>
@@ -41,12 +42,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.gov.uk/government/statistical-data-sets/total-final-energy-consumption-at-regional-and-local-authority-level</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/statistics/energy-trends-december-2017-special-feature-article-electricity-generation-and-supply-figures-for-scotland-wales-northern-ireland-and-england-2</t>
-  </si>
-  <si>
     <t>ETElecGen</t>
   </si>
   <si>
@@ -56,16 +51,10 @@
     <t>ESTRenHeat</t>
   </si>
   <si>
-    <t>BEIS: Electricity generation and supply figures for Scotland, Wales, Northern Ireland and England</t>
-  </si>
-  <si>
-    <t>BEIS: Total final energy consumption at regional and local authority level</t>
-  </si>
-  <si>
-    <t>EST: Renewable Heat in Scotland</t>
-  </si>
-  <si>
-    <t>https://www.energysavingtrust.org.uk/sites/default/files/reports/Renewable%20Heat%20Report%20%202018.pdf</t>
+    <t xml:space="preserve"> https://ischerr.shinyapps.io/Reorganised/</t>
+  </si>
+  <si>
+    <t>To be added</t>
   </si>
 </sst>
 </file>
@@ -431,7 +420,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,43 +442,38 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{EC66E8D3-40D2-4D24-918E-DB9119DDDF74}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{354DF0E2-1F82-4838-B2F4-C76BF22C8290}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{EE23B627-1D39-40E6-A866-A2FBFDF3725B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\SESH\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD393E07-6AE8-4EFB-990D-E6B4C267D0E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4C570D-7AE5-4A4D-BD96-8B199794F155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{43A60663-816A-4C42-943C-262521E3E8B4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="194">
   <si>
     <t>Code</t>
   </si>
@@ -42,26 +42,584 @@
     <t>URL</t>
   </si>
   <si>
-    <t>ETElecGen</t>
-  </si>
-  <si>
-    <t>BEISFinalConsump</t>
-  </si>
-  <si>
     <t>ESTRenHeat</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://ischerr.shinyapps.io/Reorganised/</t>
-  </si>
-  <si>
-    <t>To be added</t>
+    <t>BEISRenElec</t>
+  </si>
+  <si>
+    <t>BEISElecGen</t>
+  </si>
+  <si>
+    <t>BEISSubNatEnergy</t>
+  </si>
+  <si>
+    <t>HMRCOils</t>
+  </si>
+  <si>
+    <t>BEISSubNatElec</t>
+  </si>
+  <si>
+    <t>BEISSubNatGas</t>
+  </si>
+  <si>
+    <t>BEISLocalRoad</t>
+  </si>
+  <si>
+    <t>Renewable electricity in Scotland, Wales, Northern Ireland and the regions of England, Energy Trends, BEIS</t>
+  </si>
+  <si>
+    <t>Electricity generation and supply figures for Scotland, Wales, Northern Ireland and England, Energy Trends, BEIS</t>
+  </si>
+  <si>
+    <t>Sub-national total final energy consumption data, BEIS</t>
+  </si>
+  <si>
+    <t>Renewable Heat in Scotland, EST</t>
+  </si>
+  <si>
+    <t>Energy Consumption in the UK: end use, BEIS</t>
+  </si>
+  <si>
+    <t>Hydrocarbon Oils Bulletin, HMRC</t>
+  </si>
+  <si>
+    <t>Sub-national electricity consumption statistics, BEIS</t>
+  </si>
+  <si>
+    <t>Sub-national gas consumption statistics, BEIS</t>
+  </si>
+  <si>
+    <t>Regional and local authority road transport consumption statistics, BEIS</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/743592/ET_6.1.xls</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/853553/Regional-generation-supply-2004-2018.xls</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/833987/Sub-national-total-final-energy-consumption-statistics_2005-2017.xlsx</t>
+  </si>
+  <si>
+    <t>https://energysavingtrust.org.uk/sites/default/files/reports/Renewable%20Heat%20in%20Scotland%2C%202018%20Report.pdf</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/826726/2019_End_use_tables_2.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.uktradeinfo.com/Statistics/Tax%20and%20Duty%20Bulletins/Oils1119.xls</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/853754/Sub-national_electricity_consumption_statistics_2005-2018.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/853430/Sub-national_gas_consumption_statistics_2005-2018.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/812411/Road_Transport_fuel_consumption_tables_2005-2017.xlsx</t>
+  </si>
+  <si>
+    <t>Quarterly National Accounts Scotland, SG</t>
+  </si>
+  <si>
+    <t>BHRig</t>
+  </si>
+  <si>
+    <t>CASEnSwitch</t>
+  </si>
+  <si>
+    <t>BEISAnnualElec</t>
+  </si>
+  <si>
+    <t>BEISUnitElec</t>
+  </si>
+  <si>
+    <t>BEISUnitGas</t>
+  </si>
+  <si>
+    <t>BEISCHP</t>
+  </si>
+  <si>
+    <t>BEISDUKES</t>
+  </si>
+  <si>
+    <t>BEISDUKESBalance</t>
+  </si>
+  <si>
+    <t>BEISDUKESPower</t>
+  </si>
+  <si>
+    <t>BEISDUKESCoal</t>
+  </si>
+  <si>
+    <t>BEISElecPPM</t>
+  </si>
+  <si>
+    <t>BEISElecMeter</t>
+  </si>
+  <si>
+    <t>BEISImportExport</t>
+  </si>
+  <si>
+    <t>BEISOil</t>
+  </si>
+  <si>
+    <t>BEISHHoldEE</t>
+  </si>
+  <si>
+    <t>BEISInternationalPrices</t>
+  </si>
+  <si>
+    <t>BEISQuarterlyElecCustomers</t>
+  </si>
+  <si>
+    <t>BEISQuarterlyGasCustomers</t>
+  </si>
+  <si>
+    <t>BEISRegionRenew</t>
+  </si>
+  <si>
+    <t>BEISPaymentMethodElec</t>
+  </si>
+  <si>
+    <t>BEISPaymentMethodGas</t>
+  </si>
+  <si>
+    <t>BEISREPD</t>
+  </si>
+  <si>
+    <t>BEISRHI</t>
+  </si>
+  <si>
+    <t>BEISNonGasGrid</t>
+  </si>
+  <si>
+    <t>BEISGasCustomers</t>
+  </si>
+  <si>
+    <t>BEISSubNatFuel</t>
+  </si>
+  <si>
+    <t>BEISUKConsump</t>
+  </si>
+  <si>
+    <t>BEISNEED</t>
+  </si>
+  <si>
+    <t>BEISHeatNetwork</t>
+  </si>
+  <si>
+    <t>DFTLicenced</t>
+  </si>
+  <si>
+    <t>DFTULEVs</t>
+  </si>
+  <si>
+    <t>ElectralinkMeters</t>
+  </si>
+  <si>
+    <t>ElexonScotGen</t>
+  </si>
+  <si>
+    <t>ESTComm</t>
+  </si>
+  <si>
+    <t>EURORenEn</t>
+  </si>
+  <si>
+    <t>HMRCTrade</t>
+  </si>
+  <si>
+    <t>NGData</t>
+  </si>
+  <si>
+    <t>NGCarbonAPI</t>
+  </si>
+  <si>
+    <t>NGElecDemand</t>
+  </si>
+  <si>
+    <t>NRSHouseholds</t>
+  </si>
+  <si>
+    <t>OFGEMConsumers</t>
+  </si>
+  <si>
+    <t>OGAWells</t>
+  </si>
+  <si>
+    <t>OGUKWorkforce</t>
+  </si>
+  <si>
+    <t>ONSLowCarbon</t>
+  </si>
+  <si>
+    <t>ONSPopulation</t>
+  </si>
+  <si>
+    <t>SEOilGas</t>
+  </si>
+  <si>
+    <t>SGOilGasProd</t>
+  </si>
+  <si>
+    <t>SGOilGasCommodity</t>
+  </si>
+  <si>
+    <t>SGOilGasSatellite</t>
+  </si>
+  <si>
+    <t>SGQNAS</t>
+  </si>
+  <si>
+    <t>SGQNASSector</t>
+  </si>
+  <si>
+    <t>SGNonDomEnergy</t>
+  </si>
+  <si>
+    <t>SGEmissions</t>
+  </si>
+  <si>
+    <t>SGEmissionsPublic</t>
+  </si>
+  <si>
+    <t>SGSHCS</t>
+  </si>
+  <si>
+    <t>SGSNAP</t>
+  </si>
+  <si>
+    <t>SGGrowth</t>
+  </si>
+  <si>
+    <t>Internaitonal Rig Count, Baker Hughes</t>
+  </si>
+  <si>
+    <t>Energy switching rates, CAS</t>
+  </si>
+  <si>
+    <t>Annual domestic electricity bills, BEIS</t>
+  </si>
+  <si>
+    <t>Annual domestic gas bills, BEIS</t>
+  </si>
+  <si>
+    <t>Average variable unit costs and fixed costs for electricity for UK regions, BEIS</t>
+  </si>
+  <si>
+    <t>Average variable unit costs and fixed costs for gas for UK regions, BEIS</t>
+  </si>
+  <si>
+    <t>Combined Heat and Power in Scotland, Wales, Northern Ireland and the regions of England, Energy Trends, BEIS</t>
+  </si>
+  <si>
+    <t>Digest of UK Energy Statistics (DUKES), BEIS</t>
+  </si>
+  <si>
+    <t>Digest of UK Energy Statistics (DUKES): aggregate energy balance, BEIS</t>
+  </si>
+  <si>
+    <t>Digest of UK Energy Statistics (DUKES): power stations, BEIS</t>
+  </si>
+  <si>
+    <t>Digest of UK Energy Statistics (DUKES): output and employment from UK coal mines, BEIS</t>
+  </si>
+  <si>
+    <t>Electric prepayment meter statistics, BEIS</t>
+  </si>
+  <si>
+    <t>Electricty meter point data, BEIS</t>
+  </si>
+  <si>
+    <t>Energy Trends: Imports, exports and transfers of electricity, BEIS</t>
+  </si>
+  <si>
+    <t>Energy Trends: oil and oil products, BEIS</t>
+  </si>
+  <si>
+    <t>Household Energy Efficiency Statistics, BEIS</t>
+  </si>
+  <si>
+    <t>International domestic energy prices, BEIS</t>
+  </si>
+  <si>
+    <t>Quarterly domestic electricity customer numbers, BEIS</t>
+  </si>
+  <si>
+    <t>Quarterly domestic gas customer numbers, BEIS</t>
+  </si>
+  <si>
+    <t>Regional Renewable Statistics, BEIS</t>
+  </si>
+  <si>
+    <t>Regional variation of payment method for standard electricity, BEIS</t>
+  </si>
+  <si>
+    <t>Regional variation of payment method for gas, BEIS</t>
+  </si>
+  <si>
+    <t>Renewable Energy Planning Database, BEIS</t>
+  </si>
+  <si>
+    <t>Renewable Heat Incentive statistics, BEIS</t>
+  </si>
+  <si>
+    <t>Sub-national estimates of households not connected to the gas network, BEIS</t>
+  </si>
+  <si>
+    <t>Sub-national gas sales and numbers of customers, BEIS</t>
+  </si>
+  <si>
+    <t>Sub-national residual fuel consumption data, BEIS</t>
+  </si>
+  <si>
+    <t>National Energy Efficiency Data-Framework (NEED): impact of measures, BEIS</t>
+  </si>
+  <si>
+    <t>Heat Network Data, BEIS</t>
+  </si>
+  <si>
+    <t>Licensed vehicles, Department for Transport</t>
+  </si>
+  <si>
+    <t>ULEVs licensed, Department for Transport</t>
+  </si>
+  <si>
+    <t>Monthly Smart Meter Installs, Electralink</t>
+  </si>
+  <si>
+    <t>Scottish electricity generation by BMU, Elexon</t>
+  </si>
+  <si>
+    <t>Community and locally owned renewable energy in Scotland, EST</t>
+  </si>
+  <si>
+    <t>Share of renewable energy in gross final energy consumption, Eurostat</t>
+  </si>
+  <si>
+    <t>Regional Trade Statistics, HMRC</t>
+  </si>
+  <si>
+    <t>Data Item Explorer, National Grid</t>
+  </si>
+  <si>
+    <t>Carbon Intensity API, National Grid</t>
+  </si>
+  <si>
+    <t>Electricity demand data explorer, National Grid</t>
+  </si>
+  <si>
+    <t>Estimates of Households and Dwellings in Scotland, NRS</t>
+  </si>
+  <si>
+    <t>Information for Consumers, OFGEM</t>
+  </si>
+  <si>
+    <t>Well Data, Oil &amp; Gas Authority</t>
+  </si>
+  <si>
+    <t>Workforce Report, Oil &amp; Gas UK</t>
+  </si>
+  <si>
+    <t>Low Carbon and Renewable Energy Economy, Office for National Statistics</t>
+  </si>
+  <si>
+    <t>Population Estimates for UK, England and Wales, Scotland and Northern Ireland, ONS</t>
+  </si>
+  <si>
+    <t>Survey of International Activity in the Oil &amp; Gas Sector, Scottish Enterprise</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Production Statistics, Scottish Government</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Commodity Balances, Scottish Government</t>
+  </si>
+  <si>
+    <t>Oil and Gas Satellite Accounts, Scottish Government</t>
+  </si>
+  <si>
+    <t>Quarterly National Accounts Scotland - sectoral breakdown, SG</t>
+  </si>
+  <si>
+    <t>Scotland's non-domestic energy efficiency baseline</t>
+  </si>
+  <si>
+    <t>Scottish Greenhouse Gas Emissions, SG</t>
+  </si>
+  <si>
+    <t>Scottish Greenhouse Gas Emissions - public electricity and heat production emissions, SG</t>
+  </si>
+  <si>
+    <t>Scottish House Condition Survey, SG</t>
+  </si>
+  <si>
+    <t>Scottish National Accounts Project (SNAP), Scottish Government</t>
+  </si>
+  <si>
+    <t>Growth Sector Statistics, Scottish Government</t>
+  </si>
+  <si>
+    <t>https://bakerhughesrigcount.gcs-web.com/static-files/1f68e35c-cbca-488d-95e5-6223c2a7c6fb</t>
+  </si>
+  <si>
+    <t>https://www.cas.org.uk/news/new-data-shows-huge-differences-across-scotland-energy-switching-rates</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/812265/table_222.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/766825/table_232.xls</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/812267/table_224.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/797219/table_234.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/834160/CHP_Regional_2018.pdf</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/840015/DUKES_2019_MASTER_COPY.pdf</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/820638/DUKES_1.1-1.3.xls</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/826561/DUKES_5.11.xls</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/820629/Chapter_2.pdf</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/793447/Local-authority-prepayment-electricity-statistics-2017.xlsx</t>
+  </si>
+  <si>
+    <t>Unpublished</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/766380/ET_5.6.xls</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/861747/ET_3.13.xls</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/852806/Headline_HEE_tables_19_DEC_2019_FINAL.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/751143/table_561.xls</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/766836/table_241.xls</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/766839/table_251.xls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/743822/Renewable_electricity_by_Local_Authority__2014-2017.xlsx </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/790142/table_242.xlsx </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/790145/table_252.xlsx </t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/860252/renewable-energy-planning-database-december-2019.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/rhi-monthly-deployment-data-december-2019-annual-edition</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/853758/sub_national_estimate_of_properties_not_connected_to_the_gas_network_2015-2018.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/833256/Sub-national_residual_fuel_consumption_statistics_2005-2017.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/814483/Headline_Tables_Impact_of_Measures_Scotland_.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/739952/veh0104.ods </t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/763823/veh0132.ods</t>
+  </si>
+  <si>
+    <t>https://www.electralink.co.uk/services/energy-market-insight/monthly-smart-meter-installs/</t>
+  </si>
+  <si>
+    <t>https://energysavingtrust.org.uk/sites/default/files/Community%20and%20locally%20owned%20renewable%20energy%20in%20Scotland.%202019%20Report.pdf</t>
+  </si>
+  <si>
+    <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=nrg_bal_c&amp;lang=en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uktradeinfo.com/Statistics/BuildYourOwnTables/Pages/Table.aspx </t>
+  </si>
+  <si>
+    <t>https://www.nrscotland.gov.uk/files//statistics/household-estimates/2018/house-est-18-all-tabs.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.ofgem.gov.uk/data-portal/retail-market-indicators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ogauthority.co.uk/media/5150/copy-of-drilling-activity-current-last-updated-nov-2018.xls </t>
+  </si>
+  <si>
+    <t>https://oilandgasuk.co.uk/wp-content/uploads/2019/08/Workforce-Report-2019.pdf</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/file?uri=%2feconomy%2fenvironmentalaccounts%2fdatasets%2flowcarbonandrenewableenergyeconomyfirstestimatesdataset%2fcurrent/lcreedataset2018.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/file?uri=/peoplepopulationandcommunity/populationandmigration/populationestimates/datasets/populationestimatesforukenglandandwalesscotlandandnorthernireland/mid2017/ukmidyearestimates2017finalversion.xls</t>
+  </si>
+  <si>
+    <t>https://cdn.prgloo.com/media/download/51f2713e6429499d81fe3562c4bfc12b</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-production-statistics-2018/documents/oil-and-gas-production-statistics-2018-web-tables/oil-and-gas-production-statistics-2018-web-tables/govscot%3Adocument/oil-gas-production-2018-tables.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/03/physical-commodity-balances-of-oil-gas-and-petroleum-1998-2017/documents/physical-commodity-balances/physical-commodity-balances/govscot%3Adocument/00547177.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/summary-tables-1998-2017/summary-tables-1998-2017/govscot%3Adocument/wseap-summary-tables-1998-2017.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/01/gdp-quarterly-national-accounts-for-scotland-2019-q3/documents/other-quarterly-national-accounts-summary-tables/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/Other%2BQuarterly%2BNational%2BAccounts%2Bsummary%2Btables.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/tables-charts/tables-charts/govscot%3Adocument/00544111.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/06/scottish-greenhouse-gas-emissions-2017/documents/2017-tables/2017-tables/govscot%3Adocument/2017-tables.xls</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/06/scottish-greenhouse-gas-emissions-2017/documents/scottish-ghg-dataset-2017/scottish-ghg-dataset-2017/govscot%3Adocument/scottish-ghg-dataset-2017.xls</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/01/scottish-house-condition-survey-2018-key-findings/documents/tables-figures/tables-figures/govscot%3Adocument/tables-figures.xlsx</t>
+  </si>
+  <si>
+    <t>https://www2.gov.scot/Resource/0054/00542815.xls</t>
+  </si>
+  <si>
+    <t>https://www2.gov.scot/Resource/0054/00549147.xlsx</t>
+  </si>
+  <si>
+    <t>BEISAnnualGas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +634,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,9 +668,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -417,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4FEE88-173D-451B-B688-E6F98C0C30ED}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,38 +1015,785 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>193</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C67">
+    <sortCondition ref="A2:A67"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="C43" r:id="rId1" xr:uid="{554A7BB0-3E08-4123-9AF9-2ABE6F3A0F83}"/>
+    <hyperlink ref="C26" r:id="rId2" xr:uid="{856EA285-F896-48F7-8F19-4C3A1155B06F}"/>
+    <hyperlink ref="C44" r:id="rId3" xr:uid="{4C135AF0-FA28-4024-90A2-E2EE3CE2FAD7}"/>
+    <hyperlink ref="C67" r:id="rId4" xr:uid="{B890180F-B981-4A1A-97CC-3C32FDE5F37C}"/>
+    <hyperlink ref="C46" r:id="rId5" xr:uid="{63283145-3568-46EB-ABB6-9D6BF90365A3}"/>
+    <hyperlink ref="C25" r:id="rId6" xr:uid="{3302F2E7-FA29-4A5B-9C49-AB95057FB7A8}"/>
+    <hyperlink ref="C27" r:id="rId7" xr:uid="{677EAABB-7FE5-4A9F-90AD-81A656787E20}"/>
+    <hyperlink ref="C45" r:id="rId8" xr:uid="{6B01E030-3336-4B04-9E89-90916A8A2F67}"/>
+    <hyperlink ref="C38" r:id="rId9" xr:uid="{E530B3F2-505D-41E4-A7DD-33AD1E1423E8}"/>
+    <hyperlink ref="C57" r:id="rId10" xr:uid="{DB0E5061-DAFA-4D28-A451-9696513F8F7A}"/>
+    <hyperlink ref="C5" r:id="rId11" xr:uid="{B599379D-62A9-4382-809C-2373D819B7DA}"/>
+    <hyperlink ref="C54" r:id="rId12" xr:uid="{D9C283E2-F1B5-4C2C-AAB7-335CE457E440}"/>
+    <hyperlink ref="C29" r:id="rId13" xr:uid="{D8764E94-B816-440A-A17C-F9DF135396CF}"/>
+    <hyperlink ref="C12" r:id="rId14" xr:uid="{39737BE8-4AA9-4F10-A2E1-8921545A79C3}"/>
+    <hyperlink ref="C66" r:id="rId15" xr:uid="{A9EAA8CE-415F-46DD-B5FE-578065634F33}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{D87ECA99-2A17-45A2-A0B8-5ECD13C65CDB}"/>
+    <hyperlink ref="C4" r:id="rId17" xr:uid="{D3755F34-5C25-425A-B36D-8047C7C8E747}"/>
+    <hyperlink ref="C51" r:id="rId18" xr:uid="{4F677A5B-26D5-4F5B-832F-C0AED91408B3}"/>
+    <hyperlink ref="C19" r:id="rId19" xr:uid="{ACB1F8D1-29F4-4F18-ADB7-FDE409EC40E1}"/>
+    <hyperlink ref="C61" r:id="rId20" xr:uid="{A0D70610-216F-4F27-950F-144D8E37E2B5}"/>
+    <hyperlink ref="C62" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-production-statistics-2018/documents/oil-and-gas-production-statistics-2018-web-tables/oil-and-gas-production-statistics-2018-web-tables/govscot%3Adocument" xr:uid="{98F9BD2A-E536-4707-BCD0-D046CCAC73DD}"/>
+    <hyperlink ref="C52" r:id="rId21" xr:uid="{D573BCF0-8FF6-4EE6-BB1A-66696E3CF271}"/>
+    <hyperlink ref="C56" r:id="rId22" xr:uid="{22602E05-EFEE-461B-BDA3-4F477AF77B52}"/>
+    <hyperlink ref="C53" r:id="rId23" xr:uid="{E27D0315-6213-460F-A16E-64A88EF2F413}"/>
+    <hyperlink ref="C63" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/summary-tables-1998-2017/summary-tables-1998-2017/govscot%3Adocument/wseap-s" xr:uid="{F6836856-11B9-44FF-B52A-4BFE477E5D66}"/>
+    <hyperlink ref="C7" r:id="rId24" xr:uid="{1FAB39C9-08C2-40F8-BFF5-EA9D14272852}"/>
+    <hyperlink ref="C55" r:id="rId25" xr:uid="{9F65E14F-F95F-4D14-BF38-38D5A175E56C}"/>
+    <hyperlink ref="C39" r:id="rId26" xr:uid="{FA42AE22-54E5-49D7-A8AA-D8D80F119CB9}"/>
+    <hyperlink ref="C59" r:id="rId27" xr:uid="{A427E7B2-E2BC-4EF5-B9B1-9CB481194374}"/>
+    <hyperlink ref="C40" r:id="rId28" xr:uid="{57A3A524-BBF2-47D6-BAEF-90D2798B753D}"/>
+    <hyperlink ref="C22" r:id="rId29" xr:uid="{BF5B0143-E3FD-44BE-B276-38D8CE4F2136}"/>
+    <hyperlink ref="C21" r:id="rId30" xr:uid="{70295F80-CB36-4205-99ED-229C22825D97}"/>
+    <hyperlink ref="C37" r:id="rId31" xr:uid="{148C2518-1FBC-4B58-9891-FFA9A6A0700A}"/>
+    <hyperlink ref="C30" r:id="rId32" xr:uid="{00F673DE-34B5-4369-8801-63B5DB64A196}"/>
+    <hyperlink ref="C35" r:id="rId33" xr:uid="{85C2CB68-C735-4375-9D25-B4EB26E44DF0}"/>
+    <hyperlink ref="C11" r:id="rId34" xr:uid="{2F93C850-4CAD-4563-93F6-F321186591BD}"/>
+    <hyperlink ref="C50" r:id="rId35" xr:uid="{6E90DFF6-1687-4CF8-A96A-67D0A5977FAC}"/>
+    <hyperlink ref="C14" r:id="rId36" xr:uid="{6F92D657-5490-4B8F-A1E1-EC61F04DA13D}"/>
+    <hyperlink ref="C60" r:id="rId37" xr:uid="{7001CAC8-8FEB-41A5-BDC1-D7504973EC9A}"/>
+    <hyperlink ref="C9" r:id="rId38" xr:uid="{C3E36E5A-412F-4A53-8ABD-EFC86EEC74E4}"/>
+    <hyperlink ref="C2" r:id="rId39" xr:uid="{33C5C0A2-B7F4-4DC6-A34D-E3BD33E7FAD1}"/>
+    <hyperlink ref="C3" r:id="rId40" xr:uid="{8697F89A-4896-471A-AEB1-B216BD522C4F}"/>
+    <hyperlink ref="C34" r:id="rId41" xr:uid="{F6E268EE-286C-4AC3-BE4A-5D91A9517FA3}"/>
+    <hyperlink ref="C8" r:id="rId42" xr:uid="{CFF81088-1EDC-4A68-AA47-E2881F091675}"/>
+    <hyperlink ref="C6" r:id="rId43" xr:uid="{B76BA9B7-82A1-4A8D-A445-7D7F86D3C093}"/>
+    <hyperlink ref="C15" r:id="rId44" xr:uid="{3743DC60-593A-43F4-9A4C-BE62851B3C46}"/>
+    <hyperlink ref="C23" r:id="rId45" xr:uid="{67674276-2916-43BC-BED8-7C73B2ABF013}"/>
+    <hyperlink ref="C24" r:id="rId46" xr:uid="{E4E3CF03-750F-4AC0-93CA-EA8E698074DD}"/>
+    <hyperlink ref="C28" r:id="rId47" xr:uid="{CE024799-1121-4030-A562-F88376E38393}"/>
+    <hyperlink ref="C32" r:id="rId48" xr:uid="{0966A0AB-F9B2-4E61-9663-831C64081062}"/>
+    <hyperlink ref="C31" r:id="rId49" xr:uid="{0F7D650D-3F75-45BD-BFB0-841F3F195CD6}"/>
+    <hyperlink ref="C33" r:id="rId50" xr:uid="{1BE19B78-B19D-4BED-97BE-D9181565AF64}"/>
+    <hyperlink ref="C42" r:id="rId51" xr:uid="{238AA3D9-186C-44A9-ABA9-2463219A62E8}"/>
+    <hyperlink ref="C64" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/01/gdp-quarterly-national-accounts-for-scotland-2019-q3/documents/other-quarterly-national-accounts-summary-tables/other-quarterly-national-accounts-summary-tables/govsco" xr:uid="{807C7CE0-CE35-493D-9ED5-C8BB51538F06}"/>
+    <hyperlink ref="C58" r:id="rId52" xr:uid="{D03659B1-635B-4840-9A2A-0F745097A4E4}"/>
+    <hyperlink ref="C18" r:id="rId53" xr:uid="{F256E6CF-91E1-4BD2-9EFB-CFBDE7C48C86}"/>
+    <hyperlink ref="C20" r:id="rId54" xr:uid="{A4E0F597-97B5-4409-9FFA-D94402916AB2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\SESH\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4C570D-7AE5-4A4D-BD96-8B199794F155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF37763-AEBB-47C8-A37F-6063CD0580A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{43A60663-816A-4C42-943C-262521E3E8B4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="197">
   <si>
     <t>Code</t>
   </si>
@@ -66,33 +66,6 @@
     <t>BEISLocalRoad</t>
   </si>
   <si>
-    <t>Renewable electricity in Scotland, Wales, Northern Ireland and the regions of England, Energy Trends, BEIS</t>
-  </si>
-  <si>
-    <t>Electricity generation and supply figures for Scotland, Wales, Northern Ireland and England, Energy Trends, BEIS</t>
-  </si>
-  <si>
-    <t>Sub-national total final energy consumption data, BEIS</t>
-  </si>
-  <si>
-    <t>Renewable Heat in Scotland, EST</t>
-  </si>
-  <si>
-    <t>Energy Consumption in the UK: end use, BEIS</t>
-  </si>
-  <si>
-    <t>Hydrocarbon Oils Bulletin, HMRC</t>
-  </si>
-  <si>
-    <t>Sub-national electricity consumption statistics, BEIS</t>
-  </si>
-  <si>
-    <t>Sub-national gas consumption statistics, BEIS</t>
-  </si>
-  <si>
-    <t>Regional and local authority road transport consumption statistics, BEIS</t>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/743592/ET_6.1.xls</t>
   </si>
   <si>
@@ -120,9 +93,6 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/812411/Road_Transport_fuel_consumption_tables_2005-2017.xlsx</t>
   </si>
   <si>
-    <t>Quarterly National Accounts Scotland, SG</t>
-  </si>
-  <si>
     <t>BHRig</t>
   </si>
   <si>
@@ -294,174 +264,6 @@
     <t>SGGrowth</t>
   </si>
   <si>
-    <t>Internaitonal Rig Count, Baker Hughes</t>
-  </si>
-  <si>
-    <t>Energy switching rates, CAS</t>
-  </si>
-  <si>
-    <t>Annual domestic electricity bills, BEIS</t>
-  </si>
-  <si>
-    <t>Annual domestic gas bills, BEIS</t>
-  </si>
-  <si>
-    <t>Average variable unit costs and fixed costs for electricity for UK regions, BEIS</t>
-  </si>
-  <si>
-    <t>Average variable unit costs and fixed costs for gas for UK regions, BEIS</t>
-  </si>
-  <si>
-    <t>Combined Heat and Power in Scotland, Wales, Northern Ireland and the regions of England, Energy Trends, BEIS</t>
-  </si>
-  <si>
-    <t>Digest of UK Energy Statistics (DUKES), BEIS</t>
-  </si>
-  <si>
-    <t>Digest of UK Energy Statistics (DUKES): aggregate energy balance, BEIS</t>
-  </si>
-  <si>
-    <t>Digest of UK Energy Statistics (DUKES): power stations, BEIS</t>
-  </si>
-  <si>
-    <t>Digest of UK Energy Statistics (DUKES): output and employment from UK coal mines, BEIS</t>
-  </si>
-  <si>
-    <t>Electric prepayment meter statistics, BEIS</t>
-  </si>
-  <si>
-    <t>Electricty meter point data, BEIS</t>
-  </si>
-  <si>
-    <t>Energy Trends: Imports, exports and transfers of electricity, BEIS</t>
-  </si>
-  <si>
-    <t>Energy Trends: oil and oil products, BEIS</t>
-  </si>
-  <si>
-    <t>Household Energy Efficiency Statistics, BEIS</t>
-  </si>
-  <si>
-    <t>International domestic energy prices, BEIS</t>
-  </si>
-  <si>
-    <t>Quarterly domestic electricity customer numbers, BEIS</t>
-  </si>
-  <si>
-    <t>Quarterly domestic gas customer numbers, BEIS</t>
-  </si>
-  <si>
-    <t>Regional Renewable Statistics, BEIS</t>
-  </si>
-  <si>
-    <t>Regional variation of payment method for standard electricity, BEIS</t>
-  </si>
-  <si>
-    <t>Regional variation of payment method for gas, BEIS</t>
-  </si>
-  <si>
-    <t>Renewable Energy Planning Database, BEIS</t>
-  </si>
-  <si>
-    <t>Renewable Heat Incentive statistics, BEIS</t>
-  </si>
-  <si>
-    <t>Sub-national estimates of households not connected to the gas network, BEIS</t>
-  </si>
-  <si>
-    <t>Sub-national gas sales and numbers of customers, BEIS</t>
-  </si>
-  <si>
-    <t>Sub-national residual fuel consumption data, BEIS</t>
-  </si>
-  <si>
-    <t>National Energy Efficiency Data-Framework (NEED): impact of measures, BEIS</t>
-  </si>
-  <si>
-    <t>Heat Network Data, BEIS</t>
-  </si>
-  <si>
-    <t>Licensed vehicles, Department for Transport</t>
-  </si>
-  <si>
-    <t>ULEVs licensed, Department for Transport</t>
-  </si>
-  <si>
-    <t>Monthly Smart Meter Installs, Electralink</t>
-  </si>
-  <si>
-    <t>Scottish electricity generation by BMU, Elexon</t>
-  </si>
-  <si>
-    <t>Community and locally owned renewable energy in Scotland, EST</t>
-  </si>
-  <si>
-    <t>Share of renewable energy in gross final energy consumption, Eurostat</t>
-  </si>
-  <si>
-    <t>Regional Trade Statistics, HMRC</t>
-  </si>
-  <si>
-    <t>Data Item Explorer, National Grid</t>
-  </si>
-  <si>
-    <t>Carbon Intensity API, National Grid</t>
-  </si>
-  <si>
-    <t>Electricity demand data explorer, National Grid</t>
-  </si>
-  <si>
-    <t>Estimates of Households and Dwellings in Scotland, NRS</t>
-  </si>
-  <si>
-    <t>Information for Consumers, OFGEM</t>
-  </si>
-  <si>
-    <t>Well Data, Oil &amp; Gas Authority</t>
-  </si>
-  <si>
-    <t>Workforce Report, Oil &amp; Gas UK</t>
-  </si>
-  <si>
-    <t>Low Carbon and Renewable Energy Economy, Office for National Statistics</t>
-  </si>
-  <si>
-    <t>Population Estimates for UK, England and Wales, Scotland and Northern Ireland, ONS</t>
-  </si>
-  <si>
-    <t>Survey of International Activity in the Oil &amp; Gas Sector, Scottish Enterprise</t>
-  </si>
-  <si>
-    <t>Oil &amp; Gas Production Statistics, Scottish Government</t>
-  </si>
-  <si>
-    <t>Oil &amp; Gas Commodity Balances, Scottish Government</t>
-  </si>
-  <si>
-    <t>Oil and Gas Satellite Accounts, Scottish Government</t>
-  </si>
-  <si>
-    <t>Quarterly National Accounts Scotland - sectoral breakdown, SG</t>
-  </si>
-  <si>
-    <t>Scotland's non-domestic energy efficiency baseline</t>
-  </si>
-  <si>
-    <t>Scottish Greenhouse Gas Emissions, SG</t>
-  </si>
-  <si>
-    <t>Scottish Greenhouse Gas Emissions - public electricity and heat production emissions, SG</t>
-  </si>
-  <si>
-    <t>Scottish House Condition Survey, SG</t>
-  </si>
-  <si>
-    <t>Scottish National Accounts Project (SNAP), Scottish Government</t>
-  </si>
-  <si>
-    <t>Growth Sector Statistics, Scottish Government</t>
-  </si>
-  <si>
     <t>https://bakerhughesrigcount.gcs-web.com/static-files/1f68e35c-cbca-488d-95e5-6223c2a7c6fb</t>
   </si>
   <si>
@@ -613,6 +415,213 @@
   </si>
   <si>
     <t>BEISAnnualGas</t>
+  </si>
+  <si>
+    <t>BEIS: Annual domestic gas bills</t>
+  </si>
+  <si>
+    <t>BEIS: Annual domestic electricity bills</t>
+  </si>
+  <si>
+    <t>BEIS: Combined Heat and Power in Scotland, Wales, Northern Ireland and the regions of England, Energy Trends</t>
+  </si>
+  <si>
+    <t>BEIS: Digest of UK Energy Statistics (DUKES)</t>
+  </si>
+  <si>
+    <t>BEIS: Digest of UK Energy Statistics (DUKES): aggregate energy balance</t>
+  </si>
+  <si>
+    <t>BEIS: Digest of UK Energy Statistics (DUKES): output and employment from UK coal mines</t>
+  </si>
+  <si>
+    <t>BEIS: Digest of UK Energy Statistics (DUKES): power stations</t>
+  </si>
+  <si>
+    <t>BEIS: Electricity generation and supply figures for Scotland, Wales, Northern Ireland and England, Energy Trends</t>
+  </si>
+  <si>
+    <t>BEIS: Electricty meter point data</t>
+  </si>
+  <si>
+    <t>BEIS: Electric prepayment meter statistics</t>
+  </si>
+  <si>
+    <t>BEIS: Sub-national gas sales and numbers of customers</t>
+  </si>
+  <si>
+    <t>BEIS: Heat Network Data</t>
+  </si>
+  <si>
+    <t>BEIS: Household Energy Efficiency Statistics</t>
+  </si>
+  <si>
+    <t>BEIS: Energy Trends: Imports, exports and transfers of electricity</t>
+  </si>
+  <si>
+    <t>BEIS: International domestic energy prices</t>
+  </si>
+  <si>
+    <t>BEIS: Regional and local authority road transport consumption statistics</t>
+  </si>
+  <si>
+    <t>BEIS: National Energy Efficiency Data-Framework (NEED): impact of measures</t>
+  </si>
+  <si>
+    <t>BEIS: Sub-national estimates of households not connected to the gas network</t>
+  </si>
+  <si>
+    <t>BEIS: Energy Trends: oil and oil products</t>
+  </si>
+  <si>
+    <t>BEIS: Regional variation of payment method for standard electricity</t>
+  </si>
+  <si>
+    <t>BEIS: Regional variation of payment method for gas</t>
+  </si>
+  <si>
+    <t>BEIS: Quarterly domestic electricity customer numbers</t>
+  </si>
+  <si>
+    <t>BEIS: Quarterly domestic gas customer numbers</t>
+  </si>
+  <si>
+    <t>BEIS: Regional Renewable Statistics</t>
+  </si>
+  <si>
+    <t>BEIS: Renewable electricity in Scotland, Wales, Northern Ireland and the regions of England, Energy Trends</t>
+  </si>
+  <si>
+    <t>BEIS: Renewable Energy Planning Database</t>
+  </si>
+  <si>
+    <t>BEIS: Renewable Heat Incentive statistics</t>
+  </si>
+  <si>
+    <t>BEIS: Sub-national electricity consumption statistics</t>
+  </si>
+  <si>
+    <t>BEIS: Sub-national total final energy consumption data</t>
+  </si>
+  <si>
+    <t>BEIS: Sub-national residual fuel consumption data</t>
+  </si>
+  <si>
+    <t>BEIS: Sub-national gas consumption statistics</t>
+  </si>
+  <si>
+    <t>BEIS: Energy Consumption in the UK: end use</t>
+  </si>
+  <si>
+    <t>BEIS: Average variable unit costs and fixed costs for electricity for UK regions</t>
+  </si>
+  <si>
+    <t>BEIS: Average variable unit costs and fixed costs for gas for UK regions</t>
+  </si>
+  <si>
+    <t>Baker Hughes: Internaitonal Rig Count</t>
+  </si>
+  <si>
+    <t>CAS: Energy switching rates</t>
+  </si>
+  <si>
+    <t>Department for Transport: Licensed vehicles</t>
+  </si>
+  <si>
+    <t>Department for Transport: ULEVs licensed</t>
+  </si>
+  <si>
+    <t>Electralink: Monthly Smart Meter Installs</t>
+  </si>
+  <si>
+    <t>Elexon: Scottish electricity generation by BMU</t>
+  </si>
+  <si>
+    <t>Energy Savings Trust: Community and locally owned renewable energy in Scotland</t>
+  </si>
+  <si>
+    <t>Energy Savings Trust: Renewable Heat in Scotland</t>
+  </si>
+  <si>
+    <t>Eurostat: Share of renewable energy in gross final energy consumption</t>
+  </si>
+  <si>
+    <t>HMRC: Hydrocarbon Oils Bulletin</t>
+  </si>
+  <si>
+    <t>HMRC: Regional Trade Statistics</t>
+  </si>
+  <si>
+    <t>National Grid: Carbon Intensity API</t>
+  </si>
+  <si>
+    <t>National Grid: Data Item Explorer</t>
+  </si>
+  <si>
+    <t>National Grid: Electricity demand data explorer</t>
+  </si>
+  <si>
+    <t>NRS: Estimates of Households and Dwellings in Scotland</t>
+  </si>
+  <si>
+    <t>OFGEM: Information for Consumers</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Authority: Well Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil &amp; Gas UK: Workforce Report </t>
+  </si>
+  <si>
+    <t>Office for National Statistics: Low Carbon and Renewable Energy Economy</t>
+  </si>
+  <si>
+    <t>Scottish Enterprise: Survey of International Activity in the Oil &amp; Gas Sector</t>
+  </si>
+  <si>
+    <t>Scottish Government: Scottish Greenhouse Gas Emissions</t>
+  </si>
+  <si>
+    <t>Scottish Government: Scottish Greenhouse Gas Emissions - public electricity and heat production emissions</t>
+  </si>
+  <si>
+    <t>Scottish Government: Growth Sector Statistics</t>
+  </si>
+  <si>
+    <t>Scottish Government: Scotland's non-domestic energy efficiency baseline</t>
+  </si>
+  <si>
+    <t>Scottish Government: Oil &amp; Gas Commodity Balances</t>
+  </si>
+  <si>
+    <t>Office for National Statistics: Population Estimates for UK, England and Wales, Scotland and Northern Ireland</t>
+  </si>
+  <si>
+    <t>Scottish Government: Oil &amp; Gas Production Statistics</t>
+  </si>
+  <si>
+    <t>Scottish Government: Oil and Gas Satellite Accounts</t>
+  </si>
+  <si>
+    <t>Scottish Government: Quarterly National Accounts Scotland</t>
+  </si>
+  <si>
+    <t>Scottish Government: Quarterly National Accounts Scotland - sectoral breakdown</t>
+  </si>
+  <si>
+    <t>Scottish Government: Scottish House Condition Survey</t>
+  </si>
+  <si>
+    <t>Scottish Government: Scottish National Accounts Project (SNAP)</t>
+  </si>
+  <si>
+    <t>https://www.elexon.co.uk/</t>
+  </si>
+  <si>
+    <t>https://carbonintensity.org.uk/</t>
+  </si>
+  <si>
+    <t>https://www.nationalgrideso.com/balancing-data/data-finder-and-explorer</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1002,7 @@
   <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,79 +1024,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1095,87 +1104,87 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1183,98 +1192,98 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1282,32 +1291,32 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1315,10 +1324,10 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1326,21 +1335,21 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1348,118 +1357,120 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="3"/>
+        <v>167</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1467,21 +1478,21 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1489,246 +1500,252 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
-      </c>
-      <c r="C48" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" s="3"/>
+        <v>175</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>179</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>187</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1793,6 +1810,10 @@
     <hyperlink ref="C58" r:id="rId52" xr:uid="{D03659B1-635B-4840-9A2A-0F745097A4E4}"/>
     <hyperlink ref="C18" r:id="rId53" xr:uid="{F256E6CF-91E1-4BD2-9EFB-CFBDE7C48C86}"/>
     <hyperlink ref="C20" r:id="rId54" xr:uid="{A4E0F597-97B5-4409-9FFA-D94402916AB2}"/>
+    <hyperlink ref="C41" r:id="rId55" xr:uid="{3B2AAC33-EE2F-4F55-AB02-34CF0A1C590B}"/>
+    <hyperlink ref="C47" r:id="rId56" xr:uid="{6BB47E63-04A9-40F2-885E-B78C05619C21}"/>
+    <hyperlink ref="C48" r:id="rId57" xr:uid="{F2173860-7DF3-44C6-927A-0F6ACDBFF5F5}"/>
+    <hyperlink ref="C49" r:id="rId58" xr:uid="{857A1663-EE3A-4A80-93DD-3ED05824AE86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\SESH\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF37763-AEBB-47C8-A37F-6063CD0580A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5448F9-389E-4EF3-B606-D5A6F5FBA836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{43A60663-816A-4C42-943C-262521E3E8B4}"/>
+    <workbookView xWindow="28875" yWindow="-450" windowWidth="29040" windowHeight="15840" xr2:uid="{43A60663-816A-4C42-943C-262521E3E8B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="201">
   <si>
     <t>Code</t>
   </si>
@@ -622,6 +622,18 @@
   </si>
   <si>
     <t>https://www.nationalgrideso.com/balancing-data/data-finder-and-explorer</t>
+  </si>
+  <si>
+    <t>Last Updated</t>
+  </si>
+  <si>
+    <t>Data as of:</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Update Expected:</t>
   </si>
 </sst>
 </file>
@@ -677,13 +689,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -999,19 +1013,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4FEE88-173D-451B-B688-E6F98C0C30ED}">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="97.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1021,8 +1038,20 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1032,8 +1061,15 @@
       <c r="C2" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -1043,8 +1079,15 @@
       <c r="C3" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1054,8 +1097,15 @@
       <c r="C4" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1065,8 +1115,15 @@
       <c r="C5" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1076,8 +1133,15 @@
       <c r="C6" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1087,8 +1151,15 @@
       <c r="C7" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1098,8 +1169,15 @@
       <c r="C8" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1109,8 +1187,15 @@
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1120,8 +1205,15 @@
       <c r="C10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1131,8 +1223,15 @@
       <c r="C11" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1142,8 +1241,15 @@
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1153,8 +1259,15 @@
       <c r="C13" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1164,8 +1277,15 @@
       <c r="C14" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1175,8 +1295,15 @@
       <c r="C15" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1186,8 +1313,15 @@
       <c r="C16" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1197,8 +1331,15 @@
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1208,8 +1349,15 @@
       <c r="C18" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1219,8 +1367,15 @@
       <c r="C19" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1230,8 +1385,15 @@
       <c r="C20" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1241,8 +1403,15 @@
       <c r="C21" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1252,8 +1421,15 @@
       <c r="C22" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1263,8 +1439,15 @@
       <c r="C23" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1274,8 +1457,15 @@
       <c r="C24" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1285,8 +1475,15 @@
       <c r="C25" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1296,8 +1493,15 @@
       <c r="C26" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1307,8 +1511,18 @@
       <c r="C27" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7">
+        <v>43910</v>
+      </c>
+      <c r="G27" s="7">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1318,8 +1532,15 @@
       <c r="C28" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1329,8 +1550,15 @@
       <c r="C29" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1340,8 +1568,15 @@
       <c r="C30" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1351,8 +1586,15 @@
       <c r="C31" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1362,8 +1604,15 @@
       <c r="C32" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -1373,8 +1622,15 @@
       <c r="C33" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -1384,8 +1640,15 @@
       <c r="C34" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -1395,8 +1658,15 @@
       <c r="C35" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -1406,8 +1676,15 @@
       <c r="C36" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -1417,8 +1694,15 @@
       <c r="C37" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -1428,8 +1712,15 @@
       <c r="C38" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -1439,8 +1730,15 @@
       <c r="C39" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -1450,8 +1748,15 @@
       <c r="C40" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -1461,8 +1766,15 @@
       <c r="C41" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -1472,8 +1784,15 @@
       <c r="C42" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1483,8 +1802,15 @@
       <c r="C43" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -1494,8 +1820,15 @@
       <c r="C44" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1505,8 +1838,15 @@
       <c r="C45" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -1516,8 +1856,15 @@
       <c r="C46" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -1527,8 +1874,15 @@
       <c r="C47" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1538,8 +1892,15 @@
       <c r="C48" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -1549,8 +1910,15 @@
       <c r="C49" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -1560,8 +1928,15 @@
       <c r="C50" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -1571,8 +1946,15 @@
       <c r="C51" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -1582,8 +1964,15 @@
       <c r="C52" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -1593,8 +1982,15 @@
       <c r="C53" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -1604,8 +2000,15 @@
       <c r="C54" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -1615,8 +2018,15 @@
       <c r="C55" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -1626,8 +2036,15 @@
       <c r="C56" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -1637,8 +2054,15 @@
       <c r="C57" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -1648,8 +2072,15 @@
       <c r="C58" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>76</v>
       </c>
@@ -1659,8 +2090,15 @@
       <c r="C59" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -1670,8 +2108,15 @@
       <c r="C60" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -1681,8 +2126,15 @@
       <c r="C61" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -1692,8 +2144,15 @@
       <c r="C62" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -1703,8 +2162,15 @@
       <c r="C63" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -1714,8 +2180,15 @@
       <c r="C64" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -1725,8 +2198,15 @@
       <c r="C65" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -1736,8 +2216,15 @@
       <c r="C66" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" s="7">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -1746,6 +2233,13 @@
       </c>
       <c r="C67" s="2" t="s">
         <v>125</v>
+      </c>
+      <c r="D67" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="7">
+        <v>43910</v>
       </c>
     </row>
   </sheetData>
@@ -1816,5 +2310,6 @@
     <hyperlink ref="C49" r:id="rId58" xr:uid="{857A1663-EE3A-4A80-93DD-3ED05824AE86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId59"/>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\SESH\Structure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5448F9-389E-4EF3-B606-D5A6F5FBA836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7514913-51A1-49F5-A76D-C4C6E610C690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28875" yWindow="-450" windowWidth="29040" windowHeight="15840" xr2:uid="{43A60663-816A-4C42-943C-262521E3E8B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{43A60663-816A-4C42-943C-262521E3E8B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="205">
   <si>
     <t>Code</t>
   </si>
@@ -634,6 +634,18 @@
   </si>
   <si>
     <t>Update Expected:</t>
+  </si>
+  <si>
+    <t>Xoserve</t>
+  </si>
+  <si>
+    <t>https://www.xoserve.com/</t>
+  </si>
+  <si>
+    <t>https://www.ofgem.gov.uk/</t>
+  </si>
+  <si>
+    <t>Ofgem</t>
   </si>
 </sst>
 </file>
@@ -1013,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4FEE88-173D-451B-B688-E6F98C0C30ED}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2240,6 +2252,28 @@
       <c r="E67" s="6"/>
       <c r="F67" s="7">
         <v>43910</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>204</v>
+      </c>
+      <c r="B69" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2308,8 +2342,10 @@
     <hyperlink ref="C47" r:id="rId56" xr:uid="{6BB47E63-04A9-40F2-885E-B78C05619C21}"/>
     <hyperlink ref="C48" r:id="rId57" xr:uid="{F2173860-7DF3-44C6-927A-0F6ACDBFF5F5}"/>
     <hyperlink ref="C49" r:id="rId58" xr:uid="{857A1663-EE3A-4A80-93DD-3ED05824AE86}"/>
+    <hyperlink ref="C68" r:id="rId59" xr:uid="{8EB57298-82EC-4D5C-94F5-D00B2BF750A9}"/>
+    <hyperlink ref="C69" r:id="rId60" xr:uid="{C1274566-4D3E-4581-BA00-C8FE27199760}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId59"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId61"/>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_506012E395FA7DDD8D792AFF9F2785B63A21DED6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{62518BD0-5097-4076-8D3B-CF07F2E75927}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_506012E395FA7DDD8D792AFF9F2785B63A21DED6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8CF346A6-45E2-4B81-B547-9D38E70E1549}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="254">
   <si>
     <t>Code</t>
   </si>
@@ -57,18 +57,12 @@
     <t>BEIS: Annual domestic electricity bills</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/812265/table_222.xlsx</t>
-  </si>
-  <si>
     <t>BEISAnnualGas</t>
   </si>
   <si>
     <t>BEIS: Annual domestic gas bills</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/766825/table_232.xls</t>
-  </si>
-  <si>
     <t>BEISCHP</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
     <t>BEIS: Energy Trends: Imports, exports and transfers of electricity</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/766380/ET_5.6.xls</t>
-  </si>
-  <si>
     <t>BEISInternationalPrices</t>
   </si>
   <si>
@@ -225,36 +216,24 @@
     <t>BEIS: Regional variation of payment method for standard electricity</t>
   </si>
   <si>
-    <t xml:space="preserve">https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/790142/table_242.xlsx </t>
-  </si>
-  <si>
     <t>BEISPaymentMethodGas</t>
   </si>
   <si>
     <t>BEIS: Regional variation of payment method for gas</t>
   </si>
   <si>
-    <t xml:space="preserve">https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/790145/table_252.xlsx </t>
-  </si>
-  <si>
     <t>BEISQuarterlyElecCustomers</t>
   </si>
   <si>
     <t>BEIS: Quarterly domestic electricity customer numbers</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/766836/table_241.xls</t>
-  </si>
-  <si>
     <t>BEISQuarterlyGasCustomers</t>
   </si>
   <si>
     <t>BEIS: Quarterly domestic gas customer numbers</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/766839/table_251.xls</t>
-  </si>
-  <si>
     <t>BEISRegionRenew</t>
   </si>
   <si>
@@ -270,9 +249,6 @@
     <t>BEIS: Renewable electricity in Scotland, Wales, Northern Ireland and the regions of England, Energy Trends</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/743592/ET_6.1.xls</t>
-  </si>
-  <si>
     <t>BEISREPD</t>
   </si>
   <si>
@@ -681,9 +657,6 @@
     <t xml:space="preserve">https://www.gov.uk/government/statistics/electric-prepayment-meter-statistics </t>
   </si>
   <si>
-    <t>https://www.gov.uk/government/collections/sub-national-gas-consumption-data</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.gov.uk/government/collections/household-energy-efficiency-national-statistics </t>
   </si>
   <si>
@@ -750,9 +723,6 @@
     <t>https://www.uktradeinfo.com/Statistics/Pages/TaxAndDutybulletins.aspx</t>
   </si>
   <si>
-    <t>https://oilandgasuk.co.uk/product/workforce-report/</t>
-  </si>
-  <si>
     <t>https://www.ons.gov.uk/peoplepopulationandcommunity/populationandmigration/populationestimates/datasets/populationestimatesforukenglandandwalesscotlandandnorthernireland</t>
   </si>
   <si>
@@ -787,6 +757,42 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.gov.uk/government/statistical-data-sets/quarterly-domestic-energy-price-stastics </t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/875736/table_221.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/875743/table_232.xlsx</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/875406/ET_5.6.xls</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/875750/table_242.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/875754/table_252.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/875749/table_241.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/876030/table_251.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/875409/ET_6.1.xls</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://oilandgasuk.co.uk/product/workforce-report/ </t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1273,7 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1290,10 +1296,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1316,52 +1322,56 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>242</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E2" s="1">
-        <v>43818</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>43916</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="G2" s="1">
-        <v>43916</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>243</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E3" s="1">
-        <v>43819</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>43916</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="G3" s="1">
-        <v>43910</v>
+        <v>44002</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E4" s="1">
         <v>43734</v>
@@ -1373,16 +1383,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E5" s="1">
         <v>43641</v>
@@ -1394,16 +1404,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E6" s="1">
         <v>43641</v>
@@ -1415,16 +1425,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E7" s="1">
         <v>43641</v>
@@ -1436,16 +1446,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E8" s="1">
         <v>43641</v>
@@ -1457,116 +1467,116 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>214</v>
+      <c r="D9" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="E9" s="1">
         <v>43800</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="G9" s="1">
-        <v>43910</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
       <c r="E10" s="1">
-        <v>43881</v>
+        <v>43916</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="1">
-        <v>43910</v>
-      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E11" s="1">
-        <v>43881</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>43563</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="G11" s="1">
-        <v>43910</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E12" s="1">
-        <v>43800</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>43818</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="G12" s="1">
-        <v>43910</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="1">
-        <v>43881</v>
+        <v>43916</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="1">
-        <v>43910</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E14" s="1">
         <v>43818</v>
@@ -1578,37 +1588,39 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>246</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E15" s="1">
-        <v>43881</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>43916</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="G15" s="1">
-        <v>43910</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E16" s="1">
         <v>43797</v>
@@ -1620,16 +1632,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E17" s="1">
         <v>43622</v>
@@ -1641,37 +1653,39 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E18" s="1">
-        <v>43622</v>
-      </c>
-      <c r="F18" s="3"/>
+        <v>43643</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="G18" s="1">
-        <v>43910</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E19" s="1">
         <v>43800</v>
@@ -1683,16 +1697,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E20" s="1">
         <v>43888</v>
@@ -1704,100 +1718,108 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>224</v>
+        <v>247</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="E21" s="1">
-        <v>43818</v>
-      </c>
-      <c r="F21" s="3"/>
+        <v>43916</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="G21" s="1">
-        <v>43916</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>67</v>
+        <v>248</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E22" s="1">
-        <v>43819</v>
-      </c>
-      <c r="F22" s="3"/>
+        <v>43916</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="G22" s="1">
-        <v>43917</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E23" s="1">
-        <v>43820</v>
-      </c>
-      <c r="F23" s="3"/>
+        <v>43916</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="G23" s="1">
-        <v>43918</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>73</v>
+        <v>250</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E24" s="1">
-        <v>43821</v>
-      </c>
-      <c r="F24" s="3"/>
+        <v>43916</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="G24" s="1">
-        <v>43919</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E25" s="1">
         <v>43734</v>
@@ -1809,37 +1831,39 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E26" s="1">
-        <v>43800</v>
-      </c>
-      <c r="F26" s="3"/>
+        <v>43916</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="G26" s="1">
-        <v>43831</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E27" s="1">
         <v>43831</v>
@@ -1854,16 +1878,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E28" s="1">
         <v>43909</v>
@@ -1875,16 +1899,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E29" s="1">
         <v>43800</v>
@@ -1896,16 +1920,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E30" s="1">
         <v>43709</v>
@@ -1917,16 +1941,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E31" s="1">
         <v>43734</v>
@@ -1938,16 +1962,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E32" s="1">
         <v>43800</v>
@@ -1959,16 +1983,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E33" s="1">
         <v>43647</v>
@@ -1979,16 +2003,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E34" s="1">
         <v>43800</v>
@@ -2000,16 +2024,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E35" s="1">
         <v>43800</v>
@@ -2021,16 +2045,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="E36" s="1">
         <v>43881</v>
@@ -2042,31 +2066,31 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E38" s="1">
         <v>43800</v>
@@ -2077,16 +2101,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E39" s="1">
         <v>43800</v>
@@ -2097,54 +2121,58 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="1">
-        <v>43881</v>
-      </c>
-      <c r="F40" s="3"/>
+        <v>43916</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="G40" s="1">
-        <v>43910</v>
+        <v>43941</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="1">
-        <v>43881</v>
-      </c>
-      <c r="F41" s="3"/>
+        <v>43916</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="G41" s="1">
-        <v>43910</v>
+        <v>43941</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E42" s="1">
         <v>43831</v>
@@ -2156,16 +2184,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E43" s="1">
         <v>43739</v>
@@ -2177,35 +2205,32 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="1">
-        <v>43525</v>
+        <v>43916</v>
       </c>
       <c r="F44" s="3"/>
-      <c r="G44" s="1">
-        <v>43910</v>
-      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E45" s="1">
         <v>43910</v>
@@ -2217,32 +2242,29 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="1">
-        <v>43881</v>
+        <v>43916</v>
       </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="1">
-        <v>43910</v>
-      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="1">
@@ -2255,13 +2277,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="1">
@@ -2274,13 +2296,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="1">
@@ -2293,13 +2315,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="1">
@@ -2312,69 +2334,73 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D51" s="2"/>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="1">
-        <v>43881</v>
-      </c>
-      <c r="F52" s="3"/>
+        <v>43916</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="G52" s="1">
-        <v>43910</v>
+        <v>43941</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>239</v>
+        <v>149</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>253</v>
       </c>
       <c r="E53" s="1">
-        <v>43881</v>
-      </c>
-      <c r="F53" s="3"/>
+        <v>43734</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="G53" s="1">
-        <v>43910</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E54" s="1">
         <v>43846</v>
@@ -2383,16 +2409,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E55" s="1">
         <v>43642</v>
@@ -2404,13 +2430,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="1">
@@ -2423,16 +2449,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E57" s="1">
         <v>43627</v>
@@ -2444,16 +2470,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E58" s="1">
         <v>43627</v>
@@ -2465,16 +2491,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B59" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E59" s="1">
         <v>43885</v>
@@ -2486,16 +2512,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E60" s="1">
         <v>43447</v>
@@ -2504,316 +2530,325 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B61" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E61" s="1">
-        <v>43551</v>
-      </c>
-      <c r="F61" s="3"/>
+        <v>43734</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="G61" s="1">
-        <v>43910</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B62" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="1">
-        <v>43551</v>
-      </c>
-      <c r="F62" s="3"/>
+        <v>43734</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="G62" s="1">
-        <v>43910</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B63" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E63" s="1">
-        <v>43881</v>
-      </c>
-      <c r="F63" s="3"/>
+        <v>43611</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="G63" s="1">
-        <v>43910</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B64" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E64" s="1">
-        <v>43881</v>
-      </c>
-      <c r="F64" s="3"/>
+        <v>43859</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="G64" s="1">
-        <v>43910</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B65" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="1">
-        <v>43881</v>
-      </c>
-      <c r="F65" s="3"/>
+        <v>43859</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="G65" s="1">
-        <v>43910</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B66" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="E66" s="1">
-        <v>43881</v>
-      </c>
-      <c r="F66" s="3"/>
+        <v>43831</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="G66" s="1">
-        <v>43910</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B67" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>250</v>
+        <v>189</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="E67" s="1">
-        <v>43881</v>
-      </c>
-      <c r="F67" s="3"/>
+        <v>43586</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="G67" s="1">
-        <v>43910</v>
+        <v>43952</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B68" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B69" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B70" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D70" s="6"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B71" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D71" s="6"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B72" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D72" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C27" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C30" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C32" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C33" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C37" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C38" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C39" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C40" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C41" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C42" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C43" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C48" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C52" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C53" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C54" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C55" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C56" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C57" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C58" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C59" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C60" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C61" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C66" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="C67" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="C68" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="C69" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C70" r:id="rId60" xr:uid="{E5AF1ECD-DA7F-486E-AA7F-FB8C293ADB5D}"/>
-    <hyperlink ref="C71" r:id="rId61" xr:uid="{676653C1-8836-45CB-A40D-15D90630C55C}"/>
-    <hyperlink ref="C72" r:id="rId62" xr:uid="{9BDEEB87-0B83-4E92-A3AC-F63C153F2527}"/>
-    <hyperlink ref="D2" r:id="rId63" xr:uid="{000756FE-F823-4E14-8C57-69805F8A3640}"/>
-    <hyperlink ref="D3" r:id="rId64" xr:uid="{E518ABA5-B748-49E1-BD75-6337B1D7FCD4}"/>
-    <hyperlink ref="D4" r:id="rId65" xr:uid="{BEFE3BEC-2C2A-4482-A552-C752C09E304B}"/>
-    <hyperlink ref="D5" r:id="rId66" xr:uid="{F1991EC4-F38D-4E9A-9A1A-EAF77C2EE9F9}"/>
-    <hyperlink ref="D6:D8" r:id="rId67" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{809B67E9-30E4-4D8E-B656-4BD47702ED4C}"/>
-    <hyperlink ref="D11" r:id="rId68" xr:uid="{1ECBBF49-A16E-4F91-BE2E-59404D18E3A4}"/>
-    <hyperlink ref="D12" r:id="rId69" xr:uid="{E0CC24A9-F0A5-42E2-B04A-FDDB3DB09777}"/>
-    <hyperlink ref="D14" r:id="rId70" xr:uid="{73765C9A-F184-4540-A93E-6406901A80AE}"/>
-    <hyperlink ref="D15" r:id="rId71" xr:uid="{D528CBFA-ED74-4DF9-8336-6384C5C26A83}"/>
-    <hyperlink ref="C16" r:id="rId72" xr:uid="{69AD8FE3-62BC-4A05-BD4F-2BDCAFFCACBC}"/>
-    <hyperlink ref="D16" r:id="rId73" xr:uid="{9F0DD206-6574-4F5D-A33C-83225B73FC97}"/>
-    <hyperlink ref="D17" r:id="rId74" xr:uid="{1F8C42EB-92FD-465B-B75F-BE840A156CAF}"/>
-    <hyperlink ref="D18" r:id="rId75" xr:uid="{233A0AAB-9433-40ED-909C-8401AC9F8631}"/>
-    <hyperlink ref="D19" r:id="rId76" xr:uid="{C6922B03-ABDA-4F81-9E51-AB3D324DEDAD}"/>
-    <hyperlink ref="D25" r:id="rId77" xr:uid="{64DD0C9B-20B2-45C0-A0AB-224D98BAB7F2}"/>
-    <hyperlink ref="D26" r:id="rId78" xr:uid="{4A9A504F-E588-44B5-A9FC-FFDA8F53CAC5}"/>
-    <hyperlink ref="D27" r:id="rId79" xr:uid="{C7F81546-B23F-40B9-87FB-16C65286EBC8}"/>
-    <hyperlink ref="D28" r:id="rId80" xr:uid="{3EF96C8A-860C-4CB4-804C-8DF1AE5E4FD0}"/>
-    <hyperlink ref="D29" r:id="rId81" xr:uid="{513C64E3-352E-4D10-AFDA-6107852F8D3C}"/>
-    <hyperlink ref="D30" r:id="rId82" xr:uid="{1A7306CC-8224-4D71-A0B2-1ABF78084BF7}"/>
-    <hyperlink ref="D31" r:id="rId83" xr:uid="{D456981E-31E6-41F2-93E8-33A16FF6AAF4}"/>
-    <hyperlink ref="D32" r:id="rId84" xr:uid="{DE57CF01-B039-41FA-AB92-7E5A91525BD7}"/>
-    <hyperlink ref="D33" r:id="rId85" xr:uid="{4BC65B76-1BBD-4707-82D3-1E8155C02F24}"/>
-    <hyperlink ref="D34" r:id="rId86" xr:uid="{11048E26-60A7-49BB-ADE9-6A8F952FF6D5}"/>
-    <hyperlink ref="D35" r:id="rId87" xr:uid="{FAFF6D7B-FFAA-4B23-BD00-A60E4A5EB951}"/>
-    <hyperlink ref="D36" r:id="rId88" xr:uid="{72A7FFAC-14E6-469E-B15D-E6CDD3A746F7}"/>
-    <hyperlink ref="D38" r:id="rId89" xr:uid="{52A1881D-22D6-46D5-BFDB-56850ADF011B}"/>
-    <hyperlink ref="D39" r:id="rId90" xr:uid="{741DF175-6D8D-4095-A5DB-CE1183575642}"/>
-    <hyperlink ref="D42" r:id="rId91" xr:uid="{A33D24EA-FEC6-4630-BECD-C197C479FA27}"/>
-    <hyperlink ref="D43" r:id="rId92" xr:uid="{1FBA70E7-AED5-4D87-8558-9D4B1EF27B15}"/>
-    <hyperlink ref="D55" r:id="rId93" xr:uid="{1D550716-D2BC-4843-BDFE-739A9073B001}"/>
-    <hyperlink ref="D54" r:id="rId94" xr:uid="{C99E6DDC-E999-42C9-843B-461CF0738BB8}"/>
-    <hyperlink ref="D57" r:id="rId95" xr:uid="{EFE08B90-E8E9-4F43-8ADC-B0EEE0FC39F3}"/>
-    <hyperlink ref="D58" r:id="rId96" xr:uid="{F88B014A-41FD-4E36-A187-C450CE5425B2}"/>
-    <hyperlink ref="D60" r:id="rId97" xr:uid="{D47564CB-9017-462E-9F47-3EDDE79884DA}"/>
-    <hyperlink ref="D61" r:id="rId98" xr:uid="{28F7A81F-AF31-4D6C-8C18-CAC0871251CD}"/>
-    <hyperlink ref="D63" r:id="rId99" xr:uid="{8F6CADE5-5A75-4A57-ABF4-D53DC9183F5A}"/>
-    <hyperlink ref="D64" r:id="rId100" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{2D181325-B7ED-45FD-A747-19924910FD34}"/>
-    <hyperlink ref="D66" r:id="rId101" xr:uid="{0D41A8BE-07EA-43AE-81EA-4D4BAFF9B846}"/>
-    <hyperlink ref="D23" r:id="rId102" xr:uid="{A531BAE6-7294-47B8-9B63-A00180A64192}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C20" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C25" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C29" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C30" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C31" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C32" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C33" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C34" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C35" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C37" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C38" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C39" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C40" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C41" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C42" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C43" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C44" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C45" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C46" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C47" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C48" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C49" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C50" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C51" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C52" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C53" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C54" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C55" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C56" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C57" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C58" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C59" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C60" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C61" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C66" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C69" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C70" r:id="rId52" xr:uid="{E5AF1ECD-DA7F-486E-AA7F-FB8C293ADB5D}"/>
+    <hyperlink ref="C71" r:id="rId53" xr:uid="{676653C1-8836-45CB-A40D-15D90630C55C}"/>
+    <hyperlink ref="C72" r:id="rId54" xr:uid="{9BDEEB87-0B83-4E92-A3AC-F63C153F2527}"/>
+    <hyperlink ref="D2" r:id="rId55" xr:uid="{000756FE-F823-4E14-8C57-69805F8A3640}"/>
+    <hyperlink ref="D3" r:id="rId56" xr:uid="{E518ABA5-B748-49E1-BD75-6337B1D7FCD4}"/>
+    <hyperlink ref="D4" r:id="rId57" xr:uid="{BEFE3BEC-2C2A-4482-A552-C752C09E304B}"/>
+    <hyperlink ref="D5" r:id="rId58" xr:uid="{F1991EC4-F38D-4E9A-9A1A-EAF77C2EE9F9}"/>
+    <hyperlink ref="D6:D8" r:id="rId59" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{809B67E9-30E4-4D8E-B656-4BD47702ED4C}"/>
+    <hyperlink ref="D11" r:id="rId60" xr:uid="{1ECBBF49-A16E-4F91-BE2E-59404D18E3A4}"/>
+    <hyperlink ref="D14" r:id="rId61" xr:uid="{73765C9A-F184-4540-A93E-6406901A80AE}"/>
+    <hyperlink ref="D15" r:id="rId62" xr:uid="{D528CBFA-ED74-4DF9-8336-6384C5C26A83}"/>
+    <hyperlink ref="C16" r:id="rId63" xr:uid="{69AD8FE3-62BC-4A05-BD4F-2BDCAFFCACBC}"/>
+    <hyperlink ref="D16" r:id="rId64" xr:uid="{9F0DD206-6574-4F5D-A33C-83225B73FC97}"/>
+    <hyperlink ref="D17" r:id="rId65" xr:uid="{1F8C42EB-92FD-465B-B75F-BE840A156CAF}"/>
+    <hyperlink ref="D18" r:id="rId66" xr:uid="{233A0AAB-9433-40ED-909C-8401AC9F8631}"/>
+    <hyperlink ref="D19" r:id="rId67" xr:uid="{C6922B03-ABDA-4F81-9E51-AB3D324DEDAD}"/>
+    <hyperlink ref="D25" r:id="rId68" xr:uid="{64DD0C9B-20B2-45C0-A0AB-224D98BAB7F2}"/>
+    <hyperlink ref="D26" r:id="rId69" xr:uid="{4A9A504F-E588-44B5-A9FC-FFDA8F53CAC5}"/>
+    <hyperlink ref="D27" r:id="rId70" xr:uid="{C7F81546-B23F-40B9-87FB-16C65286EBC8}"/>
+    <hyperlink ref="D28" r:id="rId71" xr:uid="{3EF96C8A-860C-4CB4-804C-8DF1AE5E4FD0}"/>
+    <hyperlink ref="D29" r:id="rId72" xr:uid="{513C64E3-352E-4D10-AFDA-6107852F8D3C}"/>
+    <hyperlink ref="D30" r:id="rId73" xr:uid="{1A7306CC-8224-4D71-A0B2-1ABF78084BF7}"/>
+    <hyperlink ref="D31" r:id="rId74" xr:uid="{D456981E-31E6-41F2-93E8-33A16FF6AAF4}"/>
+    <hyperlink ref="D32" r:id="rId75" xr:uid="{DE57CF01-B039-41FA-AB92-7E5A91525BD7}"/>
+    <hyperlink ref="D33" r:id="rId76" xr:uid="{4BC65B76-1BBD-4707-82D3-1E8155C02F24}"/>
+    <hyperlink ref="D34" r:id="rId77" xr:uid="{11048E26-60A7-49BB-ADE9-6A8F952FF6D5}"/>
+    <hyperlink ref="D35" r:id="rId78" xr:uid="{FAFF6D7B-FFAA-4B23-BD00-A60E4A5EB951}"/>
+    <hyperlink ref="D36" r:id="rId79" xr:uid="{72A7FFAC-14E6-469E-B15D-E6CDD3A746F7}"/>
+    <hyperlink ref="D38" r:id="rId80" xr:uid="{52A1881D-22D6-46D5-BFDB-56850ADF011B}"/>
+    <hyperlink ref="D39" r:id="rId81" xr:uid="{741DF175-6D8D-4095-A5DB-CE1183575642}"/>
+    <hyperlink ref="D42" r:id="rId82" xr:uid="{A33D24EA-FEC6-4630-BECD-C197C479FA27}"/>
+    <hyperlink ref="D43" r:id="rId83" xr:uid="{1FBA70E7-AED5-4D87-8558-9D4B1EF27B15}"/>
+    <hyperlink ref="D55" r:id="rId84" xr:uid="{1D550716-D2BC-4843-BDFE-739A9073B001}"/>
+    <hyperlink ref="D54" r:id="rId85" xr:uid="{C99E6DDC-E999-42C9-843B-461CF0738BB8}"/>
+    <hyperlink ref="D57" r:id="rId86" xr:uid="{EFE08B90-E8E9-4F43-8ADC-B0EEE0FC39F3}"/>
+    <hyperlink ref="D58" r:id="rId87" xr:uid="{F88B014A-41FD-4E36-A187-C450CE5425B2}"/>
+    <hyperlink ref="D60" r:id="rId88" xr:uid="{D47564CB-9017-462E-9F47-3EDDE79884DA}"/>
+    <hyperlink ref="D61" r:id="rId89" xr:uid="{28F7A81F-AF31-4D6C-8C18-CAC0871251CD}"/>
+    <hyperlink ref="D63" r:id="rId90" xr:uid="{8F6CADE5-5A75-4A57-ABF4-D53DC9183F5A}"/>
+    <hyperlink ref="D64" r:id="rId91" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{2D181325-B7ED-45FD-A747-19924910FD34}"/>
+    <hyperlink ref="D66" r:id="rId92" xr:uid="{0D41A8BE-07EA-43AE-81EA-4D4BAFF9B846}"/>
+    <hyperlink ref="D23" r:id="rId93" xr:uid="{A531BAE6-7294-47B8-9B63-A00180A64192}"/>
+    <hyperlink ref="D9" r:id="rId94" xr:uid="{CCA4C108-6B16-4083-B101-FCE255244EE0}"/>
+    <hyperlink ref="D21" r:id="rId95" xr:uid="{E37A74A9-D10A-4E9D-BFD2-16931D8BD011}"/>
+    <hyperlink ref="D53" r:id="rId96" xr:uid="{42BAA251-8890-41FF-A9DB-A1BD747623C9}"/>
+    <hyperlink ref="D67" r:id="rId97" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{E8C0FEFE-D7E5-4C5D-A7D6-8A455DE83B12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId103"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId98"/>
   <tableParts count="1">
-    <tablePart r:id="rId104"/>
+    <tablePart r:id="rId99"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_506012E395FA7DDD8D792AFF9F2785B63A21DED6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8CF346A6-45E2-4B81-B547-9D38E70E1549}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_506012E395FA7DDD8D792AFF9F2785B63A21DED6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7B9D1C46-1D8F-4C8E-A439-E08B39AABE48}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="18510" yWindow="8470" windowWidth="10800" windowHeight="5700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="252">
   <si>
     <t>Code</t>
   </si>
@@ -613,12 +613,6 @@
   </si>
   <si>
     <t>https://www.ofgem.gov.uk/</t>
-  </si>
-  <si>
-    <t>BEISRenFuel</t>
-  </si>
-  <si>
-    <t>BEIS: Renewable fuel statistics</t>
   </si>
   <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/863631/2019-third-provisional-rf-01-rtfo-tables.ods</t>
@@ -957,8 +951,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F749F361-49C4-4B0A-A4C3-B5B7F0C6E28B}" name="Table1" displayName="Table1" ref="A1:H72" totalsRowShown="0">
-  <autoFilter ref="A1:H72" xr:uid="{BBCD3624-7D7A-4AAD-80D9-FA4730FEF2DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F749F361-49C4-4B0A-A4C3-B5B7F0C6E28B}" name="Table1" displayName="Table1" ref="A1:H71" totalsRowShown="0">
+  <autoFilter ref="A1:H71" xr:uid="{BBCD3624-7D7A-4AAD-80D9-FA4730FEF2DC}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{043AAD27-37EC-46FF-85F6-AC085210A45F}" name="Code"/>
     <tableColumn id="2" xr3:uid="{CBEBEE0A-FFBC-4823-A4A5-B04E8700FEBF}" name="Source"/>
@@ -1270,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1296,10 +1290,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1322,16 +1316,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E2" s="1">
         <v>43916</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G2" s="1">
         <v>44008</v>
@@ -1345,16 +1339,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E3" s="1">
         <v>43916</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G3" s="1">
         <v>44002</v>
@@ -1371,7 +1365,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E4" s="1">
         <v>43734</v>
@@ -1392,7 +1386,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E5" s="1">
         <v>43641</v>
@@ -1413,7 +1407,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E6" s="1">
         <v>43641</v>
@@ -1434,7 +1428,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E7" s="1">
         <v>43641</v>
@@ -1455,7 +1449,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E8" s="1">
         <v>43641</v>
@@ -1476,13 +1470,13 @@
         <v>27</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E9" s="1">
         <v>43800</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G9" s="1">
         <v>44166</v>
@@ -1514,13 +1508,13 @@
         <v>33</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E11" s="1">
         <v>43563</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G11" s="1">
         <v>43929</v>
@@ -1537,13 +1531,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E12" s="1">
         <v>43818</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G12" s="1">
         <v>44166</v>
@@ -1576,7 +1570,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E14" s="1">
         <v>43818</v>
@@ -1594,16 +1588,16 @@
         <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E15" s="1">
         <v>43916</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G15" s="1">
         <v>43983</v>
@@ -1620,7 +1614,7 @@
         <v>46</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E16" s="1">
         <v>43797</v>
@@ -1641,7 +1635,7 @@
         <v>49</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E17" s="1">
         <v>43622</v>
@@ -1662,13 +1656,13 @@
         <v>52</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E18" s="1">
         <v>43643</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G18" s="1">
         <v>43983</v>
@@ -1685,7 +1679,7 @@
         <v>55</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E19" s="1">
         <v>43800</v>
@@ -1706,7 +1700,7 @@
         <v>58</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E20" s="1">
         <v>43888</v>
@@ -1724,16 +1718,16 @@
         <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E21" s="1">
         <v>43916</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G21" s="1">
         <v>43988</v>
@@ -1747,16 +1741,16 @@
         <v>62</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E22" s="1">
         <v>43916</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G22" s="1">
         <v>43988</v>
@@ -1770,16 +1764,16 @@
         <v>64</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E23" s="1">
         <v>43916</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G23" s="1">
         <v>43988</v>
@@ -1793,16 +1787,16 @@
         <v>66</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E24" s="1">
         <v>43916</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G24" s="1">
         <v>43988</v>
@@ -1819,7 +1813,7 @@
         <v>69</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E25" s="1">
         <v>43734</v>
@@ -1837,16 +1831,16 @@
         <v>71</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E26" s="1">
         <v>43916</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G26" s="1">
         <v>43988</v>
@@ -1863,7 +1857,7 @@
         <v>74</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E27" s="1">
         <v>43831</v>
@@ -1884,10 +1878,10 @@
         <v>76</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E28" s="1">
         <v>43909</v>
@@ -1908,7 +1902,7 @@
         <v>79</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E29" s="1">
         <v>43800</v>
@@ -1929,7 +1923,7 @@
         <v>82</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E30" s="1">
         <v>43709</v>
@@ -1950,7 +1944,7 @@
         <v>85</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E31" s="1">
         <v>43734</v>
@@ -1971,7 +1965,7 @@
         <v>36</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E32" s="1">
         <v>43800</v>
@@ -1992,7 +1986,7 @@
         <v>90</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E33" s="1">
         <v>43647</v>
@@ -2012,7 +2006,7 @@
         <v>93</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E34" s="1">
         <v>43800</v>
@@ -2033,7 +2027,7 @@
         <v>96</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E35" s="1">
         <v>43800</v>
@@ -2054,7 +2048,7 @@
         <v>99</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E36" s="1">
         <v>43881</v>
@@ -2075,7 +2069,7 @@
         <v>102</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F37" s="3"/>
     </row>
@@ -2090,7 +2084,7 @@
         <v>105</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E38" s="1">
         <v>43800</v>
@@ -2110,7 +2104,7 @@
         <v>108</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E39" s="1">
         <v>43800</v>
@@ -2134,7 +2128,7 @@
         <v>43916</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G40" s="1">
         <v>43941</v>
@@ -2155,7 +2149,7 @@
         <v>43916</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G41" s="1">
         <v>43941</v>
@@ -2172,7 +2166,7 @@
         <v>117</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E42" s="1">
         <v>43831</v>
@@ -2193,7 +2187,7 @@
         <v>120</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E43" s="1">
         <v>43739</v>
@@ -2230,7 +2224,7 @@
         <v>126</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E45" s="1">
         <v>43910</v>
@@ -2360,7 +2354,7 @@
         <v>43916</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G52" s="1">
         <v>43941</v>
@@ -2377,13 +2371,13 @@
         <v>149</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E53" s="1">
         <v>43734</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G53" s="1">
         <v>44100</v>
@@ -2400,7 +2394,7 @@
         <v>152</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E54" s="1">
         <v>43846</v>
@@ -2418,7 +2412,7 @@
         <v>155</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E55" s="1">
         <v>43642</v>
@@ -2458,7 +2452,7 @@
         <v>161</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E57" s="1">
         <v>43627</v>
@@ -2479,7 +2473,7 @@
         <v>164</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E58" s="1">
         <v>43627</v>
@@ -2497,10 +2491,10 @@
         <v>166</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E59" s="1">
         <v>43885</v>
@@ -2521,7 +2515,7 @@
         <v>169</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E60" s="1">
         <v>43447</v>
@@ -2539,13 +2533,13 @@
         <v>172</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E61" s="1">
         <v>43734</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G61" s="1">
         <v>44100</v>
@@ -2566,7 +2560,7 @@
         <v>43734</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G62" s="1">
         <v>44100</v>
@@ -2583,13 +2577,13 @@
         <v>178</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E63" s="1">
         <v>43611</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G63" s="1">
         <v>43977</v>
@@ -2606,13 +2600,13 @@
         <v>181</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E64" s="1">
         <v>43859</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G64" s="1">
         <v>43950</v>
@@ -2633,7 +2627,7 @@
         <v>43859</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G65" s="1">
         <v>43950</v>
@@ -2650,13 +2644,13 @@
         <v>186</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E66" s="1">
         <v>43831</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G66" s="1">
         <v>44197</v>
@@ -2673,13 +2667,13 @@
         <v>189</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E67" s="1">
         <v>43586</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G67" s="1">
         <v>43952</v>
@@ -2711,13 +2705,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>195</v>
+      </c>
+      <c r="B70" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="B70" t="s">
-        <v>195</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="D70" s="6"/>
     </row>
@@ -2729,21 +2723,9 @@
         <v>198</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="D71" s="6"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>199</v>
-      </c>
-      <c r="B72" t="s">
-        <v>200</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D72" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2798,57 +2780,56 @@
     <hyperlink ref="C67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="C68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
     <hyperlink ref="C69" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C70" r:id="rId52" xr:uid="{E5AF1ECD-DA7F-486E-AA7F-FB8C293ADB5D}"/>
-    <hyperlink ref="C71" r:id="rId53" xr:uid="{676653C1-8836-45CB-A40D-15D90630C55C}"/>
-    <hyperlink ref="C72" r:id="rId54" xr:uid="{9BDEEB87-0B83-4E92-A3AC-F63C153F2527}"/>
-    <hyperlink ref="D2" r:id="rId55" xr:uid="{000756FE-F823-4E14-8C57-69805F8A3640}"/>
-    <hyperlink ref="D3" r:id="rId56" xr:uid="{E518ABA5-B748-49E1-BD75-6337B1D7FCD4}"/>
-    <hyperlink ref="D4" r:id="rId57" xr:uid="{BEFE3BEC-2C2A-4482-A552-C752C09E304B}"/>
-    <hyperlink ref="D5" r:id="rId58" xr:uid="{F1991EC4-F38D-4E9A-9A1A-EAF77C2EE9F9}"/>
-    <hyperlink ref="D6:D8" r:id="rId59" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{809B67E9-30E4-4D8E-B656-4BD47702ED4C}"/>
-    <hyperlink ref="D11" r:id="rId60" xr:uid="{1ECBBF49-A16E-4F91-BE2E-59404D18E3A4}"/>
-    <hyperlink ref="D14" r:id="rId61" xr:uid="{73765C9A-F184-4540-A93E-6406901A80AE}"/>
-    <hyperlink ref="D15" r:id="rId62" xr:uid="{D528CBFA-ED74-4DF9-8336-6384C5C26A83}"/>
-    <hyperlink ref="C16" r:id="rId63" xr:uid="{69AD8FE3-62BC-4A05-BD4F-2BDCAFFCACBC}"/>
-    <hyperlink ref="D16" r:id="rId64" xr:uid="{9F0DD206-6574-4F5D-A33C-83225B73FC97}"/>
-    <hyperlink ref="D17" r:id="rId65" xr:uid="{1F8C42EB-92FD-465B-B75F-BE840A156CAF}"/>
-    <hyperlink ref="D18" r:id="rId66" xr:uid="{233A0AAB-9433-40ED-909C-8401AC9F8631}"/>
-    <hyperlink ref="D19" r:id="rId67" xr:uid="{C6922B03-ABDA-4F81-9E51-AB3D324DEDAD}"/>
-    <hyperlink ref="D25" r:id="rId68" xr:uid="{64DD0C9B-20B2-45C0-A0AB-224D98BAB7F2}"/>
-    <hyperlink ref="D26" r:id="rId69" xr:uid="{4A9A504F-E588-44B5-A9FC-FFDA8F53CAC5}"/>
-    <hyperlink ref="D27" r:id="rId70" xr:uid="{C7F81546-B23F-40B9-87FB-16C65286EBC8}"/>
-    <hyperlink ref="D28" r:id="rId71" xr:uid="{3EF96C8A-860C-4CB4-804C-8DF1AE5E4FD0}"/>
-    <hyperlink ref="D29" r:id="rId72" xr:uid="{513C64E3-352E-4D10-AFDA-6107852F8D3C}"/>
-    <hyperlink ref="D30" r:id="rId73" xr:uid="{1A7306CC-8224-4D71-A0B2-1ABF78084BF7}"/>
-    <hyperlink ref="D31" r:id="rId74" xr:uid="{D456981E-31E6-41F2-93E8-33A16FF6AAF4}"/>
-    <hyperlink ref="D32" r:id="rId75" xr:uid="{DE57CF01-B039-41FA-AB92-7E5A91525BD7}"/>
-    <hyperlink ref="D33" r:id="rId76" xr:uid="{4BC65B76-1BBD-4707-82D3-1E8155C02F24}"/>
-    <hyperlink ref="D34" r:id="rId77" xr:uid="{11048E26-60A7-49BB-ADE9-6A8F952FF6D5}"/>
-    <hyperlink ref="D35" r:id="rId78" xr:uid="{FAFF6D7B-FFAA-4B23-BD00-A60E4A5EB951}"/>
-    <hyperlink ref="D36" r:id="rId79" xr:uid="{72A7FFAC-14E6-469E-B15D-E6CDD3A746F7}"/>
-    <hyperlink ref="D38" r:id="rId80" xr:uid="{52A1881D-22D6-46D5-BFDB-56850ADF011B}"/>
-    <hyperlink ref="D39" r:id="rId81" xr:uid="{741DF175-6D8D-4095-A5DB-CE1183575642}"/>
-    <hyperlink ref="D42" r:id="rId82" xr:uid="{A33D24EA-FEC6-4630-BECD-C197C479FA27}"/>
-    <hyperlink ref="D43" r:id="rId83" xr:uid="{1FBA70E7-AED5-4D87-8558-9D4B1EF27B15}"/>
-    <hyperlink ref="D55" r:id="rId84" xr:uid="{1D550716-D2BC-4843-BDFE-739A9073B001}"/>
-    <hyperlink ref="D54" r:id="rId85" xr:uid="{C99E6DDC-E999-42C9-843B-461CF0738BB8}"/>
-    <hyperlink ref="D57" r:id="rId86" xr:uid="{EFE08B90-E8E9-4F43-8ADC-B0EEE0FC39F3}"/>
-    <hyperlink ref="D58" r:id="rId87" xr:uid="{F88B014A-41FD-4E36-A187-C450CE5425B2}"/>
-    <hyperlink ref="D60" r:id="rId88" xr:uid="{D47564CB-9017-462E-9F47-3EDDE79884DA}"/>
-    <hyperlink ref="D61" r:id="rId89" xr:uid="{28F7A81F-AF31-4D6C-8C18-CAC0871251CD}"/>
-    <hyperlink ref="D63" r:id="rId90" xr:uid="{8F6CADE5-5A75-4A57-ABF4-D53DC9183F5A}"/>
-    <hyperlink ref="D64" r:id="rId91" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{2D181325-B7ED-45FD-A747-19924910FD34}"/>
-    <hyperlink ref="D66" r:id="rId92" xr:uid="{0D41A8BE-07EA-43AE-81EA-4D4BAFF9B846}"/>
-    <hyperlink ref="D23" r:id="rId93" xr:uid="{A531BAE6-7294-47B8-9B63-A00180A64192}"/>
-    <hyperlink ref="D9" r:id="rId94" xr:uid="{CCA4C108-6B16-4083-B101-FCE255244EE0}"/>
-    <hyperlink ref="D21" r:id="rId95" xr:uid="{E37A74A9-D10A-4E9D-BFD2-16931D8BD011}"/>
-    <hyperlink ref="D53" r:id="rId96" xr:uid="{42BAA251-8890-41FF-A9DB-A1BD747623C9}"/>
-    <hyperlink ref="D67" r:id="rId97" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{E8C0FEFE-D7E5-4C5D-A7D6-8A455DE83B12}"/>
+    <hyperlink ref="C70" r:id="rId52" xr:uid="{676653C1-8836-45CB-A40D-15D90630C55C}"/>
+    <hyperlink ref="C71" r:id="rId53" xr:uid="{9BDEEB87-0B83-4E92-A3AC-F63C153F2527}"/>
+    <hyperlink ref="D2" r:id="rId54" xr:uid="{000756FE-F823-4E14-8C57-69805F8A3640}"/>
+    <hyperlink ref="D3" r:id="rId55" xr:uid="{E518ABA5-B748-49E1-BD75-6337B1D7FCD4}"/>
+    <hyperlink ref="D4" r:id="rId56" xr:uid="{BEFE3BEC-2C2A-4482-A552-C752C09E304B}"/>
+    <hyperlink ref="D5" r:id="rId57" xr:uid="{F1991EC4-F38D-4E9A-9A1A-EAF77C2EE9F9}"/>
+    <hyperlink ref="D6:D8" r:id="rId58" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{809B67E9-30E4-4D8E-B656-4BD47702ED4C}"/>
+    <hyperlink ref="D11" r:id="rId59" xr:uid="{1ECBBF49-A16E-4F91-BE2E-59404D18E3A4}"/>
+    <hyperlink ref="D14" r:id="rId60" xr:uid="{73765C9A-F184-4540-A93E-6406901A80AE}"/>
+    <hyperlink ref="D15" r:id="rId61" xr:uid="{D528CBFA-ED74-4DF9-8336-6384C5C26A83}"/>
+    <hyperlink ref="C16" r:id="rId62" xr:uid="{69AD8FE3-62BC-4A05-BD4F-2BDCAFFCACBC}"/>
+    <hyperlink ref="D16" r:id="rId63" xr:uid="{9F0DD206-6574-4F5D-A33C-83225B73FC97}"/>
+    <hyperlink ref="D17" r:id="rId64" xr:uid="{1F8C42EB-92FD-465B-B75F-BE840A156CAF}"/>
+    <hyperlink ref="D18" r:id="rId65" xr:uid="{233A0AAB-9433-40ED-909C-8401AC9F8631}"/>
+    <hyperlink ref="D19" r:id="rId66" xr:uid="{C6922B03-ABDA-4F81-9E51-AB3D324DEDAD}"/>
+    <hyperlink ref="D25" r:id="rId67" xr:uid="{64DD0C9B-20B2-45C0-A0AB-224D98BAB7F2}"/>
+    <hyperlink ref="D26" r:id="rId68" xr:uid="{4A9A504F-E588-44B5-A9FC-FFDA8F53CAC5}"/>
+    <hyperlink ref="D27" r:id="rId69" xr:uid="{C7F81546-B23F-40B9-87FB-16C65286EBC8}"/>
+    <hyperlink ref="D28" r:id="rId70" xr:uid="{3EF96C8A-860C-4CB4-804C-8DF1AE5E4FD0}"/>
+    <hyperlink ref="D29" r:id="rId71" xr:uid="{513C64E3-352E-4D10-AFDA-6107852F8D3C}"/>
+    <hyperlink ref="D30" r:id="rId72" xr:uid="{1A7306CC-8224-4D71-A0B2-1ABF78084BF7}"/>
+    <hyperlink ref="D31" r:id="rId73" xr:uid="{D456981E-31E6-41F2-93E8-33A16FF6AAF4}"/>
+    <hyperlink ref="D32" r:id="rId74" xr:uid="{DE57CF01-B039-41FA-AB92-7E5A91525BD7}"/>
+    <hyperlink ref="D33" r:id="rId75" xr:uid="{4BC65B76-1BBD-4707-82D3-1E8155C02F24}"/>
+    <hyperlink ref="D34" r:id="rId76" xr:uid="{11048E26-60A7-49BB-ADE9-6A8F952FF6D5}"/>
+    <hyperlink ref="D35" r:id="rId77" xr:uid="{FAFF6D7B-FFAA-4B23-BD00-A60E4A5EB951}"/>
+    <hyperlink ref="D36" r:id="rId78" xr:uid="{72A7FFAC-14E6-469E-B15D-E6CDD3A746F7}"/>
+    <hyperlink ref="D38" r:id="rId79" xr:uid="{52A1881D-22D6-46D5-BFDB-56850ADF011B}"/>
+    <hyperlink ref="D39" r:id="rId80" xr:uid="{741DF175-6D8D-4095-A5DB-CE1183575642}"/>
+    <hyperlink ref="D42" r:id="rId81" xr:uid="{A33D24EA-FEC6-4630-BECD-C197C479FA27}"/>
+    <hyperlink ref="D43" r:id="rId82" xr:uid="{1FBA70E7-AED5-4D87-8558-9D4B1EF27B15}"/>
+    <hyperlink ref="D55" r:id="rId83" xr:uid="{1D550716-D2BC-4843-BDFE-739A9073B001}"/>
+    <hyperlink ref="D54" r:id="rId84" xr:uid="{C99E6DDC-E999-42C9-843B-461CF0738BB8}"/>
+    <hyperlink ref="D57" r:id="rId85" xr:uid="{EFE08B90-E8E9-4F43-8ADC-B0EEE0FC39F3}"/>
+    <hyperlink ref="D58" r:id="rId86" xr:uid="{F88B014A-41FD-4E36-A187-C450CE5425B2}"/>
+    <hyperlink ref="D60" r:id="rId87" xr:uid="{D47564CB-9017-462E-9F47-3EDDE79884DA}"/>
+    <hyperlink ref="D61" r:id="rId88" xr:uid="{28F7A81F-AF31-4D6C-8C18-CAC0871251CD}"/>
+    <hyperlink ref="D63" r:id="rId89" xr:uid="{8F6CADE5-5A75-4A57-ABF4-D53DC9183F5A}"/>
+    <hyperlink ref="D64" r:id="rId90" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{2D181325-B7ED-45FD-A747-19924910FD34}"/>
+    <hyperlink ref="D66" r:id="rId91" xr:uid="{0D41A8BE-07EA-43AE-81EA-4D4BAFF9B846}"/>
+    <hyperlink ref="D23" r:id="rId92" xr:uid="{A531BAE6-7294-47B8-9B63-A00180A64192}"/>
+    <hyperlink ref="D9" r:id="rId93" xr:uid="{CCA4C108-6B16-4083-B101-FCE255244EE0}"/>
+    <hyperlink ref="D21" r:id="rId94" xr:uid="{E37A74A9-D10A-4E9D-BFD2-16931D8BD011}"/>
+    <hyperlink ref="D53" r:id="rId95" xr:uid="{42BAA251-8890-41FF-A9DB-A1BD747623C9}"/>
+    <hyperlink ref="D67" r:id="rId96" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{E8C0FEFE-D7E5-4C5D-A7D6-8A455DE83B12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId98"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId97"/>
   <tableParts count="1">
-    <tablePart r:id="rId99"/>
+    <tablePart r:id="rId98"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_506012E395FA7DDD8D792AFF9F2785B63A21DED6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7B9D1C46-1D8F-4C8E-A439-E08B39AABE48}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_506012E395FA7DDD8D792AFF9F2785B63A21DED6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E5FCB69C-C424-4268-A1B5-CB6DF75EFAD7}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="18510" yWindow="8470" windowWidth="10800" windowHeight="5700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="255">
   <si>
     <t>Code</t>
   </si>
@@ -787,6 +787,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://oilandgasuk.co.uk/product/workforce-report/ </t>
+  </si>
+  <si>
+    <t>SGNonDomBase</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/publications/scotlands-non-domestic-energy-efficiency-baseline/</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true</t>
   </si>
 </sst>
 </file>
@@ -951,8 +960,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F749F361-49C4-4B0A-A4C3-B5B7F0C6E28B}" name="Table1" displayName="Table1" ref="A1:H71" totalsRowShown="0">
-  <autoFilter ref="A1:H71" xr:uid="{BBCD3624-7D7A-4AAD-80D9-FA4730FEF2DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F749F361-49C4-4B0A-A4C3-B5B7F0C6E28B}" name="Table1" displayName="Table1" ref="A1:H72" totalsRowShown="0">
+  <autoFilter ref="A1:H72" xr:uid="{BBCD3624-7D7A-4AAD-80D9-FA4730FEF2DC}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{043AAD27-37EC-46FF-85F6-AC085210A45F}" name="Code"/>
     <tableColumn id="2" xr3:uid="{CBEBEE0A-FFBC-4823-A4A5-B04E8700FEBF}" name="Source"/>
@@ -1264,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:XFD70"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2726,6 +2735,23 @@
         <v>172</v>
       </c>
       <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>252</v>
+      </c>
+      <c r="B72" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E72" s="1">
+        <v>43435</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2825,11 +2851,13 @@
     <hyperlink ref="D21" r:id="rId94" xr:uid="{E37A74A9-D10A-4E9D-BFD2-16931D8BD011}"/>
     <hyperlink ref="D53" r:id="rId95" xr:uid="{42BAA251-8890-41FF-A9DB-A1BD747623C9}"/>
     <hyperlink ref="D67" r:id="rId96" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{E8C0FEFE-D7E5-4C5D-A7D6-8A455DE83B12}"/>
+    <hyperlink ref="D72" r:id="rId97" xr:uid="{DB5994E8-414D-4604-9E1A-703E6BF99393}"/>
+    <hyperlink ref="C72" r:id="rId98" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{64A39A22-50C6-42B0-88E4-9EE9994E3AD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId97"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId99"/>
   <tableParts count="1">
-    <tablePart r:id="rId98"/>
+    <tablePart r:id="rId100"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_506012E395FA7DDD8D792AFF9F2785B63A21DED6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E5FCB69C-C424-4268-A1B5-CB6DF75EFAD7}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_506012E395FA7DDD8D792AFF9F2785B63A21DED6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{09B9ACB7-5379-4845-AD8B-81AD4CA654ED}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="258">
   <si>
     <t>Code</t>
   </si>
@@ -796,6 +796,15 @@
   </si>
   <si>
     <t>https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true</t>
+  </si>
+  <si>
+    <t>OfgemVulnerability</t>
+  </si>
+  <si>
+    <t>Ofgem: Vulnerable consumers in the energy market</t>
+  </si>
+  <si>
+    <t>https://www.ofgem.gov.uk/system/files/docs/2018/11/vulnerability_report_2018.pdf</t>
   </si>
 </sst>
 </file>
@@ -960,8 +969,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F749F361-49C4-4B0A-A4C3-B5B7F0C6E28B}" name="Table1" displayName="Table1" ref="A1:H72" totalsRowShown="0">
-  <autoFilter ref="A1:H72" xr:uid="{BBCD3624-7D7A-4AAD-80D9-FA4730FEF2DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F749F361-49C4-4B0A-A4C3-B5B7F0C6E28B}" name="Table1" displayName="Table1" ref="A1:H73" totalsRowShown="0">
+  <autoFilter ref="A1:H73" xr:uid="{BBCD3624-7D7A-4AAD-80D9-FA4730FEF2DC}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{043AAD27-37EC-46FF-85F6-AC085210A45F}" name="Code"/>
     <tableColumn id="2" xr3:uid="{CBEBEE0A-FFBC-4823-A4A5-B04E8700FEBF}" name="Source"/>
@@ -1273,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2751,6 +2760,20 @@
       </c>
       <c r="E72" s="1">
         <v>43435</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>255</v>
+      </c>
+      <c r="B73" t="s">
+        <v>256</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2853,11 +2876,12 @@
     <hyperlink ref="D67" r:id="rId96" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{E8C0FEFE-D7E5-4C5D-A7D6-8A455DE83B12}"/>
     <hyperlink ref="D72" r:id="rId97" xr:uid="{DB5994E8-414D-4604-9E1A-703E6BF99393}"/>
     <hyperlink ref="C72" r:id="rId98" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{64A39A22-50C6-42B0-88E4-9EE9994E3AD2}"/>
+    <hyperlink ref="C73" r:id="rId99" xr:uid="{EC022946-57AA-4AE9-8D75-AE540EFF2377}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId99"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId100"/>
   <tableParts count="1">
-    <tablePart r:id="rId100"/>
+    <tablePart r:id="rId101"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_506012E395FA7DDD8D792AFF9F2785B63A21DED6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{09B9ACB7-5379-4845-AD8B-81AD4CA654ED}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_506012E395FA7DDD8D792AFF9F2785B63A21DED6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0FE4055A-969D-4B8B-99F4-FDEFD13C01B0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="261">
   <si>
     <t>Code</t>
   </si>
@@ -805,6 +805,15 @@
   </si>
   <si>
     <t>https://www.ofgem.gov.uk/system/files/docs/2018/11/vulnerability_report_2018.pdf</t>
+  </si>
+  <si>
+    <t>NGTen</t>
+  </si>
+  <si>
+    <t>National Grid: Electricity Ten Year Statement</t>
+  </si>
+  <si>
+    <t>https://www.nationalgrideso.com/document/157451/download</t>
   </si>
 </sst>
 </file>
@@ -969,8 +978,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F749F361-49C4-4B0A-A4C3-B5B7F0C6E28B}" name="Table1" displayName="Table1" ref="A1:H73" totalsRowShown="0">
-  <autoFilter ref="A1:H73" xr:uid="{BBCD3624-7D7A-4AAD-80D9-FA4730FEF2DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F749F361-49C4-4B0A-A4C3-B5B7F0C6E28B}" name="Table1" displayName="Table1" ref="A1:H74" totalsRowShown="0">
+  <autoFilter ref="A1:H74" xr:uid="{BBCD3624-7D7A-4AAD-80D9-FA4730FEF2DC}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{043AAD27-37EC-46FF-85F6-AC085210A45F}" name="Code"/>
     <tableColumn id="2" xr3:uid="{CBEBEE0A-FFBC-4823-A4A5-B04E8700FEBF}" name="Source"/>
@@ -1282,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2308,187 +2317,179 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>258</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="1">
-        <v>43891</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D49" s="7"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="1">
-        <v>43922</v>
-      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="1">
-        <v>43634</v>
+        <v>43891</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="1">
-        <v>44000</v>
+        <v>43922</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D51" s="2"/>
+      <c r="E51" s="1">
+        <v>43634</v>
+      </c>
       <c r="F51" s="3"/>
+      <c r="G51" s="1">
+        <v>44000</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="1">
-        <v>43916</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="G52" s="1">
-        <v>43941</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>251</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="5"/>
       <c r="E53" s="1">
-        <v>43734</v>
+        <v>43916</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G53" s="1">
-        <v>44100</v>
+        <v>43941</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="E54" s="1">
-        <v>43846</v>
-      </c>
-      <c r="F54" s="3"/>
+        <v>43734</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G54" s="1">
+        <v>44100</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>228</v>
+        <v>151</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="E55" s="1">
-        <v>43642</v>
+        <v>43846</v>
       </c>
       <c r="F55" s="3"/>
-      <c r="G55" s="1">
-        <v>44008</v>
-      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D56" s="5"/>
+        <v>155</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>228</v>
+      </c>
       <c r="E56" s="1">
-        <v>43592</v>
+        <v>43642</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="1">
-        <v>43958</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>230</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" s="5"/>
       <c r="E57" s="1">
-        <v>43627</v>
+        <v>43592</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="1">
-        <v>43993</v>
+        <v>43958</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>230</v>
@@ -2503,77 +2504,77 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>166</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>232</v>
+        <v>163</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="E59" s="1">
-        <v>43885</v>
+        <v>43627</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="1">
-        <v>44251</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>168</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>231</v>
+        <v>166</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="E60" s="1">
-        <v>43447</v>
+        <v>43885</v>
       </c>
       <c r="F60" s="3"/>
+      <c r="G60" s="1">
+        <v>44251</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B61" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E61" s="1">
-        <v>43734</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G61" s="1">
-        <v>44100</v>
-      </c>
+        <v>43447</v>
+      </c>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B62" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D62" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>234</v>
+      </c>
       <c r="E62" s="1">
         <v>43734</v>
       </c>
@@ -2586,61 +2587,61 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B63" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>235</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D63" s="2"/>
       <c r="E63" s="1">
-        <v>43611</v>
+        <v>43734</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>243</v>
       </c>
       <c r="G63" s="1">
-        <v>43977</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E64" s="1">
-        <v>43859</v>
+        <v>43611</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G64" s="1">
-        <v>43950</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" s="6"/>
+        <v>181</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>236</v>
+      </c>
       <c r="E65" s="1">
         <v>43859</v>
       </c>
@@ -2653,126 +2654,147 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B66" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>237</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D66" s="6"/>
       <c r="E66" s="1">
-        <v>43831</v>
+        <v>43859</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G66" s="1">
-        <v>44197</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B67" t="s">
-        <v>188</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E67" s="1">
-        <v>43586</v>
+        <v>43831</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>243</v>
       </c>
       <c r="G67" s="1">
-        <v>43952</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B68" t="s">
-        <v>190</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D68" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E68" s="1">
+        <v>43586</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G68" s="1">
+        <v>43952</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B69" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B70" t="s">
-        <v>196</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D70" s="6"/>
+        <v>192</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B71" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="D71" s="6"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="B72" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E72" s="1">
-        <v>43435</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D72" s="6"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>252</v>
+      </c>
+      <c r="B73" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E73" s="1">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>255</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>256</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C74" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D74" s="6" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2812,25 +2834,25 @@
     <hyperlink ref="C46" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
     <hyperlink ref="C47" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
     <hyperlink ref="C48" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C49" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C50" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C51" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C52" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C53" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C54" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C55" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C56" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C57" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C58" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C59" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C60" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C61" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C66" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="C67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="C68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="C69" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C70" r:id="rId52" xr:uid="{676653C1-8836-45CB-A40D-15D90630C55C}"/>
-    <hyperlink ref="C71" r:id="rId53" xr:uid="{9BDEEB87-0B83-4E92-A3AC-F63C153F2527}"/>
+    <hyperlink ref="C50" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C51" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C52" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C53" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C54" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C55" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C56" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C57" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C58" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C59" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C60" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C61" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C62" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C67" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C68" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C69" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C70" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C71" r:id="rId52" xr:uid="{676653C1-8836-45CB-A40D-15D90630C55C}"/>
+    <hyperlink ref="C72" r:id="rId53" xr:uid="{9BDEEB87-0B83-4E92-A3AC-F63C153F2527}"/>
     <hyperlink ref="D2" r:id="rId54" xr:uid="{000756FE-F823-4E14-8C57-69805F8A3640}"/>
     <hyperlink ref="D3" r:id="rId55" xr:uid="{E518ABA5-B748-49E1-BD75-6337B1D7FCD4}"/>
     <hyperlink ref="D4" r:id="rId56" xr:uid="{BEFE3BEC-2C2A-4482-A552-C752C09E304B}"/>
@@ -2860,28 +2882,29 @@
     <hyperlink ref="D39" r:id="rId80" xr:uid="{741DF175-6D8D-4095-A5DB-CE1183575642}"/>
     <hyperlink ref="D42" r:id="rId81" xr:uid="{A33D24EA-FEC6-4630-BECD-C197C479FA27}"/>
     <hyperlink ref="D43" r:id="rId82" xr:uid="{1FBA70E7-AED5-4D87-8558-9D4B1EF27B15}"/>
-    <hyperlink ref="D55" r:id="rId83" xr:uid="{1D550716-D2BC-4843-BDFE-739A9073B001}"/>
-    <hyperlink ref="D54" r:id="rId84" xr:uid="{C99E6DDC-E999-42C9-843B-461CF0738BB8}"/>
-    <hyperlink ref="D57" r:id="rId85" xr:uid="{EFE08B90-E8E9-4F43-8ADC-B0EEE0FC39F3}"/>
-    <hyperlink ref="D58" r:id="rId86" xr:uid="{F88B014A-41FD-4E36-A187-C450CE5425B2}"/>
-    <hyperlink ref="D60" r:id="rId87" xr:uid="{D47564CB-9017-462E-9F47-3EDDE79884DA}"/>
-    <hyperlink ref="D61" r:id="rId88" xr:uid="{28F7A81F-AF31-4D6C-8C18-CAC0871251CD}"/>
-    <hyperlink ref="D63" r:id="rId89" xr:uid="{8F6CADE5-5A75-4A57-ABF4-D53DC9183F5A}"/>
-    <hyperlink ref="D64" r:id="rId90" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{2D181325-B7ED-45FD-A747-19924910FD34}"/>
-    <hyperlink ref="D66" r:id="rId91" xr:uid="{0D41A8BE-07EA-43AE-81EA-4D4BAFF9B846}"/>
+    <hyperlink ref="D56" r:id="rId83" xr:uid="{1D550716-D2BC-4843-BDFE-739A9073B001}"/>
+    <hyperlink ref="D55" r:id="rId84" xr:uid="{C99E6DDC-E999-42C9-843B-461CF0738BB8}"/>
+    <hyperlink ref="D58" r:id="rId85" xr:uid="{EFE08B90-E8E9-4F43-8ADC-B0EEE0FC39F3}"/>
+    <hyperlink ref="D59" r:id="rId86" xr:uid="{F88B014A-41FD-4E36-A187-C450CE5425B2}"/>
+    <hyperlink ref="D61" r:id="rId87" xr:uid="{D47564CB-9017-462E-9F47-3EDDE79884DA}"/>
+    <hyperlink ref="D62" r:id="rId88" xr:uid="{28F7A81F-AF31-4D6C-8C18-CAC0871251CD}"/>
+    <hyperlink ref="D64" r:id="rId89" xr:uid="{8F6CADE5-5A75-4A57-ABF4-D53DC9183F5A}"/>
+    <hyperlink ref="D65" r:id="rId90" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{2D181325-B7ED-45FD-A747-19924910FD34}"/>
+    <hyperlink ref="D67" r:id="rId91" xr:uid="{0D41A8BE-07EA-43AE-81EA-4D4BAFF9B846}"/>
     <hyperlink ref="D23" r:id="rId92" xr:uid="{A531BAE6-7294-47B8-9B63-A00180A64192}"/>
     <hyperlink ref="D9" r:id="rId93" xr:uid="{CCA4C108-6B16-4083-B101-FCE255244EE0}"/>
     <hyperlink ref="D21" r:id="rId94" xr:uid="{E37A74A9-D10A-4E9D-BFD2-16931D8BD011}"/>
-    <hyperlink ref="D53" r:id="rId95" xr:uid="{42BAA251-8890-41FF-A9DB-A1BD747623C9}"/>
-    <hyperlink ref="D67" r:id="rId96" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{E8C0FEFE-D7E5-4C5D-A7D6-8A455DE83B12}"/>
-    <hyperlink ref="D72" r:id="rId97" xr:uid="{DB5994E8-414D-4604-9E1A-703E6BF99393}"/>
-    <hyperlink ref="C72" r:id="rId98" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{64A39A22-50C6-42B0-88E4-9EE9994E3AD2}"/>
-    <hyperlink ref="C73" r:id="rId99" xr:uid="{EC022946-57AA-4AE9-8D75-AE540EFF2377}"/>
+    <hyperlink ref="D54" r:id="rId95" xr:uid="{42BAA251-8890-41FF-A9DB-A1BD747623C9}"/>
+    <hyperlink ref="D68" r:id="rId96" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{E8C0FEFE-D7E5-4C5D-A7D6-8A455DE83B12}"/>
+    <hyperlink ref="D73" r:id="rId97" xr:uid="{DB5994E8-414D-4604-9E1A-703E6BF99393}"/>
+    <hyperlink ref="C73" r:id="rId98" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{64A39A22-50C6-42B0-88E4-9EE9994E3AD2}"/>
+    <hyperlink ref="C74" r:id="rId99" xr:uid="{EC022946-57AA-4AE9-8D75-AE540EFF2377}"/>
+    <hyperlink ref="C49" r:id="rId100" xr:uid="{77DE27B1-00DA-4F06-AA9B-85165BB656D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId100"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId101"/>
   <tableParts count="1">
-    <tablePart r:id="rId101"/>
+    <tablePart r:id="rId102"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_506012E395FA7DDD8D792AFF9F2785B63A21DED6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0FE4055A-969D-4B8B-99F4-FDEFD13C01B0}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="11_506012E395FA7DDD8D792AFF9F2785B63A21DED6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ED232085-CAB5-4D4E-9D06-7C3199EF6686}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="264">
   <si>
     <t>Code</t>
   </si>
@@ -814,6 +814,15 @@
   </si>
   <si>
     <t>https://www.nationalgrideso.com/document/157451/download</t>
+  </si>
+  <si>
+    <t>SESHEnergyBalance</t>
+  </si>
+  <si>
+    <t>Energy balance</t>
+  </si>
+  <si>
+    <t>https://scotland.shinyapps.io/sg-energy/?Section=WholeSystem&amp;Chart=EnBalance</t>
   </si>
 </sst>
 </file>
@@ -978,8 +987,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F749F361-49C4-4B0A-A4C3-B5B7F0C6E28B}" name="Table1" displayName="Table1" ref="A1:H74" totalsRowShown="0">
-  <autoFilter ref="A1:H74" xr:uid="{BBCD3624-7D7A-4AAD-80D9-FA4730FEF2DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F749F361-49C4-4B0A-A4C3-B5B7F0C6E28B}" name="Table1" displayName="Table1" ref="A1:H75" totalsRowShown="0">
+  <autoFilter ref="A1:H75" xr:uid="{BBCD3624-7D7A-4AAD-80D9-FA4730FEF2DC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H75">
+    <sortCondition ref="B1:B75"/>
+  </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{043AAD27-37EC-46FF-85F6-AC085210A45F}" name="Code"/>
     <tableColumn id="2" xr3:uid="{CBEBEE0A-FFBC-4823-A4A5-B04E8700FEBF}" name="Source"/>
@@ -1291,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1337,36 +1349,34 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>240</v>
+        <v>98</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="E2" s="1">
-        <v>43916</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>242</v>
-      </c>
+        <v>43881</v>
+      </c>
+      <c r="F2" s="3"/>
       <c r="G2" s="1">
-        <v>44008</v>
+        <v>44247</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>201</v>
@@ -1378,102 +1388,104 @@
         <v>242</v>
       </c>
       <c r="G3" s="1">
-        <v>44002</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E4" s="1">
-        <v>43734</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>43916</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="G4" s="1">
-        <v>44100</v>
+        <v>44002</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E5" s="1">
-        <v>43641</v>
+        <v>43800</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="1">
-        <v>44007</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E6" s="1">
-        <v>43641</v>
+        <v>43800</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="1">
-        <v>44007</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E7" s="1">
-        <v>43641</v>
+        <v>43734</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="1">
-        <v>44007</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>203</v>
@@ -1488,228 +1500,223 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E9" s="1">
-        <v>43800</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>243</v>
-      </c>
+        <v>43641</v>
+      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="1">
-        <v>44166</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="E10" s="1">
-        <v>43916</v>
+        <v>43641</v>
       </c>
       <c r="F10" s="3"/>
+      <c r="G10" s="1">
+        <v>44007</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E11" s="1">
-        <v>43563</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>243</v>
-      </c>
+        <v>43641</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="1">
-        <v>43929</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="E12" s="1">
-        <v>43818</v>
+        <v>43563</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>243</v>
       </c>
       <c r="G12" s="1">
-        <v>44166</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>204</v>
+      </c>
       <c r="E13" s="1">
-        <v>43916</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>43800</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G13" s="1">
+        <v>44166</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>206</v>
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
       </c>
       <c r="E14" s="1">
-        <v>43818</v>
+        <v>43916</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="1">
-        <v>44166</v>
-      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>244</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="E15" s="1">
-        <v>43916</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>242</v>
+        <v>43647</v>
       </c>
       <c r="G15" s="1">
-        <v>43983</v>
+        <v>44013</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E16" s="1">
-        <v>43797</v>
-      </c>
-      <c r="F16" s="3"/>
+        <v>43916</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="G16" s="1">
-        <v>44010</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>209</v>
+        <v>58</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="E17" s="1">
-        <v>43622</v>
+        <v>43888</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="1">
-        <v>43988</v>
+        <v>43978</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>210</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="1">
-        <v>43643</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G18" s="1">
-        <v>43983</v>
-      </c>
+        <v>43916</v>
+      </c>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E19" s="1">
-        <v>43800</v>
+        <v>43818</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="1">
@@ -1718,60 +1725,60 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>212</v>
+        <v>45</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="E20" s="1">
-        <v>43888</v>
+        <v>43797</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="1">
-        <v>43978</v>
+        <v>44010</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>245</v>
+        <v>52</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E21" s="1">
-        <v>43916</v>
+        <v>43643</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G21" s="1">
-        <v>43988</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>213</v>
+        <v>247</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="E22" s="1">
         <v>43916</v>
@@ -1785,16 +1792,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="E23" s="1">
         <v>43916</v>
@@ -1808,23 +1815,21 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>213</v>
+        <v>49</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="E24" s="1">
-        <v>43916</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>242</v>
-      </c>
+        <v>43622</v>
+      </c>
+      <c r="F24" s="3"/>
       <c r="G24" s="1">
         <v>43988</v>
       </c>
@@ -1852,16 +1857,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>215</v>
+        <v>62</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="E26" s="1">
         <v>43916</v>
@@ -1875,124 +1880,128 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E27" s="1">
-        <v>43831</v>
-      </c>
-      <c r="F27" s="3"/>
+        <v>43916</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="G27" s="1">
-        <v>43922</v>
-      </c>
-      <c r="H27" s="1">
-        <v>43800</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>218</v>
+        <v>71</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E28" s="1">
-        <v>43909</v>
-      </c>
-      <c r="F28" s="3"/>
+        <v>43916</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="G28" s="1">
-        <v>43922</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E29" s="1">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="1">
-        <v>44166</v>
+        <v>43922</v>
+      </c>
+      <c r="H29" s="1">
+        <v>43800</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E30" s="1">
-        <v>43709</v>
+        <v>43909</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="1">
-        <v>44075</v>
+        <v>43922</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E31" s="1">
-        <v>43734</v>
+        <v>43800</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="1">
-        <v>44076</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E32" s="1">
         <v>43800</v>
@@ -2004,85 +2013,88 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E33" s="1">
-        <v>43647</v>
-      </c>
+        <v>43800</v>
+      </c>
+      <c r="F33" s="3"/>
       <c r="G33" s="1">
-        <v>44013</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="E34" s="1">
-        <v>43800</v>
-      </c>
-      <c r="F34" s="3"/>
+        <v>43818</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="G34" s="1">
         <v>44166</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="E35" s="1">
-        <v>43800</v>
+        <v>43734</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="1">
-        <v>44166</v>
+        <v>44076</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E36" s="1">
-        <v>43881</v>
+        <v>43709</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="1">
-        <v>44247</v>
+        <v>44075</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -2142,34 +2154,25 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="1">
-        <v>43916</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="G40" s="1">
-        <v>43941</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="1">
@@ -2184,94 +2187,90 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>226</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D42" s="2"/>
       <c r="E42" s="1">
-        <v>43831</v>
-      </c>
-      <c r="F42" s="3"/>
+        <v>43916</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G42" s="1">
-        <v>44197</v>
+        <v>43941</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>118</v>
+        <v>261</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E43" s="1">
-        <v>43739</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="1">
-        <v>44105</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D44" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>226</v>
+      </c>
       <c r="E44" s="1">
-        <v>43916</v>
+        <v>43831</v>
       </c>
       <c r="F44" s="3"/>
+      <c r="G44" s="1">
+        <v>44197</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>227</v>
+        <v>120</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="E45" s="1">
-        <v>43910</v>
+        <v>43739</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="1">
-        <v>43922</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="5"/>
+        <v>122</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="2"/>
       <c r="E46" s="1">
         <v>43916</v>
       </c>
@@ -2279,17 +2278,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D47" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E47" s="1">
-        <v>43891</v>
+        <v>43910</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="1">
@@ -2298,42 +2299,45 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="5"/>
       <c r="E48" s="1">
-        <v>43891</v>
+        <v>43916</v>
       </c>
       <c r="F48" s="3"/>
-      <c r="G48" s="1">
-        <v>43922</v>
-      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>258</v>
+        <v>130</v>
       </c>
       <c r="B49" t="s">
-        <v>259</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="D49" s="7"/>
+        <v>131</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="1">
+        <v>43891</v>
+      </c>
       <c r="F49" s="3"/>
+      <c r="G49" s="1">
+        <v>43922</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>135</v>
@@ -2349,557 +2353,577 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="1">
-        <v>43634</v>
+        <v>43891</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="1">
-        <v>44000</v>
+        <v>43922</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>141</v>
+        <v>258</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D52" s="7"/>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D53" s="5"/>
+        <v>139</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="2"/>
       <c r="E53" s="1">
-        <v>43916</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>250</v>
-      </c>
+        <v>43634</v>
+      </c>
+      <c r="F53" s="3"/>
       <c r="G53" s="1">
-        <v>43941</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="E54" s="1">
-        <v>43734</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G54" s="1">
-        <v>44100</v>
-      </c>
+        <v>43846</v>
+      </c>
+      <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>229</v>
+        <v>154</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="E55" s="1">
-        <v>43846</v>
+        <v>43642</v>
       </c>
       <c r="F55" s="3"/>
+      <c r="G55" s="1">
+        <v>44008</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="B56" t="s">
-        <v>154</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="E56" s="1">
-        <v>43642</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="1">
-        <v>44008</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="1">
-        <v>43592</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="2"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="1">
-        <v>43958</v>
-      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>255</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E58" s="1">
-        <v>43627</v>
-      </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="1">
-        <v>43993</v>
+        <v>256</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B59" t="s">
-        <v>163</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>230</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="5"/>
       <c r="E59" s="1">
-        <v>43627</v>
-      </c>
-      <c r="F59" s="3"/>
+        <v>43916</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G59" s="1">
-        <v>43993</v>
+        <v>43941</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B60" t="s">
-        <v>166</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>232</v>
+        <v>148</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="E60" s="1">
-        <v>43885</v>
-      </c>
-      <c r="F60" s="3"/>
+        <v>43734</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="G60" s="1">
-        <v>44251</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B61" t="s">
-        <v>168</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>231</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" s="5"/>
       <c r="E61" s="1">
-        <v>43447</v>
+        <v>43592</v>
       </c>
       <c r="F61" s="3"/>
+      <c r="G61" s="1">
+        <v>43958</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="B62" t="s">
-        <v>171</v>
-      </c>
-      <c r="C62" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E62" s="1">
-        <v>43734</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G62" s="1">
-        <v>44100</v>
-      </c>
+      <c r="D62" s="6"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B63" t="s">
-        <v>174</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D63" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="E63" s="1">
-        <v>43734</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>243</v>
-      </c>
+        <v>43885</v>
+      </c>
+      <c r="F63" s="3"/>
       <c r="G63" s="1">
-        <v>44100</v>
+        <v>44251</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>235</v>
+        <v>172</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="E64" s="1">
-        <v>43611</v>
+        <v>43734</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>243</v>
       </c>
       <c r="G64" s="1">
-        <v>43977</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B65" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>236</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D65" s="2"/>
       <c r="E65" s="1">
-        <v>43859</v>
+        <v>43734</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G65" s="1">
-        <v>43950</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B66" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D66" s="6"/>
+        <v>178</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>235</v>
+      </c>
       <c r="E66" s="1">
-        <v>43859</v>
+        <v>43611</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G66" s="1">
-        <v>43950</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B67" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>237</v>
+        <v>181</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="E67" s="1">
-        <v>43831</v>
+        <v>43859</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G67" s="1">
-        <v>44197</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B68" t="s">
-        <v>188</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>238</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" s="6"/>
       <c r="E68" s="1">
-        <v>43586</v>
+        <v>43859</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G68" s="1">
-        <v>43952</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="B69" t="s">
-        <v>190</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D69" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E69" s="1">
+        <v>43435</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="B70" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D70" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E70" s="1">
+        <v>43447</v>
+      </c>
+      <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="B71" t="s">
-        <v>196</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D71" s="6"/>
+        <v>160</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E71" s="1">
+        <v>43627</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" s="1">
+        <v>43993</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="B72" t="s">
-        <v>198</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D72" s="6"/>
+        <v>163</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E72" s="1">
+        <v>43627</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="1">
+        <v>43993</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="B73" t="s">
-        <v>168</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>253</v>
+        <v>185</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="E73" s="1">
-        <v>43435</v>
+        <v>43831</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G73" s="1">
+        <v>44197</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>255</v>
+        <v>187</v>
       </c>
       <c r="B74" t="s">
-        <v>256</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>193</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E74" s="1">
+        <v>43586</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G74" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>190</v>
+      </c>
+      <c r="B75" t="s">
+        <v>190</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D75" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C20" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C34" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C24" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C21" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C32" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="C25" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C29" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C30" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C31" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C32" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C33" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C34" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C35" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C29" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C31" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C36" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C35" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C33" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C15" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C5" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C6" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
     <hyperlink ref="C37" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="C38" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="C39" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C40" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C41" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C42" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C43" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C44" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C45" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C46" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C47" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C48" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C50" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C51" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C52" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C53" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C54" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C55" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C56" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C57" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C58" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C59" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C60" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C61" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C62" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C67" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="C68" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="C69" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="C70" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C71" r:id="rId52" xr:uid="{676653C1-8836-45CB-A40D-15D90630C55C}"/>
-    <hyperlink ref="C72" r:id="rId53" xr:uid="{9BDEEB87-0B83-4E92-A3AC-F63C153F2527}"/>
-    <hyperlink ref="D2" r:id="rId54" xr:uid="{000756FE-F823-4E14-8C57-69805F8A3640}"/>
-    <hyperlink ref="D3" r:id="rId55" xr:uid="{E518ABA5-B748-49E1-BD75-6337B1D7FCD4}"/>
-    <hyperlink ref="D4" r:id="rId56" xr:uid="{BEFE3BEC-2C2A-4482-A552-C752C09E304B}"/>
-    <hyperlink ref="D5" r:id="rId57" xr:uid="{F1991EC4-F38D-4E9A-9A1A-EAF77C2EE9F9}"/>
+    <hyperlink ref="C41" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C42" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C44" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C45" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C46" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C47" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C48" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C49" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C50" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C51" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C53" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C57" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C59" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C60" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C54" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C55" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C61" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C71" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C72" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C63" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C70" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C64" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C73" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C74" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C75" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C56" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C40" r:id="rId52" xr:uid="{676653C1-8836-45CB-A40D-15D90630C55C}"/>
+    <hyperlink ref="C62" r:id="rId53" xr:uid="{9BDEEB87-0B83-4E92-A3AC-F63C153F2527}"/>
+    <hyperlink ref="D3" r:id="rId54" xr:uid="{000756FE-F823-4E14-8C57-69805F8A3640}"/>
+    <hyperlink ref="D4" r:id="rId55" xr:uid="{E518ABA5-B748-49E1-BD75-6337B1D7FCD4}"/>
+    <hyperlink ref="D7" r:id="rId56" xr:uid="{BEFE3BEC-2C2A-4482-A552-C752C09E304B}"/>
+    <hyperlink ref="D8" r:id="rId57" xr:uid="{F1991EC4-F38D-4E9A-9A1A-EAF77C2EE9F9}"/>
     <hyperlink ref="D6:D8" r:id="rId58" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{809B67E9-30E4-4D8E-B656-4BD47702ED4C}"/>
-    <hyperlink ref="D11" r:id="rId59" xr:uid="{1ECBBF49-A16E-4F91-BE2E-59404D18E3A4}"/>
-    <hyperlink ref="D14" r:id="rId60" xr:uid="{73765C9A-F184-4540-A93E-6406901A80AE}"/>
-    <hyperlink ref="D15" r:id="rId61" xr:uid="{D528CBFA-ED74-4DF9-8336-6384C5C26A83}"/>
-    <hyperlink ref="C16" r:id="rId62" xr:uid="{69AD8FE3-62BC-4A05-BD4F-2BDCAFFCACBC}"/>
-    <hyperlink ref="D16" r:id="rId63" xr:uid="{9F0DD206-6574-4F5D-A33C-83225B73FC97}"/>
-    <hyperlink ref="D17" r:id="rId64" xr:uid="{1F8C42EB-92FD-465B-B75F-BE840A156CAF}"/>
-    <hyperlink ref="D18" r:id="rId65" xr:uid="{233A0AAB-9433-40ED-909C-8401AC9F8631}"/>
-    <hyperlink ref="D19" r:id="rId66" xr:uid="{C6922B03-ABDA-4F81-9E51-AB3D324DEDAD}"/>
+    <hyperlink ref="D12" r:id="rId59" xr:uid="{1ECBBF49-A16E-4F91-BE2E-59404D18E3A4}"/>
+    <hyperlink ref="D19" r:id="rId60" xr:uid="{73765C9A-F184-4540-A93E-6406901A80AE}"/>
+    <hyperlink ref="D16" r:id="rId61" xr:uid="{D528CBFA-ED74-4DF9-8336-6384C5C26A83}"/>
+    <hyperlink ref="C20" r:id="rId62" xr:uid="{69AD8FE3-62BC-4A05-BD4F-2BDCAFFCACBC}"/>
+    <hyperlink ref="D20" r:id="rId63" xr:uid="{9F0DD206-6574-4F5D-A33C-83225B73FC97}"/>
+    <hyperlink ref="D24" r:id="rId64" xr:uid="{1F8C42EB-92FD-465B-B75F-BE840A156CAF}"/>
+    <hyperlink ref="D21" r:id="rId65" xr:uid="{233A0AAB-9433-40ED-909C-8401AC9F8631}"/>
+    <hyperlink ref="D32" r:id="rId66" xr:uid="{C6922B03-ABDA-4F81-9E51-AB3D324DEDAD}"/>
     <hyperlink ref="D25" r:id="rId67" xr:uid="{64DD0C9B-20B2-45C0-A0AB-224D98BAB7F2}"/>
-    <hyperlink ref="D26" r:id="rId68" xr:uid="{4A9A504F-E588-44B5-A9FC-FFDA8F53CAC5}"/>
-    <hyperlink ref="D27" r:id="rId69" xr:uid="{C7F81546-B23F-40B9-87FB-16C65286EBC8}"/>
-    <hyperlink ref="D28" r:id="rId70" xr:uid="{3EF96C8A-860C-4CB4-804C-8DF1AE5E4FD0}"/>
-    <hyperlink ref="D29" r:id="rId71" xr:uid="{513C64E3-352E-4D10-AFDA-6107852F8D3C}"/>
-    <hyperlink ref="D30" r:id="rId72" xr:uid="{1A7306CC-8224-4D71-A0B2-1ABF78084BF7}"/>
-    <hyperlink ref="D31" r:id="rId73" xr:uid="{D456981E-31E6-41F2-93E8-33A16FF6AAF4}"/>
-    <hyperlink ref="D32" r:id="rId74" xr:uid="{DE57CF01-B039-41FA-AB92-7E5A91525BD7}"/>
-    <hyperlink ref="D33" r:id="rId75" xr:uid="{4BC65B76-1BBD-4707-82D3-1E8155C02F24}"/>
-    <hyperlink ref="D34" r:id="rId76" xr:uid="{11048E26-60A7-49BB-ADE9-6A8F952FF6D5}"/>
-    <hyperlink ref="D35" r:id="rId77" xr:uid="{FAFF6D7B-FFAA-4B23-BD00-A60E4A5EB951}"/>
-    <hyperlink ref="D36" r:id="rId78" xr:uid="{72A7FFAC-14E6-469E-B15D-E6CDD3A746F7}"/>
+    <hyperlink ref="D28" r:id="rId68" xr:uid="{4A9A504F-E588-44B5-A9FC-FFDA8F53CAC5}"/>
+    <hyperlink ref="D29" r:id="rId69" xr:uid="{C7F81546-B23F-40B9-87FB-16C65286EBC8}"/>
+    <hyperlink ref="D30" r:id="rId70" xr:uid="{3EF96C8A-860C-4CB4-804C-8DF1AE5E4FD0}"/>
+    <hyperlink ref="D31" r:id="rId71" xr:uid="{513C64E3-352E-4D10-AFDA-6107852F8D3C}"/>
+    <hyperlink ref="D36" r:id="rId72" xr:uid="{1A7306CC-8224-4D71-A0B2-1ABF78084BF7}"/>
+    <hyperlink ref="D35" r:id="rId73" xr:uid="{D456981E-31E6-41F2-93E8-33A16FF6AAF4}"/>
+    <hyperlink ref="D33" r:id="rId74" xr:uid="{DE57CF01-B039-41FA-AB92-7E5A91525BD7}"/>
+    <hyperlink ref="D15" r:id="rId75" xr:uid="{4BC65B76-1BBD-4707-82D3-1E8155C02F24}"/>
+    <hyperlink ref="D5" r:id="rId76" xr:uid="{11048E26-60A7-49BB-ADE9-6A8F952FF6D5}"/>
+    <hyperlink ref="D6" r:id="rId77" xr:uid="{FAFF6D7B-FFAA-4B23-BD00-A60E4A5EB951}"/>
+    <hyperlink ref="D2" r:id="rId78" xr:uid="{72A7FFAC-14E6-469E-B15D-E6CDD3A746F7}"/>
     <hyperlink ref="D38" r:id="rId79" xr:uid="{52A1881D-22D6-46D5-BFDB-56850ADF011B}"/>
     <hyperlink ref="D39" r:id="rId80" xr:uid="{741DF175-6D8D-4095-A5DB-CE1183575642}"/>
-    <hyperlink ref="D42" r:id="rId81" xr:uid="{A33D24EA-FEC6-4630-BECD-C197C479FA27}"/>
-    <hyperlink ref="D43" r:id="rId82" xr:uid="{1FBA70E7-AED5-4D87-8558-9D4B1EF27B15}"/>
-    <hyperlink ref="D56" r:id="rId83" xr:uid="{1D550716-D2BC-4843-BDFE-739A9073B001}"/>
-    <hyperlink ref="D55" r:id="rId84" xr:uid="{C99E6DDC-E999-42C9-843B-461CF0738BB8}"/>
-    <hyperlink ref="D58" r:id="rId85" xr:uid="{EFE08B90-E8E9-4F43-8ADC-B0EEE0FC39F3}"/>
-    <hyperlink ref="D59" r:id="rId86" xr:uid="{F88B014A-41FD-4E36-A187-C450CE5425B2}"/>
-    <hyperlink ref="D61" r:id="rId87" xr:uid="{D47564CB-9017-462E-9F47-3EDDE79884DA}"/>
-    <hyperlink ref="D62" r:id="rId88" xr:uid="{28F7A81F-AF31-4D6C-8C18-CAC0871251CD}"/>
-    <hyperlink ref="D64" r:id="rId89" xr:uid="{8F6CADE5-5A75-4A57-ABF4-D53DC9183F5A}"/>
-    <hyperlink ref="D65" r:id="rId90" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{2D181325-B7ED-45FD-A747-19924910FD34}"/>
-    <hyperlink ref="D67" r:id="rId91" xr:uid="{0D41A8BE-07EA-43AE-81EA-4D4BAFF9B846}"/>
-    <hyperlink ref="D23" r:id="rId92" xr:uid="{A531BAE6-7294-47B8-9B63-A00180A64192}"/>
-    <hyperlink ref="D9" r:id="rId93" xr:uid="{CCA4C108-6B16-4083-B101-FCE255244EE0}"/>
-    <hyperlink ref="D21" r:id="rId94" xr:uid="{E37A74A9-D10A-4E9D-BFD2-16931D8BD011}"/>
-    <hyperlink ref="D54" r:id="rId95" xr:uid="{42BAA251-8890-41FF-A9DB-A1BD747623C9}"/>
-    <hyperlink ref="D68" r:id="rId96" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{E8C0FEFE-D7E5-4C5D-A7D6-8A455DE83B12}"/>
-    <hyperlink ref="D73" r:id="rId97" xr:uid="{DB5994E8-414D-4604-9E1A-703E6BF99393}"/>
-    <hyperlink ref="C73" r:id="rId98" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{64A39A22-50C6-42B0-88E4-9EE9994E3AD2}"/>
-    <hyperlink ref="C74" r:id="rId99" xr:uid="{EC022946-57AA-4AE9-8D75-AE540EFF2377}"/>
-    <hyperlink ref="C49" r:id="rId100" xr:uid="{77DE27B1-00DA-4F06-AA9B-85165BB656D8}"/>
+    <hyperlink ref="D44" r:id="rId81" xr:uid="{A33D24EA-FEC6-4630-BECD-C197C479FA27}"/>
+    <hyperlink ref="D45" r:id="rId82" xr:uid="{1FBA70E7-AED5-4D87-8558-9D4B1EF27B15}"/>
+    <hyperlink ref="D55" r:id="rId83" xr:uid="{1D550716-D2BC-4843-BDFE-739A9073B001}"/>
+    <hyperlink ref="D54" r:id="rId84" xr:uid="{C99E6DDC-E999-42C9-843B-461CF0738BB8}"/>
+    <hyperlink ref="D71" r:id="rId85" xr:uid="{EFE08B90-E8E9-4F43-8ADC-B0EEE0FC39F3}"/>
+    <hyperlink ref="D72" r:id="rId86" xr:uid="{F88B014A-41FD-4E36-A187-C450CE5425B2}"/>
+    <hyperlink ref="D70" r:id="rId87" xr:uid="{D47564CB-9017-462E-9F47-3EDDE79884DA}"/>
+    <hyperlink ref="D64" r:id="rId88" xr:uid="{28F7A81F-AF31-4D6C-8C18-CAC0871251CD}"/>
+    <hyperlink ref="D66" r:id="rId89" xr:uid="{8F6CADE5-5A75-4A57-ABF4-D53DC9183F5A}"/>
+    <hyperlink ref="D67" r:id="rId90" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{2D181325-B7ED-45FD-A747-19924910FD34}"/>
+    <hyperlink ref="D73" r:id="rId91" xr:uid="{0D41A8BE-07EA-43AE-81EA-4D4BAFF9B846}"/>
+    <hyperlink ref="D22" r:id="rId92" xr:uid="{A531BAE6-7294-47B8-9B63-A00180A64192}"/>
+    <hyperlink ref="D13" r:id="rId93" xr:uid="{CCA4C108-6B16-4083-B101-FCE255244EE0}"/>
+    <hyperlink ref="D27" r:id="rId94" xr:uid="{E37A74A9-D10A-4E9D-BFD2-16931D8BD011}"/>
+    <hyperlink ref="D60" r:id="rId95" xr:uid="{42BAA251-8890-41FF-A9DB-A1BD747623C9}"/>
+    <hyperlink ref="D74" r:id="rId96" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{E8C0FEFE-D7E5-4C5D-A7D6-8A455DE83B12}"/>
+    <hyperlink ref="D69" r:id="rId97" xr:uid="{DB5994E8-414D-4604-9E1A-703E6BF99393}"/>
+    <hyperlink ref="C69" r:id="rId98" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{64A39A22-50C6-42B0-88E4-9EE9994E3AD2}"/>
+    <hyperlink ref="C58" r:id="rId99" xr:uid="{EC022946-57AA-4AE9-8D75-AE540EFF2377}"/>
+    <hyperlink ref="C52" r:id="rId100" xr:uid="{77DE27B1-00DA-4F06-AA9B-85165BB656D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId101"/>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_506012E395FA7DDD8D792AFF9F2785B63A21DED6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ED232085-CAB5-4D4E-9D06-7C3199EF6686}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_506012E395FA7DDD8D792AFF9F2785B63A21DED6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D0AD6CFD-381D-4F14-9B7C-685CE3CA8DEB}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Frequency</t>
   </si>
   <si>
-    <t>Update Expected:</t>
-  </si>
-  <si>
     <t>Data as of:</t>
   </si>
   <si>
@@ -823,6 +820,9 @@
   </si>
   <si>
     <t>https://scotland.shinyapps.io/sg-energy/?Section=WholeSystem&amp;Chart=EnBalance</t>
+  </si>
+  <si>
+    <t>Update Expected</t>
   </si>
 </sst>
 </file>
@@ -999,7 +999,7 @@
     <tableColumn id="4" xr3:uid="{90DF8E28-6333-415E-B7AC-B9FEA52C917E}" name="General URL" dataCellStyle="Hyperlink"/>
     <tableColumn id="5" xr3:uid="{1440F48B-367B-4C84-BB5B-2249FAB67585}" name="Last Updated" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{CD76BD4E-3769-4F3D-BFA5-9C4EFC5B95FA}" name="Frequency"/>
-    <tableColumn id="7" xr3:uid="{F2474B63-FD3D-43E3-B221-2C1D2AA81AFA}" name="Update Expected:" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{F2474B63-FD3D-43E3-B221-2C1D2AA81AFA}" name="Update Expected" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{DCA0249F-BBC1-4A8E-BA04-1150F23B84AF}" name="Data as of:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1305,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1329,10 +1329,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" t="s">
         <v>199</v>
-      </c>
-      <c r="D1" t="s">
-        <v>200</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1341,24 +1341,24 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
         <v>97</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E2" s="1">
         <v>43881</v>
@@ -1370,22 +1370,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E3" s="1">
         <v>43916</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G3" s="1">
         <v>44008</v>
@@ -1393,22 +1393,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E4" s="1">
         <v>43916</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G4" s="1">
         <v>44002</v>
@@ -1416,16 +1416,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
         <v>91</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E5" s="1">
         <v>43800</v>
@@ -1437,16 +1437,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
         <v>94</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E6" s="1">
         <v>43800</v>
@@ -1458,16 +1458,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E7" s="1">
         <v>43734</v>
@@ -1479,16 +1479,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E8" s="1">
         <v>43641</v>
@@ -1500,16 +1500,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D9" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E9" s="1">
         <v>43641</v>
@@ -1521,16 +1521,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E10" s="1">
         <v>43641</v>
@@ -1542,16 +1542,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E11" s="1">
         <v>43641</v>
@@ -1563,22 +1563,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E12" s="1">
         <v>43563</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G12" s="1">
         <v>43929</v>
@@ -1586,22 +1586,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E13" s="1">
         <v>43800</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G13" s="1">
         <v>44166</v>
@@ -1609,13 +1609,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
       </c>
       <c r="E14" s="1">
         <v>43916</v>
@@ -1624,16 +1624,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
         <v>88</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E15" s="1">
         <v>43647</v>
@@ -1644,22 +1644,22 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E16" s="1">
         <v>43916</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G16" s="1">
         <v>43983</v>
@@ -1667,16 +1667,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E17" s="1">
         <v>43888</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="1">
@@ -1704,16 +1704,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D19" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E19" s="1">
         <v>43818</v>
@@ -1725,16 +1725,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
         <v>44</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="D20" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E20" s="1">
         <v>43797</v>
@@ -1746,22 +1746,22 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D21" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E21" s="1">
         <v>43643</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G21" s="1">
         <v>43983</v>
@@ -1769,22 +1769,22 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E22" s="1">
         <v>43916</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G22" s="1">
         <v>43988</v>
@@ -1792,22 +1792,22 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
         <v>65</v>
       </c>
-      <c r="B23" t="s">
-        <v>66</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E23" s="1">
         <v>43916</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G23" s="1">
         <v>43988</v>
@@ -1815,16 +1815,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D24" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E24" s="1">
         <v>43622</v>
@@ -1836,16 +1836,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
         <v>67</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="D25" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E25" s="1">
         <v>43734</v>
@@ -1857,22 +1857,22 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
         <v>61</v>
       </c>
-      <c r="B26" t="s">
-        <v>62</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E26" s="1">
         <v>43916</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G26" s="1">
         <v>43988</v>
@@ -1880,22 +1880,22 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
         <v>59</v>
       </c>
-      <c r="B27" t="s">
-        <v>60</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E27" s="1">
         <v>43916</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G27" s="1">
         <v>43988</v>
@@ -1903,22 +1903,22 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
         <v>70</v>
       </c>
-      <c r="B28" t="s">
-        <v>71</v>
-      </c>
       <c r="C28" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E28" s="1">
         <v>43916</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G28" s="1">
         <v>43988</v>
@@ -1926,16 +1926,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
         <v>72</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D29" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E29" s="1">
         <v>43831</v>
@@ -1950,16 +1950,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
         <v>75</v>
       </c>
-      <c r="B30" t="s">
-        <v>76</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E30" s="1">
         <v>43909</v>
@@ -1971,16 +1971,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
         <v>77</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="D31" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E31" s="1">
         <v>43800</v>
@@ -1992,16 +1992,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
         <v>53</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D32" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E32" s="1">
         <v>43800</v>
@@ -2013,16 +2013,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" t="s">
         <v>86</v>
       </c>
-      <c r="B33" t="s">
-        <v>87</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E33" s="1">
         <v>43800</v>
@@ -2034,22 +2034,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="D34" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E34" s="1">
         <v>43818</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G34" s="1">
         <v>44166</v>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
         <v>83</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="D35" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E35" s="1">
         <v>43734</v>
@@ -2078,16 +2078,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
         <v>80</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="D36" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E36" s="1">
         <v>43709</v>
@@ -2099,31 +2099,31 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
         <v>100</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" t="s">
         <v>103</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="D38" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E38" s="1">
         <v>43800</v>
@@ -2134,16 +2134,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" t="s">
         <v>106</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="D39" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E39" s="1">
         <v>43800</v>
@@ -2154,32 +2154,32 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" t="s">
         <v>195</v>
       </c>
-      <c r="B40" t="s">
-        <v>196</v>
-      </c>
       <c r="C40" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" t="s">
         <v>109</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="1">
         <v>43916</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G41" s="1">
         <v>43941</v>
@@ -2187,20 +2187,20 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" t="s">
         <v>112</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="1">
         <v>43916</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G42" s="1">
         <v>43941</v>
@@ -2208,28 +2208,28 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>260</v>
+      </c>
+      <c r="B43" t="s">
         <v>261</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" t="s">
         <v>115</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="D44" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E44" s="1">
         <v>43831</v>
@@ -2241,16 +2241,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" t="s">
         <v>118</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="D45" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E45" s="1">
         <v>43739</v>
@@ -2262,13 +2262,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" t="s">
         <v>121</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="1">
@@ -2278,16 +2278,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" t="s">
         <v>124</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E47" s="1">
         <v>43910</v>
@@ -2299,13 +2299,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" t="s">
         <v>127</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="1">
@@ -2315,13 +2315,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" t="s">
         <v>130</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="1">
@@ -2334,13 +2334,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" t="s">
         <v>133</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="1">
@@ -2353,13 +2353,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" t="s">
         <v>136</v>
       </c>
-      <c r="B51" t="s">
-        <v>137</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="1">
@@ -2372,26 +2372,26 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>257</v>
+      </c>
+      <c r="B52" t="s">
         <v>258</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="D52" s="7"/>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" t="s">
         <v>138</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="1">
@@ -2404,16 +2404,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" t="s">
         <v>150</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="D54" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E54" s="1">
         <v>43846</v>
@@ -2422,16 +2422,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" t="s">
         <v>153</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>155</v>
-      </c>
       <c r="D55" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E55" s="1">
         <v>43642</v>
@@ -2443,59 +2443,59 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B56" t="s">
-        <v>192</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" t="s">
         <v>141</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="D57" s="2"/>
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>254</v>
+      </c>
+      <c r="B58" t="s">
         <v>255</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>257</v>
-      </c>
       <c r="D58" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" t="s">
         <v>144</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="1">
         <v>43916</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G59" s="1">
         <v>43941</v>
@@ -2503,22 +2503,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" t="s">
         <v>147</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="D60" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E60" s="1">
         <v>43734</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G60" s="1">
         <v>44100</v>
@@ -2526,13 +2526,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>155</v>
+      </c>
+      <c r="B61" t="s">
         <v>156</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="1">
@@ -2545,28 +2545,28 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62" t="s">
         <v>197</v>
       </c>
-      <c r="B62" t="s">
-        <v>198</v>
-      </c>
       <c r="C62" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D62" s="6"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" t="s">
         <v>165</v>
       </c>
-      <c r="B63" t="s">
-        <v>166</v>
-      </c>
       <c r="C63" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E63" s="1">
         <v>43885</v>
@@ -2578,22 +2578,22 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" t="s">
         <v>170</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="D64" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E64" s="1">
         <v>43734</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G64" s="1">
         <v>44100</v>
@@ -2601,20 +2601,20 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>172</v>
+      </c>
+      <c r="B65" t="s">
         <v>173</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="1">
         <v>43734</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G65" s="1">
         <v>44100</v>
@@ -2622,22 +2622,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" t="s">
         <v>176</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="D66" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E66" s="1">
         <v>43611</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G66" s="1">
         <v>43977</v>
@@ -2645,22 +2645,22 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" t="s">
         <v>179</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="D67" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E67" s="1">
         <v>43859</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G67" s="1">
         <v>43950</v>
@@ -2668,20 +2668,20 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>181</v>
+      </c>
+      <c r="B68" t="s">
         <v>182</v>
       </c>
-      <c r="B68" t="s">
-        <v>183</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="1">
         <v>43859</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G68" s="1">
         <v>43950</v>
@@ -2689,16 +2689,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>251</v>
+      </c>
+      <c r="B69" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="B69" t="s">
-        <v>168</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>253</v>
       </c>
       <c r="E69" s="1">
         <v>43435</v>
@@ -2706,16 +2706,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B70" t="s">
         <v>167</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="D70" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E70" s="1">
         <v>43447</v>
@@ -2724,16 +2724,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" t="s">
         <v>159</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="D71" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E71" s="1">
         <v>43627</v>
@@ -2745,16 +2745,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>161</v>
+      </c>
+      <c r="B72" t="s">
         <v>162</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="D72" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E72" s="1">
         <v>43627</v>
@@ -2766,22 +2766,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>183</v>
+      </c>
+      <c r="B73" t="s">
         <v>184</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="D73" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E73" s="1">
         <v>43831</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G73" s="1">
         <v>44197</v>
@@ -2789,22 +2789,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>186</v>
+      </c>
+      <c r="B74" t="s">
         <v>187</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="D74" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E74" s="1">
         <v>43586</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G74" s="1">
         <v>43952</v>
@@ -2812,13 +2812,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>189</v>
+      </c>
+      <c r="B75" t="s">
+        <v>189</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B75" t="s">
-        <v>190</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="D75" s="2"/>
     </row>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_506012E395FA7DDD8D792AFF9F2785B63A21DED6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D0AD6CFD-381D-4F14-9B7C-685CE3CA8DEB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF614A72-9E6D-4734-BE33-AA684417CA6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27570" yWindow="2865" windowWidth="2400" windowHeight="585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1305,23 +1305,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="2" max="2" width="97.26953125" customWidth="1"/>
-    <col min="3" max="3" width="104.1796875" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="97.28515625" customWidth="1"/>
+    <col min="3" max="3" width="104.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>44002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>44100</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>43978</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>44010</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>44100</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>105</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>194</v>
       </c>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>108</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>111</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>260</v>
       </c>
@@ -2217,8 +2217,14 @@
         <v>262</v>
       </c>
       <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E43" s="1">
+        <v>43891</v>
+      </c>
+      <c r="G43" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -2239,7 +2245,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>117</v>
       </c>
@@ -2260,7 +2266,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>120</v>
       </c>
@@ -2276,7 +2282,7 @@
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>123</v>
       </c>
@@ -2297,7 +2303,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>126</v>
       </c>
@@ -2313,7 +2319,7 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>129</v>
       </c>
@@ -2332,7 +2338,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>132</v>
       </c>
@@ -2351,7 +2357,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>135</v>
       </c>
@@ -2370,7 +2376,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>257</v>
       </c>
@@ -2383,7 +2389,7 @@
       <c r="D52" s="7"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>137</v>
       </c>
@@ -2402,7 +2408,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>149</v>
       </c>
@@ -2420,7 +2426,7 @@
       </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -2441,7 +2447,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>191</v>
       </c>
@@ -2453,7 +2459,7 @@
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>140</v>
       </c>
@@ -2466,7 +2472,7 @@
       <c r="D57" s="2"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>254</v>
       </c>
@@ -2480,7 +2486,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>143</v>
       </c>
@@ -2501,7 +2507,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>146</v>
       </c>
@@ -2524,7 +2530,7 @@
         <v>44100</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>155</v>
       </c>
@@ -2543,7 +2549,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>196</v>
       </c>
@@ -2555,7 +2561,7 @@
       </c>
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>164</v>
       </c>
@@ -2576,7 +2582,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -2599,7 +2605,7 @@
         <v>44100</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>172</v>
       </c>
@@ -2620,7 +2626,7 @@
         <v>44100</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>175</v>
       </c>
@@ -2643,7 +2649,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>178</v>
       </c>
@@ -2666,7 +2672,7 @@
         <v>43950</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>181</v>
       </c>
@@ -2687,7 +2693,7 @@
         <v>43950</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>251</v>
       </c>
@@ -2704,7 +2710,7 @@
         <v>43435</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>166</v>
       </c>
@@ -2722,7 +2728,7 @@
       </c>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>158</v>
       </c>
@@ -2743,7 +2749,7 @@
         <v>43993</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>161</v>
       </c>
@@ -2764,7 +2770,7 @@
         <v>43993</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>183</v>
       </c>
@@ -2787,7 +2793,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>186</v>
       </c>
@@ -2810,7 +2816,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>189</v>
       </c>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF614A72-9E6D-4734-BE33-AA684417CA6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AC2077-0977-4DB7-A6FD-E1026B1D1A0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27570" yWindow="2865" windowWidth="2400" windowHeight="585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-540" yWindow="2940" windowWidth="2400" windowHeight="5295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -988,7 +988,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F749F361-49C4-4B0A-A4C3-B5B7F0C6E28B}" name="Table1" displayName="Table1" ref="A1:H75" totalsRowShown="0">
-  <autoFilter ref="A1:H75" xr:uid="{BBCD3624-7D7A-4AAD-80D9-FA4730FEF2DC}"/>
+  <autoFilter ref="A1:H75" xr:uid="{BBCD3624-7D7A-4AAD-80D9-FA4730FEF2DC}">
+    <filterColumn colId="6">
+      <filters blank="1">
+        <dateGroupItem year="2020" month="4" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H75">
     <sortCondition ref="B1:B75"/>
   </sortState>
@@ -1305,15 +1311,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="97.28515625" customWidth="1"/>
-    <col min="3" max="3" width="104.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
@@ -1347,7 +1353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1391,7 +1397,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1414,7 +1420,7 @@
         <v>44002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -1428,14 +1434,14 @@
         <v>200</v>
       </c>
       <c r="E5" s="1">
-        <v>43800</v>
+        <v>43891</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="1">
         <v>44166</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -1449,14 +1455,14 @@
         <v>200</v>
       </c>
       <c r="E6" s="1">
-        <v>43800</v>
+        <v>43892</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="1">
         <v>44166</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1477,7 +1483,7 @@
         <v>44100</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1498,7 +1504,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1519,7 +1525,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1540,7 +1546,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1584,7 +1590,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1622,7 +1628,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -1642,7 +1648,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1665,7 +1671,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1702,7 +1708,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1723,7 +1729,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1744,7 +1750,7 @@
         <v>44010</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1767,7 +1773,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -1790,7 +1796,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -1813,7 +1819,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1834,7 +1840,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1855,7 +1861,7 @@
         <v>44100</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -1878,7 +1884,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -1969,7 +1975,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -1990,7 +1996,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -2011,7 +2017,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -2032,7 +2038,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2055,7 +2061,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -2076,7 +2082,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -2112,7 +2118,7 @@
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>105</v>
       </c>
@@ -2171,7 +2177,7 @@
       <c r="B41" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="7" t="s">
         <v>110</v>
       </c>
       <c r="D41" s="2"/>
@@ -2206,7 +2212,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>260</v>
       </c>
@@ -2224,7 +2230,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -2245,7 +2251,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>117</v>
       </c>
@@ -2292,7 +2298,7 @@
       <c r="C47" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="7" t="s">
         <v>226</v>
       </c>
       <c r="E47" s="1">
@@ -2350,11 +2356,12 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="1">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="1">
-        <v>43922</v>
+        <f>EDATE(Table1[[#This Row],[Last Updated]],1)</f>
+        <v>43952</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2369,11 +2376,12 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="1">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="1">
-        <v>43922</v>
+        <f>EDATE(Table1[[#This Row],[Last Updated]],1)</f>
+        <v>43952</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2389,7 +2397,7 @@
       <c r="D52" s="7"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>137</v>
       </c>
@@ -2426,7 +2434,7 @@
       </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -2507,7 +2515,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>146</v>
       </c>
@@ -2530,7 +2538,7 @@
         <v>44100</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>155</v>
       </c>
@@ -2561,7 +2569,7 @@
       </c>
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>164</v>
       </c>
@@ -2582,7 +2590,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -2605,7 +2613,7 @@
         <v>44100</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>172</v>
       </c>
@@ -2626,7 +2634,7 @@
         <v>44100</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>175</v>
       </c>
@@ -2728,7 +2736,7 @@
       </c>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>158</v>
       </c>
@@ -2749,7 +2757,7 @@
         <v>43993</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>161</v>
       </c>
@@ -2770,7 +2778,7 @@
         <v>43993</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>183</v>
       </c>
@@ -2793,7 +2801,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>186</v>
       </c>
@@ -2930,11 +2938,14 @@
     <hyperlink ref="C69" r:id="rId98" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{64A39A22-50C6-42B0-88E4-9EE9994E3AD2}"/>
     <hyperlink ref="C58" r:id="rId99" xr:uid="{EC022946-57AA-4AE9-8D75-AE540EFF2377}"/>
     <hyperlink ref="C52" r:id="rId100" xr:uid="{77DE27B1-00DA-4F06-AA9B-85165BB656D8}"/>
+    <hyperlink ref="D10" r:id="rId101" xr:uid="{18C048C3-3BF2-4301-AFE0-9A2D7D5D58B6}"/>
+    <hyperlink ref="D11" r:id="rId102" xr:uid="{98589BF6-26BA-4BDC-AADD-4A04726CFD98}"/>
+    <hyperlink ref="D47" r:id="rId103" xr:uid="{AE41FB9A-C951-47FE-83E8-44E825C96B92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId101"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId104"/>
   <tableParts count="1">
-    <tablePart r:id="rId102"/>
+    <tablePart r:id="rId105"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E30A4F69-E66D-4618-96DE-50BC821DB006}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{91896BA9-4973-4482-B0C0-BF7E7371B195}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,18 +294,12 @@
     <t>Department for Transport: Licensed vehicles</t>
   </si>
   <si>
-    <t xml:space="preserve">https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/739952/veh0104.ods </t>
-  </si>
-  <si>
     <t>DFTULEVs</t>
   </si>
   <si>
     <t>Department for Transport: ULEVs licensed</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/763823/veh0132.ods</t>
-  </si>
-  <si>
     <t>ElectralinkMeters</t>
   </si>
   <si>
@@ -745,6 +739,12 @@
   </si>
   <si>
     <t>BEISElecConsump</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/882142/veh0104.ods</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/882241/veh0132.ods</t>
   </si>
 </sst>
 </file>
@@ -921,7 +921,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H65" totalsRowShown="0">
-  <autoFilter ref="A1:H65" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:H65" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="6">
+      <filters blank="1">
+        <dateGroupItem year="2020" month="4" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H65">
     <sortCondition ref="A1:A65"/>
   </sortState>
@@ -1239,7 +1245,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+      <selection activeCell="H43" sqref="H43:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1262,10 +1268,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1274,13 +1280,13 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1288,16 +1294,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E2" s="1">
         <v>43916</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G2" s="1">
         <f>DATE(YEAR(E2),MONTH(E2)+3,DAY(E2))</f>
@@ -1307,7 +1313,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1315,16 +1321,16 @@
         <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E3" s="1">
         <v>43916</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G3" s="1">
         <f>DATE(YEAR(E3),MONTH(E3)+3,DAY(E3))</f>
@@ -1334,7 +1340,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1345,13 +1351,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E4" s="1">
         <v>43734</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ref="G4:G10" si="0">DATE(YEAR(E4)+1,MONTH(E4),DAY(E4))</f>
@@ -1361,7 +1367,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1372,13 +1378,13 @@
         <v>14</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E5" s="1">
         <v>43647</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
@@ -1388,7 +1394,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1399,13 +1405,13 @@
         <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E6" s="1">
         <v>43647</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
@@ -1415,7 +1421,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1426,13 +1432,13 @@
         <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E7" s="1">
         <v>43647</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
@@ -1442,7 +1448,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1453,13 +1459,13 @@
         <v>23</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E8" s="1">
         <v>43647</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
@@ -1469,24 +1475,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>226</v>
       </c>
       <c r="E9" s="11">
         <v>43862</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G9" s="11">
         <f t="shared" si="0"/>
@@ -1496,7 +1502,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1507,13 +1513,13 @@
         <v>26</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E10" s="1">
         <v>43800</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
@@ -1537,13 +1543,13 @@
         <v>43916</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H11">
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1554,13 +1560,13 @@
         <v>32</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E12" s="1">
         <v>43818</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G12" s="1">
         <f>DATE(YEAR(E12)+1,MONTH(E12),DAY(E12))</f>
@@ -1585,14 +1591,14 @@
         <v>43466</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13">
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1600,16 +1606,16 @@
         <v>36</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E14" s="1">
         <v>43862</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G14" s="1">
         <f>DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
@@ -1619,7 +1625,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1627,16 +1633,16 @@
         <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E15" s="1">
         <v>43916</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G15" s="1">
         <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
@@ -1646,7 +1652,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1657,13 +1663,13 @@
         <v>41</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E16" s="1">
         <v>43622</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G16" s="1">
         <f>DATE(YEAR(E16)+1,MONTH(E16),DAY(E16))</f>
@@ -1673,7 +1679,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1684,13 +1690,13 @@
         <v>44</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E17" s="1">
         <v>43643</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G17" s="1">
         <f>DATE(YEAR(E17)+1,MONTH(E17),DAY(E17))</f>
@@ -1700,7 +1706,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1711,13 +1717,13 @@
         <v>47</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E18" s="1">
         <v>43800</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G18" s="1">
         <f>DATE(YEAR(E18)+1,MONTH(E18),DAY(E18))</f>
@@ -1727,7 +1733,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1738,13 +1744,13 @@
         <v>50</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E19" s="1">
         <v>43888</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" ref="G19:G25" si="1">DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
@@ -1754,7 +1760,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1762,16 +1768,16 @@
         <v>52</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E20" s="1">
         <v>43916</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="1"/>
@@ -1781,7 +1787,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1789,16 +1795,16 @@
         <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E21" s="1">
         <v>43916</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
@@ -1808,7 +1814,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -1816,16 +1822,16 @@
         <v>56</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E22" s="1">
         <v>43916</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="1"/>
@@ -1835,7 +1841,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -1843,16 +1849,16 @@
         <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E23" s="1">
         <v>43916</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="1"/>
@@ -1862,7 +1868,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -1870,16 +1876,16 @@
         <v>60</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E24" s="1">
         <v>43916</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="1"/>
@@ -1889,7 +1895,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -1897,16 +1903,16 @@
         <v>62</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E25" s="1">
         <v>43922</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="1"/>
@@ -1916,7 +1922,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -1924,16 +1930,16 @@
         <v>64</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E26" s="1">
         <v>43922</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G26" s="1">
         <f>DATE(YEAR(E26),MONTH(E26)+1,DAY(E26))</f>
@@ -1943,7 +1949,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -1954,13 +1960,13 @@
         <v>67</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E27" s="1">
         <v>43800</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G27" s="1">
         <f>DATE(YEAR(E27)+1,MONTH(E27),DAY(E27))</f>
@@ -1970,7 +1976,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -1981,13 +1987,13 @@
         <v>70</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E28" s="1">
         <v>43709</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G28" s="1">
         <f>DATE(YEAR(E28)+1,MONTH(E28),DAY(E28))</f>
@@ -1997,7 +2003,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -2008,13 +2014,13 @@
         <v>73</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E29" s="1">
         <v>43734</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G29" s="1">
         <f>DATE(YEAR(E29)+1,MONTH(E29),DAY(E29))</f>
@@ -2024,7 +2030,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -2035,13 +2041,13 @@
         <v>32</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E30" s="1">
         <v>43800</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G30" s="1">
         <f>DATE(YEAR(E30)+1,MONTH(E30),DAY(E30))</f>
@@ -2051,7 +2057,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2062,13 +2068,13 @@
         <v>78</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E31" s="1">
         <v>43647</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G31" s="1">
         <f>DATE(YEAR(E31)+1,MONTH(E31),DAY(E31))</f>
@@ -2078,7 +2084,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -2089,13 +2095,13 @@
         <v>81</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E32" s="1">
         <v>43891</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G32" s="1">
         <f>DATE(YEAR(E32),MONTH(E32)+3,DAY(E32))</f>
@@ -2105,7 +2111,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -2116,13 +2122,13 @@
         <v>84</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E33" s="1">
         <v>43892</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G33" s="1">
         <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
@@ -2139,43 +2145,43 @@
       <c r="B34" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>87</v>
+      <c r="C34" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E34" s="1">
-        <v>43800</v>
+        <v>43922</v>
       </c>
       <c r="F34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G34" s="1">
-        <v>43922</v>
+        <v>43983</v>
       </c>
       <c r="H34" s="8">
-        <v>43709</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E35" s="1">
         <v>43862</v>
       </c>
       <c r="F35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G35" s="1">
         <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
@@ -2187,75 +2193,74 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
         <v>88</v>
       </c>
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>90</v>
+      <c r="C36" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E36" s="1">
-        <v>43800</v>
+        <v>43922</v>
       </c>
       <c r="F36" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G36" s="1">
-        <v>43922</v>
+        <v>43983</v>
       </c>
       <c r="H36" s="8">
-        <v>43709</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="D37" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E37" s="1">
         <v>43916</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G37" s="1">
-        <f>DATE(YEAR(E37),MONTH(E37)+1,DAY(E37))</f>
-        <v>43947</v>
+        <v>43977</v>
       </c>
       <c r="H37" s="8">
         <v>43891</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B38" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E38" s="1">
         <v>43831</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G38" s="1">
         <f>DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
@@ -2265,24 +2270,24 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="D39" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E39" s="1">
         <v>43831</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G39" s="1">
         <f>DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
@@ -2292,24 +2297,24 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B40" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="D40" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E40" s="1">
         <v>43739</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G40" s="1">
         <f>DATE(YEAR(E40)+1,MONTH(E40),DAY(E40))</f>
@@ -2321,47 +2326,46 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B41" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="D41" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E41" s="1">
         <v>43831</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G41" s="1">
-        <f>DATE(YEAR(E41),MONTH(E41)+3,DAY(E41))</f>
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="H41">
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="B42" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="1">
         <v>43862</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G42" s="1">
         <f>DATE(YEAR(E42)+1,MONTH(E42),DAY(E42))</f>
@@ -2373,95 +2377,95 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="1">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G43" s="1">
         <f>DATE(YEAR(E43),MONTH(E43)+3,DAY(E43))</f>
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="H43" s="8">
-        <v>43800</v>
+        <v>43891</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="1">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G44" s="1">
         <f>DATE(YEAR(E44),MONTH(E44)+3,DAY(E44))</f>
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="H44" s="8">
-        <v>43800</v>
+        <v>43891</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="1">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G45" s="1">
         <f>DATE(YEAR(E45),MONTH(E45)+3,DAY(E45))</f>
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="H45" s="8">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>213</v>
+      </c>
+      <c r="B46" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="B46" t="s">
-        <v>216</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="1">
         <v>43770</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" ref="G46:G55" si="2">DATE(YEAR(E46)+1,MONTH(E46),DAY(E46))</f>
@@ -2471,24 +2475,24 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B47" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="D47" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E47" s="1">
         <v>43634</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="2"/>
@@ -2498,24 +2502,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E48" s="1">
         <v>43831</v>
       </c>
       <c r="F48" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="2"/>
@@ -2525,22 +2529,22 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B49" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="1">
         <v>43617</v>
       </c>
       <c r="F49" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="2"/>
@@ -2550,24 +2554,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D50" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E50" s="1">
         <v>43734</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="2"/>
@@ -2577,24 +2581,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B51" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D51" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E51" s="1">
         <v>43846</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" si="2"/>
@@ -2604,22 +2608,22 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>216</v>
+      </c>
+      <c r="B52" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="B52" t="s">
-        <v>219</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="1">
         <v>43862</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="2"/>
@@ -2629,24 +2633,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E53" s="1">
         <v>43891</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="2"/>
@@ -2656,24 +2660,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B54" t="s">
-        <v>130</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="D54" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E54" s="1">
         <v>43627</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="2"/>
@@ -2683,24 +2687,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="D55" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E55" s="1">
         <v>43627</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="2"/>
@@ -2710,24 +2714,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E56" s="1">
         <v>43885</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G56" s="1">
         <f>DATE(YEAR(E56),MONTH(E56)+3,DAY(E56))</f>
@@ -2739,22 +2743,22 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>210</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B57" t="s">
-        <v>138</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>214</v>
-      </c>
       <c r="D57" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E57" s="1">
         <v>43435</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H57">
         <v>2018</v>
@@ -2762,45 +2766,45 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B58" t="s">
-        <v>138</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="D58" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E58" s="1">
         <v>43447</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H58">
         <v>2018</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B59" t="s">
-        <v>141</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="D59" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E59" s="1">
         <v>43891</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G59" s="1">
         <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
@@ -2810,24 +2814,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B60" t="s">
-        <v>144</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="D60" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E60" s="1">
         <v>43734</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G60" s="1">
         <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
@@ -2837,24 +2841,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B61" t="s">
-        <v>147</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="D61" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E61" s="1">
         <v>43611</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G61" s="1">
         <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
@@ -2866,22 +2870,22 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B62" t="s">
-        <v>150</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="D62" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E62" s="1">
         <v>43859</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G62" s="1">
         <v>43950</v>
@@ -2892,10 +2896,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>29</v>
@@ -2905,7 +2909,7 @@
         <v>43859</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G63" s="1">
         <v>43950</v>
@@ -2914,24 +2918,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B64" t="s">
-        <v>155</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D64" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E64" s="1">
         <v>43831</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G64" s="1">
         <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
@@ -2943,22 +2947,22 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B65" t="s">
-        <v>158</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="D65" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E65" s="1">
         <v>43859</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G65" s="1">
         <v>43950</v>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E30A4F69-E66D-4618-96DE-50BC821DB006}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A126281C-F080-4A1D-BF27-678F6574F993}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -633,9 +633,6 @@
     <t xml:space="preserve">https://www.gov.uk/government/statistical-data-sets/quarterly-domestic-energy-price-stastics </t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/875736/table_221.xlsx</t>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/875743/table_232.xlsx</t>
   </si>
   <si>
@@ -745,6 +742,9 @@
   </si>
   <si>
     <t>BEISElecConsump</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/875737/table_222.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1239,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1274,7 +1274,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -1288,7 +1288,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>169</v>
@@ -1297,7 +1297,7 @@
         <v>43916</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G2" s="1">
         <f>DATE(YEAR(E2),MONTH(E2)+3,DAY(E2))</f>
@@ -1315,7 +1315,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>169</v>
@@ -1324,7 +1324,7 @@
         <v>43916</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G3" s="1">
         <f>DATE(YEAR(E3),MONTH(E3)+3,DAY(E3))</f>
@@ -1345,13 +1345,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E4" s="1">
         <v>43734</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ref="G4:G10" si="0">DATE(YEAR(E4)+1,MONTH(E4),DAY(E4))</f>
@@ -1378,7 +1378,7 @@
         <v>43647</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
@@ -1405,7 +1405,7 @@
         <v>43647</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
@@ -1432,7 +1432,7 @@
         <v>43647</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
@@ -1459,7 +1459,7 @@
         <v>43647</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
@@ -1471,22 +1471,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>225</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>226</v>
       </c>
       <c r="E9" s="11">
         <v>43862</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G9" s="11">
         <f t="shared" si="0"/>
@@ -1513,7 +1513,7 @@
         <v>43800</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
@@ -1537,7 +1537,7 @@
         <v>43916</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H11">
         <v>2018</v>
@@ -1560,7 +1560,7 @@
         <v>43818</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G12" s="1">
         <f>DATE(YEAR(E12)+1,MONTH(E12),DAY(E12))</f>
@@ -1585,7 +1585,7 @@
         <v>43466</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13">
@@ -1600,7 +1600,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>172</v>
@@ -1609,7 +1609,7 @@
         <v>43862</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G14" s="1">
         <f>DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
@@ -1627,7 +1627,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>173</v>
@@ -1636,7 +1636,7 @@
         <v>43916</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G15" s="1">
         <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
@@ -1663,7 +1663,7 @@
         <v>43622</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G16" s="1">
         <f>DATE(YEAR(E16)+1,MONTH(E16),DAY(E16))</f>
@@ -1690,7 +1690,7 @@
         <v>43643</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G17" s="1">
         <f>DATE(YEAR(E17)+1,MONTH(E17),DAY(E17))</f>
@@ -1717,7 +1717,7 @@
         <v>43800</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G18" s="1">
         <f>DATE(YEAR(E18)+1,MONTH(E18),DAY(E18))</f>
@@ -1744,7 +1744,7 @@
         <v>43888</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" ref="G19:G25" si="1">DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
@@ -1762,7 +1762,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>178</v>
@@ -1771,7 +1771,7 @@
         <v>43916</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="1"/>
@@ -1789,7 +1789,7 @@
         <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>178</v>
@@ -1798,7 +1798,7 @@
         <v>43916</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
@@ -1816,7 +1816,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>199</v>
@@ -1825,7 +1825,7 @@
         <v>43916</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="1"/>
@@ -1843,7 +1843,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>178</v>
@@ -1852,7 +1852,7 @@
         <v>43916</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="1"/>
@@ -1870,7 +1870,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>179</v>
@@ -1879,7 +1879,7 @@
         <v>43916</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="1"/>
@@ -1897,7 +1897,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>180</v>
@@ -1906,7 +1906,7 @@
         <v>43922</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="1"/>
@@ -1924,7 +1924,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>181</v>
@@ -1933,7 +1933,7 @@
         <v>43922</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G26" s="1">
         <f>DATE(YEAR(E26),MONTH(E26)+1,DAY(E26))</f>
@@ -1960,7 +1960,7 @@
         <v>43800</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G27" s="1">
         <f>DATE(YEAR(E27)+1,MONTH(E27),DAY(E27))</f>
@@ -1987,7 +1987,7 @@
         <v>43709</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G28" s="1">
         <f>DATE(YEAR(E28)+1,MONTH(E28),DAY(E28))</f>
@@ -2014,7 +2014,7 @@
         <v>43734</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G29" s="1">
         <f>DATE(YEAR(E29)+1,MONTH(E29),DAY(E29))</f>
@@ -2041,7 +2041,7 @@
         <v>43800</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G30" s="1">
         <f>DATE(YEAR(E30)+1,MONTH(E30),DAY(E30))</f>
@@ -2068,7 +2068,7 @@
         <v>43647</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G31" s="1">
         <f>DATE(YEAR(E31)+1,MONTH(E31),DAY(E31))</f>
@@ -2095,7 +2095,7 @@
         <v>43891</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G32" s="1">
         <f>DATE(YEAR(E32),MONTH(E32)+3,DAY(E32))</f>
@@ -2122,7 +2122,7 @@
         <v>43892</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G33" s="1">
         <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
@@ -2149,7 +2149,7 @@
         <v>43800</v>
       </c>
       <c r="F34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G34" s="1">
         <v>43922</v>
@@ -2169,13 +2169,13 @@
         <v>162</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E35" s="1">
         <v>43862</v>
       </c>
       <c r="F35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G35" s="1">
         <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
@@ -2202,7 +2202,7 @@
         <v>43800</v>
       </c>
       <c r="F36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G36" s="1">
         <v>43922</v>
@@ -2222,13 +2222,13 @@
         <v>93</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E37" s="1">
         <v>43916</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G37" s="1">
         <f>DATE(YEAR(E37),MONTH(E37)+1,DAY(E37))</f>
@@ -2246,7 +2246,7 @@
         <v>95</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>96</v>
@@ -2255,7 +2255,7 @@
         <v>43831</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G38" s="1">
         <f>DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
@@ -2276,13 +2276,13 @@
         <v>99</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E39" s="1">
         <v>43831</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G39" s="1">
         <f>DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
@@ -2309,7 +2309,7 @@
         <v>43739</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G40" s="1">
         <f>DATE(YEAR(E40)+1,MONTH(E40),DAY(E40))</f>
@@ -2330,13 +2330,13 @@
         <v>105</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E41" s="1">
         <v>43831</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G41" s="1">
         <f>DATE(YEAR(E41),MONTH(E41)+3,DAY(E41))</f>
@@ -2361,7 +2361,7 @@
         <v>43862</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G42" s="1">
         <f>DATE(YEAR(E42)+1,MONTH(E42),DAY(E42))</f>
@@ -2386,7 +2386,7 @@
         <v>43831</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G43" s="1">
         <f>DATE(YEAR(E43),MONTH(E43)+3,DAY(E43))</f>
@@ -2411,7 +2411,7 @@
         <v>43831</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G44" s="1">
         <f>DATE(YEAR(E44),MONTH(E44)+3,DAY(E44))</f>
@@ -2436,7 +2436,7 @@
         <v>43831</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G45" s="1">
         <f>DATE(YEAR(E45),MONTH(E45)+3,DAY(E45))</f>
@@ -2448,20 +2448,20 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46" t="s">
         <v>215</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="1">
         <v>43770</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" ref="G46:G55" si="2">DATE(YEAR(E46)+1,MONTH(E46),DAY(E46))</f>
@@ -2482,13 +2482,13 @@
         <v>119</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E47" s="1">
         <v>43634</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="2"/>
@@ -2515,7 +2515,7 @@
         <v>43831</v>
       </c>
       <c r="F48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="2"/>
@@ -2540,7 +2540,7 @@
         <v>43617</v>
       </c>
       <c r="F49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="2"/>
@@ -2561,13 +2561,13 @@
         <v>125</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E50" s="1">
         <v>43734</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="2"/>
@@ -2594,7 +2594,7 @@
         <v>43846</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" si="2"/>
@@ -2606,20 +2606,20 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>217</v>
+      </c>
+      <c r="B52" t="s">
         <v>218</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="1">
         <v>43862</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="2"/>
@@ -2646,7 +2646,7 @@
         <v>43891</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="2"/>
@@ -2673,7 +2673,7 @@
         <v>43627</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="2"/>
@@ -2700,7 +2700,7 @@
         <v>43627</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="2"/>
@@ -2727,7 +2727,7 @@
         <v>43885</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G56" s="1">
         <f>DATE(YEAR(E56),MONTH(E56)+3,DAY(E56))</f>
@@ -2739,22 +2739,22 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B57" t="s">
         <v>138</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E57" s="1">
         <v>43435</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H57">
         <v>2018</v>
@@ -2777,7 +2777,7 @@
         <v>43447</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H58">
         <v>2018</v>
@@ -2800,7 +2800,7 @@
         <v>43891</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G59" s="1">
         <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
@@ -2821,13 +2821,13 @@
         <v>145</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E60" s="1">
         <v>43734</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G60" s="1">
         <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
@@ -2854,7 +2854,7 @@
         <v>43611</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G61" s="1">
         <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
@@ -2881,7 +2881,7 @@
         <v>43859</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G62" s="1">
         <v>43950</v>
@@ -2905,7 +2905,7 @@
         <v>43859</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G63" s="1">
         <v>43950</v>
@@ -2931,7 +2931,7 @@
         <v>43831</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G64" s="1">
         <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
@@ -2958,7 +2958,7 @@
         <v>43859</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G65" s="1">
         <v>43950</v>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A126281C-F080-4A1D-BF27-678F6574F993}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E30A4F69-E66D-4618-96DE-50BC821DB006}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -633,6 +633,9 @@
     <t xml:space="preserve">https://www.gov.uk/government/statistical-data-sets/quarterly-domestic-energy-price-stastics </t>
   </si>
   <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/875736/table_221.xlsx</t>
+  </si>
+  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/875743/table_232.xlsx</t>
   </si>
   <si>
@@ -742,9 +745,6 @@
   </si>
   <si>
     <t>BEISElecConsump</t>
-  </si>
-  <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/875737/table_222.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1239,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1274,7 +1274,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -1288,7 +1288,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>169</v>
@@ -1297,7 +1297,7 @@
         <v>43916</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G2" s="1">
         <f>DATE(YEAR(E2),MONTH(E2)+3,DAY(E2))</f>
@@ -1315,7 +1315,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>169</v>
@@ -1324,7 +1324,7 @@
         <v>43916</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G3" s="1">
         <f>DATE(YEAR(E3),MONTH(E3)+3,DAY(E3))</f>
@@ -1345,13 +1345,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E4" s="1">
         <v>43734</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ref="G4:G10" si="0">DATE(YEAR(E4)+1,MONTH(E4),DAY(E4))</f>
@@ -1378,7 +1378,7 @@
         <v>43647</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
@@ -1405,7 +1405,7 @@
         <v>43647</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
@@ -1432,7 +1432,7 @@
         <v>43647</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
@@ -1459,7 +1459,7 @@
         <v>43647</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
@@ -1471,22 +1471,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E9" s="11">
         <v>43862</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G9" s="11">
         <f t="shared" si="0"/>
@@ -1513,7 +1513,7 @@
         <v>43800</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
@@ -1537,7 +1537,7 @@
         <v>43916</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H11">
         <v>2018</v>
@@ -1560,7 +1560,7 @@
         <v>43818</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G12" s="1">
         <f>DATE(YEAR(E12)+1,MONTH(E12),DAY(E12))</f>
@@ -1585,7 +1585,7 @@
         <v>43466</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13">
@@ -1600,7 +1600,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>172</v>
@@ -1609,7 +1609,7 @@
         <v>43862</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G14" s="1">
         <f>DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
@@ -1627,7 +1627,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>173</v>
@@ -1636,7 +1636,7 @@
         <v>43916</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G15" s="1">
         <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
@@ -1663,7 +1663,7 @@
         <v>43622</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G16" s="1">
         <f>DATE(YEAR(E16)+1,MONTH(E16),DAY(E16))</f>
@@ -1690,7 +1690,7 @@
         <v>43643</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G17" s="1">
         <f>DATE(YEAR(E17)+1,MONTH(E17),DAY(E17))</f>
@@ -1717,7 +1717,7 @@
         <v>43800</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G18" s="1">
         <f>DATE(YEAR(E18)+1,MONTH(E18),DAY(E18))</f>
@@ -1744,7 +1744,7 @@
         <v>43888</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" ref="G19:G25" si="1">DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
@@ -1762,7 +1762,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>178</v>
@@ -1771,7 +1771,7 @@
         <v>43916</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="1"/>
@@ -1789,7 +1789,7 @@
         <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>178</v>
@@ -1798,7 +1798,7 @@
         <v>43916</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
@@ -1816,7 +1816,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>199</v>
@@ -1825,7 +1825,7 @@
         <v>43916</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="1"/>
@@ -1843,7 +1843,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>178</v>
@@ -1852,7 +1852,7 @@
         <v>43916</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="1"/>
@@ -1870,7 +1870,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>179</v>
@@ -1879,7 +1879,7 @@
         <v>43916</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="1"/>
@@ -1897,7 +1897,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>180</v>
@@ -1906,7 +1906,7 @@
         <v>43922</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="1"/>
@@ -1924,7 +1924,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>181</v>
@@ -1933,7 +1933,7 @@
         <v>43922</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G26" s="1">
         <f>DATE(YEAR(E26),MONTH(E26)+1,DAY(E26))</f>
@@ -1960,7 +1960,7 @@
         <v>43800</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G27" s="1">
         <f>DATE(YEAR(E27)+1,MONTH(E27),DAY(E27))</f>
@@ -1987,7 +1987,7 @@
         <v>43709</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G28" s="1">
         <f>DATE(YEAR(E28)+1,MONTH(E28),DAY(E28))</f>
@@ -2014,7 +2014,7 @@
         <v>43734</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G29" s="1">
         <f>DATE(YEAR(E29)+1,MONTH(E29),DAY(E29))</f>
@@ -2041,7 +2041,7 @@
         <v>43800</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G30" s="1">
         <f>DATE(YEAR(E30)+1,MONTH(E30),DAY(E30))</f>
@@ -2068,7 +2068,7 @@
         <v>43647</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G31" s="1">
         <f>DATE(YEAR(E31)+1,MONTH(E31),DAY(E31))</f>
@@ -2095,7 +2095,7 @@
         <v>43891</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G32" s="1">
         <f>DATE(YEAR(E32),MONTH(E32)+3,DAY(E32))</f>
@@ -2122,7 +2122,7 @@
         <v>43892</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G33" s="1">
         <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
@@ -2149,7 +2149,7 @@
         <v>43800</v>
       </c>
       <c r="F34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G34" s="1">
         <v>43922</v>
@@ -2169,13 +2169,13 @@
         <v>162</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E35" s="1">
         <v>43862</v>
       </c>
       <c r="F35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G35" s="1">
         <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
@@ -2202,7 +2202,7 @@
         <v>43800</v>
       </c>
       <c r="F36" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G36" s="1">
         <v>43922</v>
@@ -2222,13 +2222,13 @@
         <v>93</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E37" s="1">
         <v>43916</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G37" s="1">
         <f>DATE(YEAR(E37),MONTH(E37)+1,DAY(E37))</f>
@@ -2246,7 +2246,7 @@
         <v>95</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>96</v>
@@ -2255,7 +2255,7 @@
         <v>43831</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G38" s="1">
         <f>DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
@@ -2276,13 +2276,13 @@
         <v>99</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E39" s="1">
         <v>43831</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G39" s="1">
         <f>DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
@@ -2309,7 +2309,7 @@
         <v>43739</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G40" s="1">
         <f>DATE(YEAR(E40)+1,MONTH(E40),DAY(E40))</f>
@@ -2330,13 +2330,13 @@
         <v>105</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E41" s="1">
         <v>43831</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G41" s="1">
         <f>DATE(YEAR(E41),MONTH(E41)+3,DAY(E41))</f>
@@ -2361,7 +2361,7 @@
         <v>43862</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G42" s="1">
         <f>DATE(YEAR(E42)+1,MONTH(E42),DAY(E42))</f>
@@ -2386,7 +2386,7 @@
         <v>43831</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G43" s="1">
         <f>DATE(YEAR(E43),MONTH(E43)+3,DAY(E43))</f>
@@ -2411,7 +2411,7 @@
         <v>43831</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G44" s="1">
         <f>DATE(YEAR(E44),MONTH(E44)+3,DAY(E44))</f>
@@ -2436,7 +2436,7 @@
         <v>43831</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G45" s="1">
         <f>DATE(YEAR(E45),MONTH(E45)+3,DAY(E45))</f>
@@ -2448,20 +2448,20 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="1">
         <v>43770</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" ref="G46:G55" si="2">DATE(YEAR(E46)+1,MONTH(E46),DAY(E46))</f>
@@ -2482,13 +2482,13 @@
         <v>119</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E47" s="1">
         <v>43634</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="2"/>
@@ -2515,7 +2515,7 @@
         <v>43831</v>
       </c>
       <c r="F48" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="2"/>
@@ -2540,7 +2540,7 @@
         <v>43617</v>
       </c>
       <c r="F49" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="2"/>
@@ -2561,13 +2561,13 @@
         <v>125</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E50" s="1">
         <v>43734</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="2"/>
@@ -2594,7 +2594,7 @@
         <v>43846</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" si="2"/>
@@ -2606,20 +2606,20 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B52" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="1">
         <v>43862</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="2"/>
@@ -2646,7 +2646,7 @@
         <v>43891</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="2"/>
@@ -2673,7 +2673,7 @@
         <v>43627</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="2"/>
@@ -2700,7 +2700,7 @@
         <v>43627</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="2"/>
@@ -2727,7 +2727,7 @@
         <v>43885</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G56" s="1">
         <f>DATE(YEAR(E56),MONTH(E56)+3,DAY(E56))</f>
@@ -2739,22 +2739,22 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B57" t="s">
         <v>138</v>
       </c>
       <c r="C57" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="E57" s="1">
         <v>43435</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H57">
         <v>2018</v>
@@ -2777,7 +2777,7 @@
         <v>43447</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H58">
         <v>2018</v>
@@ -2800,7 +2800,7 @@
         <v>43891</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G59" s="1">
         <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
@@ -2821,13 +2821,13 @@
         <v>145</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E60" s="1">
         <v>43734</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G60" s="1">
         <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
@@ -2854,7 +2854,7 @@
         <v>43611</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G61" s="1">
         <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
@@ -2881,7 +2881,7 @@
         <v>43859</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G62" s="1">
         <v>43950</v>
@@ -2905,7 +2905,7 @@
         <v>43859</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G63" s="1">
         <v>43950</v>
@@ -2931,7 +2931,7 @@
         <v>43831</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G64" s="1">
         <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
@@ -2958,7 +2958,7 @@
         <v>43859</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G65" s="1">
         <v>43950</v>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{91896BA9-4973-4482-B0C0-BF7E7371B195}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A126281C-F080-4A1D-BF27-678F6574F993}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,12 +294,18 @@
     <t>Department for Transport: Licensed vehicles</t>
   </si>
   <si>
+    <t xml:space="preserve">https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/739952/veh0104.ods </t>
+  </si>
+  <si>
     <t>DFTULEVs</t>
   </si>
   <si>
     <t>Department for Transport: ULEVs licensed</t>
   </si>
   <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/763823/veh0132.ods</t>
+  </si>
+  <si>
     <t>ElectralinkMeters</t>
   </si>
   <si>
@@ -627,9 +633,6 @@
     <t xml:space="preserve">https://www.gov.uk/government/statistical-data-sets/quarterly-domestic-energy-price-stastics </t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/875736/table_221.xlsx</t>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/875743/table_232.xlsx</t>
   </si>
   <si>
@@ -741,10 +744,7 @@
     <t>BEISElecConsump</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/882142/veh0104.ods</t>
-  </si>
-  <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/882241/veh0132.ods</t>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/875737/table_222.xlsx</t>
   </si>
 </sst>
 </file>
@@ -921,13 +921,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H65" totalsRowShown="0">
-  <autoFilter ref="A1:H65" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="6">
-      <filters blank="1">
-        <dateGroupItem year="2020" month="4" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H65" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H65">
     <sortCondition ref="A1:A65"/>
   </sortState>
@@ -1245,7 +1239,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43:H45"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1268,10 +1262,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1280,13 +1274,13 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1294,16 +1288,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E2" s="1">
         <v>43916</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G2" s="1">
         <f>DATE(YEAR(E2),MONTH(E2)+3,DAY(E2))</f>
@@ -1313,7 +1307,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1321,16 +1315,16 @@
         <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E3" s="1">
         <v>43916</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G3" s="1">
         <f>DATE(YEAR(E3),MONTH(E3)+3,DAY(E3))</f>
@@ -1340,7 +1334,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1351,13 +1345,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E4" s="1">
         <v>43734</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ref="G4:G10" si="0">DATE(YEAR(E4)+1,MONTH(E4),DAY(E4))</f>
@@ -1367,7 +1361,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1378,13 +1372,13 @@
         <v>14</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E5" s="1">
         <v>43647</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
@@ -1394,7 +1388,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1405,13 +1399,13 @@
         <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E6" s="1">
         <v>43647</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
@@ -1421,7 +1415,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1432,13 +1426,13 @@
         <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E7" s="1">
         <v>43647</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
@@ -1448,7 +1442,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1459,13 +1453,13 @@
         <v>23</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E8" s="1">
         <v>43647</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
@@ -1475,24 +1469,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E9" s="11">
         <v>43862</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G9" s="11">
         <f t="shared" si="0"/>
@@ -1502,7 +1496,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1513,13 +1507,13 @@
         <v>26</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E10" s="1">
         <v>43800</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
@@ -1543,13 +1537,13 @@
         <v>43916</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H11">
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1560,13 +1554,13 @@
         <v>32</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E12" s="1">
         <v>43818</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G12" s="1">
         <f>DATE(YEAR(E12)+1,MONTH(E12),DAY(E12))</f>
@@ -1591,14 +1585,14 @@
         <v>43466</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13">
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1606,16 +1600,16 @@
         <v>36</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E14" s="1">
         <v>43862</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G14" s="1">
         <f>DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
@@ -1625,7 +1619,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1633,16 +1627,16 @@
         <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E15" s="1">
         <v>43916</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G15" s="1">
         <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
@@ -1652,7 +1646,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1663,13 +1657,13 @@
         <v>41</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E16" s="1">
         <v>43622</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G16" s="1">
         <f>DATE(YEAR(E16)+1,MONTH(E16),DAY(E16))</f>
@@ -1679,7 +1673,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1690,13 +1684,13 @@
         <v>44</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E17" s="1">
         <v>43643</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G17" s="1">
         <f>DATE(YEAR(E17)+1,MONTH(E17),DAY(E17))</f>
@@ -1706,7 +1700,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1717,13 +1711,13 @@
         <v>47</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E18" s="1">
         <v>43800</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G18" s="1">
         <f>DATE(YEAR(E18)+1,MONTH(E18),DAY(E18))</f>
@@ -1733,7 +1727,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1744,13 +1738,13 @@
         <v>50</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E19" s="1">
         <v>43888</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" ref="G19:G25" si="1">DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
@@ -1760,7 +1754,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1768,16 +1762,16 @@
         <v>52</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E20" s="1">
         <v>43916</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="1"/>
@@ -1787,7 +1781,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1795,16 +1789,16 @@
         <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E21" s="1">
         <v>43916</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
@@ -1814,7 +1808,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -1822,16 +1816,16 @@
         <v>56</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E22" s="1">
         <v>43916</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="1"/>
@@ -1841,7 +1835,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -1849,16 +1843,16 @@
         <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E23" s="1">
         <v>43916</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="1"/>
@@ -1868,7 +1862,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -1876,16 +1870,16 @@
         <v>60</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E24" s="1">
         <v>43916</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="1"/>
@@ -1895,7 +1889,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -1903,16 +1897,16 @@
         <v>62</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E25" s="1">
         <v>43922</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="1"/>
@@ -1922,7 +1916,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -1930,16 +1924,16 @@
         <v>64</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E26" s="1">
         <v>43922</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G26" s="1">
         <f>DATE(YEAR(E26),MONTH(E26)+1,DAY(E26))</f>
@@ -1949,7 +1943,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -1960,13 +1954,13 @@
         <v>67</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E27" s="1">
         <v>43800</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G27" s="1">
         <f>DATE(YEAR(E27)+1,MONTH(E27),DAY(E27))</f>
@@ -1976,7 +1970,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -1987,13 +1981,13 @@
         <v>70</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E28" s="1">
         <v>43709</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G28" s="1">
         <f>DATE(YEAR(E28)+1,MONTH(E28),DAY(E28))</f>
@@ -2003,7 +1997,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -2014,13 +2008,13 @@
         <v>73</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E29" s="1">
         <v>43734</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G29" s="1">
         <f>DATE(YEAR(E29)+1,MONTH(E29),DAY(E29))</f>
@@ -2030,7 +2024,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -2041,13 +2035,13 @@
         <v>32</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E30" s="1">
         <v>43800</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G30" s="1">
         <f>DATE(YEAR(E30)+1,MONTH(E30),DAY(E30))</f>
@@ -2057,7 +2051,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2068,13 +2062,13 @@
         <v>78</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E31" s="1">
         <v>43647</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G31" s="1">
         <f>DATE(YEAR(E31)+1,MONTH(E31),DAY(E31))</f>
@@ -2084,7 +2078,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -2095,13 +2089,13 @@
         <v>81</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E32" s="1">
         <v>43891</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G32" s="1">
         <f>DATE(YEAR(E32),MONTH(E32)+3,DAY(E32))</f>
@@ -2111,7 +2105,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -2122,13 +2116,13 @@
         <v>84</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E33" s="1">
         <v>43892</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G33" s="1">
         <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
@@ -2145,43 +2139,43 @@
       <c r="B34" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>236</v>
+      <c r="C34" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E34" s="1">
+        <v>43800</v>
+      </c>
+      <c r="F34" t="s">
+        <v>201</v>
+      </c>
+      <c r="G34" s="1">
         <v>43922</v>
       </c>
-      <c r="F34" t="s">
-        <v>200</v>
-      </c>
-      <c r="G34" s="1">
-        <v>43983</v>
-      </c>
       <c r="H34" s="8">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>160</v>
-      </c>
       <c r="D35" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E35" s="1">
         <v>43862</v>
       </c>
       <c r="F35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G35" s="1">
         <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
@@ -2193,74 +2187,75 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>237</v>
+        <v>89</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E36" s="1">
+        <v>43800</v>
+      </c>
+      <c r="F36" t="s">
+        <v>201</v>
+      </c>
+      <c r="G36" s="1">
         <v>43922</v>
       </c>
-      <c r="F36" t="s">
-        <v>200</v>
-      </c>
-      <c r="G36" s="1">
-        <v>43983</v>
-      </c>
       <c r="H36" s="8">
-        <v>43862</v>
+        <v>43709</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E37" s="1">
         <v>43916</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G37" s="1">
-        <v>43977</v>
+        <f>DATE(YEAR(E37),MONTH(E37)+1,DAY(E37))</f>
+        <v>43947</v>
       </c>
       <c r="H37" s="8">
         <v>43891</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E38" s="1">
         <v>43831</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G38" s="1">
         <f>DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
@@ -2270,24 +2265,24 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E39" s="1">
         <v>43831</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G39" s="1">
         <f>DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
@@ -2297,24 +2292,24 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E40" s="1">
         <v>43739</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G40" s="1">
         <f>DATE(YEAR(E40)+1,MONTH(E40),DAY(E40))</f>
@@ -2326,46 +2321,47 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E41" s="1">
         <v>43831</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G41" s="1">
-        <v>43952</v>
+        <f>DATE(YEAR(E41),MONTH(E41)+3,DAY(E41))</f>
+        <v>43922</v>
       </c>
       <c r="H41">
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="1">
         <v>43862</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G42" s="1">
         <f>DATE(YEAR(E42)+1,MONTH(E42),DAY(E42))</f>
@@ -2377,95 +2373,95 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="1">
-        <v>43922</v>
+        <v>43831</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G43" s="1">
         <f>DATE(YEAR(E43),MONTH(E43)+3,DAY(E43))</f>
-        <v>44013</v>
+        <v>43922</v>
       </c>
       <c r="H43" s="8">
-        <v>43891</v>
+        <v>43800</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="1">
-        <v>43922</v>
+        <v>43831</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G44" s="1">
         <f>DATE(YEAR(E44),MONTH(E44)+3,DAY(E44))</f>
-        <v>44013</v>
+        <v>43922</v>
       </c>
       <c r="H44" s="8">
-        <v>43891</v>
+        <v>43800</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="1">
-        <v>43922</v>
+        <v>43831</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G45" s="1">
         <f>DATE(YEAR(E45),MONTH(E45)+3,DAY(E45))</f>
-        <v>44013</v>
+        <v>43922</v>
       </c>
       <c r="H45" s="8">
-        <v>43891</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B46" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="1">
         <v>43770</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" ref="G46:G55" si="2">DATE(YEAR(E46)+1,MONTH(E46),DAY(E46))</f>
@@ -2475,24 +2471,24 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E47" s="1">
         <v>43634</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="2"/>
@@ -2502,24 +2498,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E48" s="1">
         <v>43831</v>
       </c>
       <c r="F48" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="2"/>
@@ -2529,22 +2525,22 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="1">
         <v>43617</v>
       </c>
       <c r="F49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="2"/>
@@ -2554,24 +2550,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E50" s="1">
         <v>43734</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="2"/>
@@ -2581,24 +2577,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E51" s="1">
         <v>43846</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" si="2"/>
@@ -2608,22 +2604,22 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B52" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="1">
         <v>43862</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="2"/>
@@ -2633,24 +2629,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B53" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E53" s="1">
         <v>43891</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="2"/>
@@ -2660,24 +2656,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B54" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E54" s="1">
         <v>43627</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="2"/>
@@ -2687,24 +2683,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E55" s="1">
         <v>43627</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="2"/>
@@ -2714,24 +2710,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E56" s="1">
         <v>43885</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G56" s="1">
         <f>DATE(YEAR(E56),MONTH(E56)+3,DAY(E56))</f>
@@ -2743,22 +2739,22 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C57" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="E57" s="1">
         <v>43435</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H57">
         <v>2018</v>
@@ -2766,45 +2762,45 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E58" s="1">
         <v>43447</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H58">
         <v>2018</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E59" s="1">
         <v>43891</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G59" s="1">
         <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
@@ -2814,24 +2810,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E60" s="1">
         <v>43734</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G60" s="1">
         <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
@@ -2841,24 +2837,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E61" s="1">
         <v>43611</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G61" s="1">
         <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
@@ -2870,22 +2866,22 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E62" s="1">
         <v>43859</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G62" s="1">
         <v>43950</v>
@@ -2896,10 +2892,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>29</v>
@@ -2909,7 +2905,7 @@
         <v>43859</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G63" s="1">
         <v>43950</v>
@@ -2918,24 +2914,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B64" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E64" s="1">
         <v>43831</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G64" s="1">
         <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
@@ -2947,22 +2943,22 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B65" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E65" s="1">
         <v>43859</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G65" s="1">
         <v>43950</v>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A126281C-F080-4A1D-BF27-678F6574F993}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2012825B-D0F1-4ACC-9A4F-92B4EEA213F7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="242">
   <si>
     <t>Code</t>
   </si>
@@ -745,6 +745,18 @@
   </si>
   <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/875737/table_222.xlsx</t>
+  </si>
+  <si>
+    <t>ONSNatural</t>
+  </si>
+  <si>
+    <t>ONS, Scottish Government: Scottish natural capital: ecosystem service accounts</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/publications/scottish-natural-capital-ecosystem-service-accounts-2019/pages/10/</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/03/scottish-natural-capital-ecosystem-service-accounts-2019/documents/tables/tables/govscot%3Adocument/tables.xls</t>
   </si>
 </sst>
 </file>
@@ -755,7 +767,7 @@
     <numFmt numFmtId="164" formatCode="[$-809]mmm\-yy"/>
     <numFmt numFmtId="165" formatCode="[$-809]dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -783,6 +795,13 @@
       <color rgb="FF0563C1"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -812,7 +831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -826,6 +845,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -920,8 +940,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H65" totalsRowShown="0">
-  <autoFilter ref="A1:H65" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H66" totalsRowShown="0">
+  <autoFilter ref="A1:H66" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H65">
     <sortCondition ref="A1:A65"/>
   </sortState>
@@ -1236,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2965,6 +2985,23 @@
       </c>
       <c r="H65">
         <v>2018</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>238</v>
+      </c>
+      <c r="B66" t="s">
+        <v>239</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E66" s="13">
+        <v>43546</v>
       </c>
     </row>
   </sheetData>
@@ -3073,11 +3110,13 @@
     <hyperlink ref="D60" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="C62" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/01/gdp-quarterly-national-accounts-for-scotland-2019-q3/documents/other-quarterly-national-accounts-summary-tables/other-quarterly-national-accounts-summary-tables/govsco" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
     <hyperlink ref="C9" r:id="rId103" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
+    <hyperlink ref="D66" r:id="rId104" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
+    <hyperlink ref="C66" r:id="rId105" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId104"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId106"/>
   <tableParts count="1">
-    <tablePart r:id="rId105"/>
+    <tablePart r:id="rId107"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2012825B-D0F1-4ACC-9A4F-92B4EEA213F7}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EBC7C288-A22C-4BE6-8DCC-C1E53233EE1C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="245">
   <si>
     <t>Code</t>
   </si>
@@ -757,6 +757,15 @@
   </si>
   <si>
     <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/03/scottish-natural-capital-ecosystem-service-accounts-2019/documents/tables/tables/govscot%3Adocument/tables.xls</t>
+  </si>
+  <si>
+    <t>https://chargeplacescotland.org/live-map/</t>
+  </si>
+  <si>
+    <t>ChargePlace Scotland</t>
+  </si>
+  <si>
+    <t>ChargePlace</t>
   </si>
 </sst>
 </file>
@@ -940,8 +949,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H66" totalsRowShown="0">
-  <autoFilter ref="A1:H66" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H67" totalsRowShown="0">
+  <autoFilter ref="A1:H67" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H65">
     <sortCondition ref="A1:A65"/>
   </sortState>
@@ -1256,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3003,6 +3012,18 @@
       <c r="E66" s="13">
         <v>43546</v>
       </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>244</v>
+      </c>
+      <c r="B67" t="s">
+        <v>243</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D67" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3112,11 +3133,12 @@
     <hyperlink ref="C9" r:id="rId103" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
     <hyperlink ref="D66" r:id="rId104" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
     <hyperlink ref="C66" r:id="rId105" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
+    <hyperlink ref="C67" r:id="rId106" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId106"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId107"/>
   <tableParts count="1">
-    <tablePart r:id="rId107"/>
+    <tablePart r:id="rId108"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EBC7C288-A22C-4BE6-8DCC-C1E53233EE1C}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D05F11E6-E1EF-4BA8-ACC6-20877066EFC9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="248">
   <si>
     <t>Code</t>
   </si>
@@ -766,6 +766,15 @@
   </si>
   <si>
     <t>ChargePlace</t>
+  </si>
+  <si>
+    <t>BEIS: LSOA domestic electricity</t>
+  </si>
+  <si>
+    <t>BEISLSOA</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/868762/LSOA_domestic_elec_2010-18.xlsx</t>
   </si>
 </sst>
 </file>
@@ -949,8 +958,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H67" totalsRowShown="0">
-  <autoFilter ref="A1:H67" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H68" totalsRowShown="0">
+  <autoFilter ref="A1:H68" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H65">
     <sortCondition ref="A1:A65"/>
   </sortState>
@@ -1265,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3024,6 +3033,33 @@
         <v>242</v>
       </c>
       <c r="D67" s="6"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>246</v>
+      </c>
+      <c r="B68" t="s">
+        <v>245</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E68" s="1">
+        <v>43889</v>
+      </c>
+      <c r="F68" t="s">
+        <v>202</v>
+      </c>
+      <c r="G68" s="1">
+        <f>DATE(YEAR(E68)+1,MONTH(E68),DAY(E68))</f>
+        <v>44255</v>
+      </c>
+      <c r="H68">
+        <v>2018</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3134,11 +3170,12 @@
     <hyperlink ref="D66" r:id="rId104" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
     <hyperlink ref="C66" r:id="rId105" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
     <hyperlink ref="C67" r:id="rId106" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
+    <hyperlink ref="D68" r:id="rId107" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId107"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId108"/>
   <tableParts count="1">
-    <tablePart r:id="rId108"/>
+    <tablePart r:id="rId109"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D05F11E6-E1EF-4BA8-ACC6-20877066EFC9}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E6C572C6-FBDD-4A55-902B-047DEB0D1469}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,9 +519,6 @@
     <t>https://www.ofgem.gov.uk/</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/863631/2019-third-provisional-rf-01-rtfo-tables.ods</t>
-  </si>
-  <si>
     <t>DFTRenewable</t>
   </si>
   <si>
@@ -775,6 +772,9 @@
   </si>
   <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/868762/LSOA_domestic_elec_2010-18.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/883181/2019-fourth-provisional-rf-01-rtfo-tables.ods</t>
   </si>
 </sst>
 </file>
@@ -1276,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1300,10 +1300,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" t="s">
         <v>167</v>
-      </c>
-      <c r="D1" t="s">
-        <v>168</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1312,7 +1312,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -1326,16 +1326,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E2" s="1">
         <v>43916</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="1">
         <f>DATE(YEAR(E2),MONTH(E2)+3,DAY(E2))</f>
@@ -1353,16 +1353,16 @@
         <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E3" s="1">
         <v>43916</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G3" s="1">
         <f>DATE(YEAR(E3),MONTH(E3)+3,DAY(E3))</f>
@@ -1383,13 +1383,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E4" s="1">
         <v>43734</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ref="G4:G10" si="0">DATE(YEAR(E4)+1,MONTH(E4),DAY(E4))</f>
@@ -1410,13 +1410,13 @@
         <v>14</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" s="1">
         <v>43647</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
@@ -1437,13 +1437,13 @@
         <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E6" s="1">
         <v>43647</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
@@ -1464,13 +1464,13 @@
         <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E7" s="1">
         <v>43647</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
@@ -1491,13 +1491,13 @@
         <v>23</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E8" s="1">
         <v>43647</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
@@ -1509,22 +1509,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>225</v>
       </c>
       <c r="E9" s="11">
         <v>43862</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G9" s="11">
         <f t="shared" si="0"/>
@@ -1545,13 +1545,13 @@
         <v>26</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E10" s="1">
         <v>43800</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
@@ -1575,7 +1575,7 @@
         <v>43916</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H11">
         <v>2018</v>
@@ -1592,13 +1592,13 @@
         <v>32</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E12" s="1">
         <v>43818</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G12" s="1">
         <f>DATE(YEAR(E12)+1,MONTH(E12),DAY(E12))</f>
@@ -1623,7 +1623,7 @@
         <v>43466</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13">
@@ -1638,16 +1638,16 @@
         <v>36</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E14" s="1">
         <v>43862</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G14" s="1">
         <f>DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
@@ -1665,16 +1665,16 @@
         <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E15" s="1">
         <v>43916</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G15" s="1">
         <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
@@ -1695,13 +1695,13 @@
         <v>41</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E16" s="1">
         <v>43622</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G16" s="1">
         <f>DATE(YEAR(E16)+1,MONTH(E16),DAY(E16))</f>
@@ -1722,13 +1722,13 @@
         <v>44</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E17" s="1">
         <v>43643</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G17" s="1">
         <f>DATE(YEAR(E17)+1,MONTH(E17),DAY(E17))</f>
@@ -1749,13 +1749,13 @@
         <v>47</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E18" s="1">
         <v>43800</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G18" s="1">
         <f>DATE(YEAR(E18)+1,MONTH(E18),DAY(E18))</f>
@@ -1776,13 +1776,13 @@
         <v>50</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E19" s="1">
         <v>43888</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" ref="G19:G25" si="1">DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
@@ -1800,16 +1800,16 @@
         <v>52</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E20" s="1">
         <v>43916</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="1"/>
@@ -1827,16 +1827,16 @@
         <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E21" s="1">
         <v>43916</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
@@ -1854,16 +1854,16 @@
         <v>56</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E22" s="1">
         <v>43916</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="1"/>
@@ -1881,16 +1881,16 @@
         <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E23" s="1">
         <v>43916</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="1"/>
@@ -1908,16 +1908,16 @@
         <v>60</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E24" s="1">
         <v>43916</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="1"/>
@@ -1935,16 +1935,16 @@
         <v>62</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E25" s="1">
         <v>43922</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="1"/>
@@ -1962,16 +1962,16 @@
         <v>64</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E26" s="1">
         <v>43922</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G26" s="1">
         <f>DATE(YEAR(E26),MONTH(E26)+1,DAY(E26))</f>
@@ -1992,13 +1992,13 @@
         <v>67</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E27" s="1">
         <v>43800</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G27" s="1">
         <f>DATE(YEAR(E27)+1,MONTH(E27),DAY(E27))</f>
@@ -2019,13 +2019,13 @@
         <v>70</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E28" s="1">
         <v>43709</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G28" s="1">
         <f>DATE(YEAR(E28)+1,MONTH(E28),DAY(E28))</f>
@@ -2046,13 +2046,13 @@
         <v>73</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E29" s="1">
         <v>43734</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G29" s="1">
         <f>DATE(YEAR(E29)+1,MONTH(E29),DAY(E29))</f>
@@ -2073,13 +2073,13 @@
         <v>32</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E30" s="1">
         <v>43800</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G30" s="1">
         <f>DATE(YEAR(E30)+1,MONTH(E30),DAY(E30))</f>
@@ -2100,13 +2100,13 @@
         <v>78</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E31" s="1">
         <v>43647</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G31" s="1">
         <f>DATE(YEAR(E31)+1,MONTH(E31),DAY(E31))</f>
@@ -2127,13 +2127,13 @@
         <v>81</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E32" s="1">
         <v>43891</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G32" s="1">
         <f>DATE(YEAR(E32),MONTH(E32)+3,DAY(E32))</f>
@@ -2154,13 +2154,13 @@
         <v>84</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E33" s="1">
         <v>43892</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G33" s="1">
         <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
@@ -2181,13 +2181,13 @@
         <v>87</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E34" s="1">
         <v>43800</v>
       </c>
       <c r="F34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G34" s="1">
         <v>43922</v>
@@ -2198,26 +2198,26 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" t="s">
         <v>163</v>
       </c>
-      <c r="B35" t="s">
-        <v>164</v>
-      </c>
       <c r="C35" s="6" t="s">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E35" s="1">
-        <v>43862</v>
+        <v>43958</v>
       </c>
       <c r="F35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G35" s="1">
         <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
-        <v>43952</v>
+        <v>44050</v>
       </c>
       <c r="H35">
         <v>2019</v>
@@ -2234,13 +2234,13 @@
         <v>90</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E36" s="1">
         <v>43800</v>
       </c>
       <c r="F36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G36" s="1">
         <v>43922</v>
@@ -2260,13 +2260,13 @@
         <v>93</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E37" s="1">
         <v>43916</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G37" s="1">
         <f>DATE(YEAR(E37),MONTH(E37)+1,DAY(E37))</f>
@@ -2284,7 +2284,7 @@
         <v>95</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>96</v>
@@ -2293,7 +2293,7 @@
         <v>43831</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G38" s="1">
         <f>DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
@@ -2314,13 +2314,13 @@
         <v>99</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E39" s="1">
         <v>43831</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G39" s="1">
         <f>DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
@@ -2341,13 +2341,13 @@
         <v>102</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E40" s="1">
         <v>43739</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G40" s="1">
         <f>DATE(YEAR(E40)+1,MONTH(E40),DAY(E40))</f>
@@ -2368,13 +2368,13 @@
         <v>105</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E41" s="1">
         <v>43831</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G41" s="1">
         <f>DATE(YEAR(E41),MONTH(E41)+3,DAY(E41))</f>
@@ -2399,7 +2399,7 @@
         <v>43862</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G42" s="1">
         <f>DATE(YEAR(E42)+1,MONTH(E42),DAY(E42))</f>
@@ -2424,7 +2424,7 @@
         <v>43831</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G43" s="1">
         <f>DATE(YEAR(E43),MONTH(E43)+3,DAY(E43))</f>
@@ -2449,7 +2449,7 @@
         <v>43831</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G44" s="1">
         <f>DATE(YEAR(E44),MONTH(E44)+3,DAY(E44))</f>
@@ -2474,7 +2474,7 @@
         <v>43831</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G45" s="1">
         <f>DATE(YEAR(E45),MONTH(E45)+3,DAY(E45))</f>
@@ -2486,20 +2486,20 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>213</v>
+      </c>
+      <c r="B46" t="s">
         <v>214</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="1">
         <v>43770</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" ref="G46:G55" si="2">DATE(YEAR(E46)+1,MONTH(E46),DAY(E46))</f>
@@ -2520,13 +2520,13 @@
         <v>119</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E47" s="1">
         <v>43634</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="2"/>
@@ -2553,7 +2553,7 @@
         <v>43831</v>
       </c>
       <c r="F48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="2"/>
@@ -2578,7 +2578,7 @@
         <v>43617</v>
       </c>
       <c r="F49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="2"/>
@@ -2599,13 +2599,13 @@
         <v>125</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E50" s="1">
         <v>43734</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="2"/>
@@ -2626,13 +2626,13 @@
         <v>128</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E51" s="1">
         <v>43846</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" si="2"/>
@@ -2644,20 +2644,20 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>216</v>
+      </c>
+      <c r="B52" t="s">
         <v>217</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="1">
         <v>43862</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="2"/>
@@ -2669,22 +2669,22 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" t="s">
         <v>165</v>
-      </c>
-      <c r="B53" t="s">
-        <v>166</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>142</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E53" s="1">
         <v>43891</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="2"/>
@@ -2705,13 +2705,13 @@
         <v>131</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E54" s="1">
         <v>43627</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="2"/>
@@ -2732,13 +2732,13 @@
         <v>134</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E55" s="1">
         <v>43627</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="2"/>
@@ -2756,16 +2756,16 @@
         <v>136</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E56" s="1">
         <v>43885</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G56" s="1">
         <f>DATE(YEAR(E56),MONTH(E56)+3,DAY(E56))</f>
@@ -2777,22 +2777,22 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B57" t="s">
         <v>138</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E57" s="1">
         <v>43435</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H57">
         <v>2018</v>
@@ -2809,13 +2809,13 @@
         <v>139</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E58" s="1">
         <v>43447</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H58">
         <v>2018</v>
@@ -2832,13 +2832,13 @@
         <v>142</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E59" s="1">
         <v>43891</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G59" s="1">
         <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
@@ -2859,13 +2859,13 @@
         <v>145</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E60" s="1">
         <v>43734</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G60" s="1">
         <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
@@ -2886,13 +2886,13 @@
         <v>148</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E61" s="1">
         <v>43611</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G61" s="1">
         <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
@@ -2913,13 +2913,13 @@
         <v>151</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E62" s="1">
         <v>43859</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G62" s="1">
         <v>43950</v>
@@ -2943,7 +2943,7 @@
         <v>43859</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G63" s="1">
         <v>43950</v>
@@ -2963,13 +2963,13 @@
         <v>156</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E64" s="1">
         <v>43831</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G64" s="1">
         <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
@@ -2990,13 +2990,13 @@
         <v>159</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E65" s="1">
         <v>43859</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G65" s="1">
         <v>43950</v>
@@ -3007,16 +3007,16 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>237</v>
+      </c>
+      <c r="B66" t="s">
         <v>238</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="E66" s="13">
         <v>43546</v>
@@ -3024,34 +3024,34 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>245</v>
+      </c>
+      <c r="B68" t="s">
+        <v>244</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B68" t="s">
-        <v>245</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>247</v>
-      </c>
       <c r="D68" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E68" s="1">
         <v>43889</v>
       </c>
       <c r="F68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G68" s="1">
         <f>DATE(YEAR(E68)+1,MONTH(E68),DAY(E68))</f>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E6C572C6-FBDD-4A55-902B-047DEB0D1469}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{17A4FDC9-7B21-41A7-A387-31FEFA5385CD}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="251">
   <si>
     <t>Code</t>
   </si>
@@ -775,6 +775,15 @@
   </si>
   <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/883181/2019-fourth-provisional-rf-01-rtfo-tables.ods</t>
+  </si>
+  <si>
+    <t>OFGEMSuppliers</t>
+  </si>
+  <si>
+    <t>OFGEM: Number of active domestic suppliers by fuel type (GB)</t>
+  </si>
+  <si>
+    <t>https://www.ofgem.gov.uk/data-portal/retail-market-indicators#thumbchart-c23042756505310535-n95432</t>
   </si>
 </sst>
 </file>
@@ -958,10 +967,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H68" totalsRowShown="0">
-  <autoFilter ref="A1:H68" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H65">
-    <sortCondition ref="A1:A65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H69" totalsRowShown="0">
+  <autoFilter ref="A1:H69" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H66">
+    <sortCondition ref="A1:A66"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Code"/>
@@ -1274,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2502,7 +2511,7 @@
         <v>201</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" ref="G46:G55" si="2">DATE(YEAR(E46)+1,MONTH(E46),DAY(E46))</f>
+        <f t="shared" ref="G46:G56" si="2">DATE(YEAR(E46)+1,MONTH(E46),DAY(E46))</f>
         <v>44136</v>
       </c>
       <c r="H46">
@@ -2590,146 +2599,131 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" t="s">
+        <v>249</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>123</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E51" s="1">
         <v>43734</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G50" s="1">
+      <c r="F51" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G51" s="1">
         <f t="shared" si="2"/>
         <v>44100</v>
       </c>
-      <c r="H50">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="H51">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>126</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>127</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D52" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E52" s="1">
         <v>43846</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G51" s="1">
+      <c r="F52" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G52" s="1">
         <f t="shared" si="2"/>
         <v>44212</v>
       </c>
-      <c r="H51">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="H52">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>216</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>217</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="1">
+      <c r="D53" s="6"/>
+      <c r="E53" s="1">
         <v>43862</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G52" s="1">
+      <c r="F53" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G53" s="1">
         <f t="shared" si="2"/>
         <v>44228</v>
       </c>
-      <c r="H52">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="H53">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>164</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D54" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E54" s="1">
         <v>43891</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G53" s="1">
+      <c r="F54" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G54" s="1">
         <f t="shared" si="2"/>
         <v>44256</v>
       </c>
-      <c r="H53">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" t="s">
-        <v>130</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E54" s="1">
-        <v>43627</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G54" s="1">
-        <f t="shared" si="2"/>
-        <v>43993</v>
-      </c>
       <c r="H54">
         <v>2018</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>189</v>
@@ -2750,26 +2744,26 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>192</v>
+        <v>133</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E56" s="1">
-        <v>43885</v>
+        <v>43627</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G56" s="1">
-        <f>DATE(YEAR(E56),MONTH(E56)+3,DAY(E56))</f>
-        <v>43975</v>
+        <f t="shared" si="2"/>
+        <v>43993</v>
       </c>
       <c r="H56">
         <v>2018</v>
@@ -2777,22 +2771,26 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>211</v>
+        <v>136</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="E57" s="1">
-        <v>43435</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>220</v>
+        <v>43885</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G57" s="1">
+        <f>DATE(YEAR(E57),MONTH(E57)+3,DAY(E57))</f>
+        <v>43975</v>
       </c>
       <c r="H57">
         <v>2018</v>
@@ -2800,19 +2798,19 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="B58" t="s">
         <v>138</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>190</v>
+      <c r="C58" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="E58" s="1">
-        <v>43447</v>
+        <v>43435</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>220</v>
@@ -2823,26 +2821,22 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E59" s="1">
-        <v>43891</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G59" s="1">
-        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
-        <v>44256</v>
+        <v>43447</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="H59">
         <v>2018</v>
@@ -2850,26 +2844,26 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>234</v>
+        <v>142</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="E60" s="1">
-        <v>43734</v>
+        <v>43891</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>201</v>
       </c>
       <c r="G60" s="1">
         <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
-        <v>44100</v>
+        <v>44256</v>
       </c>
       <c r="H60">
         <v>2018</v>
@@ -2877,68 +2871,71 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="E61" s="1">
-        <v>43611</v>
+        <v>43734</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>201</v>
       </c>
       <c r="G61" s="1">
         <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
-        <v>43977</v>
+        <v>44100</v>
       </c>
       <c r="H61">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B62" t="s">
-        <v>150</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E62" s="1">
-        <v>43859</v>
+        <v>43611</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G62" s="1">
-        <v>43950</v>
+        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
+        <v>43977</v>
       </c>
       <c r="H62">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" s="6"/>
+        <v>150</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="E63" s="1">
         <v>43859</v>
       </c>
@@ -2954,26 +2951,23 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B64" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>196</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D64" s="6"/>
       <c r="E64" s="1">
-        <v>43831</v>
+        <v>43859</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G64" s="1">
-        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
-        <v>44197</v>
+        <v>43950</v>
       </c>
       <c r="H64">
         <v>2018</v>
@@ -2981,25 +2975,26 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E65" s="1">
-        <v>43859</v>
+        <v>43831</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G65" s="1">
-        <v>43950</v>
+        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
+        <v>44197</v>
       </c>
       <c r="H65">
         <v>2018</v>
@@ -3007,57 +3002,83 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>237</v>
+        <v>157</v>
       </c>
       <c r="B66" t="s">
-        <v>238</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E66" s="13">
-        <v>43546</v>
+        <v>158</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E66" s="1">
+        <v>43859</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G66" s="1">
+        <v>43950</v>
+      </c>
+      <c r="H66">
+        <v>2018</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B67" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D67" s="6"/>
+        <v>240</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E67" s="13">
+        <v>43546</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>243</v>
+      </c>
+      <c r="B68" t="s">
+        <v>242</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>245</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>244</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D69" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E69" s="1">
         <v>43889</v>
       </c>
-      <c r="F68" t="s">
-        <v>201</v>
-      </c>
-      <c r="G68" s="1">
-        <f>DATE(YEAR(E68)+1,MONTH(E68),DAY(E68))</f>
+      <c r="F69" t="s">
+        <v>201</v>
+      </c>
+      <c r="G69" s="1">
+        <f>DATE(YEAR(E69)+1,MONTH(E69),DAY(E69))</f>
         <v>44255</v>
       </c>
-      <c r="H68">
+      <c r="H69">
         <v>2018</v>
       </c>
     </row>
@@ -3096,18 +3117,18 @@
     <hyperlink ref="C45" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="C47" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="C49" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C50" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C51" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C54" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C55" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C56" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C58" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C59" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C64" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C65" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C51" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C52" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C55" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C56" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C57" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C59" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C60" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C65" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C66" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="D48" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="C35" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C53" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C54" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
     <hyperlink ref="D2" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
     <hyperlink ref="D3" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="D4" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
@@ -3131,21 +3152,21 @@
     <hyperlink ref="D34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
     <hyperlink ref="D36" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="D40" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D51" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D54" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D55" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="D58" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D59" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D61" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D62" r:id="rId75" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D64" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D52" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D55" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D56" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="D59" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D60" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D62" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D63" r:id="rId75" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D65" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
     <hyperlink ref="D22" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
     <hyperlink ref="D10" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
     <hyperlink ref="D20" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D50" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D65" r:id="rId81" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D57" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C57" r:id="rId83" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D51" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D66" r:id="rId81" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D58" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C58" r:id="rId83" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
     <hyperlink ref="C46" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
     <hyperlink ref="D7" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
     <hyperlink ref="D8" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
@@ -3162,20 +3183,21 @@
     <hyperlink ref="D39" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="D41" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="D47" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D53" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D56" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D60" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C62" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/01/gdp-quarterly-national-accounts-for-scotland-2019-q3/documents/other-quarterly-national-accounts-summary-tables/other-quarterly-national-accounts-summary-tables/govsco" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="D54" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D57" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D61" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C63" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/01/gdp-quarterly-national-accounts-for-scotland-2019-q3/documents/other-quarterly-national-accounts-summary-tables/other-quarterly-national-accounts-summary-tables/govsco" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
     <hyperlink ref="C9" r:id="rId103" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
-    <hyperlink ref="D66" r:id="rId104" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
-    <hyperlink ref="C66" r:id="rId105" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
-    <hyperlink ref="C67" r:id="rId106" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D68" r:id="rId107" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="D67" r:id="rId104" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
+    <hyperlink ref="C67" r:id="rId105" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
+    <hyperlink ref="C68" r:id="rId106" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
+    <hyperlink ref="D69" r:id="rId107" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="C50" r:id="rId108" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId108"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId109"/>
   <tableParts count="1">
-    <tablePart r:id="rId109"/>
+    <tablePart r:id="rId110"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{17A4FDC9-7B21-41A7-A387-31FEFA5385CD}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CA7C3D2C-42DF-4D9E-8442-3E6904F7E23C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -968,7 +968,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H69" totalsRowShown="0">
-  <autoFilter ref="A1:H69" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:H69" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="6">
+      <filters blank="1">
+        <dateGroupItem year="2020" month="4" dateTimeGrouping="month"/>
+        <dateGroupItem year="2020" month="5" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H66">
     <sortCondition ref="A1:A66"/>
   </sortState>
@@ -1285,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63:G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1327,7 +1334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1354,7 +1361,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1381,7 +1388,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1408,7 +1415,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1435,7 +1442,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1462,7 +1469,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1489,7 +1496,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1516,7 +1523,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>235</v>
       </c>
@@ -1543,7 +1550,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1590,7 +1597,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1666,7 +1673,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1693,7 +1700,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1720,7 +1727,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1747,7 +1754,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1801,7 +1808,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1828,7 +1835,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1855,7 +1862,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -1882,7 +1889,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -1909,7 +1916,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -1936,7 +1943,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -1990,7 +1997,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2017,7 +2024,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -2044,7 +2051,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -2071,7 +2078,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -2098,7 +2105,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2125,7 +2132,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -2152,7 +2159,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -2205,7 +2212,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>162</v>
       </c>
@@ -2285,7 +2292,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -2312,7 +2319,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -2339,7 +2346,7 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -2393,7 +2400,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -2493,7 +2500,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>213</v>
       </c>
@@ -2518,7 +2525,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>117</v>
       </c>
@@ -2545,7 +2552,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>160</v>
       </c>
@@ -2572,7 +2579,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>120</v>
       </c>
@@ -2609,7 +2616,7 @@
       </c>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>123</v>
       </c>
@@ -2636,7 +2643,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>126</v>
       </c>
@@ -2663,7 +2670,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>216</v>
       </c>
@@ -2688,7 +2695,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>164</v>
       </c>
@@ -2715,7 +2722,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>129</v>
       </c>
@@ -2742,7 +2749,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>132</v>
       </c>
@@ -2842,7 +2849,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>140</v>
       </c>
@@ -2869,7 +2876,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>143</v>
       </c>
@@ -2937,13 +2944,14 @@
         <v>195</v>
       </c>
       <c r="E63" s="1">
-        <v>43859</v>
+        <v>43950</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>200</v>
       </c>
       <c r="G63" s="1">
-        <v>43950</v>
+        <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
+        <v>44041</v>
       </c>
       <c r="H63">
         <v>2018</v>
@@ -2961,19 +2969,20 @@
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="1">
-        <v>43859</v>
+        <v>43950</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>200</v>
       </c>
       <c r="G64" s="1">
-        <v>43950</v>
+        <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
+        <v>44041</v>
       </c>
       <c r="H64">
         <v>2018</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>154</v>
       </c>
@@ -3055,7 +3064,7 @@
       </c>
       <c r="D68" s="6"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>245</v>
       </c>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CA7C3D2C-42DF-4D9E-8442-3E6904F7E23C}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8EE7F417-4019-4190-8D57-22FC55879BD3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="252">
   <si>
     <t>Code</t>
   </si>
@@ -784,6 +784,9 @@
   </si>
   <si>
     <t>https://www.ofgem.gov.uk/data-portal/retail-market-indicators#thumbchart-c23042756505310535-n95432</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -967,17 +970,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H69" totalsRowShown="0">
-  <autoFilter ref="A1:H69" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="6">
-      <filters blank="1">
-        <dateGroupItem year="2020" month="4" dateTimeGrouping="month"/>
-        <dateGroupItem year="2020" month="5" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H66">
-    <sortCondition ref="A1:A66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H70" totalsRowShown="0">
+  <autoFilter ref="A1:H70" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H67">
+    <sortCondition ref="A1:A67"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Code"/>
@@ -1290,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63:G64"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1334,42 +1330,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>168</v>
+        <v>251</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="E2" s="1">
         <v>43916</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>200</v>
+      <c r="F2" t="s">
+        <v>251</v>
       </c>
       <c r="G2" s="1">
-        <f>DATE(YEAR(E2),MONTH(E2)+3,DAY(E2))</f>
         <v>44008</v>
       </c>
-      <c r="H2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>168</v>
@@ -1388,69 +1383,69 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43916</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4" s="1">
+        <f>DATE(YEAR(E4),MONTH(E4)+3,DAY(E4))</f>
+        <v>44008</v>
+      </c>
+      <c r="H4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="1">
         <v>43734</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:G10" si="0">DATE(YEAR(E4)+1,MONTH(E4),DAY(E4))</f>
+      <c r="F5" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G11" si="0">DATE(YEAR(E5)+1,MONTH(E5),DAY(E5))</f>
         <v>44100</v>
       </c>
-      <c r="H4">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="H5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="1">
-        <v>43647</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>44013</v>
-      </c>
-      <c r="H5">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>169</v>
@@ -1469,15 +1464,15 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>169</v>
@@ -1496,15 +1491,15 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>169</v>
@@ -1523,329 +1518,329 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="1">
+        <v>43647</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>44013</v>
+      </c>
+      <c r="H9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B10" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E10" s="11">
         <v>43862</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="F10" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="11">
         <f t="shared" si="0"/>
         <v>44228</v>
       </c>
-      <c r="H9" s="9">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="H10" s="9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="1">
         <v>43800</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="F11" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>44166</v>
       </c>
-      <c r="H10">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="H11">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>43916</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H11">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="F12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H12">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <v>43818</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G12" s="1">
-        <f>DATE(YEAR(E12)+1,MONTH(E12),DAY(E12))</f>
+      <c r="F13" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" s="1">
+        <f>DATE(YEAR(E13)+1,MONTH(E13),DAY(E13))</f>
         <v>44184</v>
       </c>
-      <c r="H12">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="H13">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="1">
+      <c r="D14" s="4"/>
+      <c r="E14" s="1">
         <v>43466</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="F14" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="1">
         <v>43862</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G14" s="1">
-        <f>DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
-        <v>43952</v>
-      </c>
-      <c r="H14" s="8">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E15" s="1">
-        <v>43916</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>200</v>
       </c>
       <c r="G15" s="1">
         <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
-        <v>44008</v>
+        <v>43952</v>
       </c>
       <c r="H15" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" s="1">
+        <v>43916</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G16" s="1">
+        <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
+        <v>44008</v>
+      </c>
+      <c r="H16" s="8">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="1">
         <v>43622</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G16" s="1">
-        <f>DATE(YEAR(E16)+1,MONTH(E16),DAY(E16))</f>
-        <v>43988</v>
-      </c>
-      <c r="H16">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E17" s="1">
-        <v>43643</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>201</v>
       </c>
       <c r="G17" s="1">
         <f>DATE(YEAR(E17)+1,MONTH(E17),DAY(E17))</f>
-        <v>44009</v>
+        <v>43988</v>
       </c>
       <c r="H17">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E18" s="1">
-        <v>43800</v>
+        <v>43643</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>201</v>
       </c>
       <c r="G18" s="1">
         <f>DATE(YEAR(E18)+1,MONTH(E18),DAY(E18))</f>
-        <v>44166</v>
+        <v>44009</v>
       </c>
       <c r="H18">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="1">
+        <v>43800</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" s="1">
+        <f>DATE(YEAR(E19)+1,MONTH(E19),DAY(E19))</f>
+        <v>44166</v>
+      </c>
+      <c r="H19">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E20" s="1">
         <v>43888</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" ref="G19:G25" si="1">DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
-        <v>43978</v>
-      </c>
-      <c r="H19" s="8">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E20" s="1">
-        <v>43916</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>200</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="1"/>
-        <v>44008</v>
+        <f t="shared" ref="G20:G26" si="1">DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
+        <v>43978</v>
       </c>
       <c r="H20" s="8">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>177</v>
       </c>
       <c r="E21" s="1">
@@ -1862,18 +1857,18 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>198</v>
+        <v>54</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="E22" s="1">
         <v>43916</v>
@@ -1889,18 +1884,18 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>177</v>
+        <v>56</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="E23" s="1">
         <v>43916</v>
@@ -1916,18 +1911,18 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>178</v>
+        <v>58</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="E24" s="1">
         <v>43916</v>
@@ -1943,244 +1938,244 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>226</v>
+        <v>60</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E25" s="1">
-        <v>43922</v>
+        <v>43916</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>200</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="1"/>
-        <v>44013</v>
-      </c>
-      <c r="H25" s="1">
-        <v>43891</v>
+        <v>44008</v>
+      </c>
+      <c r="H25" s="8">
+        <v>43800</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E26" s="1">
         <v>43922</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="1"/>
+        <v>44013</v>
+      </c>
+      <c r="H26" s="1">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G26" s="1">
-        <f>DATE(YEAR(E26),MONTH(E26)+1,DAY(E26))</f>
+      <c r="G27" s="1">
+        <f>DATE(YEAR(E27),MONTH(E27)+1,DAY(E27))</f>
         <v>43952</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H27" s="8">
         <v>43891</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>65</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E28" s="1">
         <v>43800</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G27" s="1">
-        <f>DATE(YEAR(E27)+1,MONTH(E27),DAY(E27))</f>
-        <v>44166</v>
-      </c>
-      <c r="H27">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E28" s="1">
-        <v>43709</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>201</v>
       </c>
       <c r="G28" s="1">
         <f>DATE(YEAR(E28)+1,MONTH(E28),DAY(E28))</f>
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="H28">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E29" s="1">
-        <v>43734</v>
+        <v>43709</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>201</v>
       </c>
       <c r="G29" s="1">
         <f>DATE(YEAR(E29)+1,MONTH(E29),DAY(E29))</f>
-        <v>44100</v>
+        <v>44075</v>
       </c>
       <c r="H29">
         <v>2017</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E30" s="1">
-        <v>43800</v>
+        <v>43734</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>201</v>
       </c>
       <c r="G30" s="1">
         <f>DATE(YEAR(E30)+1,MONTH(E30),DAY(E30))</f>
-        <v>44166</v>
+        <v>44100</v>
       </c>
       <c r="H30">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E31" s="1">
-        <v>43647</v>
+        <v>43800</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>201</v>
       </c>
       <c r="G31" s="1">
         <f>DATE(YEAR(E31)+1,MONTH(E31),DAY(E31))</f>
+        <v>44166</v>
+      </c>
+      <c r="H31">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="1">
+        <v>43647</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G32" s="1">
+        <f>DATE(YEAR(E32)+1,MONTH(E32),DAY(E32))</f>
         <v>44013</v>
       </c>
-      <c r="H31">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="H32">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>79</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E32" s="1">
-        <v>43891</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G32" s="1">
-        <f>DATE(YEAR(E32),MONTH(E32)+3,DAY(E32))</f>
-        <v>43983</v>
-      </c>
-      <c r="H32">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>168</v>
       </c>
       <c r="E33" s="1">
-        <v>43892</v>
+        <v>43891</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>200</v>
       </c>
       <c r="G33" s="1">
         <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="H33">
         <v>2019</v>
@@ -2188,149 +2183,149 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="1">
+        <v>43892</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G34" s="1">
+        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
+        <v>43984</v>
+      </c>
+      <c r="H34">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>85</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E35" s="1">
         <v>43800</v>
-      </c>
-      <c r="F34" t="s">
-        <v>200</v>
-      </c>
-      <c r="G34" s="1">
-        <v>43922</v>
-      </c>
-      <c r="H34" s="8">
-        <v>43709</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>162</v>
-      </c>
-      <c r="B35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="E35" s="1">
-        <v>43958</v>
       </c>
       <c r="F35" t="s">
         <v>200</v>
       </c>
       <c r="G35" s="1">
-        <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
-        <v>44050</v>
-      </c>
-      <c r="H35">
-        <v>2019</v>
+        <v>43922</v>
+      </c>
+      <c r="H35" s="8">
+        <v>43709</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>90</v>
+        <v>163</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="E36" s="1">
-        <v>43800</v>
+        <v>43958</v>
       </c>
       <c r="F36" t="s">
         <v>200</v>
       </c>
       <c r="G36" s="1">
-        <v>43922</v>
-      </c>
-      <c r="H36" s="8">
-        <v>43709</v>
+        <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
+        <v>44050</v>
+      </c>
+      <c r="H36">
+        <v>2019</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" s="1">
+        <v>43800</v>
+      </c>
+      <c r="F37" t="s">
+        <v>200</v>
+      </c>
+      <c r="G37" s="1">
+        <v>43922</v>
+      </c>
+      <c r="H37" s="8">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>91</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E38" s="1">
         <v>43916</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G37" s="1">
-        <f>DATE(YEAR(E37),MONTH(E37)+1,DAY(E37))</f>
+      <c r="G38" s="1">
+        <f>DATE(YEAR(E38),MONTH(E38)+1,DAY(E38))</f>
         <v>43947</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H38" s="8">
         <v>43891</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>94</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E38" s="1">
-        <v>43831</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G38" s="1">
-        <f>DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
-        <v>44197</v>
-      </c>
-      <c r="H38">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="E39" s="1">
         <v>43831</v>
@@ -2342,84 +2337,86 @@
         <f>DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
         <v>44197</v>
       </c>
-      <c r="H39" s="8">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="H39">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>187</v>
+        <v>99</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="E40" s="1">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>201</v>
       </c>
       <c r="G40" s="1">
         <f>DATE(YEAR(E40)+1,MONTH(E40),DAY(E40))</f>
-        <v>44105</v>
-      </c>
-      <c r="H40">
-        <v>2018</v>
+        <v>44197</v>
+      </c>
+      <c r="H40" s="8">
+        <v>43617</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" s="1">
+        <v>43739</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G41" s="1">
+        <f>DATE(YEAR(E41)+1,MONTH(E41),DAY(E41))</f>
+        <v>44105</v>
+      </c>
+      <c r="H41">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>103</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E42" s="1">
         <v>43831</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G41" s="1">
-        <f>DATE(YEAR(E41),MONTH(E41)+3,DAY(E41))</f>
+      <c r="G42" s="1">
+        <f>DATE(YEAR(E42),MONTH(E42)+3,DAY(E42))</f>
         <v>43922</v>
-      </c>
-      <c r="H41">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="1">
-        <v>43862</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G42" s="1">
-        <f>DATE(YEAR(E42)+1,MONTH(E42),DAY(E42))</f>
-        <v>44228</v>
       </c>
       <c r="H42">
         <v>2018</v>
@@ -2427,38 +2424,38 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="5"/>
       <c r="E43" s="1">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G43" s="1">
-        <f>DATE(YEAR(E43),MONTH(E43)+3,DAY(E43))</f>
-        <v>43922</v>
-      </c>
-      <c r="H43" s="8">
-        <v>43800</v>
+        <f>DATE(YEAR(E43)+1,MONTH(E43),DAY(E43))</f>
+        <v>44228</v>
+      </c>
+      <c r="H43">
+        <v>2018</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="1">
@@ -2477,10 +2474,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>114</v>
@@ -2500,264 +2497,262 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="1">
+        <v>43831</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G46" s="1">
+        <f>DATE(YEAR(E46),MONTH(E46)+3,DAY(E46))</f>
+        <v>43922</v>
+      </c>
+      <c r="H46" s="8">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>213</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>214</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="1">
+      <c r="D47" s="7"/>
+      <c r="E47" s="1">
         <v>43770</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G46" s="1">
-        <f t="shared" ref="G46:G56" si="2">DATE(YEAR(E46)+1,MONTH(E46),DAY(E46))</f>
+      <c r="F47" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" ref="G47:G57" si="2">DATE(YEAR(E47)+1,MONTH(E47),DAY(E47))</f>
         <v>44136</v>
       </c>
-      <c r="H46">
+      <c r="H47">
         <v>2019</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>117</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>118</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E48" s="1">
         <v>43634</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G47" s="1">
+      <c r="F48" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G48" s="1">
         <f t="shared" si="2"/>
         <v>44000</v>
       </c>
-      <c r="H47">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="H48">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>160</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>160</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E49" s="1">
         <v>43831</v>
       </c>
-      <c r="F48" t="s">
-        <v>201</v>
-      </c>
-      <c r="G48" s="1">
+      <c r="F49" t="s">
+        <v>201</v>
+      </c>
+      <c r="G49" s="1">
         <f t="shared" si="2"/>
         <v>44197</v>
       </c>
-      <c r="H48">
+      <c r="H49">
         <v>2019</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>120</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="1">
+      <c r="D50" s="2"/>
+      <c r="E50" s="1">
         <v>43617</v>
       </c>
-      <c r="F49" t="s">
-        <v>201</v>
-      </c>
-      <c r="G49" s="1">
+      <c r="F50" t="s">
+        <v>201</v>
+      </c>
+      <c r="G50" s="1">
         <f t="shared" si="2"/>
         <v>43983</v>
       </c>
-      <c r="H49">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="H50">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>248</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>249</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D50" s="7"/>
-    </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>123</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D52" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E52" s="1">
         <v>43734</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G51" s="1">
+      <c r="F52" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G52" s="1">
         <f t="shared" si="2"/>
         <v>44100</v>
       </c>
-      <c r="H51">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="H52">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>126</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D53" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E53" s="1">
         <v>43846</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G52" s="1">
+      <c r="F53" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G53" s="1">
         <f t="shared" si="2"/>
         <v>44212</v>
       </c>
-      <c r="H52">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="H53">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>216</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>217</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="1">
+      <c r="D54" s="6"/>
+      <c r="E54" s="1">
         <v>43862</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G53" s="1">
+      <c r="F54" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G54" s="1">
         <f t="shared" si="2"/>
         <v>44228</v>
       </c>
-      <c r="H53">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="H54">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>164</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>165</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D55" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E55" s="1">
         <v>43891</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G54" s="1">
+      <c r="F55" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G55" s="1">
         <f t="shared" si="2"/>
         <v>44256</v>
       </c>
-      <c r="H54">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="H55">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>129</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>130</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E55" s="1">
-        <v>43627</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G55" s="1">
-        <f t="shared" si="2"/>
-        <v>43993</v>
-      </c>
-      <c r="H55">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>132</v>
-      </c>
-      <c r="B56" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>189</v>
@@ -2778,26 +2773,26 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>192</v>
+        <v>133</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E57" s="1">
-        <v>43885</v>
+        <v>43627</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G57" s="1">
-        <f>DATE(YEAR(E57),MONTH(E57)+3,DAY(E57))</f>
-        <v>43975</v>
+        <f t="shared" si="2"/>
+        <v>43993</v>
       </c>
       <c r="H57">
         <v>2018</v>
@@ -2805,22 +2800,26 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>211</v>
+        <v>136</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="E58" s="1">
-        <v>43435</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>220</v>
+        <v>43885</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G58" s="1">
+        <f>DATE(YEAR(E58),MONTH(E58)+3,DAY(E58))</f>
+        <v>43975</v>
       </c>
       <c r="H58">
         <v>2018</v>
@@ -2828,19 +2827,19 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="B59" t="s">
         <v>138</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>190</v>
+      <c r="C59" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="E59" s="1">
-        <v>43447</v>
+        <v>43435</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>220</v>
@@ -2849,55 +2848,51 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" s="1">
+        <v>43447</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H60">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>140</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>141</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D61" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E61" s="1">
         <v>43891</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G60" s="1">
-        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
-        <v>44256</v>
-      </c>
-      <c r="H60">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>143</v>
-      </c>
-      <c r="B61" t="s">
-        <v>144</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E61" s="1">
-        <v>43734</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>201</v>
       </c>
       <c r="G61" s="1">
         <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
-        <v>44100</v>
+        <v>44256</v>
       </c>
       <c r="H61">
         <v>2018</v>
@@ -2905,69 +2900,71 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="E62" s="1">
-        <v>43611</v>
+        <v>43734</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>201</v>
       </c>
       <c r="G62" s="1">
         <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
-        <v>43977</v>
+        <v>44100</v>
       </c>
       <c r="H62">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E63" s="1">
-        <v>43950</v>
+        <v>43611</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G63" s="1">
-        <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
-        <v>44041</v>
+        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
+        <v>43977</v>
       </c>
       <c r="H63">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>153</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D64" s="6"/>
+        <v>150</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="E64" s="1">
         <v>43950</v>
       </c>
@@ -2982,28 +2979,26 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B65" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>196</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D65" s="6"/>
       <c r="E65" s="1">
-        <v>43831</v>
+        <v>43950</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G65" s="1">
-        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
-        <v>44197</v>
+        <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
+        <v>44041</v>
       </c>
       <c r="H65">
         <v>2018</v>
@@ -3011,25 +3006,26 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E66" s="1">
-        <v>43859</v>
+        <v>43831</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G66" s="1">
-        <v>43950</v>
+        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
+        <v>44197</v>
       </c>
       <c r="H66">
         <v>2018</v>
@@ -3037,171 +3033,197 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>237</v>
+        <v>157</v>
       </c>
       <c r="B67" t="s">
-        <v>238</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E67" s="13">
-        <v>43546</v>
+        <v>158</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E67" s="1">
+        <v>43859</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G67" s="1">
+        <v>43950</v>
+      </c>
+      <c r="H67">
+        <v>2018</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>237</v>
+      </c>
+      <c r="B68" t="s">
+        <v>238</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E68" s="13">
+        <v>43546</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>243</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>242</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D68" s="6"/>
-    </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>245</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>244</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C70" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D70" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E70" s="1">
         <v>43889</v>
       </c>
-      <c r="F69" t="s">
-        <v>201</v>
-      </c>
-      <c r="G69" s="1">
-        <f>DATE(YEAR(E69)+1,MONTH(E69),DAY(E69))</f>
+      <c r="F70" t="s">
+        <v>201</v>
+      </c>
+      <c r="G70" s="1">
+        <f>DATE(YEAR(E70)+1,MONTH(E70),DAY(E70))</f>
         <v>44255</v>
       </c>
-      <c r="H69">
+      <c r="H70">
         <v>2018</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C16" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C25" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C27" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C29" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C30" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C31" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C32" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C33" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C34" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C36" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C37" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D38" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C39" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C40" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C41" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C42" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C43" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C44" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C45" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C47" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C49" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C51" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C52" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C55" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C56" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C57" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C59" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C60" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C65" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C66" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D48" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C35" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C54" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D2" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D3" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D4" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D5" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D5:D7" r:id="rId50" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D14" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D15" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D16" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D17" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D18" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D24" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D25" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D26" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D27" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D28" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D29" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D30" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D31" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D32" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D33" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D36" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D40" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D52" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D55" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D56" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="D59" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D60" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D62" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D63" r:id="rId75" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D65" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D22" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D10" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D20" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D51" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D66" r:id="rId81" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D58" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C58" r:id="rId83" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C46" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D7" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D8" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C2" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C3" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D9" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D19" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C22" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="C20" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="C26" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D35" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D37" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C38" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D39" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D41" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D47" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D54" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D57" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D61" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C63" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/01/gdp-quarterly-national-accounts-for-scotland-2019-q3/documents/other-quarterly-national-accounts-summary-tables/other-quarterly-national-accounts-summary-tables/govsco" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="C9" r:id="rId103" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
-    <hyperlink ref="D67" r:id="rId104" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
-    <hyperlink ref="C67" r:id="rId105" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
-    <hyperlink ref="C68" r:id="rId106" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D69" r:id="rId107" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C50" r:id="rId108" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C15" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C26" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C28" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C29" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C30" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C31" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C32" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C33" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C34" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C35" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C37" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C38" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D39" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C41" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C42" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C43" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C44" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C45" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C46" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C48" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C50" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C52" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C53" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C56" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C57" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C58" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C60" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C61" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C66" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C67" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C36" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C55" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D3" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D4" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D5" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D6" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D6:D8" r:id="rId50" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D15" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D16" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D17" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D18" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D19" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D25" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D26" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D27" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D28" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D29" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D30" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D31" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D32" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D35" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D37" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D41" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D53" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D56" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D57" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="D60" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D61" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D63" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D64" r:id="rId75" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D66" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D23" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D11" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D21" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D52" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D67" r:id="rId81" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D59" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C59" r:id="rId83" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C47" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D8" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D9" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C3" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C4" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D10" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D20" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C23" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C21" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C27" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D36" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D38" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C39" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D40" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D42" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D48" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D55" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D58" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D62" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C64" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/01/gdp-quarterly-national-accounts-for-scotland-2019-q3/documents/other-quarterly-national-accounts-summary-tables/other-quarterly-national-accounts-summary-tables/govsco" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C10" r:id="rId103" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
+    <hyperlink ref="D68" r:id="rId104" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
+    <hyperlink ref="C68" r:id="rId105" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
+    <hyperlink ref="C69" r:id="rId106" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
+    <hyperlink ref="D70" r:id="rId107" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="C51" r:id="rId108" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId109"/>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8EE7F417-4019-4190-8D57-22FC55879BD3}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2BA923BB-18BF-4D59-A38C-D255A18FA460}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5500" yWindow="2020" windowWidth="12080" windowHeight="6000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="256">
   <si>
     <t>Code</t>
   </si>
@@ -787,6 +787,18 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>TransportScotland13</t>
+  </si>
+  <si>
+    <t>Transport Scotland: Scottish Transport Statistics, Chapter 13</t>
+  </si>
+  <si>
+    <t>https://www.transport.gov.scot/publication/scottish-transport-statistics-no-38-2019-edition/</t>
+  </si>
+  <si>
+    <t>https://www.transport.gov.scot/publication/scottish-transport-statistics-no-38-2019-edition/chapter-13-environment-and-emissions/</t>
   </si>
 </sst>
 </file>
@@ -970,8 +982,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H70" totalsRowShown="0">
-  <autoFilter ref="A1:H70" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H71" totalsRowShown="0">
+  <autoFilter ref="A1:H71" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H67">
     <sortCondition ref="A1:A67"/>
   </sortState>
@@ -1286,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3111,6 +3123,30 @@
       </c>
       <c r="H70">
         <v>2018</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>252</v>
+      </c>
+      <c r="B71" t="s">
+        <v>253</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E71" s="1">
+        <v>43908</v>
+      </c>
+      <c r="F71" t="s">
+        <v>201</v>
+      </c>
+      <c r="G71" s="1">
+        <f>DATE(YEAR(E71)+1,MONTH(E71),DAY(E71))</f>
+        <v>44273</v>
       </c>
     </row>
   </sheetData>
@@ -3224,11 +3260,13 @@
     <hyperlink ref="C69" r:id="rId106" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
     <hyperlink ref="D70" r:id="rId107" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
     <hyperlink ref="C51" r:id="rId108" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D71" r:id="rId109" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
+    <hyperlink ref="C71" r:id="rId110" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId109"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId111"/>
   <tableParts count="1">
-    <tablePart r:id="rId110"/>
+    <tablePart r:id="rId112"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2BA923BB-18BF-4D59-A38C-D255A18FA460}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9D67A8BC-CC39-4466-AE1F-108F730FF9C1}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5500" yWindow="2020" windowWidth="12080" windowHeight="6000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1300,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2313,17 +2313,17 @@
         <v>229</v>
       </c>
       <c r="E38" s="1">
-        <v>43916</v>
+        <v>44000</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>208</v>
       </c>
       <c r="G38" s="1">
         <f>DATE(YEAR(E38),MONTH(E38)+1,DAY(E38))</f>
-        <v>43947</v>
+        <v>44030</v>
       </c>
       <c r="H38" s="8">
-        <v>43891</v>
+        <v>43952</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9D67A8BC-CC39-4466-AE1F-108F730FF9C1}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7118E8E3-DB4B-43CA-A818-0369AF2537FF}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="257">
   <si>
     <t>Code</t>
   </si>
@@ -294,18 +294,12 @@
     <t>Department for Transport: Licensed vehicles</t>
   </si>
   <si>
-    <t xml:space="preserve">https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/739952/veh0104.ods </t>
-  </si>
-  <si>
     <t>DFTULEVs</t>
   </si>
   <si>
     <t>Department for Transport: ULEVs licensed</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/763823/veh0132.ods</t>
-  </si>
-  <si>
     <t>ElectralinkMeters</t>
   </si>
   <si>
@@ -477,9 +471,6 @@
     <t>Scottish Government: Oil and Gas Satellite Accounts</t>
   </si>
   <si>
-    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/summary-tables-1998-2017/summary-tables-1998-2017/govscot%3Adocument/wseap-summary-tables-1998-2017.xlsx</t>
-  </si>
-  <si>
     <t>SGQNAS</t>
   </si>
   <si>
@@ -510,9 +501,6 @@
     <t>Scottish Government: Scottish National Accounts Project (SNAP)</t>
   </si>
   <si>
-    <t>https://www2.gov.scot/Resource/0054/00542815.xls</t>
-  </si>
-  <si>
     <t>Ofgem</t>
   </si>
   <si>
@@ -708,15 +696,9 @@
     <t>https://www.gov.uk/government/collections/sub-national-electricity-consumption-data</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/868268/Headline_HEE_tables_27_FEB_2020_FINAL.xlsx</t>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/880732/renewable-energy-planning-database-march-2020-update.xlsx</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/880808/RHI_monthly_official_stats_tables_Mar_20_final_corrected_title_to_1_7.xlsx</t>
-  </si>
-  <si>
     <t>https://www.gov.uk/government/collections/renewable-fuel-statistics</t>
   </si>
   <si>
@@ -799,6 +781,27 @@
   </si>
   <si>
     <t>https://www.transport.gov.scot/publication/scottish-transport-statistics-no-38-2019-edition/chapter-13-environment-and-emissions/</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/893006/Headline_HEE_tables_18_JUNE_2020.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/892560/RHI_monthly_official_stats_tables_May_20_final.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/882142/veh0104.ods</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/882241/veh0132.ods</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx</t>
   </si>
 </sst>
 </file>
@@ -983,7 +986,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H71" totalsRowShown="0">
-  <autoFilter ref="A1:H71" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:H71" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="6">
+      <filters>
+        <dateGroupItem year="2020" month="6" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H67">
     <sortCondition ref="A1:A67"/>
   </sortState>
@@ -1300,15 +1309,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.453125" customWidth="1"/>
     <col min="2" max="2" width="102.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" customWidth="1"/>
     <col min="4" max="4" width="26.54296875" customWidth="1"/>
     <col min="5" max="5" width="13.7265625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.453125" customWidth="1"/>
@@ -1324,10 +1333,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1336,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -1344,28 +1353,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E2" s="1">
         <v>43916</v>
       </c>
       <c r="F2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G2" s="1">
         <v>44008</v>
       </c>
       <c r="H2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1376,16 +1385,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E3" s="1">
         <v>43916</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G3" s="1">
         <f>DATE(YEAR(E3),MONTH(E3)+3,DAY(E3))</f>
@@ -1403,16 +1412,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E4" s="1">
         <v>43916</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G4" s="1">
         <f>DATE(YEAR(E4),MONTH(E4)+3,DAY(E4))</f>
@@ -1422,7 +1431,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1433,13 +1442,13 @@
         <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E5" s="1">
         <v>43734</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G11" si="0">DATE(YEAR(E5)+1,MONTH(E5),DAY(E5))</f>
@@ -1449,7 +1458,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1460,13 +1469,13 @@
         <v>14</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E6" s="1">
         <v>43647</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
@@ -1476,7 +1485,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1487,13 +1496,13 @@
         <v>17</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E7" s="1">
         <v>43647</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
@@ -1503,7 +1512,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1514,13 +1523,13 @@
         <v>20</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E8" s="1">
         <v>43647</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
@@ -1530,7 +1539,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1541,13 +1550,13 @@
         <v>23</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E9" s="1">
         <v>43647</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
@@ -1557,24 +1566,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E10" s="11">
         <v>43862</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
@@ -1584,7 +1593,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1595,13 +1604,13 @@
         <v>26</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E11" s="1">
         <v>43800</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
@@ -1611,7 +1620,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1625,13 +1634,13 @@
         <v>43916</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H12">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1642,13 +1651,13 @@
         <v>32</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E13" s="1">
         <v>43818</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G13" s="1">
         <f>DATE(YEAR(E13)+1,MONTH(E13),DAY(E13))</f>
@@ -1658,7 +1667,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1673,14 +1682,14 @@
         <v>43466</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14">
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1688,20 +1697,20 @@
         <v>36</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E15" s="1">
-        <v>43862</v>
+        <v>43983</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G15" s="1">
-        <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
-        <v>43952</v>
+        <f>DATE(YEAR(E15),MONTH(E15)+1,DAY(E15))</f>
+        <v>44013</v>
       </c>
       <c r="H15" s="8">
         <v>43800</v>
@@ -1715,16 +1724,16 @@
         <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E16" s="1">
         <v>43916</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G16" s="1">
         <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
@@ -1745,13 +1754,13 @@
         <v>41</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E17" s="1">
         <v>43622</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G17" s="1">
         <f>DATE(YEAR(E17)+1,MONTH(E17),DAY(E17))</f>
@@ -1772,13 +1781,13 @@
         <v>44</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E18" s="1">
         <v>43643</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G18" s="1">
         <f>DATE(YEAR(E18)+1,MONTH(E18),DAY(E18))</f>
@@ -1788,7 +1797,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1799,13 +1808,13 @@
         <v>47</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E19" s="1">
         <v>43800</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G19" s="1">
         <f>DATE(YEAR(E19)+1,MONTH(E19),DAY(E19))</f>
@@ -1815,7 +1824,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1826,17 +1835,17 @@
         <v>50</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E20" s="1">
-        <v>43888</v>
+        <v>43978</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" ref="G20:G26" si="1">DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
-        <v>43978</v>
+        <v>44070</v>
       </c>
       <c r="H20" s="8">
         <v>43831</v>
@@ -1850,16 +1859,16 @@
         <v>52</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E21" s="1">
         <v>43916</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
@@ -1877,16 +1886,16 @@
         <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E22" s="1">
         <v>43916</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="1"/>
@@ -1904,16 +1913,16 @@
         <v>56</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E23" s="1">
         <v>43916</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="1"/>
@@ -1931,16 +1940,16 @@
         <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E24" s="1">
         <v>43916</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="1"/>
@@ -1958,16 +1967,16 @@
         <v>60</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E25" s="1">
         <v>43916</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="1"/>
@@ -1977,7 +1986,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1985,16 +1994,16 @@
         <v>62</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E26" s="1">
         <v>43922</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="1"/>
@@ -2012,26 +2021,26 @@
         <v>64</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E27" s="1">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G27" s="1">
         <f>DATE(YEAR(E27),MONTH(E27)+1,DAY(E27))</f>
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="H27" s="8">
         <v>43891</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -2042,13 +2051,13 @@
         <v>67</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E28" s="1">
         <v>43800</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G28" s="1">
         <f>DATE(YEAR(E28)+1,MONTH(E28),DAY(E28))</f>
@@ -2058,7 +2067,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -2069,13 +2078,13 @@
         <v>70</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E29" s="1">
         <v>43709</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G29" s="1">
         <f>DATE(YEAR(E29)+1,MONTH(E29),DAY(E29))</f>
@@ -2085,7 +2094,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -2096,13 +2105,13 @@
         <v>73</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E30" s="1">
         <v>43734</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G30" s="1">
         <f>DATE(YEAR(E30)+1,MONTH(E30),DAY(E30))</f>
@@ -2112,7 +2121,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -2123,13 +2132,13 @@
         <v>32</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E31" s="1">
         <v>43800</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G31" s="1">
         <f>DATE(YEAR(E31)+1,MONTH(E31),DAY(E31))</f>
@@ -2139,7 +2148,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -2150,13 +2159,13 @@
         <v>78</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E32" s="1">
         <v>43647</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G32" s="1">
         <f>DATE(YEAR(E32)+1,MONTH(E32),DAY(E32))</f>
@@ -2177,13 +2186,13 @@
         <v>81</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E33" s="1">
         <v>43891</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G33" s="1">
         <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
@@ -2204,13 +2213,13 @@
         <v>84</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E34" s="1">
         <v>43892</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G34" s="1">
         <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
@@ -2220,130 +2229,132 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>85</v>
       </c>
       <c r="B35" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>87</v>
+      <c r="C35" s="7" t="s">
+        <v>253</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E35" s="1">
-        <v>43800</v>
+        <v>43922</v>
       </c>
       <c r="F35" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G35" s="1">
-        <v>43922</v>
+        <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
+        <v>44013</v>
       </c>
       <c r="H35" s="8">
         <v>43709</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B36" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E36" s="1">
-        <v>43958</v>
+        <v>43922</v>
       </c>
       <c r="F36" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G36" s="1">
         <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
-        <v>44050</v>
+        <v>44013</v>
       </c>
       <c r="H36">
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s">
         <v>88</v>
       </c>
-      <c r="B37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>90</v>
+      <c r="C37" s="7" t="s">
+        <v>254</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E37" s="1">
-        <v>43800</v>
+        <v>43922</v>
       </c>
       <c r="F37" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G37" s="1">
-        <v>43922</v>
+        <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
+        <v>44013</v>
       </c>
       <c r="H37" s="8">
         <v>43709</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B38" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="D38" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E38" s="1">
-        <v>44000</v>
+        <v>43983</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G38" s="1">
         <f>DATE(YEAR(E38),MONTH(E38)+1,DAY(E38))</f>
-        <v>44030</v>
+        <v>44013</v>
       </c>
       <c r="H38" s="8">
         <v>43952</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E39" s="1">
         <v>43831</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G39" s="1">
         <f>DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
@@ -2353,24 +2364,24 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="D40" s="6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E40" s="1">
         <v>43831</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G40" s="1">
         <f>DATE(YEAR(E40)+1,MONTH(E40),DAY(E40))</f>
@@ -2380,24 +2391,24 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="D41" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E41" s="1">
         <v>43739</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G41" s="1">
         <f>DATE(YEAR(E41)+1,MONTH(E41),DAY(E41))</f>
@@ -2407,49 +2418,49 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B42" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="D42" s="6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E42" s="1">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G42" s="1">
         <f>DATE(YEAR(E42),MONTH(E42)+3,DAY(E42))</f>
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="H42">
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="B43" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="1">
         <v>43862</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G43" s="1">
         <f>DATE(YEAR(E43)+1,MONTH(E43),DAY(E43))</f>
@@ -2459,97 +2470,97 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B44" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="1">
-        <v>43831</v>
+        <v>43983</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G44" s="1">
         <f>DATE(YEAR(E44),MONTH(E44)+3,DAY(E44))</f>
-        <v>43922</v>
+        <v>44075</v>
       </c>
       <c r="H44" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B45" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="1">
-        <v>43831</v>
+        <v>43983</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G45" s="1">
         <f>DATE(YEAR(E45),MONTH(E45)+3,DAY(E45))</f>
-        <v>43922</v>
+        <v>44075</v>
       </c>
       <c r="H45" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="1">
-        <v>43831</v>
+        <v>43983</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G46" s="1">
         <f>DATE(YEAR(E46),MONTH(E46)+3,DAY(E46))</f>
-        <v>43922</v>
+        <v>44075</v>
       </c>
       <c r="H46" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B47" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="1">
         <v>43770</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" ref="G47:G57" si="2">DATE(YEAR(E47)+1,MONTH(E47),DAY(E47))</f>
@@ -2561,22 +2572,22 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B48" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="D48" s="6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E48" s="1">
         <v>43634</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="2"/>
@@ -2586,24 +2597,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B49" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E49" s="1">
         <v>43831</v>
       </c>
       <c r="F49" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="2"/>
@@ -2615,20 +2626,20 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B50" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="1">
         <v>43617</v>
       </c>
       <c r="F50" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="2"/>
@@ -2638,36 +2649,36 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B51" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B52" t="s">
-        <v>124</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D52" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E52" s="1">
         <v>43734</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="2"/>
@@ -2677,24 +2688,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B53" t="s">
-        <v>127</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D53" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E53" s="1">
         <v>43846</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="2"/>
@@ -2704,22 +2715,22 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="1">
         <v>43862</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="2"/>
@@ -2729,24 +2740,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B55" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E55" s="1">
         <v>43891</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="2"/>
@@ -2758,22 +2769,22 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B56" t="s">
-        <v>130</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="D56" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E56" s="1">
         <v>43627</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" si="2"/>
@@ -2785,22 +2796,22 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B57" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="D57" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E57" s="1">
         <v>43627</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" si="2"/>
@@ -2810,97 +2821,97 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E58" s="1">
         <v>43885</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="G58" s="1">
-        <f>DATE(YEAR(E58),MONTH(E58)+3,DAY(E58))</f>
-        <v>43975</v>
+        <f>DATE(YEAR(E58),MONTH(E58)+12,DAY(E58))</f>
+        <v>44251</v>
       </c>
       <c r="H58">
         <v>2018</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E59" s="1">
         <v>43435</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H59">
         <v>2018</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B60" t="s">
-        <v>138</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="D60" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E60" s="1">
         <v>43447</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H60">
         <v>2018</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B61" t="s">
-        <v>141</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="D61" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E61" s="1">
         <v>43891</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G61" s="1">
         <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
@@ -2910,24 +2921,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B62" t="s">
-        <v>144</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="D62" s="6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E62" s="1">
         <v>43734</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G62" s="1">
         <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
@@ -2937,51 +2948,51 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E63" s="1">
-        <v>43611</v>
+        <v>43831</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G63" s="1">
         <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
-        <v>43977</v>
+        <v>44197</v>
       </c>
       <c r="H63">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B64" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E64" s="1">
         <v>43950</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G64" s="1">
         <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
@@ -2991,12 +3002,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B65" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>29</v>
@@ -3006,7 +3017,7 @@
         <v>43950</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G65" s="1">
         <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
@@ -3016,24 +3027,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B66" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E66" s="1">
         <v>43831</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G66" s="1">
         <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
@@ -3043,79 +3054,80 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B67" t="s">
-        <v>158</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E67" s="1">
-        <v>43859</v>
+        <v>43950</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G67" s="1">
-        <v>43950</v>
+        <f>DATE(YEAR(E67),MONTH(E67)+3,DAY(E67))</f>
+        <v>44041</v>
       </c>
       <c r="H67">
         <v>2018</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B68" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E68" s="13">
         <v>43546</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B69" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B70" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E70" s="1">
         <v>43889</v>
       </c>
       <c r="F70" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G70" s="1">
         <f>DATE(YEAR(E70)+1,MONTH(E70),DAY(E70))</f>
@@ -3125,24 +3137,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B71" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E71" s="1">
         <v>43908</v>
       </c>
       <c r="F71" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G71" s="1">
         <f>DATE(YEAR(E71)+1,MONTH(E71),DAY(E71))</f>
@@ -3158,115 +3170,116 @@
     <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="C11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="C13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C15" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C26" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C28" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C29" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C30" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C31" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C32" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C33" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C34" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C35" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C37" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C38" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D39" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C41" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C42" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C43" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C44" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C45" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C46" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C48" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C50" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C52" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C53" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C56" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C57" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C58" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C60" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C61" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C66" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C67" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C36" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C55" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D3" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D4" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D5" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D6" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D6:D8" r:id="rId50" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D15" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D16" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D17" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D18" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D19" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D25" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D26" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D27" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D28" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D29" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D30" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D31" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D32" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D35" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D37" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D41" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D53" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D56" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D57" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="D60" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D61" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D63" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D64" r:id="rId75" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D66" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D23" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D11" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D21" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D52" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D67" r:id="rId81" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D59" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C59" r:id="rId83" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C47" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D8" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D9" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C3" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C4" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D10" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D20" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C23" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="C21" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="C27" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D36" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D38" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C39" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D40" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D42" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D48" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D55" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D58" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D62" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C17" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C26" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C28" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C29" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C30" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C31" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C32" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C33" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C34" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C38" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D39" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C40" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C41" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C42" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C43" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C44" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C45" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C46" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C48" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C50" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C52" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C53" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C56" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C57" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C58" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C60" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C61" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C66" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D49" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C36" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C55" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D3" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D4" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D5" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D6" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D6:D8" r:id="rId46" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D15" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D16" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D17" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D18" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D19" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D25" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D26" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D27" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D28" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D31" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D32" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D33" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D34" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D35" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D37" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D41" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D53" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D56" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D57" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="D60" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D61" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D64" r:id="rId70" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D66" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D23" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D11" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D21" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D52" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D67" r:id="rId76" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D59" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C59" r:id="rId78" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C47" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D8" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D9" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C3" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C4" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D10" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D20" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C23" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C21" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D36" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D38" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C39" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D40" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D42" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D48" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D55" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D58" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D62" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="C64" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/01/gdp-quarterly-national-accounts-for-scotland-2019-q3/documents/other-quarterly-national-accounts-summary-tables/other-quarterly-national-accounts-summary-tables/govsco" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="C10" r:id="rId103" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
-    <hyperlink ref="D68" r:id="rId104" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
-    <hyperlink ref="C68" r:id="rId105" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
-    <hyperlink ref="C69" r:id="rId106" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D70" r:id="rId107" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C51" r:id="rId108" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
-    <hyperlink ref="D71" r:id="rId109" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
-    <hyperlink ref="C71" r:id="rId110" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
+    <hyperlink ref="C10" r:id="rId97" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
+    <hyperlink ref="D68" r:id="rId98" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
+    <hyperlink ref="C68" r:id="rId99" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
+    <hyperlink ref="C69" r:id="rId100" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
+    <hyperlink ref="D70" r:id="rId101" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="C51" r:id="rId102" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D71" r:id="rId103" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
+    <hyperlink ref="C71" r:id="rId104" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
+    <hyperlink ref="D63" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C63" r:id="rId106" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
+    <hyperlink ref="C15" r:id="rId107" xr:uid="{51C107AD-7A03-4FBE-BD96-914CE89498ED}"/>
+    <hyperlink ref="C27" r:id="rId108" xr:uid="{3D8A40BA-3AA5-47DC-AA36-51CBC491799C}"/>
+    <hyperlink ref="C35" r:id="rId109" xr:uid="{4A54BA2B-972E-41C6-A5C1-140B34825EC4}"/>
+    <hyperlink ref="C37" r:id="rId110" xr:uid="{9ECC9C5C-5E16-4293-80D2-9A7FBD4C6F14}"/>
+    <hyperlink ref="C67" r:id="rId111" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId111"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId112"/>
   <tableParts count="1">
-    <tablePart r:id="rId112"/>
+    <tablePart r:id="rId113"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\OneDrive\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{6A55E799-6761-4A8D-9CC6-7690E84C63E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7118E8E3-DB4B-43CA-A818-0369AF2537FF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B74E17F-F1A1-4A15-AA1A-F8516CEF70E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1310,7 +1310,7 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1377,7 +1377,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1391,20 +1391,20 @@
         <v>164</v>
       </c>
       <c r="E3" s="1">
-        <v>43916</v>
+        <v>43983</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>196</v>
       </c>
       <c r="G3" s="1">
         <f>DATE(YEAR(E3),MONTH(E3)+3,DAY(E3))</f>
-        <v>44008</v>
+        <v>44075</v>
       </c>
       <c r="H3">
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1418,14 +1418,14 @@
         <v>164</v>
       </c>
       <c r="E4" s="1">
-        <v>43916</v>
+        <v>43983</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>196</v>
       </c>
       <c r="G4" s="1">
         <f>DATE(YEAR(E4),MONTH(E4)+3,DAY(E4))</f>
-        <v>44008</v>
+        <v>44075</v>
       </c>
       <c r="H4">
         <v>2019</v>
@@ -1716,7 +1716,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1730,20 +1730,20 @@
         <v>168</v>
       </c>
       <c r="E16" s="1">
-        <v>43916</v>
+        <v>43983</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>196</v>
       </c>
       <c r="G16" s="1">
         <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
-        <v>44008</v>
+        <v>44075</v>
       </c>
       <c r="H16" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1757,14 +1757,14 @@
         <v>169</v>
       </c>
       <c r="E17" s="1">
-        <v>43622</v>
+        <v>43983</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>197</v>
       </c>
       <c r="G17" s="1">
         <f>DATE(YEAR(E17)+1,MONTH(E17),DAY(E17))</f>
-        <v>43988</v>
+        <v>44348</v>
       </c>
       <c r="H17">
         <v>2017</v>
@@ -1851,7 +1851,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -1865,20 +1865,20 @@
         <v>173</v>
       </c>
       <c r="E21" s="1">
-        <v>43916</v>
+        <v>43983</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>196</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
-        <v>44008</v>
+        <v>44075</v>
       </c>
       <c r="H21" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1892,20 +1892,20 @@
         <v>173</v>
       </c>
       <c r="E22" s="1">
-        <v>43916</v>
+        <v>43983</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>196</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="1"/>
-        <v>44008</v>
+        <v>44075</v>
       </c>
       <c r="H22" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -1919,20 +1919,20 @@
         <v>194</v>
       </c>
       <c r="E23" s="1">
-        <v>43916</v>
+        <v>43983</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>196</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="1"/>
-        <v>44008</v>
+        <v>44075</v>
       </c>
       <c r="H23" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -1946,20 +1946,20 @@
         <v>173</v>
       </c>
       <c r="E24" s="1">
-        <v>43916</v>
+        <v>43983</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>196</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="1"/>
-        <v>44008</v>
+        <v>44075</v>
       </c>
       <c r="H24" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -1973,14 +1973,14 @@
         <v>174</v>
       </c>
       <c r="E25" s="1">
-        <v>43916</v>
+        <v>43983</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>196</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="1"/>
-        <v>44008</v>
+        <v>44075</v>
       </c>
       <c r="H25" s="8">
         <v>43800</v>
@@ -2013,7 +2013,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -2027,14 +2027,14 @@
         <v>176</v>
       </c>
       <c r="E27" s="1">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>204</v>
       </c>
       <c r="G27" s="1">
         <f>DATE(YEAR(E27),MONTH(E27)+1,DAY(E27))</f>
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="H27" s="8">
         <v>43891</v>
@@ -2175,7 +2175,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -2189,20 +2189,20 @@
         <v>164</v>
       </c>
       <c r="E33" s="1">
-        <v>43891</v>
+        <v>43983</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>196</v>
       </c>
       <c r="G33" s="1">
         <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="H33">
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -2216,14 +2216,14 @@
         <v>164</v>
       </c>
       <c r="E34" s="1">
-        <v>43892</v>
+        <v>43983</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>196</v>
       </c>
       <c r="G34" s="1">
         <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
-        <v>43984</v>
+        <v>44075</v>
       </c>
       <c r="H34">
         <v>2019</v>
@@ -2570,7 +2570,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -2584,14 +2584,14 @@
         <v>227</v>
       </c>
       <c r="E48" s="1">
-        <v>43634</v>
+        <v>43983</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>197</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="2"/>
-        <v>44000</v>
+        <v>44348</v>
       </c>
       <c r="H48">
         <v>2018</v>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\OneDrive\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B74E17F-F1A1-4A15-AA1A-F8516CEF70E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{3B74E17F-F1A1-4A15-AA1A-F8516CEF70E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2B2BDBF8-41CE-4D56-AE02-00DA3C213559}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -986,13 +986,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H71" totalsRowShown="0">
-  <autoFilter ref="A1:H71" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="6">
-      <filters>
-        <dateGroupItem year="2020" month="6" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H71" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H67">
     <sortCondition ref="A1:A67"/>
   </sortState>
@@ -1377,7 +1371,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1404,7 +1398,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1431,7 +1425,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1458,7 +1452,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1485,7 +1479,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1512,7 +1506,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1539,7 +1533,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1566,7 +1560,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>229</v>
       </c>
@@ -1593,7 +1587,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1620,7 +1614,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1640,7 +1634,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1667,7 +1661,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1689,7 +1683,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1716,7 +1710,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1743,7 +1737,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1797,7 +1791,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1824,7 +1818,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1851,7 +1845,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -1878,7 +1872,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1905,7 +1899,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -1932,7 +1926,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -1959,7 +1953,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -1986,7 +1980,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -2013,7 +2007,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -2040,7 +2034,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -2067,7 +2061,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -2094,7 +2088,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -2121,7 +2115,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -2148,7 +2142,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -2175,7 +2169,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -2202,7 +2196,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -2229,7 +2223,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -2256,7 +2250,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>158</v>
       </c>
@@ -2283,7 +2277,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -2310,7 +2304,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -2337,7 +2331,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -2364,7 +2358,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -2391,7 +2385,7 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>98</v>
       </c>
@@ -2418,7 +2412,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -2445,7 +2439,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>104</v>
       </c>
@@ -2470,7 +2464,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>107</v>
       </c>
@@ -2495,7 +2489,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>110</v>
       </c>
@@ -2520,7 +2514,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>113</v>
       </c>
@@ -2545,7 +2539,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>209</v>
       </c>
@@ -2570,7 +2564,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -2597,7 +2591,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>156</v>
       </c>
@@ -2649,7 +2643,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>242</v>
       </c>
@@ -2661,7 +2655,7 @@
       </c>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>121</v>
       </c>
@@ -2688,7 +2682,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>124</v>
       </c>
@@ -2715,7 +2709,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>212</v>
       </c>
@@ -2740,7 +2734,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>160</v>
       </c>
@@ -2821,7 +2815,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>133</v>
       </c>
@@ -2848,7 +2842,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>206</v>
       </c>
@@ -2871,7 +2865,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>135</v>
       </c>
@@ -2894,7 +2888,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>138</v>
       </c>
@@ -2921,7 +2915,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>141</v>
       </c>
@@ -2948,7 +2942,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>144</v>
       </c>
@@ -2975,7 +2969,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>146</v>
       </c>
@@ -3002,7 +2996,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>149</v>
       </c>
@@ -3027,7 +3021,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>151</v>
       </c>
@@ -3054,7 +3048,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>154</v>
       </c>
@@ -3081,7 +3075,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>231</v>
       </c>
@@ -3098,7 +3092,7 @@
         <v>43546</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>237</v>
       </c>
@@ -3110,7 +3104,7 @@
       </c>
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>239</v>
       </c>
@@ -3137,7 +3131,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>246</v>
       </c>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{3B74E17F-F1A1-4A15-AA1A-F8516CEF70E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2B2BDBF8-41CE-4D56-AE02-00DA3C213559}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3B74E17F-F1A1-4A15-AA1A-F8516CEF70E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A70E7899-2F08-484D-99BB-69FCDC70EC27}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1303,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2378,8 +2378,7 @@
         <v>197</v>
       </c>
       <c r="G40" s="1">
-        <f>DATE(YEAR(E40)+1,MONTH(E40),DAY(E40))</f>
-        <v>44197</v>
+        <v>44256</v>
       </c>
       <c r="H40" s="8">
         <v>43617</v>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3B74E17F-F1A1-4A15-AA1A-F8516CEF70E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A70E7899-2F08-484D-99BB-69FCDC70EC27}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{3B74E17F-F1A1-4A15-AA1A-F8516CEF70E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C42FACAC-CD7C-4846-9ADE-9449E2B56267}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="261">
   <si>
     <t>Code</t>
   </si>
@@ -802,6 +802,18 @@
   </si>
   <si>
     <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx</t>
+  </si>
+  <si>
+    <t>BEISRenElecSites</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/regional-renewable-statistics</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/834143/Regional_statistics__2003-2018__-_number_of_sites.xls</t>
+  </si>
+  <si>
+    <t>BEIS: Number of sites generating electricity from renewable sources</t>
   </si>
 </sst>
 </file>
@@ -985,8 +997,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H71" totalsRowShown="0">
-  <autoFilter ref="A1:H71" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H72" totalsRowShown="0">
+  <autoFilter ref="A1:H72" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H67">
     <sortCondition ref="A1:A67"/>
   </sortState>
@@ -1301,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3152,6 +3164,30 @@
       <c r="G71" s="1">
         <f>DATE(YEAR(E71)+1,MONTH(E71),DAY(E71))</f>
         <v>44273</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>257</v>
+      </c>
+      <c r="B72" t="s">
+        <v>260</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E72" s="1">
+        <v>43734</v>
+      </c>
+      <c r="F72" t="s">
+        <v>197</v>
+      </c>
+      <c r="G72" s="1">
+        <f>DATE(YEAR(E72)+1,MONTH(E72),DAY(E72))</f>
+        <v>44100</v>
       </c>
     </row>
   </sheetData>
@@ -3268,11 +3304,13 @@
     <hyperlink ref="C35" r:id="rId109" xr:uid="{4A54BA2B-972E-41C6-A5C1-140B34825EC4}"/>
     <hyperlink ref="C37" r:id="rId110" xr:uid="{9ECC9C5C-5E16-4293-80D2-9A7FBD4C6F14}"/>
     <hyperlink ref="C67" r:id="rId111" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
+    <hyperlink ref="D72" r:id="rId112" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="C72" r:id="rId113" xr:uid="{14956B9F-2D6F-454A-BE7E-7F912ECE1928}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId112"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId114"/>
   <tableParts count="1">
-    <tablePart r:id="rId113"/>
+    <tablePart r:id="rId115"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{3B74E17F-F1A1-4A15-AA1A-F8516CEF70E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C42FACAC-CD7C-4846-9ADE-9449E2B56267}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{3B74E17F-F1A1-4A15-AA1A-F8516CEF70E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C184F183-23BF-49E1-9CA2-7301B3D994B3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="264">
   <si>
     <t>Code</t>
   </si>
@@ -814,6 +814,15 @@
   </si>
   <si>
     <t>BEIS: Number of sites generating electricity from renewable sources</t>
+  </si>
+  <si>
+    <t>BEISRenElecLA</t>
+  </si>
+  <si>
+    <t>BEIS: Renewable Electricity by Local Authority</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/834142/Renewable_electricity_by_local_authority_2014_to_2018.xlsx</t>
   </si>
 </sst>
 </file>
@@ -997,8 +1006,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H72" totalsRowShown="0">
-  <autoFilter ref="A1:H72" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H73" totalsRowShown="0">
+  <autoFilter ref="A1:H73" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H67">
     <sortCondition ref="A1:A67"/>
   </sortState>
@@ -1313,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3188,6 +3197,30 @@
       <c r="G72" s="1">
         <f>DATE(YEAR(E72)+1,MONTH(E72),DAY(E72))</f>
         <v>44100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>261</v>
+      </c>
+      <c r="B73" t="s">
+        <v>262</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E73" s="1">
+        <v>43709</v>
+      </c>
+      <c r="F73" t="s">
+        <v>197</v>
+      </c>
+      <c r="G73" s="1">
+        <f>DATE(YEAR(E73)+1,MONTH(E73),DAY(E73))</f>
+        <v>44075</v>
       </c>
     </row>
   </sheetData>
@@ -3306,11 +3339,12 @@
     <hyperlink ref="C67" r:id="rId111" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
     <hyperlink ref="D72" r:id="rId112" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
     <hyperlink ref="C72" r:id="rId113" xr:uid="{14956B9F-2D6F-454A-BE7E-7F912ECE1928}"/>
+    <hyperlink ref="D73" r:id="rId114" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId114"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId115"/>
   <tableParts count="1">
-    <tablePart r:id="rId115"/>
+    <tablePart r:id="rId116"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{3B74E17F-F1A1-4A15-AA1A-F8516CEF70E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C184F183-23BF-49E1-9CA2-7301B3D994B3}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{3B74E17F-F1A1-4A15-AA1A-F8516CEF70E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3FD86F91-7CA1-4E93-91A6-B7BD97D50D9A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="268">
   <si>
     <t>Code</t>
   </si>
@@ -823,6 +817,18 @@
   </si>
   <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/834142/Renewable_electricity_by_local_authority_2014_to_2018.xlsx</t>
+  </si>
+  <si>
+    <t>OFGEMTariff</t>
+  </si>
+  <si>
+    <t>OFGEM: Default Tariff Cap level</t>
+  </si>
+  <si>
+    <t>https://www.ofgem.gov.uk/publications-and-updates/default-tariff-cap-level-1-october-2020-31-march-2021</t>
+  </si>
+  <si>
+    <t>https://www.ofgem.gov.uk/gas/retail-market/market-review-and-reform/default-tariff-cap</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +1012,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H73" totalsRowShown="0">
-  <autoFilter ref="A1:H73" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H67">
-    <sortCondition ref="A1:A67"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H74" totalsRowShown="0">
+  <autoFilter ref="A1:H74" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H74">
+    <sortCondition ref="A1:A74"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Code"/>
@@ -1322,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1466,7 +1472,7 @@
         <v>197</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G11" si="0">DATE(YEAR(E5)+1,MONTH(E5),DAY(E5))</f>
+        <f>DATE(YEAR(E5)+1,MONTH(E5),DAY(E5))</f>
         <v>44100</v>
       </c>
       <c r="H5">
@@ -1493,7 +1499,7 @@
         <v>197</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E6)+1,MONTH(E6),DAY(E6))</f>
         <v>44013</v>
       </c>
       <c r="H6">
@@ -1520,7 +1526,7 @@
         <v>197</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E7)+1,MONTH(E7),DAY(E7))</f>
         <v>44013</v>
       </c>
       <c r="H7">
@@ -1547,7 +1553,7 @@
         <v>197</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E8)+1,MONTH(E8),DAY(E8))</f>
         <v>44013</v>
       </c>
       <c r="H8">
@@ -1574,7 +1580,7 @@
         <v>197</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E9)+1,MONTH(E9),DAY(E9))</f>
         <v>44013</v>
       </c>
       <c r="H9">
@@ -1601,7 +1607,7 @@
         <v>197</v>
       </c>
       <c r="G10" s="11">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E10)+1,MONTH(E10),DAY(E10))</f>
         <v>44228</v>
       </c>
       <c r="H10" s="9">
@@ -1628,7 +1634,7 @@
         <v>197</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E11)+1,MONTH(E11),DAY(E11))</f>
         <v>44166</v>
       </c>
       <c r="H11">
@@ -1787,123 +1793,123 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>170</v>
+        <v>238</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="E18" s="1">
-        <v>43643</v>
-      </c>
-      <c r="F18" s="3" t="s">
+        <v>43889</v>
+      </c>
+      <c r="F18" t="s">
         <v>197</v>
       </c>
       <c r="G18" s="1">
         <f>DATE(YEAR(E18)+1,MONTH(E18),DAY(E18))</f>
-        <v>44009</v>
+        <v>44255</v>
       </c>
       <c r="H18">
-        <v>2016</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E19" s="1">
-        <v>43800</v>
+        <v>43643</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>197</v>
       </c>
       <c r="G19" s="1">
         <f>DATE(YEAR(E19)+1,MONTH(E19),DAY(E19))</f>
-        <v>44166</v>
+        <v>44009</v>
       </c>
       <c r="H19">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E20" s="1">
-        <v>43978</v>
+        <v>43800</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" ref="G20:G26" si="1">DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
-        <v>44070</v>
-      </c>
-      <c r="H20" s="8">
-        <v>43831</v>
+        <f>DATE(YEAR(E20)+1,MONTH(E20),DAY(E20))</f>
+        <v>44166</v>
+      </c>
+      <c r="H20">
+        <v>2018</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>199</v>
+        <v>49</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E21" s="1">
-        <v>43983</v>
+        <v>43978</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>196</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="1"/>
-        <v>44075</v>
+        <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
+        <v>44070</v>
       </c>
       <c r="H21" s="8">
-        <v>43800</v>
+        <v>43831</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>173</v>
       </c>
       <c r="E22" s="1">
@@ -1913,7 +1919,7 @@
         <v>196</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
         <v>44075</v>
       </c>
       <c r="H22" s="8">
@@ -1922,16 +1928,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>194</v>
+        <v>54</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="E23" s="1">
         <v>43983</v>
@@ -1940,7 +1946,7 @@
         <v>196</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
         <v>44075</v>
       </c>
       <c r="H23" s="8">
@@ -1949,16 +1955,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>173</v>
+        <v>56</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="E24" s="1">
         <v>43983</v>
@@ -1967,7 +1973,7 @@
         <v>196</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
         <v>44075</v>
       </c>
       <c r="H24" s="8">
@@ -1976,16 +1982,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>174</v>
+        <v>58</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="E25" s="1">
         <v>43983</v>
@@ -1994,7 +2000,7 @@
         <v>196</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
         <v>44075</v>
       </c>
       <c r="H25" s="8">
@@ -2003,151 +2009,145 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>221</v>
+        <v>60</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E26" s="1">
-        <v>43922</v>
+        <v>43983</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>196</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="1"/>
-        <v>44013</v>
-      </c>
-      <c r="H26" s="1">
-        <v>43891</v>
+        <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
+        <v>44075</v>
+      </c>
+      <c r="H26" s="8">
+        <v>43800</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>176</v>
+        <v>262</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="E27" s="1">
-        <v>43983</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>204</v>
+        <v>43709</v>
+      </c>
+      <c r="F27" t="s">
+        <v>197</v>
       </c>
       <c r="G27" s="1">
-        <f>DATE(YEAR(E27),MONTH(E27)+1,DAY(E27))</f>
-        <v>44013</v>
-      </c>
-      <c r="H27" s="8">
-        <v>43891</v>
+        <f>DATE(YEAR(E27)+1,MONTH(E27),DAY(E27))</f>
+        <v>44075</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>177</v>
+        <v>260</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="E28" s="1">
-        <v>43800</v>
-      </c>
-      <c r="F28" s="3" t="s">
+        <v>43734</v>
+      </c>
+      <c r="F28" t="s">
         <v>197</v>
       </c>
       <c r="G28" s="1">
         <f>DATE(YEAR(E28)+1,MONTH(E28),DAY(E28))</f>
-        <v>44166</v>
-      </c>
-      <c r="H28">
-        <v>2018</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E29" s="1">
-        <v>43709</v>
+        <v>43922</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G29" s="1">
-        <f>DATE(YEAR(E29)+1,MONTH(E29),DAY(E29))</f>
-        <v>44075</v>
-      </c>
-      <c r="H29">
-        <v>2017</v>
+        <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
+        <v>44013</v>
+      </c>
+      <c r="H29" s="1">
+        <v>43891</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E30" s="1">
-        <v>43734</v>
+        <v>43983</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G30" s="1">
-        <f>DATE(YEAR(E30)+1,MONTH(E30),DAY(E30))</f>
-        <v>44100</v>
-      </c>
-      <c r="H30">
-        <v>2017</v>
+        <f>DATE(YEAR(E30),MONTH(E30)+1,DAY(E30))</f>
+        <v>44013</v>
+      </c>
+      <c r="H30" s="8">
+        <v>43891</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E31" s="1">
         <v>43800</v>
@@ -2165,134 +2165,134 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E32" s="1">
-        <v>43647</v>
+        <v>43709</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>197</v>
       </c>
       <c r="G32" s="1">
         <f>DATE(YEAR(E32)+1,MONTH(E32),DAY(E32))</f>
-        <v>44013</v>
+        <v>44075</v>
       </c>
       <c r="H32">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="E33" s="1">
-        <v>43983</v>
+        <v>43734</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G33" s="1">
-        <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
-        <v>44075</v>
+        <f>DATE(YEAR(E33)+1,MONTH(E33),DAY(E33))</f>
+        <v>44100</v>
       </c>
       <c r="H33">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="E34" s="1">
-        <v>43983</v>
+        <v>43800</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G34" s="1">
-        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
-        <v>44075</v>
+        <f>DATE(YEAR(E34)+1,MONTH(E34),DAY(E34))</f>
+        <v>44166</v>
       </c>
       <c r="H34">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>182</v>
+        <v>77</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="E35" s="1">
-        <v>43922</v>
-      </c>
-      <c r="F35" t="s">
-        <v>196</v>
+        <v>43647</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="G35" s="1">
-        <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
+        <f>DATE(YEAR(E35)+1,MONTH(E35),DAY(E35))</f>
         <v>44013</v>
       </c>
-      <c r="H35" s="8">
-        <v>43709</v>
+      <c r="H35">
+        <v>2018</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>222</v>
+        <v>80</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="E36" s="1">
-        <v>43922</v>
-      </c>
-      <c r="F36" t="s">
+        <v>43983</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>196</v>
       </c>
       <c r="G36" s="1">
         <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
-        <v>44013</v>
+        <v>44075</v>
       </c>
       <c r="H36">
         <v>2019</v>
@@ -2300,403 +2300,405 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>182</v>
+        <v>84</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="E37" s="1">
-        <v>43922</v>
-      </c>
-      <c r="F37" t="s">
+        <v>43983</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>196</v>
       </c>
       <c r="G37" s="1">
         <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
-        <v>44013</v>
-      </c>
-      <c r="H37" s="8">
-        <v>43709</v>
+        <v>44075</v>
+      </c>
+      <c r="H37">
+        <v>2019</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>237</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E38" s="1">
-        <v>43983</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G38" s="1">
-        <f>DATE(YEAR(E38),MONTH(E38)+1,DAY(E38))</f>
-        <v>44013</v>
-      </c>
-      <c r="H38" s="8">
-        <v>43952</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="E39" s="1">
-        <v>43831</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>197</v>
+        <v>43922</v>
+      </c>
+      <c r="F39" t="s">
+        <v>196</v>
       </c>
       <c r="G39" s="1">
-        <f>DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
-        <v>44197</v>
-      </c>
-      <c r="H39">
-        <v>2019</v>
+        <f>DATE(YEAR(E39),MONTH(E39)+3,DAY(E39))</f>
+        <v>44013</v>
+      </c>
+      <c r="H39" s="8">
+        <v>43709</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>97</v>
+        <v>159</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E40" s="1">
-        <v>43831</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>197</v>
+        <v>43922</v>
+      </c>
+      <c r="F40" t="s">
+        <v>196</v>
       </c>
       <c r="G40" s="1">
-        <v>44256</v>
-      </c>
-      <c r="H40" s="8">
-        <v>43617</v>
+        <f>DATE(YEAR(E40),MONTH(E40)+3,DAY(E40))</f>
+        <v>44013</v>
+      </c>
+      <c r="H40">
+        <v>2019</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>183</v>
+        <v>88</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="E41" s="1">
-        <v>43739</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>197</v>
+        <v>43922</v>
+      </c>
+      <c r="F41" t="s">
+        <v>196</v>
       </c>
       <c r="G41" s="1">
-        <f>DATE(YEAR(E41)+1,MONTH(E41),DAY(E41))</f>
-        <v>44105</v>
-      </c>
-      <c r="H41">
-        <v>2018</v>
+        <f>DATE(YEAR(E41),MONTH(E41)+3,DAY(E41))</f>
+        <v>44013</v>
+      </c>
+      <c r="H41" s="8">
+        <v>43709</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E42" s="1">
-        <v>43922</v>
+        <v>43983</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="G42" s="1">
-        <f>DATE(YEAR(E42),MONTH(E42)+3,DAY(E42))</f>
+        <f>DATE(YEAR(E42),MONTH(E42)+1,DAY(E42))</f>
         <v>44013</v>
       </c>
-      <c r="H42">
-        <v>2018</v>
+      <c r="H42" s="8">
+        <v>43952</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="E43" s="1">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>197</v>
       </c>
       <c r="G43" s="1">
         <f>DATE(YEAR(E43)+1,MONTH(E43),DAY(E43))</f>
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="H43">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>225</v>
+      </c>
       <c r="E44" s="1">
-        <v>43983</v>
+        <v>43831</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G44" s="1">
-        <f>DATE(YEAR(E44),MONTH(E44)+3,DAY(E44))</f>
-        <v>44075</v>
+        <v>44256</v>
       </c>
       <c r="H44" s="8">
-        <v>43800</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>183</v>
+      </c>
       <c r="E45" s="1">
-        <v>43983</v>
+        <v>43739</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G45" s="1">
-        <f>DATE(YEAR(E45),MONTH(E45)+3,DAY(E45))</f>
-        <v>44075</v>
-      </c>
-      <c r="H45" s="8">
-        <v>43800</v>
+        <f>DATE(YEAR(E45)+1,MONTH(E45),DAY(E45))</f>
+        <v>44105</v>
+      </c>
+      <c r="H45">
+        <v>2018</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>226</v>
+      </c>
       <c r="E46" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>196</v>
       </c>
       <c r="G46" s="1">
         <f>DATE(YEAR(E46),MONTH(E46)+3,DAY(E46))</f>
-        <v>44075</v>
-      </c>
-      <c r="H46" s="8">
-        <v>43800</v>
+        <v>44013</v>
+      </c>
+      <c r="H46">
+        <v>2018</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="B47" t="s">
-        <v>210</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D47" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="5"/>
       <c r="E47" s="1">
-        <v>43770</v>
+        <v>43862</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>197</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" ref="G47:G57" si="2">DATE(YEAR(E47)+1,MONTH(E47),DAY(E47))</f>
-        <v>44136</v>
+        <f>DATE(YEAR(E47)+1,MONTH(E47),DAY(E47))</f>
+        <v>44228</v>
       </c>
       <c r="H47">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>227</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D48" s="2"/>
       <c r="E48" s="1">
         <v>43983</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="2"/>
-        <v>44348</v>
-      </c>
-      <c r="H48">
-        <v>2018</v>
+        <f>DATE(YEAR(E48),MONTH(E48)+3,DAY(E48))</f>
+        <v>44075</v>
+      </c>
+      <c r="H48" s="8">
+        <v>43800</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>157</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="2"/>
       <c r="E49" s="1">
-        <v>43831</v>
-      </c>
-      <c r="F49" t="s">
-        <v>197</v>
+        <v>43983</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="2"/>
-        <v>44197</v>
-      </c>
-      <c r="H49">
-        <v>2019</v>
+        <f>DATE(YEAR(E49),MONTH(E49)+3,DAY(E49))</f>
+        <v>44075</v>
+      </c>
+      <c r="H49" s="8">
+        <v>43800</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="1">
-        <v>43617</v>
-      </c>
-      <c r="F50" t="s">
-        <v>197</v>
+        <v>43983</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="2"/>
-        <v>43983</v>
-      </c>
-      <c r="H50">
-        <v>2018</v>
+        <f>DATE(YEAR(E50),MONTH(E50)+3,DAY(E50))</f>
+        <v>44075</v>
+      </c>
+      <c r="H50" s="8">
+        <v>43800</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>243</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>244</v>
+        <v>210</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="D51" s="7"/>
+      <c r="E51" s="1">
+        <v>43770</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G51" s="1">
+        <f>DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
+        <v>44136</v>
+      </c>
+      <c r="H51">
+        <v>2019</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>205</v>
+        <v>117</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="E52" s="1">
-        <v>43734</v>
+        <v>43983</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>197</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="2"/>
-        <v>44100</v>
+        <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
+        <v>44348</v>
       </c>
       <c r="H52">
         <v>2018</v>
@@ -2704,51 +2706,51 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>184</v>
+        <v>156</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="E53" s="1">
-        <v>43846</v>
-      </c>
-      <c r="F53" s="3" t="s">
+        <v>43831</v>
+      </c>
+      <c r="F53" t="s">
         <v>197</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="2"/>
-        <v>44212</v>
+        <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
+        <v>44197</v>
       </c>
       <c r="H53">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="B54" t="s">
-        <v>213</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D54" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="2"/>
       <c r="E54" s="1">
-        <v>43862</v>
-      </c>
-      <c r="F54" s="3" t="s">
+        <v>43617</v>
+      </c>
+      <c r="F54" t="s">
         <v>197</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="2"/>
-        <v>44228</v>
+        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
+        <v>43983</v>
       </c>
       <c r="H54">
         <v>2018</v>
@@ -2756,53 +2758,38 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>242</v>
       </c>
       <c r="B55" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E55" s="1">
-        <v>43891</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G55" s="1">
-        <f t="shared" si="2"/>
-        <v>44256</v>
-      </c>
-      <c r="H55">
-        <v>2018</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="E56" s="1">
-        <v>43627</v>
+        <v>43734</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>197</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="2"/>
-        <v>43993</v>
+        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
+        <v>44100</v>
       </c>
       <c r="H56">
         <v>2018</v>
@@ -2810,53 +2797,47 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>185</v>
+        <v>265</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="E57" s="1">
-        <v>43627</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>197</v>
-      </c>
+        <v>44013</v>
+      </c>
+      <c r="F57" s="3"/>
       <c r="G57" s="1">
-        <f t="shared" si="2"/>
-        <v>43993</v>
-      </c>
-      <c r="H57">
-        <v>2018</v>
+        <v>44228</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>188</v>
+        <v>125</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E58" s="1">
-        <v>43885</v>
+        <v>43846</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>255</v>
+        <v>197</v>
       </c>
       <c r="G58" s="1">
-        <f>DATE(YEAR(E58),MONTH(E58)+12,DAY(E58))</f>
-        <v>44251</v>
+        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
+        <v>44212</v>
       </c>
       <c r="H58">
         <v>2018</v>
@@ -2864,45 +2845,41 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E59" s="1">
-        <v>43435</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H59">
-        <v>2018</v>
+        <v>233</v>
+      </c>
+      <c r="E59" s="13">
+        <v>43546</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="B60" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>186</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" s="6"/>
       <c r="E60" s="1">
-        <v>43447</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>216</v>
+        <v>43862</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G60" s="1">
+        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
+        <v>44228</v>
       </c>
       <c r="H60">
         <v>2018</v>
@@ -2910,12 +2887,12 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="B61" t="s">
-        <v>139</v>
-      </c>
-      <c r="C61" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D61" s="7" t="s">
@@ -2937,26 +2914,26 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>228</v>
+        <v>129</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="E62" s="1">
-        <v>43734</v>
+        <v>43627</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>197</v>
       </c>
       <c r="G62" s="1">
         <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
-        <v>44100</v>
+        <v>43993</v>
       </c>
       <c r="H62">
         <v>2018</v>
@@ -2964,26 +2941,26 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B63" t="s">
-        <v>145</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>190</v>
+        <v>131</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="E63" s="1">
-        <v>43831</v>
+        <v>43627</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>197</v>
       </c>
       <c r="G63" s="1">
         <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
-        <v>44197</v>
+        <v>43993</v>
       </c>
       <c r="H63">
         <v>2018</v>
@@ -2991,236 +2968,286 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E64" s="1">
+        <v>43885</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G64" s="1">
+        <f>DATE(YEAR(E64),MONTH(E64)+12,DAY(E64))</f>
+        <v>44251</v>
+      </c>
+      <c r="H64">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>206</v>
+      </c>
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E65" s="1">
+        <v>43435</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H65">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E66" s="1">
+        <v>43447</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H66">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E67" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G67" s="1">
+        <f>DATE(YEAR(E67)+1,MONTH(E67),DAY(E67))</f>
+        <v>44256</v>
+      </c>
+      <c r="H67">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E68" s="1">
+        <v>43734</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G68" s="1">
+        <f>DATE(YEAR(E68)+1,MONTH(E68),DAY(E68))</f>
+        <v>44100</v>
+      </c>
+      <c r="H68">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E69" s="1">
+        <v>43831</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G69" s="1">
+        <f>DATE(YEAR(E69)+1,MONTH(E69),DAY(E69))</f>
+        <v>44197</v>
+      </c>
+      <c r="H69">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>146</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B70" t="s">
         <v>147</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D70" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E70" s="1">
         <v>43950</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F70" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G70" s="1">
         <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
         <v>44041</v>
       </c>
-      <c r="H64">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="H70">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>149</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B71" t="s">
         <v>150</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="1">
+      <c r="D71" s="6"/>
+      <c r="E71" s="1">
         <v>43950</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F71" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G71" s="1">
         <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
         <v>44041</v>
       </c>
-      <c r="H65">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>151</v>
-      </c>
-      <c r="B66" t="s">
-        <v>152</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E66" s="1">
-        <v>43831</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G66" s="1">
-        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
-        <v>44197</v>
-      </c>
-      <c r="H66">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>154</v>
-      </c>
-      <c r="B67" t="s">
-        <v>155</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E67" s="1">
-        <v>43950</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G67" s="1">
-        <f>DATE(YEAR(E67),MONTH(E67)+3,DAY(E67))</f>
-        <v>44041</v>
-      </c>
-      <c r="H67">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>231</v>
-      </c>
-      <c r="B68" t="s">
-        <v>232</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E68" s="13">
-        <v>43546</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>237</v>
-      </c>
-      <c r="B69" t="s">
-        <v>236</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D69" s="6"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>239</v>
-      </c>
-      <c r="B70" t="s">
-        <v>238</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E70" s="1">
-        <v>43889</v>
-      </c>
-      <c r="F70" t="s">
-        <v>197</v>
-      </c>
-      <c r="G70" s="1">
-        <f>DATE(YEAR(E70)+1,MONTH(E70),DAY(E70))</f>
-        <v>44255</v>
-      </c>
-      <c r="H70">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>246</v>
-      </c>
-      <c r="B71" t="s">
-        <v>247</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="E71" s="1">
-        <v>43908</v>
-      </c>
-      <c r="F71" t="s">
-        <v>197</v>
-      </c>
-      <c r="G71" s="1">
-        <f>DATE(YEAR(E71)+1,MONTH(E71),DAY(E71))</f>
-        <v>44273</v>
+      <c r="H71">
+        <v>2018</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>257</v>
+        <v>151</v>
       </c>
       <c r="B72" t="s">
-        <v>260</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>258</v>
+        <v>152</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="E72" s="1">
-        <v>43734</v>
-      </c>
-      <c r="F72" t="s">
+        <v>43831</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>197</v>
       </c>
       <c r="G72" s="1">
         <f>DATE(YEAR(E72)+1,MONTH(E72),DAY(E72))</f>
-        <v>44100</v>
+        <v>44197</v>
+      </c>
+      <c r="H72">
+        <v>2018</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>261</v>
+        <v>154</v>
       </c>
       <c r="B73" t="s">
-        <v>262</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>258</v>
+        <v>155</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="E73" s="1">
-        <v>43709</v>
-      </c>
-      <c r="F73" t="s">
-        <v>197</v>
+        <v>43950</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="G73" s="1">
-        <f>DATE(YEAR(E73)+1,MONTH(E73),DAY(E73))</f>
-        <v>44075</v>
+        <f>DATE(YEAR(E73),MONTH(E73)+3,DAY(E73))</f>
+        <v>44041</v>
+      </c>
+      <c r="H73">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>246</v>
+      </c>
+      <c r="B74" t="s">
+        <v>247</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E74" s="1">
+        <v>43908</v>
+      </c>
+      <c r="F74" t="s">
+        <v>197</v>
+      </c>
+      <c r="G74" s="1">
+        <f>DATE(YEAR(E74)+1,MONTH(E74),DAY(E74))</f>
+        <v>44273</v>
       </c>
     </row>
   </sheetData>
@@ -3233,39 +3260,39 @@
     <hyperlink ref="C11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="C13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="C17" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C26" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C28" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C29" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C30" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C31" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C32" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C33" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C34" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C38" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D39" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C40" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C41" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C42" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C43" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C44" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C45" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C46" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C48" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C50" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C52" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C53" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C56" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C57" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C58" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C60" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C61" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C66" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D49" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C36" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C55" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C20" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C21" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C29" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C31" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C32" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C33" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C34" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C35" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C36" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C37" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C42" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D43" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C44" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C45" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C46" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C47" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C48" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C49" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C50" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C52" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C54" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C56" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C58" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C62" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C63" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C64" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C66" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C67" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C72" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D53" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C40" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C61" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
     <hyperlink ref="D3" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
     <hyperlink ref="D4" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="D5" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
@@ -3274,77 +3301,79 @@
     <hyperlink ref="D15" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
     <hyperlink ref="D16" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
     <hyperlink ref="D17" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D18" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D19" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D25" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D26" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D27" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D28" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D31" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D32" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D33" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D34" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D35" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D37" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D41" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D53" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D56" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D57" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="D60" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D61" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D64" r:id="rId70" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D66" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D23" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D19" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D20" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D26" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D29" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D30" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D31" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D32" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D33" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D34" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D35" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D36" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D37" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D39" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D41" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D45" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D58" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D62" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D63" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="D66" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D67" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D70" r:id="rId70" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D24" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
     <hyperlink ref="D11" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D21" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D52" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D67" r:id="rId76" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D59" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C59" r:id="rId78" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C47" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D22" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D56" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D73" r:id="rId76" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D65" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C65" r:id="rId78" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C51" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
     <hyperlink ref="D8" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
     <hyperlink ref="D9" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
     <hyperlink ref="C3" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
     <hyperlink ref="C4" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
     <hyperlink ref="D10" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D20" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C23" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="C21" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="D36" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D38" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C39" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D40" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D42" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D48" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D55" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D58" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D62" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C64" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/01/gdp-quarterly-national-accounts-for-scotland-2019-q3/documents/other-quarterly-national-accounts-summary-tables/other-quarterly-national-accounts-summary-tables/govsco" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="D21" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C24" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C22" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D40" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D42" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C43" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D44" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D46" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D52" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D61" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D64" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D68" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C70" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/01/gdp-quarterly-national-accounts-for-scotland-2019-q3/documents/other-quarterly-national-accounts-summary-tables/other-quarterly-national-accounts-summary-tables/govsco" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
     <hyperlink ref="C10" r:id="rId97" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
-    <hyperlink ref="D68" r:id="rId98" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
-    <hyperlink ref="C68" r:id="rId99" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
-    <hyperlink ref="C69" r:id="rId100" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D70" r:id="rId101" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C51" r:id="rId102" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
-    <hyperlink ref="D71" r:id="rId103" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
-    <hyperlink ref="C71" r:id="rId104" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
-    <hyperlink ref="D63" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C63" r:id="rId106" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
+    <hyperlink ref="D59" r:id="rId98" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
+    <hyperlink ref="C59" r:id="rId99" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
+    <hyperlink ref="C38" r:id="rId100" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
+    <hyperlink ref="D18" r:id="rId101" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="C55" r:id="rId102" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D74" r:id="rId103" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
+    <hyperlink ref="C74" r:id="rId104" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
+    <hyperlink ref="D69" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C69" r:id="rId106" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
     <hyperlink ref="C15" r:id="rId107" xr:uid="{51C107AD-7A03-4FBE-BD96-914CE89498ED}"/>
-    <hyperlink ref="C27" r:id="rId108" xr:uid="{3D8A40BA-3AA5-47DC-AA36-51CBC491799C}"/>
-    <hyperlink ref="C35" r:id="rId109" xr:uid="{4A54BA2B-972E-41C6-A5C1-140B34825EC4}"/>
-    <hyperlink ref="C37" r:id="rId110" xr:uid="{9ECC9C5C-5E16-4293-80D2-9A7FBD4C6F14}"/>
-    <hyperlink ref="C67" r:id="rId111" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D72" r:id="rId112" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="C72" r:id="rId113" xr:uid="{14956B9F-2D6F-454A-BE7E-7F912ECE1928}"/>
-    <hyperlink ref="D73" r:id="rId114" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="C30" r:id="rId108" xr:uid="{3D8A40BA-3AA5-47DC-AA36-51CBC491799C}"/>
+    <hyperlink ref="C39" r:id="rId109" xr:uid="{4A54BA2B-972E-41C6-A5C1-140B34825EC4}"/>
+    <hyperlink ref="C41" r:id="rId110" xr:uid="{9ECC9C5C-5E16-4293-80D2-9A7FBD4C6F14}"/>
+    <hyperlink ref="C73" r:id="rId111" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
+    <hyperlink ref="D28" r:id="rId112" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="C28" r:id="rId113" xr:uid="{14956B9F-2D6F-454A-BE7E-7F912ECE1928}"/>
+    <hyperlink ref="D27" r:id="rId114" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="C57" r:id="rId115" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
+    <hyperlink ref="D57" r:id="rId116" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId115"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId117"/>
   <tableParts count="1">
-    <tablePart r:id="rId116"/>
+    <tablePart r:id="rId118"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{3B74E17F-F1A1-4A15-AA1A-F8516CEF70E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3FD86F91-7CA1-4E93-91A6-B7BD97D50D9A}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{3B74E17F-F1A1-4A15-AA1A-F8516CEF70E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BF74F12C-D7B3-46B2-B301-083DDF27F34D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="268">
   <si>
     <t>Code</t>
   </si>
@@ -1330,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1472,7 +1472,7 @@
         <v>197</v>
       </c>
       <c r="G5" s="1">
-        <f>DATE(YEAR(E5)+1,MONTH(E5),DAY(E5))</f>
+        <f t="shared" ref="G5:G11" si="0">DATE(YEAR(E5)+1,MONTH(E5),DAY(E5))</f>
         <v>44100</v>
       </c>
       <c r="H5">
@@ -1499,7 +1499,7 @@
         <v>197</v>
       </c>
       <c r="G6" s="1">
-        <f>DATE(YEAR(E6)+1,MONTH(E6),DAY(E6))</f>
+        <f t="shared" si="0"/>
         <v>44013</v>
       </c>
       <c r="H6">
@@ -1526,7 +1526,7 @@
         <v>197</v>
       </c>
       <c r="G7" s="1">
-        <f>DATE(YEAR(E7)+1,MONTH(E7),DAY(E7))</f>
+        <f t="shared" si="0"/>
         <v>44013</v>
       </c>
       <c r="H7">
@@ -1553,7 +1553,7 @@
         <v>197</v>
       </c>
       <c r="G8" s="1">
-        <f>DATE(YEAR(E8)+1,MONTH(E8),DAY(E8))</f>
+        <f t="shared" si="0"/>
         <v>44013</v>
       </c>
       <c r="H8">
@@ -1580,7 +1580,7 @@
         <v>197</v>
       </c>
       <c r="G9" s="1">
-        <f>DATE(YEAR(E9)+1,MONTH(E9),DAY(E9))</f>
+        <f t="shared" si="0"/>
         <v>44013</v>
       </c>
       <c r="H9">
@@ -1607,7 +1607,7 @@
         <v>197</v>
       </c>
       <c r="G10" s="11">
-        <f>DATE(YEAR(E10)+1,MONTH(E10),DAY(E10))</f>
+        <f t="shared" si="0"/>
         <v>44228</v>
       </c>
       <c r="H10" s="9">
@@ -1634,7 +1634,7 @@
         <v>197</v>
       </c>
       <c r="G11" s="1">
-        <f>DATE(YEAR(E11)+1,MONTH(E11),DAY(E11))</f>
+        <f t="shared" si="0"/>
         <v>44166</v>
       </c>
       <c r="H11">
@@ -1892,7 +1892,7 @@
         <v>196</v>
       </c>
       <c r="G21" s="1">
-        <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
+        <f t="shared" ref="G21:G26" si="1">DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
         <v>44070</v>
       </c>
       <c r="H21" s="8">
@@ -1919,7 +1919,7 @@
         <v>196</v>
       </c>
       <c r="G22" s="1">
-        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
+        <f t="shared" si="1"/>
         <v>44075</v>
       </c>
       <c r="H22" s="8">
@@ -1946,7 +1946,7 @@
         <v>196</v>
       </c>
       <c r="G23" s="1">
-        <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
+        <f t="shared" si="1"/>
         <v>44075</v>
       </c>
       <c r="H23" s="8">
@@ -1973,7 +1973,7 @@
         <v>196</v>
       </c>
       <c r="G24" s="1">
-        <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
+        <f t="shared" si="1"/>
         <v>44075</v>
       </c>
       <c r="H24" s="8">
@@ -2000,7 +2000,7 @@
         <v>196</v>
       </c>
       <c r="G25" s="1">
-        <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
+        <f t="shared" si="1"/>
         <v>44075</v>
       </c>
       <c r="H25" s="8">
@@ -2027,7 +2027,7 @@
         <v>196</v>
       </c>
       <c r="G26" s="1">
-        <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
+        <f t="shared" si="1"/>
         <v>44075</v>
       </c>
       <c r="H26" s="8">
@@ -2767,6 +2767,19 @@
         <v>244</v>
       </c>
       <c r="D55" s="7"/>
+      <c r="E55" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F55" t="s">
+        <v>196</v>
+      </c>
+      <c r="G55" s="1">
+        <f>DATE(YEAR(E55)+0,MONTH(E55)+3,DAY(E55))</f>
+        <v>44105</v>
+      </c>
+      <c r="H55" s="8">
+        <v>43891</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Pictures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{3B74E17F-F1A1-4A15-AA1A-F8516CEF70E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BF74F12C-D7B3-46B2-B301-083DDF27F34D}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{3B74E17F-F1A1-4A15-AA1A-F8516CEF70E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{26F00564-4795-4702-994F-0EE25A061811}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="269">
   <si>
     <t>Code</t>
   </si>
@@ -829,6 +829,9 @@
   </si>
   <si>
     <t>https://www.ofgem.gov.uk/gas/retail-market/market-review-and-reform/default-tariff-cap</t>
+  </si>
+  <si>
+    <t>XOServe</t>
   </si>
 </sst>
 </file>
@@ -1012,8 +1015,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H74" totalsRowShown="0">
-  <autoFilter ref="A1:H74" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H75" totalsRowShown="0">
+  <autoFilter ref="A1:H75" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H74">
     <sortCondition ref="A1:A74"/>
   </sortState>
@@ -1328,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2767,19 +2770,6 @@
         <v>244</v>
       </c>
       <c r="D55" s="7"/>
-      <c r="E55" s="1">
-        <v>44013</v>
-      </c>
-      <c r="F55" t="s">
-        <v>196</v>
-      </c>
-      <c r="G55" s="1">
-        <f>DATE(YEAR(E55)+0,MONTH(E55)+3,DAY(E55))</f>
-        <v>44105</v>
-      </c>
-      <c r="H55" s="8">
-        <v>43891</v>
-      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
@@ -3262,6 +3252,18 @@
         <f>DATE(YEAR(E74)+1,MONTH(E74),DAY(E74))</f>
         <v>44273</v>
       </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>268</v>
+      </c>
+      <c r="B75" t="s">
+        <v>268</v>
+      </c>
+      <c r="C75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Pictures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{3B74E17F-F1A1-4A15-AA1A-F8516CEF70E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{26F00564-4795-4702-994F-0EE25A061811}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="108_{0597E432-50EC-460D-84DC-FA89F211A2FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1333,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2435,17 +2435,17 @@
         <v>223</v>
       </c>
       <c r="E42" s="1">
-        <v>43983</v>
+        <v>44044</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>204</v>
       </c>
       <c r="G42" s="1">
         <f>DATE(YEAR(E42),MONTH(E42)+1,DAY(E42))</f>
+        <v>44075</v>
+      </c>
+      <c r="H42" s="8">
         <v>44013</v>
-      </c>
-      <c r="H42" s="8">
-        <v>43952</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -5,18 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="108_{0597E432-50EC-460D-84DC-FA89F211A2FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA483EF1-3AAF-43BD-9D25-DC0B78D4FAA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -783,9 +791,6 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/893006/Headline_HEE_tables_18_JUNE_2020.xlsx</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/892560/RHI_monthly_official_stats_tables_May_20_final.xlsx</t>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/882142/veh0104.ods</t>
   </si>
   <si>
@@ -832,6 +837,9 @@
   </si>
   <si>
     <t>XOServe</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/904025/RHI_monthly_official_stats_tables_Jun_20_finalr.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1333,23 +1341,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="2" max="2" width="102.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="102.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>245</v>
       </c>
@@ -1401,7 +1409,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1428,7 +1436,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1455,7 +1463,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1482,7 +1490,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1509,7 +1517,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1536,7 +1544,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1563,7 +1571,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1590,7 +1598,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>229</v>
       </c>
@@ -1617,7 +1625,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1644,7 +1652,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1664,7 +1672,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1691,7 +1699,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1713,7 +1721,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1740,7 +1748,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1767,7 +1775,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1794,7 +1802,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>239</v>
       </c>
@@ -1821,7 +1829,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1848,7 +1856,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1875,7 +1883,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1902,7 +1910,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1929,7 +1937,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1956,7 +1964,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1983,7 +1991,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -2010,7 +2018,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -2037,18 +2045,18 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B27" t="s">
         <v>261</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="D27" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E27" s="1">
         <v>43709</v>
@@ -2061,18 +2069,18 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B28" t="s">
+        <v>259</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="B28" t="s">
-        <v>260</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>258</v>
       </c>
       <c r="E28" s="1">
         <v>43734</v>
@@ -2085,7 +2093,7 @@
         <v>44100</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -2112,7 +2120,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -2120,26 +2128,26 @@
         <v>64</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>176</v>
       </c>
       <c r="E30" s="1">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>204</v>
       </c>
       <c r="G30" s="1">
         <f>DATE(YEAR(E30),MONTH(E30)+1,DAY(E30))</f>
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="H30" s="8">
-        <v>43891</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2166,7 +2174,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -2193,7 +2201,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -2220,7 +2228,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -2247,7 +2255,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -2274,7 +2282,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -2301,7 +2309,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -2328,7 +2336,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>237</v>
       </c>
@@ -2340,7 +2348,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -2348,7 +2356,7 @@
         <v>86</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>182</v>
@@ -2367,7 +2375,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>158</v>
       </c>
@@ -2394,7 +2402,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -2402,7 +2410,7 @@
         <v>88</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>182</v>
@@ -2421,7 +2429,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -2448,7 +2456,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -2475,7 +2483,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -2501,7 +2509,7 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>98</v>
       </c>
@@ -2528,7 +2536,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>101</v>
       </c>
@@ -2555,7 +2563,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>104</v>
       </c>
@@ -2580,7 +2588,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -2605,7 +2613,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>110</v>
       </c>
@@ -2630,7 +2638,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>113</v>
       </c>
@@ -2655,7 +2663,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>209</v>
       </c>
@@ -2680,7 +2688,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -2707,7 +2715,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>156</v>
       </c>
@@ -2734,7 +2742,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>118</v>
       </c>
@@ -2759,7 +2767,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>242</v>
       </c>
@@ -2771,7 +2779,7 @@
       </c>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>121</v>
       </c>
@@ -2798,18 +2806,18 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>263</v>
+      </c>
+      <c r="B57" t="s">
         <v>264</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>266</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>267</v>
       </c>
       <c r="E57" s="1">
         <v>44013</v>
@@ -2819,7 +2827,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>124</v>
       </c>
@@ -2846,7 +2854,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>231</v>
       </c>
@@ -2863,7 +2871,7 @@
         <v>43546</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>212</v>
       </c>
@@ -2888,7 +2896,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>160</v>
       </c>
@@ -2915,7 +2923,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>127</v>
       </c>
@@ -2942,7 +2950,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>130</v>
       </c>
@@ -2969,7 +2977,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>133</v>
       </c>
@@ -2986,7 +2994,7 @@
         <v>43885</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G64" s="1">
         <f>DATE(YEAR(E64),MONTH(E64)+12,DAY(E64))</f>
@@ -2996,7 +3004,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>206</v>
       </c>
@@ -3019,7 +3027,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>135</v>
       </c>
@@ -3042,7 +3050,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>138</v>
       </c>
@@ -3069,7 +3077,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>141</v>
       </c>
@@ -3096,7 +3104,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>144</v>
       </c>
@@ -3123,7 +3131,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>146</v>
       </c>
@@ -3150,7 +3158,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -3175,7 +3183,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>151</v>
       </c>
@@ -3202,7 +3210,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>154</v>
       </c>
@@ -3210,7 +3218,7 @@
         <v>155</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>193</v>
@@ -3229,7 +3237,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>246</v>
       </c>
@@ -3253,12 +3261,12 @@
         <v>44273</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B75" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>
@@ -3375,20 +3383,19 @@
     <hyperlink ref="D69" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
     <hyperlink ref="C69" r:id="rId106" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
     <hyperlink ref="C15" r:id="rId107" xr:uid="{51C107AD-7A03-4FBE-BD96-914CE89498ED}"/>
-    <hyperlink ref="C30" r:id="rId108" xr:uid="{3D8A40BA-3AA5-47DC-AA36-51CBC491799C}"/>
-    <hyperlink ref="C39" r:id="rId109" xr:uid="{4A54BA2B-972E-41C6-A5C1-140B34825EC4}"/>
-    <hyperlink ref="C41" r:id="rId110" xr:uid="{9ECC9C5C-5E16-4293-80D2-9A7FBD4C6F14}"/>
-    <hyperlink ref="C73" r:id="rId111" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D28" r:id="rId112" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="C28" r:id="rId113" xr:uid="{14956B9F-2D6F-454A-BE7E-7F912ECE1928}"/>
-    <hyperlink ref="D27" r:id="rId114" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="C57" r:id="rId115" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
-    <hyperlink ref="D57" r:id="rId116" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="C39" r:id="rId108" xr:uid="{4A54BA2B-972E-41C6-A5C1-140B34825EC4}"/>
+    <hyperlink ref="C41" r:id="rId109" xr:uid="{9ECC9C5C-5E16-4293-80D2-9A7FBD4C6F14}"/>
+    <hyperlink ref="C73" r:id="rId110" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
+    <hyperlink ref="D28" r:id="rId111" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="C28" r:id="rId112" xr:uid="{14956B9F-2D6F-454A-BE7E-7F912ECE1928}"/>
+    <hyperlink ref="D27" r:id="rId113" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="C57" r:id="rId114" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
+    <hyperlink ref="D57" r:id="rId115" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId117"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId116"/>
   <tableParts count="1">
-    <tablePart r:id="rId118"/>
+    <tablePart r:id="rId117"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -5,26 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA483EF1-3AAF-43BD-9D25-DC0B78D4FAA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{FA483EF1-3AAF-43BD-9D25-DC0B78D4FAA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{368B4C34-5A8D-42ED-95A6-BB238E8CB247}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -33,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="271">
   <si>
     <t>Code</t>
   </si>
@@ -840,6 +832,12 @@
   </si>
   <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/904025/RHI_monthly_official_stats_tables_Jun_20_finalr.xlsx</t>
+  </si>
+  <si>
+    <t>Ombudsman</t>
+  </si>
+  <si>
+    <t>Ombudsman Services</t>
   </si>
 </sst>
 </file>
@@ -1023,8 +1021,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H75" totalsRowShown="0">
-  <autoFilter ref="A1:H75" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H76" totalsRowShown="0">
+  <autoFilter ref="A1:H76" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H74">
     <sortCondition ref="A1:A74"/>
   </sortState>
@@ -1339,25 +1337,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="102.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="102.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +1381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>245</v>
       </c>
@@ -1409,7 +1407,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1436,7 +1434,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1463,7 +1461,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1490,7 +1488,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1517,7 +1515,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1544,7 +1542,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1571,7 +1569,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1598,7 +1596,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>229</v>
       </c>
@@ -1625,7 +1623,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1652,7 +1650,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1672,7 +1670,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1699,7 +1697,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1721,7 +1719,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1748,7 +1746,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1775,7 +1773,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1802,7 +1800,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>239</v>
       </c>
@@ -1829,7 +1827,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1856,7 +1854,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1883,7 +1881,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1910,7 +1908,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1937,7 +1935,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1964,7 +1962,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1991,7 +1989,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -2018,7 +2016,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -2045,7 +2043,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>260</v>
       </c>
@@ -2069,7 +2067,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>256</v>
       </c>
@@ -2093,7 +2091,7 @@
         <v>44100</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -2120,7 +2118,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -2147,7 +2145,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2174,7 +2172,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -2201,7 +2199,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -2228,7 +2226,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -2255,7 +2253,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -2282,7 +2280,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -2309,7 +2307,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -2336,7 +2334,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>237</v>
       </c>
@@ -2348,7 +2346,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -2375,7 +2373,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>158</v>
       </c>
@@ -2402,7 +2400,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -2429,7 +2427,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -2456,7 +2454,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -2483,7 +2481,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -2509,7 +2507,7 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>98</v>
       </c>
@@ -2536,7 +2534,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>101</v>
       </c>
@@ -2563,7 +2561,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>104</v>
       </c>
@@ -2588,7 +2586,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -2613,7 +2611,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>110</v>
       </c>
@@ -2638,7 +2636,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>113</v>
       </c>
@@ -2663,7 +2661,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>209</v>
       </c>
@@ -2688,7 +2686,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -2715,7 +2713,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>156</v>
       </c>
@@ -2742,7 +2740,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>118</v>
       </c>
@@ -2767,7 +2765,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>242</v>
       </c>
@@ -2779,7 +2777,7 @@
       </c>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>121</v>
       </c>
@@ -2806,7 +2804,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>263</v>
       </c>
@@ -2827,7 +2825,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>124</v>
       </c>
@@ -2854,7 +2852,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>231</v>
       </c>
@@ -2871,7 +2869,7 @@
         <v>43546</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>212</v>
       </c>
@@ -2896,7 +2894,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>160</v>
       </c>
@@ -2923,7 +2921,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>127</v>
       </c>
@@ -2950,7 +2948,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>130</v>
       </c>
@@ -2977,7 +2975,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>133</v>
       </c>
@@ -3004,7 +3002,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>206</v>
       </c>
@@ -3027,7 +3025,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>135</v>
       </c>
@@ -3050,7 +3048,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>138</v>
       </c>
@@ -3077,7 +3075,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>141</v>
       </c>
@@ -3104,7 +3102,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>144</v>
       </c>
@@ -3131,7 +3129,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>146</v>
       </c>
@@ -3158,7 +3156,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -3183,7 +3181,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>151</v>
       </c>
@@ -3210,7 +3208,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>154</v>
       </c>
@@ -3237,7 +3235,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>246</v>
       </c>
@@ -3261,7 +3259,7 @@
         <v>44273</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>267</v>
       </c>
@@ -3272,6 +3270,21 @@
         <v>29</v>
       </c>
       <c r="D75" s="6"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>269</v>
+      </c>
+      <c r="B76" t="s">
+        <v>270</v>
+      </c>
+      <c r="C76" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="H76">
+        <v>2019</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{FA483EF1-3AAF-43BD-9D25-DC0B78D4FAA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{368B4C34-5A8D-42ED-95A6-BB238E8CB247}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2322D366-721B-4235-BE55-E8FE86C99CAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="272">
   <si>
     <t>Code</t>
   </si>
@@ -838,6 +838,9 @@
   </si>
   <si>
     <t>Ombudsman Services</t>
+  </si>
+  <si>
+    <t>https://assets.ctfassets.net/46t2drav2f3e/464DvZ3MR1EcND0y3WTylm/72746e78135fb4ae508cbf56565c6da6/1192_Energy_Report_v8.pdf</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1343,7 @@
   <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3278,10 +3281,20 @@
       <c r="B76" t="s">
         <v>270</v>
       </c>
-      <c r="C76" t="s">
-        <v>29</v>
+      <c r="C76" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="D76" s="6"/>
+      <c r="E76" s="1">
+        <v>44044</v>
+      </c>
+      <c r="F76" t="s">
+        <v>197</v>
+      </c>
+      <c r="G76" s="1">
+        <f t="shared" ref="G75:G76" si="2">DATE(YEAR(E76)+1,MONTH(E76),DAY(E76))</f>
+        <v>44409</v>
+      </c>
       <c r="H76">
         <v>2019</v>
       </c>
@@ -3404,11 +3417,12 @@
     <hyperlink ref="D27" r:id="rId113" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
     <hyperlink ref="C57" r:id="rId114" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
     <hyperlink ref="D57" r:id="rId115" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="C76" r:id="rId116" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId116"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId117"/>
   <tableParts count="1">
-    <tablePart r:id="rId117"/>
+    <tablePart r:id="rId118"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2322D366-721B-4235-BE55-E8FE86C99CAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A3CBD4-FCF0-43F6-97A1-1541AF2AEBCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -69,36 +69,24 @@
     <t>BEIS: Digest of UK Energy Statistics (DUKES)</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/840015/DUKES_2019_MASTER_COPY.pdf</t>
-  </si>
-  <si>
     <t>BEISDUKESBalance</t>
   </si>
   <si>
     <t>BEIS: Digest of UK Energy Statistics (DUKES): aggregate energy balance</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/820638/DUKES_1.1-1.3.xls</t>
-  </si>
-  <si>
     <t>BEISDUKESCoal</t>
   </si>
   <si>
     <t>BEIS: Digest of UK Energy Statistics (DUKES): output and employment from UK coal mines</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/820629/Chapter_2.pdf</t>
-  </si>
-  <si>
     <t>BEISDUKESPower</t>
   </si>
   <si>
     <t>BEIS: Digest of UK Energy Statistics (DUKES): power stations</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/826561/DUKES_5.11.xls</t>
-  </si>
-  <si>
     <t>BEISElecGen</t>
   </si>
   <si>
@@ -159,9 +147,6 @@
     <t>BEIS: National Energy Efficiency Data-Framework (NEED): impact of measures</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/814483/Headline_Tables_Impact_of_Measures_Scotland_.xlsx</t>
-  </si>
-  <si>
     <t>BEISNonGasGrid</t>
   </si>
   <si>
@@ -414,18 +399,12 @@
     <t>Scottish Government: Scottish Greenhouse Gas Emissions</t>
   </si>
   <si>
-    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/06/scottish-greenhouse-gas-emissions-2017/documents/2017-tables/2017-tables/govscot%3Adocument/2017-tables.xls</t>
-  </si>
-  <si>
     <t>SGEmissionsPublic</t>
   </si>
   <si>
     <t>Scottish Government: Scottish Greenhouse Gas Emissions - public electricity and heat production emissions</t>
   </si>
   <si>
-    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/06/scottish-greenhouse-gas-emissions-2017/documents/scottish-ghg-dataset-2017/scottish-ghg-dataset-2017/govscot%3Adocument/scottish-ghg-dataset-2017.xls</t>
-  </si>
-  <si>
     <t>SGGrowth</t>
   </si>
   <si>
@@ -471,9 +450,6 @@
     <t>Scottish Government: Quarterly National Accounts Scotland</t>
   </si>
   <si>
-    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/01/gdp-quarterly-national-accounts-for-scotland-2019-q3/documents/other-quarterly-national-accounts-summary-tables/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/Other%2BQuarterly%2BNational%2BAccounts%2Bsummary%2Btables.xlsx</t>
-  </si>
-  <si>
     <t>SGQNASSector</t>
   </si>
   <si>
@@ -582,9 +558,6 @@
     <t>https://www.ons.gov.uk/economy/environmentalaccounts/datasets/lowcarbonandrenewableenergyeconomyfirstestimatesdataset</t>
   </si>
   <si>
-    <t>https://www.gov.scot/publications/scottish-greenhouse-gas-emissions-2017/</t>
-  </si>
-  <si>
     <t>https://www.gov.scot/publications/scotlands-non-domestic-energy-efficiency-baseline/pages/6/</t>
   </si>
   <si>
@@ -690,9 +663,6 @@
     <t>https://www.gov.uk/government/collections/sub-national-electricity-consumption-data</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/880732/renewable-energy-planning-database-march-2020-update.xlsx</t>
-  </si>
-  <si>
     <t>https://www.gov.uk/government/collections/renewable-fuel-statistics</t>
   </si>
   <si>
@@ -780,15 +750,6 @@
     <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/893006/Headline_HEE_tables_18_JUNE_2020.xlsx</t>
-  </si>
-  <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/882142/veh0104.ods</t>
-  </si>
-  <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/882241/veh0132.ods</t>
-  </si>
-  <si>
     <t>Annually</t>
   </si>
   <si>
@@ -831,9 +792,6 @@
     <t>XOServe</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/904025/RHI_monthly_official_stats_tables_Jun_20_finalr.xlsx</t>
-  </si>
-  <si>
     <t>Ombudsman</t>
   </si>
   <si>
@@ -841,6 +799,48 @@
   </si>
   <si>
     <t>https://assets.ctfassets.net/46t2drav2f3e/464DvZ3MR1EcND0y3WTylm/72746e78135fb4ae508cbf56565c6da6/1192_Energy_Report_v8.pdf</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/912023/DUKES_2020_MASTER.pdf</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/904741/DUKES_1.1-1.3.xls</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/904769/DUKES_2020_Chapter_2.pdf</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/911906/DUKES_5.11.xls</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/911876/Headline_HEE_tables_27_AUG_2020__-_EXCEL.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/895137/Headline_impact_of_measures_Scotland_2017.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/901382/renewable-energy-planning-database-june-2020-update.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/896224/veh0104.ods</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/896238/veh0132.ods</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/06/scottish-greenhouse-gas-emissions-2018/documents/2018-tables/2018-tables/govscot%3Adocument/2018-tables.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/06/scottish-greenhouse-gas-emissions-2018/documents/scottish-ghg-dataset-2018/scottish-ghg-dataset-2018/govscot%3Adocument/scottish-ghg-dataset-2018.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/publications/scottish-greenhouse-gas-emissions-2018/</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/909995/RHI_monthly_official_stats_tables_Jul_20_final.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/07/gdp-quarterly-national-accounts-for-scotland-2020-q1/documents/other-quarterly-national-accounts-summary-tables/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BGDP%2BQNAS%2B2020%2BQ1%2B-%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1342,23 +1342,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="2" max="2" width="102.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="102.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="127.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1366,10 +1366,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1378,39 +1378,39 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E2" s="1">
         <v>43916</v>
       </c>
       <c r="F2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G2" s="1">
         <v>44008</v>
       </c>
       <c r="H2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1418,16 +1418,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E3" s="1">
         <v>43983</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G3" s="1">
         <f>DATE(YEAR(E3),MONTH(E3)+3,DAY(E3))</f>
@@ -1437,7 +1437,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1445,16 +1445,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E4" s="1">
         <v>43983</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G4" s="1">
         <f>DATE(YEAR(E4),MONTH(E4)+3,DAY(E4))</f>
@@ -1464,7 +1464,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1475,13 +1475,13 @@
         <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E5" s="1">
         <v>43734</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G11" si="0">DATE(YEAR(E5)+1,MONTH(E5),DAY(E5))</f>
@@ -1491,132 +1491,132 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
+      <c r="C6" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E6" s="1">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
+        <v>44378</v>
+      </c>
+      <c r="H6">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="1">
         <v>44013</v>
       </c>
-      <c r="H6">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="F7" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" ref="G7:G9" si="1">DATE(YEAR(E7)+1,MONTH(E7),DAY(E7))</f>
+        <v>44378</v>
+      </c>
+      <c r="H7">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="1">
-        <v>43647</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
+      <c r="C8" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="1">
         <v>44013</v>
       </c>
-      <c r="H7">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="F8" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>44378</v>
+      </c>
+      <c r="H8">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="1">
-        <v>43647</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
+      <c r="C9" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="1">
         <v>44013</v>
       </c>
-      <c r="H8">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="1">
-        <v>43647</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>44013</v>
+        <f t="shared" si="1"/>
+        <v>44378</v>
       </c>
       <c r="H9">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E10" s="11">
         <v>43862</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
@@ -1626,24 +1626,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E11" s="1">
         <v>43800</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
@@ -1653,44 +1653,44 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1">
         <v>43916</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H12">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E13" s="1">
         <v>43818</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G13" s="1">
         <f>DATE(YEAR(E13)+1,MONTH(E13),DAY(E13))</f>
@@ -1700,73 +1700,73 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="1">
         <v>43466</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14">
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E15" s="1">
-        <v>43983</v>
+        <v>44044</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="G15" s="1">
         <f>DATE(YEAR(E15),MONTH(E15)+1,DAY(E15))</f>
-        <v>44013</v>
+        <v>44075</v>
       </c>
       <c r="H15" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E16" s="1">
         <v>43983</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G16" s="1">
         <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
@@ -1776,24 +1776,24 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E17" s="1">
         <v>43983</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G17" s="1">
         <f>DATE(YEAR(E17)+1,MONTH(E17),DAY(E17))</f>
@@ -1803,24 +1803,24 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B18" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E18" s="1">
         <v>43889</v>
       </c>
       <c r="F18" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G18" s="1">
         <f>DATE(YEAR(E18)+1,MONTH(E18),DAY(E18))</f>
@@ -1830,51 +1830,51 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E19" s="1">
-        <v>43643</v>
+        <v>44009</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G19" s="1">
         <f>DATE(YEAR(E19)+1,MONTH(E19),DAY(E19))</f>
-        <v>44009</v>
+        <v>44374</v>
       </c>
       <c r="H19">
         <v>2016</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E20" s="1">
         <v>43800</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G20" s="1">
         <f>DATE(YEAR(E20)+1,MONTH(E20),DAY(E20))</f>
@@ -1884,288 +1884,288 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E21" s="1">
-        <v>43978</v>
+        <v>44070</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" ref="G21:G26" si="1">DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
-        <v>44070</v>
+        <f>DATE(YEAR(E21),MONTH(E21)+1,DAY(E21))</f>
+        <v>44101</v>
       </c>
       <c r="H21" s="8">
         <v>43831</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E22" s="1">
         <v>43983</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G21:G26" si="2">DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
         <v>44075</v>
       </c>
       <c r="H22" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E23" s="1">
         <v>43983</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44075</v>
       </c>
       <c r="H23" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E24" s="1">
         <v>43983</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44075</v>
       </c>
       <c r="H24" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E25" s="1">
         <v>43983</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44075</v>
       </c>
       <c r="H25" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E26" s="1">
         <v>43983</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44075</v>
       </c>
       <c r="H26" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="E27" s="1">
         <v>43709</v>
       </c>
       <c r="F27" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G27" s="1">
         <f>DATE(YEAR(E27)+1,MONTH(E27),DAY(E27))</f>
         <v>44075</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="E28" s="1">
         <v>43734</v>
       </c>
       <c r="F28" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G28" s="1">
         <f>DATE(YEAR(E28)+1,MONTH(E28),DAY(E28))</f>
         <v>44100</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E29" s="1">
-        <v>43922</v>
+        <v>43983</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G29" s="1">
         <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
-        <v>44013</v>
+        <v>44075</v>
       </c>
       <c r="H29" s="1">
         <v>43891</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E30" s="1">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="G30" s="1">
         <f>DATE(YEAR(E30),MONTH(E30)+1,DAY(E30))</f>
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="H30" s="8">
-        <v>43983</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E31" s="1">
         <v>43800</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G31" s="1">
         <f>DATE(YEAR(E31)+1,MONTH(E31),DAY(E31))</f>
@@ -2175,24 +2175,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E32" s="1">
         <v>43709</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G32" s="1">
         <f>DATE(YEAR(E32)+1,MONTH(E32),DAY(E32))</f>
@@ -2202,24 +2202,24 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E33" s="1">
         <v>43734</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G33" s="1">
         <f>DATE(YEAR(E33)+1,MONTH(E33),DAY(E33))</f>
@@ -2229,24 +2229,24 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E34" s="1">
         <v>43800</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G34" s="1">
         <f>DATE(YEAR(E34)+1,MONTH(E34),DAY(E34))</f>
@@ -2256,51 +2256,50 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E35" s="1">
         <v>43647</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G35" s="1">
-        <f>DATE(YEAR(E35)+1,MONTH(E35),DAY(E35))</f>
-        <v>44013</v>
+        <v>44075</v>
       </c>
       <c r="H35">
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E36" s="1">
         <v>43983</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G36" s="1">
         <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
@@ -2310,24 +2309,24 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E37" s="1">
         <v>43983</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G37" s="1">
         <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
@@ -2337,63 +2336,63 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B38" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E39" s="1">
-        <v>43922</v>
+        <v>43983</v>
       </c>
       <c r="F39" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G39" s="1">
         <f>DATE(YEAR(E39),MONTH(E39)+3,DAY(E39))</f>
-        <v>44013</v>
+        <v>44075</v>
       </c>
       <c r="H39" s="8">
         <v>43709</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E40" s="1">
         <v>43922</v>
       </c>
       <c r="F40" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G40" s="1">
         <f>DATE(YEAR(E40),MONTH(E40)+3,DAY(E40))</f>
@@ -2403,51 +2402,51 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E41" s="1">
-        <v>43922</v>
+        <v>44012</v>
       </c>
       <c r="F41" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G41" s="1">
         <f>DATE(YEAR(E41),MONTH(E41)+3,DAY(E41))</f>
-        <v>44013</v>
+        <v>44104</v>
       </c>
       <c r="H41" s="8">
         <v>43709</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E42" s="1">
         <v>44044</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="G42" s="1">
         <f>DATE(YEAR(E42),MONTH(E42)+1,DAY(E42))</f>
@@ -2457,24 +2456,24 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E43" s="1">
         <v>43831</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G43" s="1">
         <f>DATE(YEAR(E43)+1,MONTH(E43),DAY(E43))</f>
@@ -2484,24 +2483,24 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E44" s="1">
         <v>43831</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G44" s="1">
         <v>44256</v>
@@ -2510,24 +2509,24 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E45" s="1">
         <v>43739</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G45" s="1">
         <f>DATE(YEAR(E45)+1,MONTH(E45),DAY(E45))</f>
@@ -2537,24 +2536,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E46" s="1">
         <v>43922</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G46" s="1">
         <f>DATE(YEAR(E46),MONTH(E46)+3,DAY(E46))</f>
@@ -2564,22 +2563,22 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="1">
         <v>43862</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G47" s="1">
         <f>DATE(YEAR(E47)+1,MONTH(E47),DAY(E47))</f>
@@ -2589,22 +2588,22 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="1">
         <v>43983</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G48" s="1">
         <f>DATE(YEAR(E48),MONTH(E48)+3,DAY(E48))</f>
@@ -2614,22 +2613,22 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="1">
         <v>43983</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G49" s="1">
         <f>DATE(YEAR(E49),MONTH(E49)+3,DAY(E49))</f>
@@ -2639,22 +2638,22 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="1">
         <v>43983</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G50" s="1">
         <f>DATE(YEAR(E50),MONTH(E50)+3,DAY(E50))</f>
@@ -2664,22 +2663,22 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B51" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="1">
         <v>43770</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G51" s="1">
         <f>DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
@@ -2689,24 +2688,24 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E52" s="1">
         <v>43983</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G52" s="1">
         <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
@@ -2716,24 +2715,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E53" s="1">
         <v>43831</v>
       </c>
       <c r="F53" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G53" s="1">
         <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
@@ -2743,61 +2742,61 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="1">
-        <v>43617</v>
+        <v>43983</v>
       </c>
       <c r="F54" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G54" s="1">
         <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
-        <v>43983</v>
+        <v>44348</v>
       </c>
       <c r="H54">
         <v>2018</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B55" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E56" s="1">
         <v>43734</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G56" s="1">
         <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
@@ -2807,18 +2806,18 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B57" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="E57" s="1">
         <v>44013</v>
@@ -2828,24 +2827,24 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E58" s="1">
         <v>43846</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G58" s="1">
         <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
@@ -2855,39 +2854,39 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B59" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E59" s="13">
         <v>43546</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B60" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="1">
         <v>43862</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G60" s="1">
         <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
@@ -2897,24 +2896,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B61" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E61" s="1">
         <v>43891</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G61" s="1">
         <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
@@ -2924,78 +2923,78 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>185</v>
+        <v>269</v>
       </c>
       <c r="E62" s="1">
-        <v>43627</v>
+        <v>43993</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G62" s="1">
         <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
-        <v>43993</v>
+        <v>44358</v>
       </c>
       <c r="H62">
         <v>2018</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>132</v>
+        <v>268</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>185</v>
+        <v>269</v>
       </c>
       <c r="E63" s="1">
-        <v>43627</v>
+        <v>43993</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G63" s="1">
         <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
-        <v>43993</v>
+        <v>44358</v>
       </c>
       <c r="H63">
         <v>2018</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E64" s="1">
         <v>43885</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="G64" s="1">
         <f>DATE(YEAR(E64),MONTH(E64)+12,DAY(E64))</f>
@@ -3005,70 +3004,70 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E65" s="1">
         <v>43435</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H65">
         <v>2018</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E66" s="1">
         <v>43447</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H66">
         <v>2018</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B67" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E67" s="1">
         <v>43891</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G67" s="1">
         <f>DATE(YEAR(E67)+1,MONTH(E67),DAY(E67))</f>
@@ -3078,24 +3077,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E68" s="1">
         <v>43734</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G68" s="1">
         <f>DATE(YEAR(E68)+1,MONTH(E68),DAY(E68))</f>
@@ -3105,24 +3104,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E69" s="1">
         <v>43831</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G69" s="1">
         <f>DATE(YEAR(E69)+1,MONTH(E69),DAY(E69))</f>
@@ -3132,49 +3131,49 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>148</v>
+        <v>271</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E70" s="1">
-        <v>43950</v>
+        <v>44041</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G70" s="1">
         <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
-        <v>44041</v>
+        <v>44133</v>
       </c>
       <c r="H70">
         <v>2018</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B71" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="1">
         <v>43950</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G71" s="1">
         <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
@@ -3184,24 +3183,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B72" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E72" s="1">
         <v>43831</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G72" s="1">
         <f>DATE(YEAR(E72)+1,MONTH(E72),DAY(E72))</f>
@@ -3211,24 +3210,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B73" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E73" s="1">
         <v>43950</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G73" s="1">
         <f>DATE(YEAR(E73),MONTH(E73)+3,DAY(E73))</f>
@@ -3238,61 +3237,61 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E74" s="1">
         <v>43908</v>
       </c>
       <c r="F74" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G74" s="1">
         <f>DATE(YEAR(E74)+1,MONTH(E74),DAY(E74))</f>
         <v>44273</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="B75" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D75" s="6"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="B76" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="1">
         <v>44044</v>
       </c>
       <c r="F76" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" ref="G75:G76" si="2">DATE(YEAR(E76)+1,MONTH(E76),DAY(E76))</f>
+        <f t="shared" ref="G76" si="3">DATE(YEAR(E76)+1,MONTH(E76),DAY(E76))</f>
         <v>44409</v>
       </c>
       <c r="H76">
@@ -3302,127 +3301,115 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C17" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C20" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C21" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C29" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C31" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C32" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C33" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C34" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C35" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C36" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C37" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C42" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D43" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C44" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C45" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C46" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C47" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C48" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C49" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C50" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C52" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C54" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C56" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C58" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C62" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C63" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C64" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C66" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C67" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C72" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D53" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C40" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C61" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D3" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D4" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D5" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D6" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D6:D8" r:id="rId46" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D15" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D16" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D17" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D19" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D20" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D26" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D29" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D30" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D31" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D32" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D33" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D34" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D35" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D36" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D37" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D39" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D41" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D45" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D58" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D62" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D63" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="D66" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D67" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D70" r:id="rId70" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D24" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D11" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D22" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D56" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D73" r:id="rId76" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D65" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C65" r:id="rId78" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C51" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D8" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D9" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C3" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C4" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D10" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D21" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C24" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="C22" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="D40" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D42" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C43" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D44" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D46" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D52" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D61" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D64" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D68" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C70" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/01/gdp-quarterly-national-accounts-for-scotland-2019-q3/documents/other-quarterly-national-accounts-summary-tables/other-quarterly-national-accounts-summary-tables/govsco" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="C10" r:id="rId97" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
-    <hyperlink ref="D59" r:id="rId98" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
-    <hyperlink ref="C59" r:id="rId99" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
-    <hyperlink ref="C38" r:id="rId100" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D18" r:id="rId101" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C55" r:id="rId102" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
-    <hyperlink ref="D74" r:id="rId103" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
-    <hyperlink ref="C74" r:id="rId104" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
-    <hyperlink ref="D69" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C69" r:id="rId106" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
-    <hyperlink ref="C15" r:id="rId107" xr:uid="{51C107AD-7A03-4FBE-BD96-914CE89498ED}"/>
-    <hyperlink ref="C39" r:id="rId108" xr:uid="{4A54BA2B-972E-41C6-A5C1-140B34825EC4}"/>
-    <hyperlink ref="C41" r:id="rId109" xr:uid="{9ECC9C5C-5E16-4293-80D2-9A7FBD4C6F14}"/>
-    <hyperlink ref="C73" r:id="rId110" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D28" r:id="rId111" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="C28" r:id="rId112" xr:uid="{14956B9F-2D6F-454A-BE7E-7F912ECE1928}"/>
-    <hyperlink ref="D27" r:id="rId113" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="C57" r:id="rId114" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
-    <hyperlink ref="D57" r:id="rId115" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
-    <hyperlink ref="C76" r:id="rId116" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C20" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C21" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C31" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C32" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C33" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C34" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C35" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C36" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C37" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C42" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D43" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C44" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C45" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C46" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C47" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C48" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C49" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C50" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C52" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C54" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C56" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C58" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C64" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C66" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C67" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C72" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D53" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C40" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C61" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D3" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D4" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D5" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D6" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D6:D8" r:id="rId38" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D15" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D16" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D17" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D19" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D20" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D26" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D29" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D30" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D31" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D32" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D33" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D34" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D35" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D36" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D37" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D39" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D41" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D45" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D66" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D67" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D70" r:id="rId60" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D72" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D24" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D11" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D22" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D56" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D73" r:id="rId66" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D65" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C65" r:id="rId68" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C51" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D8" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D9" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C3" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C4" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D10" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D21" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C24" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C22" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D40" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D42" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C43" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D44" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D46" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D52" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D61" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D64" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D68" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C10" r:id="rId87" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
+    <hyperlink ref="D59" r:id="rId88" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
+    <hyperlink ref="C59" r:id="rId89" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
+    <hyperlink ref="C38" r:id="rId90" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
+    <hyperlink ref="D18" r:id="rId91" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="C55" r:id="rId92" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D74" r:id="rId93" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
+    <hyperlink ref="C74" r:id="rId94" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
+    <hyperlink ref="D69" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C69" r:id="rId96" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
+    <hyperlink ref="C73" r:id="rId97" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
+    <hyperlink ref="D28" r:id="rId98" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="C28" r:id="rId99" xr:uid="{14956B9F-2D6F-454A-BE7E-7F912ECE1928}"/>
+    <hyperlink ref="D27" r:id="rId100" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="C57" r:id="rId101" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
+    <hyperlink ref="D57" r:id="rId102" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="C76" r:id="rId103" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
+    <hyperlink ref="C6" r:id="rId104" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
+    <hyperlink ref="C30" r:id="rId105" xr:uid="{6C26AF84-01DD-4C9D-8F5D-B545CAD85FD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId117"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId106"/>
   <tableParts count="1">
-    <tablePart r:id="rId118"/>
+    <tablePart r:id="rId107"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A3CBD4-FCF0-43F6-97A1-1541AF2AEBCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4342D9FE-FF7B-41EB-A1CA-DE6BCBACBA32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -1026,8 +1026,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H76" totalsRowShown="0">
   <autoFilter ref="A1:H76" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H74">
-    <sortCondition ref="A1:A74"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H76">
+    <sortCondition ref="G1:G76"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Code"/>
@@ -1342,23 +1342,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="102.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="127.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="102.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="127.7265625" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>235</v>
       </c>
@@ -1410,519 +1410,525 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="E3" s="1">
-        <v>43983</v>
-      </c>
-      <c r="F3" s="3" t="s">
+        <v>44013</v>
+      </c>
+      <c r="F3" t="s">
         <v>187</v>
       </c>
       <c r="G3" s="1">
         <f>DATE(YEAR(E3),MONTH(E3)+3,DAY(E3))</f>
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="H3">
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>156</v>
+        <v>97</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="E4" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>187</v>
       </c>
       <c r="G4" s="1">
         <f>DATE(YEAR(E4),MONTH(E4)+3,DAY(E4))</f>
-        <v>44075</v>
+        <v>44013</v>
       </c>
       <c r="H4">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>208</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="1">
-        <v>43734</v>
+        <v>43950</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G11" si="0">DATE(YEAR(E5)+1,MONTH(E5),DAY(E5))</f>
-        <v>44100</v>
+        <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
+        <v>44041</v>
       </c>
       <c r="H5">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>258</v>
+        <v>147</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="E6" s="1">
-        <v>44013</v>
+        <v>43950</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>44378</v>
+        <f>DATE(YEAR(E6),MONTH(E6)+3,DAY(E6))</f>
+        <v>44041</v>
       </c>
       <c r="H6">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>259</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" s="1">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G7:G9" si="1">DATE(YEAR(E7)+1,MONTH(E7),DAY(E7))</f>
-        <v>44378</v>
+        <f>DATE(YEAR(E7),MONTH(E7)+3,DAY(E7))</f>
+        <v>44075</v>
       </c>
       <c r="H7">
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>260</v>
+        <v>8</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" s="1">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="1"/>
-        <v>44378</v>
+        <f>DATE(YEAR(E8),MONTH(E8)+3,DAY(E8))</f>
+        <v>44075</v>
       </c>
       <c r="H8">
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>261</v>
+        <v>32</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>262</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E9" s="1">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
-        <v>44378</v>
-      </c>
-      <c r="H9">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10" s="11">
-        <v>43862</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G10" s="11">
-        <f t="shared" si="0"/>
-        <v>44228</v>
-      </c>
-      <c r="H10" s="9">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <f>DATE(YEAR(E9),MONTH(E9)+1,DAY(E9))</f>
+        <v>44075</v>
+      </c>
+      <c r="H9" s="8">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="1">
+        <f>DATE(YEAR(E10),MONTH(E10)+3,DAY(E10))</f>
+        <v>44075</v>
+      </c>
+      <c r="H10" s="8">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E11" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="1">
+        <f>DATE(YEAR(E11),MONTH(E11)+3,DAY(E11))</f>
+        <v>44075</v>
+      </c>
+      <c r="H11" s="8">
         <v>43800</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>44166</v>
-      </c>
-      <c r="H11">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
+        <v>49</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="E12" s="1">
-        <v>43916</v>
+        <v>43983</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H12">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="G12" s="1">
+        <f>DATE(YEAR(E12),MONTH(E12)+3,DAY(E12))</f>
+        <v>44075</v>
+      </c>
+      <c r="H12" s="8">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>51</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E13" s="1">
-        <v>43818</v>
+        <v>43983</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G13" s="1">
-        <f>DATE(YEAR(E13)+1,MONTH(E13),DAY(E13))</f>
-        <v>44184</v>
-      </c>
-      <c r="H13">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <f>DATE(YEAR(E13),MONTH(E13)+3,DAY(E13))</f>
+        <v>44075</v>
+      </c>
+      <c r="H13" s="8">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="E14" s="1">
-        <v>43466</v>
+        <v>43983</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="G14" s="1">
+        <f>DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
+        <v>44075</v>
+      </c>
+      <c r="H14" s="8">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>262</v>
+        <v>55</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E15" s="1">
-        <v>44044</v>
+        <v>43983</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G15" s="1">
-        <f>DATE(YEAR(E15),MONTH(E15)+1,DAY(E15))</f>
+        <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
         <v>44075</v>
       </c>
       <c r="H15" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>160</v>
+        <v>248</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="E16" s="1">
-        <v>43983</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>187</v>
+        <v>43709</v>
+      </c>
+      <c r="F16" t="s">
+        <v>188</v>
       </c>
       <c r="G16" s="1">
-        <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
+        <f>DATE(YEAR(E16)+1,MONTH(E16),DAY(E16))</f>
         <v>44075</v>
       </c>
-      <c r="H16" s="8">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>264</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E17" s="1">
         <v>43983</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G17" s="1">
-        <f>DATE(YEAR(E17)+1,MONTH(E17),DAY(E17))</f>
-        <v>44348</v>
-      </c>
-      <c r="H17">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <f>DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
+        <v>44075</v>
+      </c>
+      <c r="H17" s="1">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>229</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>228</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>210</v>
+        <v>59</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="E18" s="1">
-        <v>43889</v>
-      </c>
-      <c r="F18" t="s">
-        <v>188</v>
+        <v>44044</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="G18" s="1">
-        <f>DATE(YEAR(E18)+1,MONTH(E18),DAY(E18))</f>
-        <v>44255</v>
-      </c>
-      <c r="H18">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <f>DATE(YEAR(E18),MONTH(E18)+1,DAY(E18))</f>
+        <v>44075</v>
+      </c>
+      <c r="H18" s="8">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>263</v>
+        <v>65</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E19" s="1">
-        <v>44009</v>
+        <v>43709</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>188</v>
       </c>
       <c r="G19" s="1">
         <f>DATE(YEAR(E19)+1,MONTH(E19),DAY(E19))</f>
-        <v>44374</v>
+        <v>44075</v>
       </c>
       <c r="H19">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E20" s="1">
-        <v>43800</v>
+        <v>43647</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>188</v>
       </c>
       <c r="G20" s="1">
-        <f>DATE(YEAR(E20)+1,MONTH(E20),DAY(E20))</f>
-        <v>44166</v>
+        <v>44075</v>
       </c>
       <c r="H20">
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E21" s="1">
-        <v>44070</v>
+        <v>43983</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G21" s="1">
-        <f>DATE(YEAR(E21),MONTH(E21)+1,DAY(E21))</f>
-        <v>44101</v>
-      </c>
-      <c r="H21" s="8">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
+        <v>44075</v>
+      </c>
+      <c r="H21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E22" s="1">
         <v>43983</v>
@@ -1931,532 +1937,543 @@
         <v>187</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" ref="G21:G26" si="2">DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
+        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
         <v>44075</v>
       </c>
-      <c r="H22" s="8">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>165</v>
+        <v>81</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="E23" s="1">
         <v>43983</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" t="s">
         <v>187</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
         <v>44075</v>
       </c>
       <c r="H23" s="8">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>185</v>
+        <v>86</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="E24" s="1">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E24),MONTH(E24)+1,DAY(E24))</f>
+        <v>44105</v>
+      </c>
+      <c r="H24" s="8">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1">
         <v>44075</v>
-      </c>
-      <c r="H24" s="8">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" s="1">
-        <v>43983</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>187</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="2"/>
-        <v>44075</v>
+        <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
+        <v>44166</v>
       </c>
       <c r="H25" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>166</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="2"/>
       <c r="E26" s="1">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>187</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="2"/>
-        <v>44075</v>
+        <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
+        <v>44166</v>
       </c>
       <c r="H26" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>247</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>248</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>244</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="1">
-        <v>43709</v>
-      </c>
-      <c r="F27" t="s">
-        <v>188</v>
+        <v>44075</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="G27" s="1">
-        <f>DATE(YEAR(E27)+1,MONTH(E27),DAY(E27))</f>
-        <v>44075</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <f>DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
+        <v>44166</v>
+      </c>
+      <c r="H27" s="8">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>243</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>246</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="E28" s="1">
         <v>43734</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="3" t="s">
         <v>188</v>
       </c>
       <c r="G28" s="1">
         <f>DATE(YEAR(E28)+1,MONTH(E28),DAY(E28))</f>
         <v>44100</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>167</v>
+        <v>246</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="E29" s="1">
-        <v>43983</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>187</v>
+        <v>43734</v>
+      </c>
+      <c r="F29" t="s">
+        <v>188</v>
       </c>
       <c r="G29" s="1">
-        <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
-        <v>44075</v>
-      </c>
-      <c r="H29" s="1">
-        <v>43891</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <f>DATE(YEAR(E29)+1,MONTH(E29),DAY(E29))</f>
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>270</v>
+        <v>67</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E30" s="1">
-        <v>44044</v>
+        <v>43734</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G30" s="1">
-        <f>DATE(YEAR(E30),MONTH(E30)+1,DAY(E30))</f>
-        <v>44075</v>
-      </c>
-      <c r="H30" s="8">
-        <v>44013</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <f>DATE(YEAR(E30)+1,MONTH(E30),DAY(E30))</f>
+        <v>44100</v>
+      </c>
+      <c r="H30">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="E31" s="1">
-        <v>43800</v>
+        <v>43734</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>188</v>
       </c>
       <c r="G31" s="1">
         <f>DATE(YEAR(E31)+1,MONTH(E31),DAY(E31))</f>
-        <v>44166</v>
+        <v>44100</v>
       </c>
       <c r="H31">
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>170</v>
+        <v>136</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="E32" s="1">
-        <v>43709</v>
+        <v>43734</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>188</v>
       </c>
       <c r="G32" s="1">
         <f>DATE(YEAR(E32)+1,MONTH(E32),DAY(E32))</f>
-        <v>44075</v>
+        <v>44100</v>
       </c>
       <c r="H32">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E33" s="1">
-        <v>43734</v>
+        <v>44070</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G33" s="1">
-        <f>DATE(YEAR(E33)+1,MONTH(E33),DAY(E33))</f>
-        <v>44100</v>
-      </c>
-      <c r="H33">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <f>DATE(YEAR(E33),MONTH(E33)+1,DAY(E33))</f>
+        <v>44101</v>
+      </c>
+      <c r="H33" s="8">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>172</v>
+        <v>83</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="E34" s="1">
-        <v>43800</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>188</v>
+        <v>44012</v>
+      </c>
+      <c r="F34" t="s">
+        <v>187</v>
       </c>
       <c r="G34" s="1">
-        <f>DATE(YEAR(E34)+1,MONTH(E34),DAY(E34))</f>
-        <v>44166</v>
-      </c>
-      <c r="H34">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
+        <v>44104</v>
+      </c>
+      <c r="H34" s="8">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E35" s="1">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>188</v>
       </c>
       <c r="G35" s="1">
-        <v>44075</v>
+        <f>DATE(YEAR(E35)+1,MONTH(E35),DAY(E35))</f>
+        <v>44105</v>
       </c>
       <c r="H35">
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>156</v>
+        <v>271</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="E36" s="1">
-        <v>43983</v>
+        <v>44041</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>187</v>
       </c>
       <c r="G36" s="1">
-        <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
-        <v>44075</v>
+        <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
+        <v>44133</v>
       </c>
       <c r="H36">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>156</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="D37" s="7"/>
       <c r="E37" s="1">
-        <v>43983</v>
+        <v>43770</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G37" s="1">
-        <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
-        <v>44075</v>
+        <f>DATE(YEAR(E37)+1,MONTH(E37),DAY(E37))</f>
+        <v>44136</v>
       </c>
       <c r="H37">
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>226</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="1">
+        <v>43800</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G38" s="1">
+        <f>DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
+        <v>44166</v>
+      </c>
+      <c r="H38">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>174</v>
+        <v>41</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="E39" s="1">
-        <v>43983</v>
-      </c>
-      <c r="F39" t="s">
-        <v>187</v>
+        <v>43800</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="G39" s="1">
-        <f>DATE(YEAR(E39),MONTH(E39)+3,DAY(E39))</f>
-        <v>44075</v>
-      </c>
-      <c r="H39" s="8">
-        <v>43709</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <f>DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
+        <v>44166</v>
+      </c>
+      <c r="H39">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>212</v>
+        <v>61</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="E40" s="1">
-        <v>43922</v>
-      </c>
-      <c r="F40" t="s">
-        <v>187</v>
+        <v>43800</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="G40" s="1">
-        <f>DATE(YEAR(E40),MONTH(E40)+3,DAY(E40))</f>
-        <v>44013</v>
+        <f>DATE(YEAR(E40)+1,MONTH(E40),DAY(E40))</f>
+        <v>44166</v>
       </c>
       <c r="H40">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>174</v>
+        <v>70</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="E41" s="1">
-        <v>44012</v>
-      </c>
-      <c r="F41" t="s">
-        <v>187</v>
+        <v>43800</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="G41" s="1">
-        <f>DATE(YEAR(E41),MONTH(E41)+3,DAY(E41))</f>
-        <v>44104</v>
-      </c>
-      <c r="H41" s="8">
-        <v>43709</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <f>DATE(YEAR(E41)+1,MONTH(E41),DAY(E41))</f>
+        <v>44166</v>
+      </c>
+      <c r="H41">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>213</v>
+        <v>27</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="E42" s="1">
-        <v>44044</v>
+        <v>43818</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G42" s="1">
-        <f>DATE(YEAR(E42),MONTH(E42)+1,DAY(E42))</f>
-        <v>44075</v>
-      </c>
-      <c r="H42" s="8">
-        <v>44013</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <f>DATE(YEAR(E42)+1,MONTH(E42),DAY(E42))</f>
+        <v>44184</v>
+      </c>
+      <c r="H42">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -2483,455 +2500,485 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>215</v>
+        <v>148</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="E44" s="1">
         <v>43831</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" t="s">
         <v>188</v>
       </c>
       <c r="G44" s="1">
-        <v>44256</v>
-      </c>
-      <c r="H44" s="8">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <f>DATE(YEAR(E44)+1,MONTH(E44),DAY(E44))</f>
+        <v>44197</v>
+      </c>
+      <c r="H44">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>175</v>
+        <v>138</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="E45" s="1">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>188</v>
       </c>
       <c r="G45" s="1">
         <f>DATE(YEAR(E45)+1,MONTH(E45),DAY(E45))</f>
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="H45">
         <v>2018</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>216</v>
+        <v>145</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="E46" s="1">
-        <v>43922</v>
+        <v>43831</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G46" s="1">
-        <f>DATE(YEAR(E46),MONTH(E46)+3,DAY(E46))</f>
-        <v>44013</v>
+        <f>DATE(YEAR(E46)+1,MONTH(E46),DAY(E46))</f>
+        <v>44197</v>
       </c>
       <c r="H46">
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="E47" s="1">
-        <v>43862</v>
+        <v>43846</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>188</v>
       </c>
       <c r="G47" s="1">
         <f>DATE(YEAR(E47)+1,MONTH(E47),DAY(E47))</f>
-        <v>44228</v>
+        <v>44212</v>
       </c>
       <c r="H47">
         <v>2018</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="1">
-        <v>43983</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G48" s="1">
-        <f>DATE(YEAR(E48),MONTH(E48)+3,DAY(E48))</f>
-        <v>44075</v>
-      </c>
-      <c r="H48" s="8">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E48" s="11">
+        <v>43862</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G48" s="11">
+        <f>DATE(YEAR(E48)+1,MONTH(E48),DAY(E48))</f>
+        <v>44228</v>
+      </c>
+      <c r="H48" s="9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="5"/>
       <c r="E49" s="1">
-        <v>43983</v>
+        <v>43862</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G49" s="1">
-        <f>DATE(YEAR(E49),MONTH(E49)+3,DAY(E49))</f>
-        <v>44075</v>
-      </c>
-      <c r="H49" s="8">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <f>DATE(YEAR(E49)+1,MONTH(E49),DAY(E49))</f>
+        <v>44228</v>
+      </c>
+      <c r="H49">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>253</v>
+      </c>
       <c r="E50" s="1">
-        <v>43983</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>187</v>
-      </c>
+        <v>44013</v>
+      </c>
+      <c r="F50" s="3"/>
       <c r="G50" s="1">
-        <f>DATE(YEAR(E50),MONTH(E50)+3,DAY(E50))</f>
-        <v>44075</v>
-      </c>
-      <c r="H50" s="8">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B51" t="s">
-        <v>201</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D51" s="7"/>
+        <v>204</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D51" s="6"/>
       <c r="E51" s="1">
-        <v>43770</v>
+        <v>43862</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>188</v>
       </c>
       <c r="G51" s="1">
         <f>DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
-        <v>44136</v>
+        <v>44228</v>
       </c>
       <c r="H51">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>217</v>
+        <v>127</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="E52" s="1">
-        <v>43983</v>
+        <v>43885</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>188</v>
+        <v>241</v>
       </c>
       <c r="G52" s="1">
-        <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
-        <v>44348</v>
+        <f>DATE(YEAR(E52),MONTH(E52)+12,DAY(E52))</f>
+        <v>44251</v>
       </c>
       <c r="H52">
         <v>2018</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>149</v>
+        <v>230</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="E53" s="1">
-        <v>43831</v>
+        <v>43889</v>
       </c>
       <c r="F53" t="s">
         <v>188</v>
       </c>
       <c r="G53" s="1">
         <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
-        <v>44197</v>
+        <v>44255</v>
       </c>
       <c r="H53">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D54" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="E54" s="1">
-        <v>43983</v>
-      </c>
-      <c r="F54" t="s">
+        <v>43831</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>188</v>
       </c>
       <c r="G54" s="1">
-        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
-        <v>44348</v>
-      </c>
-      <c r="H54">
+        <v>44256</v>
+      </c>
+      <c r="H54" s="8">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E55" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G55" s="1">
+        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
+        <v>44256</v>
+      </c>
+      <c r="H55">
         <v>2018</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>232</v>
-      </c>
-      <c r="B55" t="s">
-        <v>233</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D55" s="7"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="E56" s="1">
-        <v>43734</v>
+        <v>43891</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>188</v>
       </c>
       <c r="G56" s="1">
         <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
-        <v>44100</v>
+        <v>44256</v>
       </c>
       <c r="H56">
         <v>2018</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B57" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E57" s="1">
-        <v>44013</v>
-      </c>
-      <c r="F57" s="3"/>
+        <v>43908</v>
+      </c>
+      <c r="F57" t="s">
+        <v>188</v>
+      </c>
       <c r="G57" s="1">
-        <v>44228</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
+        <v>44273</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="E58" s="1">
-        <v>43846</v>
+        <v>43983</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>188</v>
       </c>
       <c r="G58" s="1">
         <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
-        <v>44212</v>
+        <v>44348</v>
       </c>
       <c r="H58">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E59" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G59" s="1">
+        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
+        <v>44348</v>
+      </c>
+      <c r="H59">
         <v>2018</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>221</v>
-      </c>
-      <c r="B59" t="s">
-        <v>222</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E59" s="13">
-        <v>43546</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="B60" t="s">
-        <v>204</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D60" s="6"/>
+        <v>114</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="2"/>
       <c r="E60" s="1">
-        <v>43862</v>
-      </c>
-      <c r="F60" s="3" t="s">
+        <v>43983</v>
+      </c>
+      <c r="F60" t="s">
         <v>188</v>
       </c>
       <c r="G60" s="1">
         <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
-        <v>44228</v>
+        <v>44348</v>
       </c>
       <c r="H60">
         <v>2018</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>133</v>
+        <v>123</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>180</v>
+        <v>269</v>
       </c>
       <c r="E61" s="1">
-        <v>43891</v>
+        <v>43993</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>188</v>
       </c>
       <c r="G61" s="1">
         <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
-        <v>44256</v>
+        <v>44358</v>
       </c>
       <c r="H61">
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>267</v>
+        <v>125</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>269</v>
@@ -2950,461 +2997,413 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>269</v>
+        <v>162</v>
       </c>
       <c r="E63" s="1">
-        <v>43993</v>
+        <v>44009</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>188</v>
       </c>
       <c r="G63" s="1">
         <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
-        <v>44358</v>
+        <v>44374</v>
       </c>
       <c r="H63">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>179</v>
+        <v>13</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E64" s="1">
-        <v>43885</v>
+        <v>44013</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>241</v>
+        <v>188</v>
       </c>
       <c r="G64" s="1">
-        <f>DATE(YEAR(E64),MONTH(E64)+12,DAY(E64))</f>
-        <v>44251</v>
+        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
+        <v>44378</v>
       </c>
       <c r="H64">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>198</v>
+        <v>15</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="E65" s="1">
-        <v>43435</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>207</v>
+        <v>44013</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G65" s="1">
+        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
+        <v>44378</v>
       </c>
       <c r="H65">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="E66" s="1">
-        <v>43447</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>207</v>
+        <v>44013</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G66" s="1">
+        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
+        <v>44378</v>
       </c>
       <c r="H66">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>133</v>
+        <v>261</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E67" s="1">
-        <v>43891</v>
+        <v>44013</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>188</v>
       </c>
       <c r="G67" s="1">
         <f>DATE(YEAR(E67)+1,MONTH(E67),DAY(E67))</f>
-        <v>44256</v>
+        <v>44378</v>
       </c>
       <c r="H67">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>255</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>218</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D68" s="6"/>
       <c r="E68" s="1">
-        <v>43734</v>
-      </c>
-      <c r="F68" s="3" t="s">
+        <v>44044</v>
+      </c>
+      <c r="F68" t="s">
         <v>188</v>
       </c>
       <c r="G68" s="1">
         <f>DATE(YEAR(E68)+1,MONTH(E68),DAY(E68))</f>
-        <v>44100</v>
+        <v>44409</v>
       </c>
       <c r="H68">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>181</v>
+        <v>24</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
       </c>
       <c r="E69" s="1">
-        <v>43831</v>
+        <v>43916</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="G69" s="1">
-        <f>DATE(YEAR(E69)+1,MONTH(E69),DAY(E69))</f>
-        <v>44197</v>
       </c>
       <c r="H69">
         <v>2018</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>182</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="4"/>
       <c r="E70" s="1">
-        <v>44041</v>
+        <v>43466</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G70" s="1">
-        <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
-        <v>44133</v>
+        <v>188</v>
       </c>
       <c r="H70">
         <v>2018</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>141</v>
+        <v>227</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
-      </c>
-      <c r="C71" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>232</v>
+      </c>
+      <c r="B72" t="s">
+        <v>233</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>221</v>
+      </c>
+      <c r="B73" t="s">
+        <v>222</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E73" s="13">
+        <v>43546</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>197</v>
+      </c>
+      <c r="B74" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E74" s="1">
+        <v>43435</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H74">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75" s="1">
+        <v>43447</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H75">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>254</v>
+      </c>
+      <c r="B76" t="s">
+        <v>254</v>
+      </c>
+      <c r="C76" t="s">
         <v>25</v>
       </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="1">
-        <v>43950</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G71" s="1">
-        <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
-        <v>44041</v>
-      </c>
-      <c r="H71">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" t="s">
-        <v>144</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E72" s="1">
-        <v>43831</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G72" s="1">
-        <f>DATE(YEAR(E72)+1,MONTH(E72),DAY(E72))</f>
-        <v>44197</v>
-      </c>
-      <c r="H72">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>146</v>
-      </c>
-      <c r="B73" t="s">
-        <v>147</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E73" s="1">
-        <v>43950</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G73" s="1">
-        <f>DATE(YEAR(E73),MONTH(E73)+3,DAY(E73))</f>
-        <v>44041</v>
-      </c>
-      <c r="H73">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>236</v>
-      </c>
-      <c r="B74" t="s">
-        <v>237</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="E74" s="1">
-        <v>43908</v>
-      </c>
-      <c r="F74" t="s">
-        <v>188</v>
-      </c>
-      <c r="G74" s="1">
-        <f>DATE(YEAR(E74)+1,MONTH(E74),DAY(E74))</f>
-        <v>44273</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>254</v>
-      </c>
-      <c r="B75" t="s">
-        <v>254</v>
-      </c>
-      <c r="C75" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" s="6"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>255</v>
-      </c>
-      <c r="B76" t="s">
-        <v>256</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>257</v>
-      </c>
       <c r="D76" s="6"/>
-      <c r="E76" s="1">
-        <v>44044</v>
-      </c>
-      <c r="F76" t="s">
-        <v>188</v>
-      </c>
-      <c r="G76" s="1">
-        <f t="shared" ref="G76" si="3">DATE(YEAR(E76)+1,MONTH(E76),DAY(E76))</f>
-        <v>44409</v>
-      </c>
-      <c r="H76">
-        <v>2019</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C20" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C21" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C31" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C32" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C33" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C34" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C35" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C36" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C37" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C42" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C38" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C42" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C58" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C39" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C33" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C40" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C30" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C41" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C21" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C24" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="D43" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C44" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C45" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C46" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C47" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C48" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C49" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C50" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C52" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C54" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C56" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C58" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C64" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C66" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C67" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C72" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D53" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C40" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C61" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D3" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D4" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D5" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D6" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C54" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C35" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C4" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C49" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C59" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C60" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C31" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C47" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C52" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C75" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C56" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C46" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D44" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C3" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C55" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D7" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D8" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D28" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D64" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="D6:D8" r:id="rId38" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D15" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D16" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D17" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D19" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D20" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D26" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D29" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D30" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D31" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D32" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D33" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D34" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D35" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D36" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D37" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D39" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D41" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D45" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D66" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D67" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D70" r:id="rId60" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D72" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D24" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D11" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D22" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D56" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D73" r:id="rId66" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D65" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C65" r:id="rId68" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C51" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D8" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D9" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C3" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C4" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D10" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D21" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C24" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="C22" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="D40" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D42" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="D9" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D10" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D58" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D63" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D39" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D15" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D17" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D18" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D40" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D19" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D30" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D41" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D20" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D21" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D22" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D23" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D34" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D35" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D47" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D75" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D56" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D36" r:id="rId60" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D46" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D13" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D38" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D11" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D31" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D6" r:id="rId66" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D74" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C74" r:id="rId68" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C37" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D66" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D67" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C7" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C8" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D48" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D33" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C13" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C11" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D3" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D24" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="C43" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D44" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D46" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D52" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D61" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D64" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D68" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C10" r:id="rId87" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
-    <hyperlink ref="D59" r:id="rId88" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
-    <hyperlink ref="C59" r:id="rId89" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
-    <hyperlink ref="C38" r:id="rId90" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D18" r:id="rId91" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C55" r:id="rId92" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
-    <hyperlink ref="D74" r:id="rId93" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
-    <hyperlink ref="C74" r:id="rId94" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
-    <hyperlink ref="D69" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C69" r:id="rId96" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
-    <hyperlink ref="C73" r:id="rId97" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D28" r:id="rId98" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="C28" r:id="rId99" xr:uid="{14956B9F-2D6F-454A-BE7E-7F912ECE1928}"/>
-    <hyperlink ref="D27" r:id="rId100" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="C57" r:id="rId101" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
-    <hyperlink ref="D57" r:id="rId102" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
-    <hyperlink ref="C76" r:id="rId103" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
-    <hyperlink ref="C6" r:id="rId104" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="C30" r:id="rId105" xr:uid="{6C26AF84-01DD-4C9D-8F5D-B545CAD85FD9}"/>
+    <hyperlink ref="D54" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D4" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D59" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D55" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D52" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D32" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C48" r:id="rId87" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
+    <hyperlink ref="D73" r:id="rId88" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
+    <hyperlink ref="C73" r:id="rId89" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
+    <hyperlink ref="C71" r:id="rId90" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
+    <hyperlink ref="D53" r:id="rId91" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="C72" r:id="rId92" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D57" r:id="rId93" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
+    <hyperlink ref="C57" r:id="rId94" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
+    <hyperlink ref="D45" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C45" r:id="rId96" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
+    <hyperlink ref="C6" r:id="rId97" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
+    <hyperlink ref="D29" r:id="rId98" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="C29" r:id="rId99" xr:uid="{14956B9F-2D6F-454A-BE7E-7F912ECE1928}"/>
+    <hyperlink ref="D16" r:id="rId100" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="C50" r:id="rId101" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
+    <hyperlink ref="D50" r:id="rId102" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="C68" r:id="rId103" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
+    <hyperlink ref="C64" r:id="rId104" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
+    <hyperlink ref="C18" r:id="rId105" xr:uid="{6C26AF84-01DD-4C9D-8F5D-B545CAD85FD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId106"/>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4342D9FE-FF7B-41EB-A1CA-DE6BCBACBA32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA19901-C2E9-468C-B282-0DD7B8F2F445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1412,53 +1412,51 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>231</v>
+        <v>97</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E3" s="1">
-        <v>44013</v>
-      </c>
-      <c r="F3" t="s">
+        <v>43922</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>187</v>
       </c>
       <c r="G3" s="1">
         <f>DATE(YEAR(E3),MONTH(E3)+3,DAY(E3))</f>
-        <v>44105</v>
+        <v>44013</v>
       </c>
       <c r="H3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>216</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="1">
-        <v>43922</v>
+        <v>43950</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>187</v>
       </c>
       <c r="G4" s="1">
-        <f>DATE(YEAR(E4),MONTH(E4)+3,DAY(E4))</f>
-        <v>44013</v>
+        <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
+        <v>44041</v>
       </c>
       <c r="H4">
         <v>2018</v>
@@ -1466,15 +1464,17 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>147</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>184</v>
+      </c>
       <c r="E5" s="1">
         <v>43950</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>187</v>
       </c>
       <c r="G5" s="1">
-        <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
+        <f>DATE(YEAR(E5),MONTH(E5)+3,DAY(E5))</f>
         <v>44041</v>
       </c>
       <c r="H5">
@@ -1491,40 +1491,40 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="E6" s="1">
-        <v>43950</v>
+        <v>43983</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>187</v>
       </c>
       <c r="G6" s="1">
         <f>DATE(YEAR(E6),MONTH(E6)+3,DAY(E6))</f>
-        <v>44041</v>
+        <v>44075</v>
       </c>
       <c r="H6">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>156</v>
@@ -1545,52 +1545,52 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>186</v>
+        <v>262</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E8" s="1">
-        <v>43983</v>
+        <v>44044</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="G8" s="1">
-        <f>DATE(YEAR(E8),MONTH(E8)+3,DAY(E8))</f>
+        <f>DATE(YEAR(E8),MONTH(E8)+1,DAY(E8))</f>
         <v>44075</v>
       </c>
-      <c r="H8">
-        <v>2019</v>
+      <c r="H8" s="8">
+        <v>43800</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>262</v>
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E9" s="1">
-        <v>44044</v>
+        <v>43983</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G9" s="1">
-        <f>DATE(YEAR(E9),MONTH(E9)+1,DAY(E9))</f>
+        <f>DATE(YEAR(E9),MONTH(E9)+3,DAY(E9))</f>
         <v>44075</v>
       </c>
       <c r="H9" s="8">
@@ -1599,16 +1599,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>189</v>
+        <v>47</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E10" s="1">
         <v>43983</v>
@@ -1626,15 +1626,15 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E11" s="1">
@@ -1653,16 +1653,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>165</v>
+        <v>51</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="E12" s="1">
         <v>43983</v>
@@ -1680,16 +1680,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>185</v>
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="E13" s="1">
         <v>43983</v>
@@ -1707,16 +1707,16 @@
     </row>
     <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>165</v>
+        <v>55</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="E14" s="1">
         <v>43983</v>
@@ -1734,171 +1734,171 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>247</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>166</v>
+        <v>248</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="E15" s="1">
-        <v>43983</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>187</v>
+        <v>43709</v>
+      </c>
+      <c r="F15" t="s">
+        <v>188</v>
       </c>
       <c r="G15" s="1">
-        <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
+        <f>DATE(YEAR(E15)+1,MONTH(E15),DAY(E15))</f>
         <v>44075</v>
-      </c>
-      <c r="H15" s="8">
-        <v>43800</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>247</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>248</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>244</v>
+        <v>57</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="E16" s="1">
-        <v>43709</v>
-      </c>
-      <c r="F16" t="s">
-        <v>188</v>
+        <v>43983</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="G16" s="1">
-        <f>DATE(YEAR(E16)+1,MONTH(E16),DAY(E16))</f>
+        <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
         <v>44075</v>
+      </c>
+      <c r="H16" s="1">
+        <v>43891</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E17" s="1">
-        <v>43983</v>
+        <v>44044</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="G17" s="1">
-        <f>DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
+        <f>DATE(YEAR(E17),MONTH(E17)+1,DAY(E17))</f>
         <v>44075</v>
       </c>
-      <c r="H17" s="1">
-        <v>43891</v>
+      <c r="H17" s="8">
+        <v>44013</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>270</v>
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E18" s="1">
-        <v>44044</v>
+        <v>43709</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G18" s="1">
-        <f>DATE(YEAR(E18),MONTH(E18)+1,DAY(E18))</f>
+        <f>DATE(YEAR(E18)+1,MONTH(E18),DAY(E18))</f>
         <v>44075</v>
       </c>
-      <c r="H18" s="8">
-        <v>44013</v>
+      <c r="H18">
+        <v>2017</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E19" s="1">
-        <v>43709</v>
+        <v>43647</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>188</v>
       </c>
       <c r="G19" s="1">
-        <f>DATE(YEAR(E19)+1,MONTH(E19),DAY(E19))</f>
         <v>44075</v>
       </c>
       <c r="H19">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="E20" s="1">
-        <v>43647</v>
+        <v>43983</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G20" s="1">
+        <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
         <v>44075</v>
       </c>
       <c r="H20">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>156</v>
@@ -1919,287 +1919,293 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>156</v>
+        <v>265</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="E22" s="1">
         <v>43983</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" t="s">
         <v>187</v>
       </c>
       <c r="G22" s="1">
         <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
         <v>44075</v>
       </c>
-      <c r="H22">
-        <v>2019</v>
+      <c r="H22" s="8">
+        <v>43709</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>174</v>
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="E23" s="1">
-        <v>43983</v>
-      </c>
-      <c r="F23" t="s">
-        <v>187</v>
+        <v>43734</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="G23" s="1">
-        <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
-        <v>44075</v>
-      </c>
-      <c r="H23" s="8">
-        <v>43709</v>
+        <f>DATE(YEAR(E23)+1,MONTH(E23),DAY(E23))</f>
+        <v>44100</v>
+      </c>
+      <c r="H23">
+        <v>2018</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>86</v>
+        <v>246</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="E24" s="1">
-        <v>44075</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>195</v>
+        <v>43734</v>
+      </c>
+      <c r="F24" t="s">
+        <v>188</v>
       </c>
       <c r="G24" s="1">
-        <f>DATE(YEAR(E24),MONTH(E24)+1,DAY(E24))</f>
-        <v>44105</v>
-      </c>
-      <c r="H24" s="8">
-        <v>44013</v>
+        <f>DATE(YEAR(E24)+1,MONTH(E24),DAY(E24))</f>
+        <v>44100</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>171</v>
+      </c>
       <c r="E25" s="1">
-        <v>44075</v>
+        <v>43734</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G25" s="1">
-        <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
-        <v>44166</v>
-      </c>
-      <c r="H25" s="8">
-        <v>43800</v>
+        <f>DATE(YEAR(E25)+1,MONTH(E25),DAY(E25))</f>
+        <v>44100</v>
+      </c>
+      <c r="H25">
+        <v>2017</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="E26" s="1">
-        <v>44075</v>
+        <v>43734</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G26" s="1">
-        <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
-        <v>44166</v>
-      </c>
-      <c r="H26" s="8">
-        <v>43800</v>
+        <f>DATE(YEAR(E26)+1,MONTH(E26),DAY(E26))</f>
+        <v>44100</v>
+      </c>
+      <c r="H26">
+        <v>2018</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="E27" s="1">
-        <v>44075</v>
+        <v>43734</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G27" s="1">
-        <f>DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
-        <v>44166</v>
-      </c>
-      <c r="H27" s="8">
-        <v>43800</v>
+        <f>DATE(YEAR(E27)+1,MONTH(E27),DAY(E27))</f>
+        <v>44100</v>
+      </c>
+      <c r="H27">
+        <v>2018</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="E28" s="1">
-        <v>43734</v>
+        <v>44070</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G28" s="1">
-        <f>DATE(YEAR(E28)+1,MONTH(E28),DAY(E28))</f>
-        <v>44100</v>
-      </c>
-      <c r="H28">
-        <v>2018</v>
+        <f>DATE(YEAR(E28),MONTH(E28)+1,DAY(E28))</f>
+        <v>44101</v>
+      </c>
+      <c r="H28" s="8">
+        <v>43831</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>246</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>245</v>
+        <v>83</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>266</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>244</v>
+        <v>174</v>
       </c>
       <c r="E29" s="1">
-        <v>43734</v>
+        <v>44012</v>
       </c>
       <c r="F29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G29" s="1">
-        <f>DATE(YEAR(E29)+1,MONTH(E29),DAY(E29))</f>
-        <v>44100</v>
+        <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
+        <v>44104</v>
+      </c>
+      <c r="H29" s="8">
+        <v>43709</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>171</v>
+        <v>151</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="E30" s="1">
-        <v>43734</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>188</v>
+        <v>44013</v>
+      </c>
+      <c r="F30" t="s">
+        <v>187</v>
       </c>
       <c r="G30" s="1">
-        <f>DATE(YEAR(E30)+1,MONTH(E30),DAY(E30))</f>
-        <v>44100</v>
+        <f>DATE(YEAR(E30),MONTH(E30)+3,DAY(E30))</f>
+        <v>44105</v>
       </c>
       <c r="H30">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>196</v>
+        <v>85</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="E31" s="1">
-        <v>43734</v>
+        <v>44075</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G31" s="1">
-        <f>DATE(YEAR(E31)+1,MONTH(E31),DAY(E31))</f>
-        <v>44100</v>
-      </c>
-      <c r="H31">
-        <v>2018</v>
+        <f>DATE(YEAR(E31),MONTH(E31)+1,DAY(E31))</f>
+        <v>44105</v>
+      </c>
+      <c r="H31" s="8">
+        <v>44013</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>218</v>
+        <v>95</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="E32" s="1">
-        <v>43734</v>
+        <v>43739</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>188</v>
       </c>
       <c r="G32" s="1">
         <f>DATE(YEAR(E32)+1,MONTH(E32),DAY(E32))</f>
-        <v>44100</v>
+        <v>44105</v>
       </c>
       <c r="H32">
         <v>2018</v>
@@ -2207,135 +2213,129 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>164</v>
+        <v>140</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="E33" s="1">
-        <v>44070</v>
+        <v>44041</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G33" s="1">
-        <f>DATE(YEAR(E33),MONTH(E33)+1,DAY(E33))</f>
-        <v>44101</v>
-      </c>
-      <c r="H33" s="8">
-        <v>43831</v>
+        <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
+        <v>44133</v>
+      </c>
+      <c r="H33">
+        <v>2018</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>174</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="D34" s="7"/>
       <c r="E34" s="1">
-        <v>44012</v>
-      </c>
-      <c r="F34" t="s">
-        <v>187</v>
+        <v>43770</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="G34" s="1">
-        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
-        <v>44104</v>
-      </c>
-      <c r="H34" s="8">
-        <v>43709</v>
+        <f>DATE(YEAR(E34)+1,MONTH(E34),DAY(E34))</f>
+        <v>44136</v>
+      </c>
+      <c r="H34">
+        <v>2019</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>175</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="1">
-        <v>43739</v>
+        <v>44075</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G35" s="1">
-        <f>DATE(YEAR(E35)+1,MONTH(E35),DAY(E35))</f>
-        <v>44105</v>
-      </c>
-      <c r="H35">
-        <v>2018</v>
+        <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
+        <v>44166</v>
+      </c>
+      <c r="H35" s="8">
+        <v>43800</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>182</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="2"/>
       <c r="E36" s="1">
-        <v>44041</v>
+        <v>44075</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>187</v>
       </c>
       <c r="G36" s="1">
-        <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
-        <v>44133</v>
-      </c>
-      <c r="H36">
-        <v>2018</v>
+        <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
+        <v>44166</v>
+      </c>
+      <c r="H36" s="8">
+        <v>43800</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>201</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D37" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="1">
-        <v>43770</v>
+        <v>44075</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G37" s="1">
-        <f>DATE(YEAR(E37)+1,MONTH(E37),DAY(E37))</f>
-        <v>44136</v>
-      </c>
-      <c r="H37">
-        <v>2019</v>
+        <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
+        <v>44166</v>
+      </c>
+      <c r="H37" s="8">
+        <v>43800</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -3299,92 +3299,92 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C23" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C38" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="C42" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="C58" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="C39" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C33" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C28" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="C40" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C30" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="C41" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C21" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C24" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C31" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="D43" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="C54" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C35" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C4" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C32" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C3" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="C49" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C35" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C36" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C37" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="C59" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="C60" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C31" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="C47" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
     <hyperlink ref="C52" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
     <hyperlink ref="C75" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="C56" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="C46" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="D44" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C3" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C30" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
     <hyperlink ref="C55" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D7" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D8" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D28" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D6" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D7" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D23" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="D64" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="D6:D8" r:id="rId38" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D9" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D10" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D8" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D9" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
     <hyperlink ref="D58" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
     <hyperlink ref="D63" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
     <hyperlink ref="D39" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D15" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D17" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D18" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D14" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D16" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D17" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
     <hyperlink ref="D40" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D19" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D30" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D18" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D25" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
     <hyperlink ref="D41" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D20" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D21" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D22" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D23" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D34" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D35" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D19" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D20" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D21" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D22" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D32" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
     <hyperlink ref="D47" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="D75" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
     <hyperlink ref="D56" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D36" r:id="rId60" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D33" r:id="rId60" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
     <hyperlink ref="D46" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D13" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D12" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
     <hyperlink ref="D38" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D11" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D31" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D6" r:id="rId66" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D10" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D26" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D5" r:id="rId66" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
     <hyperlink ref="D74" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="C74" r:id="rId68" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C37" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C34" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
     <hyperlink ref="D66" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
     <hyperlink ref="D67" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C7" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C8" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C6" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C7" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
     <hyperlink ref="D48" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D33" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C13" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="C11" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="D3" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D24" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="D28" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C12" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C10" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D30" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D31" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="C43" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
     <hyperlink ref="D54" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D4" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D3" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="D59" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
     <hyperlink ref="D55" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
     <hyperlink ref="D52" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D32" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D27" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="C48" r:id="rId87" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
     <hyperlink ref="D73" r:id="rId88" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
     <hyperlink ref="C73" r:id="rId89" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
@@ -3395,15 +3395,15 @@
     <hyperlink ref="C57" r:id="rId94" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
     <hyperlink ref="D45" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
     <hyperlink ref="C45" r:id="rId96" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
-    <hyperlink ref="C6" r:id="rId97" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D29" r:id="rId98" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="C29" r:id="rId99" xr:uid="{14956B9F-2D6F-454A-BE7E-7F912ECE1928}"/>
-    <hyperlink ref="D16" r:id="rId100" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="C5" r:id="rId97" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
+    <hyperlink ref="D24" r:id="rId98" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="C24" r:id="rId99" xr:uid="{14956B9F-2D6F-454A-BE7E-7F912ECE1928}"/>
+    <hyperlink ref="D15" r:id="rId100" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
     <hyperlink ref="C50" r:id="rId101" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
     <hyperlink ref="D50" r:id="rId102" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
     <hyperlink ref="C68" r:id="rId103" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
     <hyperlink ref="C64" r:id="rId104" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="C18" r:id="rId105" xr:uid="{6C26AF84-01DD-4C9D-8F5D-B545CAD85FD9}"/>
+    <hyperlink ref="C17" r:id="rId105" xr:uid="{6C26AF84-01DD-4C9D-8F5D-B545CAD85FD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId106"/>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA19901-C2E9-468C-B282-0DD7B8F2F445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC58CE6D-9357-4627-ADD9-6DE58AA4A13F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,18 +222,12 @@
     <t>BEIS: Sub-national total final energy consumption data</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/833987/Sub-national-total-final-energy-consumption-statistics_2005-2017.xlsx</t>
-  </si>
-  <si>
     <t>BEISSubNatFuel</t>
   </si>
   <si>
     <t>BEIS: Sub-national residual fuel consumption data</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/833256/Sub-national_residual_fuel_consumption_statistics_2005-2017.xlsx</t>
-  </si>
-  <si>
     <t>BEISSubNatGas</t>
   </si>
   <si>
@@ -255,18 +249,12 @@
     <t>BEIS: Average variable unit costs and fixed costs for electricity for UK regions</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/812267/table_224.xlsx</t>
-  </si>
-  <si>
     <t>BEISUnitGas</t>
   </si>
   <si>
     <t>BEIS: Average variable unit costs and fixed costs for gas for UK regions</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/797219/table_234.xlsx</t>
-  </si>
-  <si>
     <t>DFTLicenced</t>
   </si>
   <si>
@@ -594,24 +582,6 @@
     <t>Annual</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/875406/ET_5.6.xls</t>
-  </si>
-  <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/875750/table_242.xlsx</t>
-  </si>
-  <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/875754/table_252.xlsx</t>
-  </si>
-  <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/875749/table_241.xlsx</t>
-  </si>
-  <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/876030/table_251.xlsx</t>
-  </si>
-  <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/875409/ET_6.1.xls</t>
-  </si>
-  <si>
     <t>Monthly</t>
   </si>
   <si>
@@ -774,9 +744,6 @@
     <t>BEIS: Renewable Electricity by Local Authority</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/834142/Renewable_electricity_by_local_authority_2014_to_2018.xlsx</t>
-  </si>
-  <si>
     <t>OFGEMTariff</t>
   </si>
   <si>
@@ -813,21 +780,12 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/911906/DUKES_5.11.xls</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/911876/Headline_HEE_tables_27_AUG_2020__-_EXCEL.xlsx</t>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/895137/Headline_impact_of_measures_Scotland_2017.xlsx</t>
   </si>
   <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/901382/renewable-energy-planning-database-june-2020-update.xlsx</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/896224/veh0104.ods</t>
-  </si>
-  <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/896238/veh0132.ods</t>
-  </si>
-  <si>
     <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/06/scottish-greenhouse-gas-emissions-2018/documents/2018-tables/2018-tables/govscot%3Adocument/2018-tables.xlsx</t>
   </si>
   <si>
@@ -837,10 +795,52 @@
     <t>https://www.gov.scot/publications/scottish-greenhouse-gas-emissions-2018/</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/909995/RHI_monthly_official_stats_tables_Jul_20_final.xlsx</t>
-  </si>
-  <si>
     <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/07/gdp-quarterly-national-accounts-for-scotland-2020-q1/documents/other-quarterly-national-accounts-summary-tables/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BGDP%2BQNAS%2B2020%2BQ1%2B-%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/household-energy-efficiency-statistics-headline-release-september-2020</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/920617/ET_5.6_SEP_20.xls</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/920429/table_242.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/920432/table_252.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/920622/ET_6.1_SEP_20.xls</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/920431/table_251.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/920428/table_241.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/920656/Renewable_electricity_by_local_authority_2014_to_2019.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/917543/RHI_monthly_official_stats_tables_Aug_20_final.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/920960/Subnational_total_final_energy_consumption_statistics.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/875739/table_224.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/875778/table_234.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/917198/veh0104.ods</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/917208/veh0132.ods</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/920753/residual-fuels-2005-2018.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1025,15 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H76" totalsRowShown="0">
-  <autoFilter ref="A1:H76" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:H76" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="6">
+      <filters>
+        <dateGroupItem year="2020" month="6" dateTimeGrouping="month"/>
+        <dateGroupItem year="2020" month="7" dateTimeGrouping="month"/>
+        <dateGroupItem year="2020" month="9" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H76">
     <sortCondition ref="G1:G76"/>
   </sortState>
@@ -1343,7 +1351,7 @@
   <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1366,10 +1374,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1378,7 +1386,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -1386,48 +1394,48 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E2" s="1">
         <v>43916</v>
       </c>
       <c r="F2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="G2" s="1">
         <v>44008</v>
       </c>
       <c r="H2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E3" s="1">
         <v>43922</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G3" s="1">
         <f>DATE(YEAR(E3),MONTH(E3)+3,DAY(E3))</f>
@@ -1439,10 +1447,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
@@ -1452,7 +1460,7 @@
         <v>43950</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G4" s="1">
         <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
@@ -1464,22 +1472,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E5" s="1">
         <v>43950</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G5" s="1">
         <f>DATE(YEAR(E5),MONTH(E5)+3,DAY(E5))</f>
@@ -1489,7 +1497,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1497,26 +1505,25 @@
         <v>6</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E6" s="1">
         <v>43983</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G6" s="1">
-        <f>DATE(YEAR(E6),MONTH(E6)+3,DAY(E6))</f>
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="H6">
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1524,26 +1531,25 @@
         <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E7" s="1">
         <v>43983</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G7" s="1">
-        <f>DATE(YEAR(E7),MONTH(E7)+3,DAY(E7))</f>
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="H7">
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1551,26 +1557,26 @@
         <v>32</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E8" s="1">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G8" s="1">
         <f>DATE(YEAR(E8),MONTH(E8)+1,DAY(E8))</f>
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="H8" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1578,26 +1584,26 @@
         <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E9" s="1">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G9" s="1">
-        <f>DATE(YEAR(E9),MONTH(E9)+3,DAY(E9))</f>
-        <v>44075</v>
+        <f t="shared" ref="G9:G14" si="0">DATE(YEAR(E9),MONTH(E9)+3,DAY(E9))</f>
+        <v>44166</v>
       </c>
       <c r="H9" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1605,26 +1611,26 @@
         <v>47</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E10" s="1">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G10" s="1">
-        <f>DATE(YEAR(E10),MONTH(E10)+3,DAY(E10))</f>
-        <v>44075</v>
+        <f t="shared" si="0"/>
+        <v>44166</v>
       </c>
       <c r="H10" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1632,26 +1638,26 @@
         <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>191</v>
+        <v>260</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E11" s="1">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G11" s="1">
-        <f>DATE(YEAR(E11),MONTH(E11)+3,DAY(E11))</f>
-        <v>44075</v>
+        <f t="shared" si="0"/>
+        <v>44166</v>
       </c>
       <c r="H11" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1659,26 +1665,26 @@
         <v>51</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E12" s="1">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G12" s="1">
-        <f>DATE(YEAR(E12),MONTH(E12)+3,DAY(E12))</f>
-        <v>44075</v>
+        <f t="shared" si="0"/>
+        <v>44166</v>
       </c>
       <c r="H12" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1686,26 +1692,26 @@
         <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>193</v>
+        <v>262</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E13" s="1">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G13" s="1">
-        <f>DATE(YEAR(E13),MONTH(E13)+3,DAY(E13))</f>
-        <v>44075</v>
+        <f t="shared" si="0"/>
+        <v>44166</v>
       </c>
       <c r="H13" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1713,50 +1719,50 @@
         <v>55</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>194</v>
+        <v>261</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E14" s="1">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G14" s="1">
-        <f>DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
-        <v>44075</v>
+        <f t="shared" si="0"/>
+        <v>44166</v>
       </c>
       <c r="H14" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B15" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E15" s="1">
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="F15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G15" s="1">
         <f>DATE(YEAR(E15)+1,MONTH(E15),DAY(E15))</f>
-        <v>44075</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -1764,26 +1770,26 @@
         <v>57</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E16" s="1">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G16" s="1">
         <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="H16" s="1">
         <v>43891</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -1791,26 +1797,26 @@
         <v>59</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E17" s="1">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G17" s="1">
         <f>DATE(YEAR(E17),MONTH(E17)+1,DAY(E17))</f>
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="H17" s="8">
         <v>44013</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -1818,127 +1824,128 @@
         <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>266</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E18" s="1">
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G18" s="1">
         <f>DATE(YEAR(E18)+1,MONTH(E18),DAY(E18))</f>
-        <v>44075</v>
+        <v>44440</v>
       </c>
       <c r="H18">
         <v>2017</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D19" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E19" s="1">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G19" s="1">
-        <v>44075</v>
+        <f>DATE(YEAR(E19),MONTH(E19)+12,DAY(E19))</f>
+        <v>44378</v>
       </c>
       <c r="H19">
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E20" s="1">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G20" s="1">
         <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="H20">
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E21" s="1">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G21" s="1">
         <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="H21">
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E22" s="1">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G22" s="1">
         <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="H22" s="8">
         <v>43709</v>
@@ -1955,13 +1962,13 @@
         <v>11</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E23" s="1">
         <v>43734</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G23" s="1">
         <f>DATE(YEAR(E23)+1,MONTH(E23),DAY(E23))</f>
@@ -1973,50 +1980,50 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E24" s="1">
         <v>43734</v>
       </c>
       <c r="F24" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G24" s="1">
         <f>DATE(YEAR(E24)+1,MONTH(E24),DAY(E24))</f>
         <v>44100</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
         <v>66</v>
       </c>
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>68</v>
+        <v>271</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E25" s="1">
-        <v>43734</v>
+        <v>44075</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G25" s="1">
         <f>DATE(YEAR(E25)+1,MONTH(E25),DAY(E25))</f>
-        <v>44100</v>
+        <v>44440</v>
       </c>
       <c r="H25">
         <v>2017</v>
@@ -2024,22 +2031,22 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E26" s="1">
         <v>43734</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G26" s="1">
         <f>DATE(YEAR(E26)+1,MONTH(E26),DAY(E26))</f>
@@ -2051,22 +2058,22 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E27" s="1">
         <v>43734</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G27" s="1">
         <f>DATE(YEAR(E27)+1,MONTH(E27),DAY(E27))</f>
@@ -2087,13 +2094,13 @@
         <v>45</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E28" s="1">
         <v>44070</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G28" s="1">
         <f>DATE(YEAR(E28),MONTH(E28)+1,DAY(E28))</f>
@@ -2103,51 +2110,51 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E29" s="1">
-        <v>44012</v>
+        <v>44075</v>
       </c>
       <c r="F29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G29" s="1">
         <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
-        <v>44104</v>
+        <v>44166</v>
       </c>
       <c r="H29" s="8">
         <v>43709</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E30" s="1">
         <v>44013</v>
       </c>
       <c r="F30" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G30" s="1">
         <f>DATE(YEAR(E30),MONTH(E30)+3,DAY(E30))</f>
@@ -2157,24 +2164,24 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E31" s="1">
         <v>44075</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G31" s="1">
         <f>DATE(YEAR(E31),MONTH(E31)+1,DAY(E31))</f>
@@ -2184,24 +2191,24 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E32" s="1">
         <v>43739</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G32" s="1">
         <f>DATE(YEAR(E32)+1,MONTH(E32),DAY(E32))</f>
@@ -2211,24 +2218,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E33" s="1">
         <v>44041</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G33" s="1">
         <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
@@ -2238,22 +2245,22 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B34" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="1">
         <v>43770</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G34" s="1">
         <f>DATE(YEAR(E34)+1,MONTH(E34),DAY(E34))</f>
@@ -2263,22 +2270,22 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="1">
         <v>44075</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G35" s="1">
         <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
@@ -2288,22 +2295,22 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="1">
         <v>44075</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G36" s="1">
         <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
@@ -2313,22 +2320,22 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="1">
         <v>44075</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G37" s="1">
         <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
@@ -2338,7 +2345,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -2349,23 +2356,23 @@
         <v>22</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E38" s="1">
         <v>43800</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G38" s="1">
-        <f>DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
+        <f t="shared" ref="G38:G49" si="1">DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
         <v>44166</v>
       </c>
       <c r="H38">
         <v>2018</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2376,23 +2383,23 @@
         <v>42</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E39" s="1">
         <v>43800</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G39" s="1">
-        <f>DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
+        <f t="shared" si="1"/>
         <v>44166</v>
       </c>
       <c r="H39">
         <v>2018</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -2403,50 +2410,50 @@
         <v>62</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E40" s="1">
         <v>43800</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G40" s="1">
-        <f>DATE(YEAR(E40)+1,MONTH(E40),DAY(E40))</f>
+        <f t="shared" si="1"/>
         <v>44166</v>
       </c>
       <c r="H40">
         <v>2018</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E41" s="1">
         <v>43800</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G41" s="1">
-        <f>DATE(YEAR(E41)+1,MONTH(E41),DAY(E41))</f>
+        <f t="shared" si="1"/>
         <v>44166</v>
       </c>
       <c r="H41">
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -2457,221 +2464,221 @@
         <v>28</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E42" s="1">
         <v>43818</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G42" s="1">
-        <f>DATE(YEAR(E42)+1,MONTH(E42),DAY(E42))</f>
+        <f t="shared" si="1"/>
         <v>44184</v>
       </c>
       <c r="H42">
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E43" s="1">
         <v>43831</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G43" s="1">
-        <f>DATE(YEAR(E43)+1,MONTH(E43),DAY(E43))</f>
+        <f t="shared" si="1"/>
         <v>44197</v>
       </c>
       <c r="H43">
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E44" s="1">
         <v>43831</v>
       </c>
       <c r="F44" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G44" s="1">
-        <f>DATE(YEAR(E44)+1,MONTH(E44),DAY(E44))</f>
+        <f t="shared" si="1"/>
         <v>44197</v>
       </c>
       <c r="H44">
         <v>2019</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E45" s="1">
         <v>43831</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G45" s="1">
-        <f>DATE(YEAR(E45)+1,MONTH(E45),DAY(E45))</f>
+        <f t="shared" si="1"/>
         <v>44197</v>
       </c>
       <c r="H45">
         <v>2018</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E46" s="1">
         <v>43831</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G46" s="1">
-        <f>DATE(YEAR(E46)+1,MONTH(E46),DAY(E46))</f>
+        <f t="shared" si="1"/>
         <v>44197</v>
       </c>
       <c r="H46">
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E47" s="1">
         <v>43846</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G47" s="1">
-        <f>DATE(YEAR(E47)+1,MONTH(E47),DAY(E47))</f>
+        <f t="shared" si="1"/>
         <v>44212</v>
       </c>
       <c r="H47">
         <v>2018</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E48" s="11">
         <v>43862</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G48" s="11">
-        <f>DATE(YEAR(E48)+1,MONTH(E48),DAY(E48))</f>
+        <f t="shared" si="1"/>
         <v>44228</v>
       </c>
       <c r="H48" s="9">
         <v>2018</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="1">
         <v>43862</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G49" s="1">
-        <f>DATE(YEAR(E49)+1,MONTH(E49),DAY(E49))</f>
+        <f t="shared" si="1"/>
         <v>44228</v>
       </c>
       <c r="H49">
         <v>2018</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B50" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="E50" s="1">
         <v>44013</v>
@@ -2681,22 +2688,22 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B51" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="1">
         <v>43862</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G51" s="1">
         <f>DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
@@ -2706,24 +2713,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E52" s="1">
         <v>43885</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G52" s="1">
         <f>DATE(YEAR(E52),MONTH(E52)+12,DAY(E52))</f>
@@ -2733,24 +2740,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B53" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E53" s="1">
         <v>43889</v>
       </c>
       <c r="F53" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G53" s="1">
         <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
@@ -2760,24 +2767,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E54" s="1">
         <v>43831</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G54" s="1">
         <v>44256</v>
@@ -2786,85 +2793,85 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B55" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E55" s="1">
         <v>43891</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G55" s="1">
-        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
+        <f t="shared" ref="G55:G68" si="2">DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
         <v>44256</v>
       </c>
       <c r="H55">
         <v>2018</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E56" s="1">
         <v>43891</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G56" s="1">
-        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
+        <f t="shared" si="2"/>
         <v>44256</v>
       </c>
       <c r="H56">
         <v>2018</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B57" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E57" s="1">
         <v>43908</v>
       </c>
       <c r="F57" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G57" s="1">
-        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
+        <f t="shared" si="2"/>
         <v>44273</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>35</v>
       </c>
@@ -2875,129 +2882,129 @@
         <v>37</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E58" s="1">
         <v>43983</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G58" s="1">
-        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
+        <f t="shared" si="2"/>
         <v>44348</v>
       </c>
       <c r="H58">
         <v>2017</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E59" s="1">
         <v>43983</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G59" s="1">
-        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
+        <f t="shared" si="2"/>
         <v>44348</v>
       </c>
       <c r="H59">
         <v>2018</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="1">
         <v>43983</v>
       </c>
       <c r="F60" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G60" s="1">
-        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
+        <f t="shared" si="2"/>
         <v>44348</v>
       </c>
       <c r="H60">
         <v>2018</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="E61" s="1">
         <v>43993</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G61" s="1">
-        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
+        <f t="shared" si="2"/>
         <v>44358</v>
       </c>
       <c r="H61">
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="E62" s="1">
         <v>43993</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G62" s="1">
-        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
+        <f t="shared" si="2"/>
         <v>44358</v>
       </c>
       <c r="H62">
         <v>2018</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -3005,26 +3012,26 @@
         <v>39</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E63" s="1">
         <v>44009</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G63" s="1">
-        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
+        <f t="shared" si="2"/>
         <v>44374</v>
       </c>
       <c r="H63">
         <v>2016</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -3032,26 +3039,26 @@
         <v>13</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E64" s="1">
         <v>44013</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G64" s="1">
-        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
+        <f t="shared" si="2"/>
         <v>44378</v>
       </c>
       <c r="H64">
         <v>2019</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -3059,26 +3066,26 @@
         <v>15</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E65" s="1">
         <v>44013</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G65" s="1">
-        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
+        <f t="shared" si="2"/>
         <v>44378</v>
       </c>
       <c r="H65">
         <v>2019</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -3086,26 +3093,26 @@
         <v>17</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E66" s="1">
         <v>44013</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G66" s="1">
-        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
+        <f t="shared" si="2"/>
         <v>44378</v>
       </c>
       <c r="H66">
         <v>2019</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -3113,51 +3120,51 @@
         <v>19</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E67" s="1">
         <v>44013</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G67" s="1">
-        <f>DATE(YEAR(E67)+1,MONTH(E67),DAY(E67))</f>
+        <f t="shared" si="2"/>
         <v>44378</v>
       </c>
       <c r="H67">
         <v>2019</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B68" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="1">
         <v>44044</v>
       </c>
       <c r="F68" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G68" s="1">
-        <f>DATE(YEAR(E68)+1,MONTH(E68),DAY(E68))</f>
+        <f t="shared" si="2"/>
         <v>44409</v>
       </c>
       <c r="H68">
         <v>2019</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -3171,13 +3178,13 @@
         <v>43916</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H69">
         <v>2018</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>29</v>
       </c>
@@ -3192,105 +3199,105 @@
         <v>43466</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H70">
         <v>2018</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B71" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B72" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B73" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E73" s="13">
         <v>43546</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B74" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E74" s="1">
         <v>43435</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H74">
         <v>2018</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E75" s="1">
         <v>43447</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H75">
         <v>2018</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B76" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C76" t="s">
         <v>25</v>
@@ -3306,109 +3313,102 @@
     <hyperlink ref="C39" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="C28" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="C40" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C41" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C31" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D43" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C54" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C32" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C3" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C49" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C35" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C36" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C37" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C59" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C60" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C47" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C52" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C75" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C56" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C46" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D44" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C30" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C55" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D6" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D7" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D23" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D64" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D6:D8" r:id="rId38" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D8" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D9" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D58" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D63" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D39" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D14" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D16" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D17" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D40" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D18" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D25" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D41" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D19" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D20" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D21" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D22" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D32" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D47" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D75" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D56" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D33" r:id="rId60" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D46" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D12" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D38" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D10" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D26" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D5" r:id="rId66" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D74" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C74" r:id="rId68" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C34" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D66" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D67" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C6" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C7" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D48" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D28" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C12" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="C10" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="D30" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D31" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C43" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D54" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D3" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D59" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D55" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D52" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D27" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C48" r:id="rId87" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
-    <hyperlink ref="D73" r:id="rId88" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
-    <hyperlink ref="C73" r:id="rId89" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
-    <hyperlink ref="C71" r:id="rId90" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D53" r:id="rId91" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C72" r:id="rId92" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
-    <hyperlink ref="D57" r:id="rId93" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
-    <hyperlink ref="C57" r:id="rId94" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
-    <hyperlink ref="D45" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C45" r:id="rId96" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
-    <hyperlink ref="C5" r:id="rId97" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D24" r:id="rId98" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="C24" r:id="rId99" xr:uid="{14956B9F-2D6F-454A-BE7E-7F912ECE1928}"/>
-    <hyperlink ref="D15" r:id="rId100" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="C50" r:id="rId101" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
-    <hyperlink ref="D50" r:id="rId102" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
-    <hyperlink ref="C68" r:id="rId103" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
-    <hyperlink ref="C64" r:id="rId104" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="C17" r:id="rId105" xr:uid="{6C26AF84-01DD-4C9D-8F5D-B545CAD85FD9}"/>
+    <hyperlink ref="C41" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C31" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D43" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C54" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C32" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C3" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C49" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C35" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C36" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C37" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C59" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C60" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C47" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C52" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C75" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C56" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C46" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D44" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C55" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D6" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D7" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D23" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D64" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D6:D8" r:id="rId33" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D8" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D9" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D58" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D63" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D14" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D16" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D17" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D40" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D18" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D25" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D41" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D19" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D20" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D21" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D22" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D29" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D32" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D47" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D75" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D33" r:id="rId55" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D46" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D12" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D38" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D10" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D26" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D5" r:id="rId61" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D74" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C74" r:id="rId63" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C34" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C6" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C7" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D48" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D28" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D30" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D31" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C43" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D54" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D3" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D59" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D55" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D52" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D27" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C48" r:id="rId80" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
+    <hyperlink ref="D73" r:id="rId81" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
+    <hyperlink ref="C73" r:id="rId82" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
+    <hyperlink ref="C71" r:id="rId83" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
+    <hyperlink ref="D53" r:id="rId84" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="C72" r:id="rId85" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D57" r:id="rId86" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
+    <hyperlink ref="C57" r:id="rId87" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
+    <hyperlink ref="D45" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C45" r:id="rId89" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
+    <hyperlink ref="C5" r:id="rId90" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
+    <hyperlink ref="D24" r:id="rId91" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="D15" r:id="rId92" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="C50" r:id="rId93" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
+    <hyperlink ref="D50" r:id="rId94" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="C68" r:id="rId95" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
+    <hyperlink ref="C64" r:id="rId96" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
+    <hyperlink ref="C8" r:id="rId97" xr:uid="{C1BFBDB0-2B35-4AD8-AF91-B4076067FC65}"/>
+    <hyperlink ref="C24" r:id="rId98" xr:uid="{14956B9F-2D6F-454A-BE7E-7F912ECE1928}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId106"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId99"/>
   <tableParts count="1">
-    <tablePart r:id="rId107"/>
+    <tablePart r:id="rId100"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC58CE6D-9357-4627-ADD9-6DE58AA4A13F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8A177E-F300-462C-B873-374179527943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="271">
   <si>
     <t>Code</t>
   </si>
@@ -730,9 +730,6 @@
   </si>
   <si>
     <t>https://www.gov.uk/government/statistics/regional-renewable-statistics</t>
-  </si>
-  <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/834143/Regional_statistics__2003-2018__-_number_of_sites.xls</t>
   </si>
   <si>
     <t>BEIS: Number of sites generating electricity from renewable sources</t>
@@ -1557,7 +1554,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>155</v>
@@ -1584,7 +1581,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>156</v>
@@ -1611,7 +1608,7 @@
         <v>47</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>161</v>
@@ -1638,7 +1635,7 @@
         <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>161</v>
@@ -1665,7 +1662,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>181</v>
@@ -1692,7 +1689,7 @@
         <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>161</v>
@@ -1719,7 +1716,7 @@
         <v>55</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>162</v>
@@ -1740,13 +1737,13 @@
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" t="s">
         <v>237</v>
       </c>
-      <c r="B15" t="s">
-        <v>238</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>234</v>
@@ -1770,7 +1767,7 @@
         <v>57</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>163</v>
@@ -1797,7 +1794,7 @@
         <v>59</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>164</v>
@@ -1824,7 +1821,7 @@
         <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>166</v>
@@ -1878,7 +1875,7 @@
         <v>73</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>152</v>
@@ -1905,7 +1902,7 @@
         <v>75</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>152</v>
@@ -1932,7 +1929,7 @@
         <v>77</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>170</v>
@@ -1983,23 +1980,23 @@
         <v>233</v>
       </c>
       <c r="B24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>234</v>
       </c>
       <c r="E24" s="1">
-        <v>43734</v>
+        <v>44075</v>
       </c>
       <c r="F24" t="s">
         <v>184</v>
       </c>
       <c r="G24" s="1">
         <f>DATE(YEAR(E24)+1,MONTH(E24),DAY(E24))</f>
-        <v>44100</v>
+        <v>44440</v>
       </c>
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
@@ -2010,7 +2007,7 @@
         <v>66</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>167</v>
@@ -2118,7 +2115,7 @@
         <v>79</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>170</v>
@@ -2226,7 +2223,7 @@
         <v>136</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>178</v>
@@ -2669,16 +2666,16 @@
     </row>
     <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>238</v>
+      </c>
+      <c r="B50" t="s">
         <v>239</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="E50" s="1">
         <v>44013</v>
@@ -2958,10 +2955,10 @@
         <v>119</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E61" s="1">
         <v>43993</v>
@@ -2985,10 +2982,10 @@
         <v>121</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="E62" s="1">
         <v>43993</v>
@@ -3012,7 +3009,7 @@
         <v>39</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>158</v>
@@ -3039,7 +3036,7 @@
         <v>13</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>153</v>
@@ -3066,7 +3063,7 @@
         <v>15</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>153</v>
@@ -3093,7 +3090,7 @@
         <v>17</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>153</v>
@@ -3120,7 +3117,7 @@
         <v>19</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>153</v>
@@ -3141,13 +3138,13 @@
     </row>
     <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>243</v>
+      </c>
+      <c r="B68" t="s">
         <v>244</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>246</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="1">
@@ -3294,10 +3291,10 @@
     </row>
     <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C76" t="s">
         <v>25</v>
@@ -3403,12 +3400,11 @@
     <hyperlink ref="C68" r:id="rId95" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
     <hyperlink ref="C64" r:id="rId96" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
     <hyperlink ref="C8" r:id="rId97" xr:uid="{C1BFBDB0-2B35-4AD8-AF91-B4076067FC65}"/>
-    <hyperlink ref="C24" r:id="rId98" xr:uid="{14956B9F-2D6F-454A-BE7E-7F912ECE1928}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId99"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId98"/>
   <tableParts count="1">
-    <tablePart r:id="rId100"/>
+    <tablePart r:id="rId99"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8A177E-F300-462C-B873-374179527943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2D68AE-2791-4CCF-A178-3E9DE3882F54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>BEIS: Combined Heat and Power in Scotland, Wales, Northern Ireland and the regions of England, Energy Trends</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/834160/CHP_Regional_2018.pdf</t>
-  </si>
-  <si>
     <t>BEISDUKES</t>
   </si>
   <si>
@@ -838,6 +835,9 @@
   </si>
   <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/920753/residual-fuels-2005-2018.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/920646/CHP_Regional_2019.pdf</t>
   </si>
 </sst>
 </file>
@@ -1347,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1371,10 +1371,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" t="s">
         <v>150</v>
-      </c>
-      <c r="D1" t="s">
-        <v>151</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1383,7 +1383,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -1391,48 +1391,48 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E2" s="1">
         <v>43916</v>
       </c>
       <c r="F2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G2" s="1">
         <v>44008</v>
       </c>
       <c r="H2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
         <v>92</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E3" s="1">
         <v>43922</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G3" s="1">
         <f>DATE(YEAR(E3),MONTH(E3)+3,DAY(E3))</f>
@@ -1444,20 +1444,20 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
         <v>137</v>
       </c>
-      <c r="B4" t="s">
-        <v>138</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="1">
         <v>43950</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G4" s="1">
         <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
@@ -1469,22 +1469,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
         <v>142</v>
       </c>
-      <c r="B5" t="s">
-        <v>143</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E5" s="1">
         <v>43950</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G5" s="1">
         <f>DATE(YEAR(E5),MONTH(E5)+3,DAY(E5))</f>
@@ -1502,16 +1502,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E6" s="1">
         <v>43983</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G6" s="1">
         <v>44166</v>
@@ -1528,16 +1528,16 @@
         <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E7" s="1">
         <v>43983</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G7" s="1">
         <v>44166</v>
@@ -1548,22 +1548,22 @@
     </row>
     <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
       <c r="C8" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E8" s="1">
         <v>44075</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G8" s="1">
         <f>DATE(YEAR(E8),MONTH(E8)+1,DAY(E8))</f>
@@ -1575,22 +1575,22 @@
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" s="1">
         <v>44075</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" ref="G9:G14" si="0">DATE(YEAR(E9),MONTH(E9)+3,DAY(E9))</f>
@@ -1602,22 +1602,22 @@
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E10" s="1">
         <v>44075</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
@@ -1629,22 +1629,22 @@
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E11" s="1">
         <v>44075</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
@@ -1656,22 +1656,22 @@
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
       <c r="C12" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E12" s="1">
         <v>44075</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
@@ -1683,22 +1683,22 @@
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
         <v>52</v>
       </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E13" s="1">
         <v>44075</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
@@ -1710,22 +1710,22 @@
     </row>
     <row r="14" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
         <v>54</v>
       </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
       <c r="C14" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E14" s="1">
         <v>44075</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
@@ -1737,22 +1737,22 @@
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" t="s">
         <v>236</v>
       </c>
-      <c r="B15" t="s">
-        <v>237</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E15" s="1">
         <v>44075</v>
       </c>
       <c r="F15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G15" s="1">
         <f>DATE(YEAR(E15)+1,MONTH(E15),DAY(E15))</f>
@@ -1761,22 +1761,22 @@
     </row>
     <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
         <v>56</v>
       </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
       <c r="C16" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E16" s="1">
         <v>44075</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G16" s="1">
         <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
@@ -1788,22 +1788,22 @@
     </row>
     <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
         <v>58</v>
       </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
       <c r="C17" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E17" s="1">
         <v>44075</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G17" s="1">
         <f>DATE(YEAR(E17),MONTH(E17)+1,DAY(E17))</f>
@@ -1815,22 +1815,22 @@
     </row>
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
         <v>63</v>
       </c>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E18" s="1">
         <v>44075</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G18" s="1">
         <f>DATE(YEAR(E18)+1,MONTH(E18),DAY(E18))</f>
@@ -1842,22 +1842,22 @@
     </row>
     <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
         <v>69</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="D19" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E19" s="1">
         <v>44013</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G19" s="1">
         <f>DATE(YEAR(E19),MONTH(E19)+12,DAY(E19))</f>
@@ -1869,22 +1869,22 @@
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
         <v>72</v>
       </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
       <c r="C20" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E20" s="1">
         <v>44075</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G20" s="1">
         <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
@@ -1896,22 +1896,22 @@
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
         <v>74</v>
       </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
       <c r="C21" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E21" s="1">
         <v>44075</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G21" s="1">
         <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
@@ -1923,22 +1923,22 @@
     </row>
     <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
         <v>76</v>
       </c>
-      <c r="B22" t="s">
-        <v>77</v>
-      </c>
       <c r="C22" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E22" s="1">
         <v>44075</v>
       </c>
       <c r="F22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G22" s="1">
         <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
@@ -1948,7 +1948,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1956,43 +1956,43 @@
         <v>10</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E23" s="1">
-        <v>43734</v>
+        <v>44075</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G23" s="1">
         <f>DATE(YEAR(E23)+1,MONTH(E23),DAY(E23))</f>
-        <v>44100</v>
+        <v>44440</v>
       </c>
       <c r="H23">
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B24" t="s">
-        <v>235</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="E24" s="1">
         <v>44075</v>
       </c>
       <c r="F24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G24" s="1">
         <f>DATE(YEAR(E24)+1,MONTH(E24),DAY(E24))</f>
@@ -2001,22 +2001,22 @@
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
         <v>65</v>
       </c>
-      <c r="B25" t="s">
-        <v>66</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E25" s="1">
         <v>44075</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G25" s="1">
         <f>DATE(YEAR(E25)+1,MONTH(E25),DAY(E25))</f>
@@ -2028,22 +2028,22 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s">
         <v>112</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="D26" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E26" s="1">
         <v>43734</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G26" s="1">
         <f>DATE(YEAR(E26)+1,MONTH(E26),DAY(E26))</f>
@@ -2055,22 +2055,22 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" t="s">
         <v>130</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="D27" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E27" s="1">
         <v>43734</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G27" s="1">
         <f>DATE(YEAR(E27)+1,MONTH(E27),DAY(E27))</f>
@@ -2082,22 +2082,22 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
         <v>43</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D28" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E28" s="1">
         <v>44070</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G28" s="1">
         <f>DATE(YEAR(E28),MONTH(E28)+1,DAY(E28))</f>
@@ -2109,22 +2109,22 @@
     </row>
     <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
         <v>78</v>
       </c>
-      <c r="B29" t="s">
-        <v>79</v>
-      </c>
       <c r="C29" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E29" s="1">
         <v>44075</v>
       </c>
       <c r="F29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G29" s="1">
         <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
@@ -2136,22 +2136,22 @@
     </row>
     <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" t="s">
         <v>146</v>
       </c>
-      <c r="B30" t="s">
-        <v>147</v>
-      </c>
       <c r="C30" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E30" s="1">
         <v>44013</v>
       </c>
       <c r="F30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G30" s="1">
         <f>DATE(YEAR(E30),MONTH(E30)+3,DAY(E30))</f>
@@ -2163,22 +2163,22 @@
     </row>
     <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
         <v>80</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="D31" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E31" s="1">
         <v>44075</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G31" s="1">
         <f>DATE(YEAR(E31),MONTH(E31)+1,DAY(E31))</f>
@@ -2190,22 +2190,22 @@
     </row>
     <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
         <v>89</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="D32" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E32" s="1">
         <v>43739</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G32" s="1">
         <f>DATE(YEAR(E32)+1,MONTH(E32),DAY(E32))</f>
@@ -2217,22 +2217,22 @@
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" t="s">
         <v>135</v>
       </c>
-      <c r="B33" t="s">
-        <v>136</v>
-      </c>
       <c r="C33" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E33" s="1">
         <v>44041</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G33" s="1">
         <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
@@ -2244,20 +2244,20 @@
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" t="s">
         <v>190</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="1">
         <v>43770</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G34" s="1">
         <f>DATE(YEAR(E34)+1,MONTH(E34),DAY(E34))</f>
@@ -2269,20 +2269,20 @@
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" t="s">
         <v>98</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="1">
         <v>44075</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G35" s="1">
         <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
@@ -2294,20 +2294,20 @@
     </row>
     <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" t="s">
         <v>101</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="1">
         <v>44075</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G36" s="1">
         <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
@@ -2319,20 +2319,20 @@
     </row>
     <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" t="s">
         <v>104</v>
       </c>
-      <c r="B37" t="s">
-        <v>105</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="1">
         <v>44075</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G37" s="1">
         <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
@@ -2344,22 +2344,22 @@
     </row>
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
         <v>20</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D38" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E38" s="1">
         <v>43800</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" ref="G38:G49" si="1">DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
@@ -2371,22 +2371,22 @@
     </row>
     <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
         <v>40</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D39" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E39" s="1">
         <v>43800</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="1"/>
@@ -2398,22 +2398,22 @@
     </row>
     <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" t="s">
         <v>60</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D40" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E40" s="1">
         <v>43800</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="1"/>
@@ -2425,22 +2425,22 @@
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
         <v>67</v>
       </c>
-      <c r="B41" t="s">
-        <v>68</v>
-      </c>
       <c r="C41" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E41" s="1">
         <v>43800</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="1"/>
@@ -2452,22 +2452,22 @@
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
         <v>26</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="D42" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E42" s="1">
         <v>43818</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="1"/>
@@ -2479,22 +2479,22 @@
     </row>
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
         <v>83</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E43" s="1">
         <v>43831</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="1"/>
@@ -2506,22 +2506,22 @@
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B44" t="s">
-        <v>144</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="E44" s="1">
         <v>43831</v>
       </c>
       <c r="F44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="1"/>
@@ -2533,22 +2533,22 @@
     </row>
     <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" t="s">
         <v>133</v>
       </c>
-      <c r="B45" t="s">
-        <v>134</v>
-      </c>
       <c r="C45" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E45" s="1">
         <v>43831</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="1"/>
@@ -2560,22 +2560,22 @@
     </row>
     <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" t="s">
         <v>139</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="D46" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E46" s="1">
         <v>43831</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" si="1"/>
@@ -2587,22 +2587,22 @@
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s">
         <v>115</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="D47" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E47" s="1">
         <v>43846</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="1"/>
@@ -2614,22 +2614,22 @@
     </row>
     <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B48" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="D48" s="10" t="s">
         <v>200</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>201</v>
       </c>
       <c r="E48" s="11">
         <v>43862</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G48" s="11">
         <f t="shared" si="1"/>
@@ -2641,20 +2641,20 @@
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
         <v>95</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="1">
         <v>43862</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="1"/>
@@ -2666,16 +2666,16 @@
     </row>
     <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>237</v>
+      </c>
+      <c r="B50" t="s">
         <v>238</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="E50" s="1">
         <v>44013</v>
@@ -2687,20 +2687,20 @@
     </row>
     <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>192</v>
+      </c>
+      <c r="B51" t="s">
         <v>193</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="1">
         <v>43862</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G51" s="1">
         <f>DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
@@ -2712,22 +2712,22 @@
     </row>
     <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" t="s">
         <v>122</v>
       </c>
-      <c r="B52" t="s">
-        <v>123</v>
-      </c>
       <c r="C52" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E52" s="1">
         <v>43885</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G52" s="1">
         <f>DATE(YEAR(E52),MONTH(E52)+12,DAY(E52))</f>
@@ -2739,22 +2739,22 @@
     </row>
     <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>218</v>
+      </c>
+      <c r="B53" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B53" t="s">
-        <v>218</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>220</v>
-      </c>
       <c r="D53" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E53" s="1">
         <v>43889</v>
       </c>
       <c r="F53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G53" s="1">
         <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
@@ -2766,22 +2766,22 @@
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" t="s">
         <v>86</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D54" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E54" s="1">
         <v>43831</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G54" s="1">
         <v>44256</v>
@@ -2792,22 +2792,22 @@
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" t="s">
         <v>148</v>
       </c>
-      <c r="B55" t="s">
-        <v>149</v>
-      </c>
       <c r="C55" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E55" s="1">
         <v>43891</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" ref="G55:G68" si="2">DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
@@ -2819,22 +2819,22 @@
     </row>
     <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" t="s">
         <v>127</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D56" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E56" s="1">
         <v>43891</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" si="2"/>
@@ -2846,22 +2846,22 @@
     </row>
     <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>225</v>
+      </c>
+      <c r="B57" t="s">
         <v>226</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="E57" s="1">
         <v>43908</v>
       </c>
       <c r="F57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" si="2"/>
@@ -2870,22 +2870,22 @@
     </row>
     <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" t="s">
         <v>35</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D58" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E58" s="1">
         <v>43983</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G58" s="1">
         <f t="shared" si="2"/>
@@ -2897,22 +2897,22 @@
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" t="s">
         <v>106</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="D59" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E59" s="1">
         <v>43983</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G59" s="1">
         <f t="shared" si="2"/>
@@ -2924,20 +2924,20 @@
     </row>
     <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" t="s">
         <v>109</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="1">
         <v>43983</v>
       </c>
       <c r="F60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G60" s="1">
         <f t="shared" si="2"/>
@@ -2949,22 +2949,22 @@
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" t="s">
         <v>118</v>
       </c>
-      <c r="B61" t="s">
-        <v>119</v>
-      </c>
       <c r="C61" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E61" s="1">
         <v>43993</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G61" s="1">
         <f t="shared" si="2"/>
@@ -2976,22 +2976,22 @@
     </row>
     <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" t="s">
         <v>120</v>
       </c>
-      <c r="B62" t="s">
-        <v>121</v>
-      </c>
       <c r="C62" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="E62" s="1">
         <v>43993</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G62" s="1">
         <f t="shared" si="2"/>
@@ -3003,22 +3003,22 @@
     </row>
     <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" t="s">
         <v>38</v>
       </c>
-      <c r="B63" t="s">
-        <v>39</v>
-      </c>
       <c r="C63" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E63" s="1">
         <v>44009</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G63" s="1">
         <f t="shared" si="2"/>
@@ -3030,22 +3030,22 @@
     </row>
     <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
         <v>12</v>
       </c>
-      <c r="B64" t="s">
-        <v>13</v>
-      </c>
       <c r="C64" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E64" s="1">
         <v>44013</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G64" s="1">
         <f t="shared" si="2"/>
@@ -3057,22 +3057,22 @@
     </row>
     <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
         <v>14</v>
       </c>
-      <c r="B65" t="s">
-        <v>15</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E65" s="1">
         <v>44013</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G65" s="1">
         <f t="shared" si="2"/>
@@ -3084,22 +3084,22 @@
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" t="s">
         <v>16</v>
       </c>
-      <c r="B66" t="s">
-        <v>17</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E66" s="1">
         <v>44013</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" si="2"/>
@@ -3111,22 +3111,22 @@
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
         <v>18</v>
       </c>
-      <c r="B67" t="s">
-        <v>19</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E67" s="1">
         <v>44013</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G67" s="1">
         <f t="shared" si="2"/>
@@ -3138,20 +3138,20 @@
     </row>
     <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>242</v>
+      </c>
+      <c r="B68" t="s">
         <v>243</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="1">
         <v>44044</v>
       </c>
       <c r="F68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G68" s="1">
         <f t="shared" si="2"/>
@@ -3163,19 +3163,19 @@
     </row>
     <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" t="s">
         <v>23</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>24</v>
-      </c>
-      <c r="C69" t="s">
-        <v>25</v>
       </c>
       <c r="E69" s="1">
         <v>43916</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H69">
         <v>2018</v>
@@ -3183,20 +3183,20 @@
     </row>
     <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" t="s">
         <v>29</v>
       </c>
-      <c r="B70" t="s">
-        <v>30</v>
-      </c>
       <c r="C70" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="1">
         <v>43466</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H70">
         <v>2018</v>
@@ -3204,40 +3204,40 @@
     </row>
     <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D71" s="6"/>
     </row>
     <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>221</v>
+      </c>
+      <c r="B72" t="s">
         <v>222</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="D72" s="7"/>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>210</v>
+      </c>
+      <c r="B73" t="s">
         <v>211</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="E73" s="13">
         <v>43546</v>
@@ -3245,22 +3245,22 @@
     </row>
     <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>186</v>
+      </c>
+      <c r="B74" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="B74" t="s">
-        <v>125</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="E74" s="1">
         <v>43435</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H74">
         <v>2018</v>
@@ -3268,22 +3268,22 @@
     </row>
     <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" t="s">
         <v>124</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="D75" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E75" s="1">
         <v>43447</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H75">
         <v>2018</v>
@@ -3291,120 +3291,119 @@
     </row>
     <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D76" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C23" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C38" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C42" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C58" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C39" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C28" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C40" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C41" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C31" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D43" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C54" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C32" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C3" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C49" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C35" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C36" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C37" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C59" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C60" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C47" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C52" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C75" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C56" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C46" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D44" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C55" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D6" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D7" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D23" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D64" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D6:D8" r:id="rId33" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D8" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D9" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D58" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D63" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D14" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D16" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D17" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D40" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D18" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D25" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D41" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D19" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D20" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D21" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D22" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D29" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D32" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D47" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D75" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D33" r:id="rId55" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D46" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D12" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D38" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D10" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D26" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D5" r:id="rId61" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D74" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C74" r:id="rId63" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C34" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C6" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C7" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D48" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D28" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D30" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D31" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C43" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D54" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D3" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D59" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D55" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D52" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D27" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C48" r:id="rId80" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
-    <hyperlink ref="D73" r:id="rId81" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
-    <hyperlink ref="C73" r:id="rId82" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
-    <hyperlink ref="C71" r:id="rId83" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D53" r:id="rId84" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C72" r:id="rId85" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
-    <hyperlink ref="D57" r:id="rId86" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
-    <hyperlink ref="C57" r:id="rId87" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
-    <hyperlink ref="D45" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C45" r:id="rId89" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
-    <hyperlink ref="C5" r:id="rId90" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D24" r:id="rId91" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="D15" r:id="rId92" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="C50" r:id="rId93" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
-    <hyperlink ref="D50" r:id="rId94" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
-    <hyperlink ref="C68" r:id="rId95" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
-    <hyperlink ref="C64" r:id="rId96" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="C8" r:id="rId97" xr:uid="{C1BFBDB0-2B35-4AD8-AF91-B4076067FC65}"/>
+    <hyperlink ref="C38" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C42" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C58" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C39" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C28" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C40" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C41" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C31" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D43" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C54" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C3" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C49" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C35" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C36" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C37" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C59" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C60" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C47" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C52" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C75" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C56" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C46" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D44" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C55" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D6" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D7" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D23" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D64" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D6:D8" r:id="rId32" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D8" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D9" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D58" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D63" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D14" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D16" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D17" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D40" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D18" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D25" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D41" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D19" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D20" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D21" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D22" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D29" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D32" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D47" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D75" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D56" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D33" r:id="rId54" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D46" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D12" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D38" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D10" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D26" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D5" r:id="rId60" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D74" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C74" r:id="rId62" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C34" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D66" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D67" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C6" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C7" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D48" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D28" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D30" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D31" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C43" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D54" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D3" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D59" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D55" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D52" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D27" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C48" r:id="rId79" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
+    <hyperlink ref="D73" r:id="rId80" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
+    <hyperlink ref="C73" r:id="rId81" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
+    <hyperlink ref="C71" r:id="rId82" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
+    <hyperlink ref="D53" r:id="rId83" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="C72" r:id="rId84" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D57" r:id="rId85" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
+    <hyperlink ref="C57" r:id="rId86" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
+    <hyperlink ref="D45" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C45" r:id="rId88" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
+    <hyperlink ref="C5" r:id="rId89" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
+    <hyperlink ref="D24" r:id="rId90" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="D15" r:id="rId91" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="C50" r:id="rId92" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
+    <hyperlink ref="D50" r:id="rId93" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="C68" r:id="rId94" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
+    <hyperlink ref="C64" r:id="rId95" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
+    <hyperlink ref="C8" r:id="rId96" xr:uid="{C1BFBDB0-2B35-4AD8-AF91-B4076067FC65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId98"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId97"/>
   <tableParts count="1">
-    <tablePart r:id="rId99"/>
+    <tablePart r:id="rId98"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2D68AE-2791-4CCF-A178-3E9DE3882F54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9788F2F7-3F6A-45C0-95AE-266483722BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="272">
   <si>
     <t>Code</t>
   </si>
@@ -838,6 +838,9 @@
   </si>
   <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/920646/CHP_Regional_2019.pdf</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/920657/Regional_renewables__2003-2019__-_number_of_sites.xls</t>
   </si>
 </sst>
 </file>
@@ -1023,10 +1026,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H76" totalsRowShown="0">
   <autoFilter ref="A1:H76" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="6">
+    <filterColumn colId="4">
       <filters>
-        <dateGroupItem year="2020" month="6" dateTimeGrouping="month"/>
-        <dateGroupItem year="2020" month="7" dateTimeGrouping="month"/>
         <dateGroupItem year="2020" month="9" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
@@ -1347,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1389,7 +1390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>224</v>
       </c>
@@ -1415,7 +1416,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1442,7 +1443,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -1467,7 +1468,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>141</v>
       </c>
@@ -1546,7 +1547,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1573,7 +1574,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1600,7 +1601,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1654,7 +1655,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1681,7 +1682,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1735,7 +1736,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>235</v>
       </c>
@@ -1759,7 +1760,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1786,7 +1787,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -1813,7 +1814,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -1867,7 +1868,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -1894,7 +1895,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -1921,7 +1922,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -1948,7 +1949,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>232</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>234</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>233</v>
@@ -1999,7 +2000,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>111</v>
       </c>
@@ -2053,7 +2054,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>129</v>
       </c>
@@ -2080,7 +2081,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -2107,7 +2108,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -2161,7 +2162,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -2267,7 +2268,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -2292,7 +2293,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -2317,7 +2318,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>103</v>
       </c>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9788F2F7-3F6A-45C0-95AE-266483722BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024E5AC0-3B6C-4FF1-BF3E-6DAA8AF8ECCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="276">
   <si>
     <t>Code</t>
   </si>
@@ -841,6 +841,18 @@
   </si>
   <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/920657/Regional_renewables__2003-2019__-_number_of_sites.xls</t>
+  </si>
+  <si>
+    <t>OGFGEMdrhi</t>
+  </si>
+  <si>
+    <t>OFGEM: Domestic Renewable Heat Incentive</t>
+  </si>
+  <si>
+    <t>https://www.ofgem.gov.uk/system/files/docs/2020/08/drhi_quarterly_report_issue_25_aug20.pdf</t>
+  </si>
+  <si>
+    <t>https://www.ofgem.gov.uk/environmental-programmes/domestic-rhi</t>
   </si>
 </sst>
 </file>
@@ -1024,16 +1036,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H76" totalsRowShown="0">
-  <autoFilter ref="A1:H76" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="4">
-      <filters>
-        <dateGroupItem year="2020" month="9" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H76">
-    <sortCondition ref="G1:G76"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H77" totalsRowShown="0">
+  <autoFilter ref="A1:H77" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H77">
+    <sortCondition ref="A1:A77"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Code"/>
@@ -1346,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1390,7 +1396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>224</v>
       </c>
@@ -1416,132 +1422,134 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>205</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="E3" s="1">
-        <v>43922</v>
+        <v>43983</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>182</v>
       </c>
       <c r="G3" s="1">
-        <f>DATE(YEAR(E3),MONTH(E3)+3,DAY(E3))</f>
-        <v>44013</v>
+        <v>44166</v>
       </c>
       <c r="H3">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="E4" s="1">
-        <v>43950</v>
+        <v>43983</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>182</v>
       </c>
       <c r="G4" s="1">
-        <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
-        <v>44041</v>
+        <v>44166</v>
       </c>
       <c r="H4">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>231</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="E5" s="1">
-        <v>43950</v>
+        <v>44075</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G5" s="1">
-        <f>DATE(YEAR(E5),MONTH(E5)+3,DAY(E5))</f>
-        <v>44041</v>
+        <f>DATE(YEAR(E5)+1,MONTH(E5),DAY(E5))</f>
+        <v>44440</v>
       </c>
       <c r="H5">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E6" s="1">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G6" s="1">
-        <v>44166</v>
+        <f>DATE(YEAR(E6)+1,MONTH(E6),DAY(E6))</f>
+        <v>44378</v>
       </c>
       <c r="H6">
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>181</v>
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E7" s="1">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G7" s="1">
-        <v>44166</v>
+        <f>DATE(YEAR(E7)+1,MONTH(E7),DAY(E7))</f>
+        <v>44378</v>
       </c>
       <c r="H7">
         <v>2019</v>
@@ -1549,229 +1557,220 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>255</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E8" s="1">
-        <v>44075</v>
+        <v>44013</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G8" s="1">
-        <f>DATE(YEAR(E8),MONTH(E8)+1,DAY(E8))</f>
-        <v>44105</v>
-      </c>
-      <c r="H8" s="8">
-        <v>43800</v>
+        <f>DATE(YEAR(E8)+1,MONTH(E8),DAY(E8))</f>
+        <v>44378</v>
+      </c>
+      <c r="H8">
+        <v>2019</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E9" s="1">
-        <v>44075</v>
+        <v>44013</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ref="G9:G14" si="0">DATE(YEAR(E9),MONTH(E9)+3,DAY(E9))</f>
-        <v>44166</v>
-      </c>
-      <c r="H9" s="8">
-        <v>43800</v>
+        <f>DATE(YEAR(E9)+1,MONTH(E9),DAY(E9))</f>
+        <v>44378</v>
+      </c>
+      <c r="H9">
+        <v>2019</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="1">
-        <v>44075</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>44166</v>
-      </c>
-      <c r="H10" s="8">
-        <v>43800</v>
+      <c r="A10" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" s="11">
+        <v>43862</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="11">
+        <f>DATE(YEAR(E10)+1,MONTH(E10),DAY(E10))</f>
+        <v>44228</v>
+      </c>
+      <c r="H10" s="9">
+        <v>2018</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>160</v>
+        <v>21</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="E11" s="1">
-        <v>44075</v>
+        <v>43800</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E11)+1,MONTH(E11),DAY(E11))</f>
         <v>44166</v>
       </c>
-      <c r="H11" s="8">
-        <v>43800</v>
+      <c r="H11">
+        <v>2018</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>180</v>
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
       </c>
       <c r="E12" s="1">
-        <v>44075</v>
+        <v>43916</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>44166</v>
-      </c>
-      <c r="H12" s="8">
-        <v>43800</v>
+        <v>183</v>
+      </c>
+      <c r="H12">
+        <v>2018</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>160</v>
+        <v>27</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="E13" s="1">
-        <v>44075</v>
+        <v>43818</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>44166</v>
-      </c>
-      <c r="H13" s="8">
-        <v>43800</v>
+        <f>DATE(YEAR(E13)+1,MONTH(E13),DAY(E13))</f>
+        <v>44184</v>
+      </c>
+      <c r="H13">
+        <v>2018</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>161</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="1">
-        <v>44075</v>
+        <v>43466</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>44166</v>
-      </c>
-      <c r="H14" s="8">
-        <v>43800</v>
+        <v>183</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14">
+        <v>2018</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>233</v>
+        <v>31</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E15" s="1">
         <v>44075</v>
       </c>
-      <c r="F15" t="s">
-        <v>183</v>
+      <c r="F15" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="G15" s="1">
-        <f>DATE(YEAR(E15)+1,MONTH(E15),DAY(E15))</f>
-        <v>44440</v>
+        <f>DATE(YEAR(E15),MONTH(E15)+1,DAY(E15))</f>
+        <v>44105</v>
+      </c>
+      <c r="H15" s="8">
+        <v>43800</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>250</v>
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E16" s="1">
         <v>44075</v>
@@ -1783,162 +1782,162 @@
         <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
         <v>44166</v>
       </c>
-      <c r="H16" s="1">
-        <v>43891</v>
+      <c r="H16" s="8">
+        <v>43800</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>263</v>
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E17" s="1">
-        <v>44075</v>
+        <v>43983</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G17" s="1">
-        <f>DATE(YEAR(E17),MONTH(E17)+1,DAY(E17))</f>
-        <v>44105</v>
-      </c>
-      <c r="H17" s="8">
-        <v>44013</v>
+        <f>DATE(YEAR(E17)+1,MONTH(E17),DAY(E17))</f>
+        <v>44348</v>
+      </c>
+      <c r="H17">
+        <v>2017</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>165</v>
+        <v>217</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="E18" s="1">
-        <v>44075</v>
-      </c>
-      <c r="F18" s="3" t="s">
+        <v>43889</v>
+      </c>
+      <c r="F18" t="s">
         <v>183</v>
       </c>
       <c r="G18" s="1">
         <f>DATE(YEAR(E18)+1,MONTH(E18),DAY(E18))</f>
-        <v>44440</v>
+        <v>44255</v>
       </c>
       <c r="H18">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E19" s="1">
-        <v>44013</v>
+        <v>44009</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>183</v>
       </c>
       <c r="G19" s="1">
-        <f>DATE(YEAR(E19),MONTH(E19)+12,DAY(E19))</f>
-        <v>44378</v>
+        <f>DATE(YEAR(E19)+1,MONTH(E19),DAY(E19))</f>
+        <v>44374</v>
       </c>
       <c r="H19">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>265</v>
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E20" s="1">
-        <v>44075</v>
+        <v>43800</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G20" s="1">
-        <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
+        <f>DATE(YEAR(E20)+1,MONTH(E20),DAY(E20))</f>
         <v>44166</v>
       </c>
       <c r="H20">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>266</v>
+        <v>43</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E21" s="1">
-        <v>44075</v>
+        <v>44070</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G21" s="1">
-        <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
-        <v>44166</v>
-      </c>
-      <c r="H21">
-        <v>2019</v>
+        <f>DATE(YEAR(E21),MONTH(E21)+1,DAY(E21))</f>
+        <v>44101</v>
+      </c>
+      <c r="H21" s="8">
+        <v>43831</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>169</v>
+        <v>257</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="E22" s="1">
         <v>44075</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="3" t="s">
         <v>182</v>
       </c>
       <c r="G22" s="1">
@@ -1946,364 +1945,367 @@
         <v>44166</v>
       </c>
       <c r="H22" s="8">
-        <v>43709</v>
+        <v>43800</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>197</v>
+        <v>258</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="E23" s="1">
         <v>44075</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G23" s="1">
-        <f>DATE(YEAR(E23)+1,MONTH(E23),DAY(E23))</f>
-        <v>44440</v>
-      </c>
-      <c r="H23">
-        <v>2018</v>
+        <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
+        <v>44166</v>
+      </c>
+      <c r="H23" s="8">
+        <v>43800</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>232</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>234</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>233</v>
+        <v>50</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="E24" s="1">
         <v>44075</v>
       </c>
-      <c r="F24" t="s">
-        <v>183</v>
+      <c r="F24" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="G24" s="1">
-        <f>DATE(YEAR(E24)+1,MONTH(E24),DAY(E24))</f>
-        <v>44440</v>
+        <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
+        <v>44166</v>
+      </c>
+      <c r="H24" s="8">
+        <v>43800</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>166</v>
+        <v>260</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="E25" s="1">
         <v>44075</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G25" s="1">
-        <f>DATE(YEAR(E25)+1,MONTH(E25),DAY(E25))</f>
-        <v>44440</v>
-      </c>
-      <c r="H25">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
+        <v>44166</v>
+      </c>
+      <c r="H25" s="8">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>113</v>
+        <v>54</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="E26" s="1">
-        <v>43734</v>
+        <v>44075</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G26" s="1">
-        <f>DATE(YEAR(E26)+1,MONTH(E26),DAY(E26))</f>
-        <v>44100</v>
-      </c>
-      <c r="H26">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
+        <v>44166</v>
+      </c>
+      <c r="H26" s="8">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>131</v>
+        <v>236</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>262</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="E27" s="1">
-        <v>43734</v>
-      </c>
-      <c r="F27" s="3" t="s">
+        <v>44075</v>
+      </c>
+      <c r="F27" t="s">
         <v>183</v>
       </c>
       <c r="G27" s="1">
         <f>DATE(YEAR(E27)+1,MONTH(E27),DAY(E27))</f>
-        <v>44100</v>
-      </c>
-      <c r="H27">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>159</v>
+        <v>234</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="E28" s="1">
-        <v>44070</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>184</v>
+        <v>44075</v>
+      </c>
+      <c r="F28" t="s">
+        <v>183</v>
       </c>
       <c r="G28" s="1">
-        <f>DATE(YEAR(E28),MONTH(E28)+1,DAY(E28))</f>
-        <v>44101</v>
-      </c>
-      <c r="H28" s="8">
-        <v>43831</v>
+        <f>DATE(YEAR(E28)+1,MONTH(E28),DAY(E28))</f>
+        <v>44440</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>169</v>
+        <v>250</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="E29" s="1">
         <v>44075</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="3" t="s">
         <v>182</v>
       </c>
       <c r="G29" s="1">
         <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
         <v>44166</v>
       </c>
-      <c r="H29" s="8">
-        <v>43709</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="H29" s="1">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>201</v>
+        <v>58</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="E30" s="1">
+        <v>44075</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G30" s="1">
+        <f>DATE(YEAR(E30),MONTH(E30)+1,DAY(E30))</f>
+        <v>44105</v>
+      </c>
+      <c r="H30" s="8">
         <v>44013</v>
-      </c>
-      <c r="F30" t="s">
-        <v>182</v>
-      </c>
-      <c r="G30" s="1">
-        <f>DATE(YEAR(E30),MONTH(E30)+3,DAY(E30))</f>
-        <v>44105</v>
-      </c>
-      <c r="H30">
-        <v>2019</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>202</v>
+        <v>60</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="E31" s="1">
+        <v>43800</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G31" s="1">
+        <f>DATE(YEAR(E31)+1,MONTH(E31),DAY(E31))</f>
+        <v>44166</v>
+      </c>
+      <c r="H31">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="1">
         <v>44075</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G31" s="1">
-        <f>DATE(YEAR(E31),MONTH(E31)+1,DAY(E31))</f>
-        <v>44105</v>
-      </c>
-      <c r="H31" s="8">
-        <v>44013</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E32" s="1">
-        <v>43739</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>183</v>
       </c>
       <c r="G32" s="1">
         <f>DATE(YEAR(E32)+1,MONTH(E32),DAY(E32))</f>
-        <v>44105</v>
+        <v>44440</v>
       </c>
       <c r="H32">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>177</v>
+        <v>65</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="E33" s="1">
-        <v>44041</v>
+        <v>44075</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G33" s="1">
-        <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
-        <v>44133</v>
+        <f>DATE(YEAR(E33)+1,MONTH(E33),DAY(E33))</f>
+        <v>44440</v>
       </c>
       <c r="H33">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>189</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>190</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D34" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="E34" s="1">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>183</v>
       </c>
       <c r="G34" s="1">
         <f>DATE(YEAR(E34)+1,MONTH(E34),DAY(E34))</f>
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="H34">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="E35" s="1">
-        <v>44075</v>
+        <v>44013</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G35" s="1">
-        <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
-        <v>44166</v>
-      </c>
-      <c r="H35" s="8">
-        <v>43800</v>
+        <f>DATE(YEAR(E35),MONTH(E35)+12,DAY(E35))</f>
+        <v>44378</v>
+      </c>
+      <c r="H35">
+        <v>2018</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="E36" s="1">
         <v>44075</v>
       </c>
@@ -2314,21 +2316,23 @@
         <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
         <v>44166</v>
       </c>
-      <c r="H36" s="8">
-        <v>43800</v>
+      <c r="H36">
+        <v>2019</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="E37" s="1">
         <v>44075</v>
       </c>
@@ -2339,146 +2343,131 @@
         <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
         <v>44166</v>
       </c>
-      <c r="H37" s="8">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="H37">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E38" s="1">
-        <v>43800</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" ref="G38:G49" si="1">DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
+        <v>215</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" s="1">
+        <v>44075</v>
+      </c>
+      <c r="F39" t="s">
+        <v>182</v>
+      </c>
+      <c r="G39" s="1">
+        <f>DATE(YEAR(E39),MONTH(E39)+3,DAY(E39))</f>
         <v>44166</v>
       </c>
-      <c r="H38">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E39" s="1">
-        <v>43800</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" si="1"/>
+      <c r="H39" s="8">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E40" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F40" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" s="1">
+        <f>DATE(YEAR(E40),MONTH(E40)+3,DAY(E40))</f>
+        <v>44105</v>
+      </c>
+      <c r="H40">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" s="1">
+        <v>44075</v>
+      </c>
+      <c r="F41" t="s">
+        <v>182</v>
+      </c>
+      <c r="G41" s="1">
+        <f>DATE(YEAR(E41),MONTH(E41)+3,DAY(E41))</f>
         <v>44166</v>
       </c>
-      <c r="H39">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E40" s="1">
-        <v>43800</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" si="1"/>
-        <v>44166</v>
-      </c>
-      <c r="H40">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E41" s="1">
-        <v>43800</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" si="1"/>
-        <v>44166</v>
-      </c>
-      <c r="H41">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="H41" s="8">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>167</v>
+        <v>80</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="E42" s="1">
-        <v>43818</v>
+        <v>44075</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="1"/>
-        <v>44184</v>
-      </c>
-      <c r="H42">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f>DATE(YEAR(E42),MONTH(E42)+1,DAY(E42))</f>
+        <v>44105</v>
+      </c>
+      <c r="H42" s="8">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -2498,913 +2487,960 @@
         <v>183</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E43)+1,MONTH(E43),DAY(E43))</f>
         <v>44197</v>
       </c>
       <c r="H43">
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>144</v>
+        <v>86</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="E44" s="1">
         <v>43831</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="3" t="s">
         <v>183</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="1"/>
-        <v>44197</v>
-      </c>
-      <c r="H44">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>44256</v>
+      </c>
+      <c r="H44" s="8">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>176</v>
+        <v>89</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="E45" s="1">
-        <v>43831</v>
+        <v>43739</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>183</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="1"/>
-        <v>44197</v>
+        <f>DATE(YEAR(E45)+1,MONTH(E45),DAY(E45))</f>
+        <v>44105</v>
       </c>
       <c r="H45">
         <v>2018</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>178</v>
+        <v>93</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="E46" s="1">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="1"/>
-        <v>44197</v>
+        <f>DATE(YEAR(E46),MONTH(E46)+3,DAY(E46))</f>
+        <v>44013</v>
       </c>
       <c r="H46">
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>171</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="5"/>
       <c r="E47" s="1">
-        <v>43846</v>
+        <v>43862</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>183</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="1"/>
-        <v>44212</v>
+        <f>DATE(YEAR(E47)+1,MONTH(E47),DAY(E47))</f>
+        <v>44228</v>
       </c>
       <c r="H47">
         <v>2018</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E48" s="11">
-        <v>43862</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="G48" s="11">
-        <f t="shared" si="1"/>
-        <v>44228</v>
-      </c>
-      <c r="H48" s="9">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="1">
+        <v>44075</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G48" s="1">
+        <f>DATE(YEAR(E48),MONTH(E48)+3,DAY(E48))</f>
+        <v>44166</v>
+      </c>
+      <c r="H48" s="8">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="2"/>
       <c r="E49" s="1">
-        <v>43862</v>
+        <v>44075</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="1"/>
-        <v>44228</v>
-      </c>
-      <c r="H49">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f>DATE(YEAR(E49),MONTH(E49)+3,DAY(E49))</f>
+        <v>44166</v>
+      </c>
+      <c r="H49" s="8">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>238</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>240</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="1">
-        <v>44013</v>
-      </c>
-      <c r="F50" s="3"/>
+        <v>44075</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="G50" s="1">
-        <v>44228</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f>DATE(YEAR(E50),MONTH(E50)+3,DAY(E50))</f>
+        <v>44166</v>
+      </c>
+      <c r="H50" s="8">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D51" s="6"/>
+        <v>190</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D51" s="7"/>
       <c r="E51" s="1">
-        <v>43862</v>
+        <v>43770</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>183</v>
       </c>
       <c r="G51" s="1">
         <f>DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
-        <v>44228</v>
+        <v>44136</v>
       </c>
       <c r="H51">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>173</v>
+        <v>106</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="E52" s="1">
-        <v>43885</v>
+        <v>43983</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="G52" s="1">
-        <f>DATE(YEAR(E52),MONTH(E52)+12,DAY(E52))</f>
-        <v>44251</v>
+        <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
+        <v>44348</v>
       </c>
       <c r="H52">
         <v>2018</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="B53" t="s">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>199</v>
+        <v>24</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="E53" s="1">
-        <v>43889</v>
+        <v>43831</v>
       </c>
       <c r="F53" t="s">
         <v>183</v>
       </c>
       <c r="G53" s="1">
         <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
-        <v>44255</v>
+        <v>44197</v>
       </c>
       <c r="H53">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F54" t="s">
+        <v>183</v>
+      </c>
+      <c r="G54" s="1">
+        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
+        <v>44348</v>
+      </c>
+      <c r="H54">
         <v>2018</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E54" s="1">
-        <v>43831</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G54" s="1">
-        <v>44256</v>
-      </c>
-      <c r="H54" s="8">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E55" s="1">
-        <v>43891</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G55" s="1">
-        <f t="shared" ref="G55:G68" si="2">DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
-        <v>44256</v>
-      </c>
-      <c r="H55">
+        <v>223</v>
+      </c>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>237</v>
+      </c>
+      <c r="B56" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E56" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="1">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>272</v>
+      </c>
+      <c r="B57" t="s">
+        <v>273</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E57" s="1">
+        <v>44044</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G57" s="1">
+        <f>DATE(YEAR(E57),MONTH(E57)+3,DAY(E57))</f>
+        <v>44136</v>
+      </c>
+      <c r="H57" s="8">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E58" s="1">
+        <v>43734</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G58" s="1">
+        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
+        <v>44100</v>
+      </c>
+      <c r="H58">
         <v>2018</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>126</v>
-      </c>
-      <c r="B56" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E56" s="1">
-        <v>43891</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G56" s="1">
-        <f t="shared" si="2"/>
-        <v>44256</v>
-      </c>
-      <c r="H56">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>225</v>
-      </c>
-      <c r="B57" t="s">
-        <v>226</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E57" s="1">
-        <v>43908</v>
-      </c>
-      <c r="F57" t="s">
-        <v>183</v>
-      </c>
-      <c r="G57" s="1">
-        <f t="shared" si="2"/>
-        <v>44273</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E58" s="1">
-        <v>43983</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G58" s="1">
-        <f t="shared" si="2"/>
-        <v>44348</v>
-      </c>
-      <c r="H58">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>206</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D59" s="6"/>
       <c r="E59" s="1">
-        <v>43983</v>
-      </c>
-      <c r="F59" s="3" t="s">
+        <v>44044</v>
+      </c>
+      <c r="F59" t="s">
         <v>183</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="2"/>
-        <v>44348</v>
+        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
+        <v>44409</v>
       </c>
       <c r="H59">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D60" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>171</v>
+      </c>
       <c r="E60" s="1">
-        <v>43983</v>
-      </c>
-      <c r="F60" t="s">
+        <v>43846</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>183</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="2"/>
-        <v>44348</v>
+        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
+        <v>44212</v>
       </c>
       <c r="H60">
         <v>2018</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E61" s="1">
-        <v>43993</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G61" s="1">
-        <f t="shared" si="2"/>
-        <v>44358</v>
-      </c>
-      <c r="H61">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E61" s="13">
+        <v>43546</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>192</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>253</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" s="6"/>
       <c r="E62" s="1">
-        <v>43993</v>
+        <v>43862</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>183</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="2"/>
-        <v>44358</v>
+        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
+        <v>44228</v>
       </c>
       <c r="H62">
         <v>2018</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>249</v>
+        <v>148</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="E63" s="1">
-        <v>44009</v>
+        <v>43891</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>183</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="2"/>
-        <v>44374</v>
+        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
+        <v>44256</v>
       </c>
       <c r="H63">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>245</v>
+        <v>118</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="E64" s="1">
-        <v>44013</v>
+        <v>43993</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>183</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="2"/>
-        <v>44378</v>
+        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
+        <v>44358</v>
       </c>
       <c r="H64">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="E65" s="1">
-        <v>44013</v>
+        <v>43993</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>183</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="2"/>
-        <v>44378</v>
+        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
+        <v>44358</v>
       </c>
       <c r="H65">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>247</v>
+        <v>122</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="E66" s="1">
-        <v>44013</v>
+        <v>43885</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="2"/>
-        <v>44378</v>
+        <f>DATE(YEAR(E66),MONTH(E66)+12,DAY(E66))</f>
+        <v>44251</v>
       </c>
       <c r="H66">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>152</v>
+        <v>124</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="E67" s="1">
-        <v>44013</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G67" s="1">
-        <f t="shared" si="2"/>
-        <v>44378</v>
+        <v>43435</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="H67">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>242</v>
+        <v>123</v>
       </c>
       <c r="B68" t="s">
-        <v>243</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D68" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="E68" s="1">
-        <v>44044</v>
-      </c>
-      <c r="F68" t="s">
-        <v>183</v>
-      </c>
-      <c r="G68" s="1">
-        <f t="shared" si="2"/>
-        <v>44409</v>
+        <v>43447</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="H68">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" t="s">
-        <v>24</v>
+        <v>127</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="E69" s="1">
-        <v>43916</v>
+        <v>43891</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>183</v>
+      </c>
+      <c r="G69" s="1">
+        <f>DATE(YEAR(E69)+1,MONTH(E69),DAY(E69))</f>
+        <v>44256</v>
       </c>
       <c r="H69">
         <v>2018</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="E70" s="1">
-        <v>43466</v>
+        <v>43734</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>183</v>
+      </c>
+      <c r="G70" s="1">
+        <f>DATE(YEAR(E70)+1,MONTH(E70),DAY(E70))</f>
+        <v>44100</v>
       </c>
       <c r="H70">
         <v>2018</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>216</v>
+        <v>132</v>
       </c>
       <c r="B71" t="s">
-        <v>215</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D71" s="6"/>
-    </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" s="1">
+        <v>43831</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G71" s="1">
+        <f>DATE(YEAR(E71)+1,MONTH(E71),DAY(E71))</f>
+        <v>44197</v>
+      </c>
+      <c r="H71">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="B72" t="s">
-        <v>222</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D72" s="7"/>
-    </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" s="1">
+        <v>44041</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G72" s="1">
+        <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
+        <v>44133</v>
+      </c>
+      <c r="H72">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="B73" t="s">
-        <v>211</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E73" s="13">
-        <v>43546</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="E73" s="1">
+        <v>43950</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G73" s="1">
+        <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
+        <v>44041</v>
+      </c>
+      <c r="H73">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="B74" t="s">
-        <v>124</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>187</v>
+        <v>139</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="E74" s="1">
-        <v>43435</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>196</v>
+        <v>43831</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G74" s="1">
+        <f>DATE(YEAR(E74)+1,MONTH(E74),DAY(E74))</f>
+        <v>44197</v>
       </c>
       <c r="H74">
         <v>2018</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B75" t="s">
-        <v>124</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>125</v>
+        <v>142</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E75" s="1">
-        <v>43447</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>196</v>
+        <v>43950</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G75" s="1">
+        <f>DATE(YEAR(E75),MONTH(E75)+3,DAY(E75))</f>
+        <v>44041</v>
       </c>
       <c r="H75">
         <v>2018</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E76" s="1">
+        <v>43908</v>
+      </c>
+      <c r="F76" t="s">
+        <v>183</v>
+      </c>
+      <c r="G76" s="1">
+        <f>DATE(YEAR(E76)+1,MONTH(E76),DAY(E76))</f>
+        <v>44273</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>241</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>241</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="6"/>
+      <c r="D77" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C38" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C42" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C58" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C39" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C28" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C40" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C41" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C31" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C21" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C31" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C34" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C42" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="D43" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C54" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C3" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C49" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C35" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C36" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C37" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C59" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C60" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C47" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C52" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C75" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C56" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C46" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D44" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C55" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D6" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D7" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D23" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D64" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C44" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C45" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C46" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C47" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C48" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C49" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C50" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C52" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C54" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C58" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C60" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C66" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C68" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C69" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C74" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D53" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C40" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C63" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D3" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D4" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D5" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D6" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="D6:D8" r:id="rId32" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D8" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D9" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D58" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D63" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D14" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D16" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D17" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D40" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D18" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D25" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D41" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D19" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D20" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D21" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D22" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D29" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D32" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D47" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D75" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D56" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D33" r:id="rId54" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D46" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D12" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D38" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D10" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D26" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D5" r:id="rId60" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D74" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C74" r:id="rId62" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C34" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D66" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D67" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C6" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C7" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D48" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D28" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D30" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D31" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="D15" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D16" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D17" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D26" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D29" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D30" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D31" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D32" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D33" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D34" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D35" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D36" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D37" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D39" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D41" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D45" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D60" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D68" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D69" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D72" r:id="rId54" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D74" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D24" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D11" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D22" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D58" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D75" r:id="rId60" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D67" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C67" r:id="rId62" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C51" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D8" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D9" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C3" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C4" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D10" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D21" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D40" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D42" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="C43" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D54" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D3" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D59" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D55" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D52" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D27" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C48" r:id="rId79" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
-    <hyperlink ref="D73" r:id="rId80" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
-    <hyperlink ref="C73" r:id="rId81" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
-    <hyperlink ref="C71" r:id="rId82" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D53" r:id="rId83" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C72" r:id="rId84" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
-    <hyperlink ref="D57" r:id="rId85" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
-    <hyperlink ref="C57" r:id="rId86" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
-    <hyperlink ref="D45" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C45" r:id="rId88" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
-    <hyperlink ref="C5" r:id="rId89" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D24" r:id="rId90" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="D15" r:id="rId91" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="C50" r:id="rId92" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
-    <hyperlink ref="D50" r:id="rId93" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
-    <hyperlink ref="C68" r:id="rId94" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
-    <hyperlink ref="C64" r:id="rId95" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="C8" r:id="rId96" xr:uid="{C1BFBDB0-2B35-4AD8-AF91-B4076067FC65}"/>
+    <hyperlink ref="D44" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D46" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D52" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D63" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D66" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D70" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C10" r:id="rId79" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
+    <hyperlink ref="D61" r:id="rId80" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
+    <hyperlink ref="C61" r:id="rId81" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
+    <hyperlink ref="C38" r:id="rId82" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
+    <hyperlink ref="D18" r:id="rId83" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="C55" r:id="rId84" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D76" r:id="rId85" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
+    <hyperlink ref="C76" r:id="rId86" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
+    <hyperlink ref="D71" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C71" r:id="rId88" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
+    <hyperlink ref="C75" r:id="rId89" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
+    <hyperlink ref="D28" r:id="rId90" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="D27" r:id="rId91" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="C56" r:id="rId92" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
+    <hyperlink ref="D56" r:id="rId93" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="C59" r:id="rId94" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
+    <hyperlink ref="C6" r:id="rId95" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
+    <hyperlink ref="C15" r:id="rId96" xr:uid="{C1BFBDB0-2B35-4AD8-AF91-B4076067FC65}"/>
+    <hyperlink ref="C57" r:id="rId97" xr:uid="{5EBACD19-6508-4DCC-8020-E41133581023}"/>
+    <hyperlink ref="D57" r:id="rId98" xr:uid="{C1A9EA96-4E85-442C-8FEC-7C356A0A442B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId97"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId99"/>
   <tableParts count="1">
-    <tablePart r:id="rId98"/>
+    <tablePart r:id="rId100"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024E5AC0-3B6C-4FF1-BF3E-6DAA8AF8ECCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75436E9-56C9-4D91-A33C-4A82DB45A5C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="277">
   <si>
     <t>Code</t>
   </si>
@@ -853,6 +853,9 @@
   </si>
   <si>
     <t>https://www.ofgem.gov.uk/environmental-programmes/domestic-rhi</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1358,7 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1494,7 +1497,7 @@
         <v>183</v>
       </c>
       <c r="G5" s="1">
-        <f>DATE(YEAR(E5)+1,MONTH(E5),DAY(E5))</f>
+        <f t="shared" ref="G5:G11" si="0">DATE(YEAR(E5)+1,MONTH(E5),DAY(E5))</f>
         <v>44440</v>
       </c>
       <c r="H5">
@@ -1521,7 +1524,7 @@
         <v>183</v>
       </c>
       <c r="G6" s="1">
-        <f>DATE(YEAR(E6)+1,MONTH(E6),DAY(E6))</f>
+        <f t="shared" si="0"/>
         <v>44378</v>
       </c>
       <c r="H6">
@@ -1548,7 +1551,7 @@
         <v>183</v>
       </c>
       <c r="G7" s="1">
-        <f>DATE(YEAR(E7)+1,MONTH(E7),DAY(E7))</f>
+        <f t="shared" si="0"/>
         <v>44378</v>
       </c>
       <c r="H7">
@@ -1575,7 +1578,7 @@
         <v>183</v>
       </c>
       <c r="G8" s="1">
-        <f>DATE(YEAR(E8)+1,MONTH(E8),DAY(E8))</f>
+        <f t="shared" si="0"/>
         <v>44378</v>
       </c>
       <c r="H8">
@@ -1602,7 +1605,7 @@
         <v>183</v>
       </c>
       <c r="G9" s="1">
-        <f>DATE(YEAR(E9)+1,MONTH(E9),DAY(E9))</f>
+        <f t="shared" si="0"/>
         <v>44378</v>
       </c>
       <c r="H9">
@@ -1629,7 +1632,7 @@
         <v>183</v>
       </c>
       <c r="G10" s="11">
-        <f>DATE(YEAR(E10)+1,MONTH(E10),DAY(E10))</f>
+        <f t="shared" si="0"/>
         <v>44228</v>
       </c>
       <c r="H10" s="9">
@@ -1656,7 +1659,7 @@
         <v>183</v>
       </c>
       <c r="G11" s="1">
-        <f>DATE(YEAR(E11)+1,MONTH(E11),DAY(E11))</f>
+        <f t="shared" si="0"/>
         <v>44166</v>
       </c>
       <c r="H11">
@@ -3120,8 +3123,8 @@
       <c r="B69" t="s">
         <v>127</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>128</v>
+      <c r="C69" s="7" t="s">
+        <v>276</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>175</v>
@@ -3360,7 +3363,7 @@
     <hyperlink ref="C60" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
     <hyperlink ref="C66" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
     <hyperlink ref="C68" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C69" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C69" r:id="rId23" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="C74" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="D53" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="C40" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000033000000}"/>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75436E9-56C9-4D91-A33C-4A82DB45A5C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCED5FE1-B710-42F1-A397-2C0EFE067ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1040,7 +1040,16 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H77" totalsRowShown="0">
-  <autoFilter ref="A1:H77" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:H77" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="6">
+      <filters>
+        <dateGroupItem year="2020" month="6" dateTimeGrouping="month"/>
+        <dateGroupItem year="2020" month="7" dateTimeGrouping="month"/>
+        <dateGroupItem year="2020" month="9" dateTimeGrouping="month"/>
+        <dateGroupItem year="2020" month="10" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H77">
     <sortCondition ref="A1:A77"/>
   </sortState>
@@ -1357,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1425,7 +1434,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1451,7 +1460,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1477,7 +1486,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1504,7 +1513,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1531,7 +1540,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1558,7 +1567,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1585,7 +1594,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1612,7 +1621,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>208</v>
       </c>
@@ -1639,7 +1648,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1666,7 +1675,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1686,7 +1695,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1713,7 +1722,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1762,7 +1771,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1789,7 +1798,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1816,7 +1825,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>218</v>
       </c>
@@ -1843,7 +1852,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1870,7 +1879,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1924,7 +1933,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1951,7 +1960,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1978,7 +1987,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -2005,7 +2014,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -2032,7 +2041,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2059,7 +2068,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>235</v>
       </c>
@@ -2083,7 +2092,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>232</v>
       </c>
@@ -2107,7 +2116,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -2161,7 +2170,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -2188,7 +2197,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -2215,7 +2224,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -2242,7 +2251,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -2269,7 +2278,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -2296,7 +2305,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -2323,7 +2332,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -2350,7 +2359,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>216</v>
       </c>
@@ -2362,7 +2371,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -2416,7 +2425,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -2457,20 +2466,20 @@
         <v>202</v>
       </c>
       <c r="E42" s="1">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>184</v>
       </c>
       <c r="G42" s="1">
         <f>DATE(YEAR(E42),MONTH(E42)+1,DAY(E42))</f>
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="H42" s="8">
         <v>44013</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -2497,7 +2506,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -2577,7 +2586,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -2602,7 +2611,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -2627,7 +2636,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>100</v>
       </c>
@@ -2652,7 +2661,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -2677,7 +2686,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>189</v>
       </c>
@@ -2702,7 +2711,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>105</v>
       </c>
@@ -2729,7 +2738,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>143</v>
       </c>
@@ -2756,7 +2765,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>108</v>
       </c>
@@ -2781,7 +2790,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>221</v>
       </c>
@@ -2793,7 +2802,7 @@
       </c>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>237</v>
       </c>
@@ -2814,7 +2823,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>272</v>
       </c>
@@ -2868,7 +2877,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>242</v>
       </c>
@@ -2893,7 +2902,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>114</v>
       </c>
@@ -2920,7 +2929,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>210</v>
       </c>
@@ -2937,7 +2946,7 @@
         <v>43546</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>192</v>
       </c>
@@ -2962,7 +2971,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>147</v>
       </c>
@@ -2989,7 +2998,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>117</v>
       </c>
@@ -3016,7 +3025,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>119</v>
       </c>
@@ -3043,7 +3052,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>121</v>
       </c>
@@ -3070,7 +3079,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>186</v>
       </c>
@@ -3093,7 +3102,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>123</v>
       </c>
@@ -3116,7 +3125,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>126</v>
       </c>
@@ -3170,7 +3179,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>132</v>
       </c>
@@ -3249,7 +3258,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>138</v>
       </c>
@@ -3303,7 +3312,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>225</v>
       </c>
@@ -3327,7 +3336,7 @@
         <v>44273</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>241</v>
       </c>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCED5FE1-B710-42F1-A397-2C0EFE067ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2E84DF-937C-4EF1-9304-F1F3F41CBFDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -816,9 +816,6 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/920656/Renewable_electricity_by_local_authority_2014_to_2019.xlsx</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/917543/RHI_monthly_official_stats_tables_Aug_20_final.xlsx</t>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/920960/Subnational_total_final_energy_consumption_statistics.xlsx</t>
   </si>
   <si>
@@ -856,6 +853,9 @@
   </si>
   <si>
     <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/rhi-monthly-deployment-data-september-2020-quarterly-edition</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1367,7 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>197</v>
@@ -2100,7 +2100,7 @@
         <v>234</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>233</v>
@@ -2151,20 +2151,20 @@
         <v>58</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>163</v>
       </c>
       <c r="E30" s="1">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>184</v>
       </c>
       <c r="G30" s="1">
         <f>DATE(YEAR(E30),MONTH(E30)+1,DAY(E30))</f>
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="H30" s="8">
         <v>44013</v>
@@ -2205,7 +2205,7 @@
         <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>165</v>
@@ -2232,7 +2232,7 @@
         <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>166</v>
@@ -2313,7 +2313,7 @@
         <v>72</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>151</v>
@@ -2340,7 +2340,7 @@
         <v>74</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>151</v>
@@ -2379,7 +2379,7 @@
         <v>76</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>169</v>
@@ -2433,7 +2433,7 @@
         <v>78</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>169</v>
@@ -2825,16 +2825,16 @@
     </row>
     <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>271</v>
+      </c>
+      <c r="B57" t="s">
         <v>272</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="E57" s="1">
         <v>44044</v>
@@ -3133,7 +3133,7 @@
         <v>127</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>175</v>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2E84DF-937C-4EF1-9304-F1F3F41CBFDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF706978-FF35-4768-9662-789B22E81427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -789,9 +789,6 @@
     <t>https://www.gov.scot/publications/scottish-greenhouse-gas-emissions-2018/</t>
   </si>
   <si>
-    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/07/gdp-quarterly-national-accounts-for-scotland-2020-q1/documents/other-quarterly-national-accounts-summary-tables/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BGDP%2BQNAS%2B2020%2BQ1%2B-%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx</t>
-  </si>
-  <si>
     <t>https://www.gov.uk/government/statistics/household-energy-efficiency-statistics-headline-release-september-2020</t>
   </si>
   <si>
@@ -856,6 +853,9 @@
   </si>
   <si>
     <t>https://www.gov.uk/government/statistics/rhi-monthly-deployment-data-september-2020-quarterly-edition</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/10/gdp-quarterly-national-accounts-2020-q2/documents/gdp-by-industry-in-real-terms-2nd-estimate-tables/gdp-by-industry-in-real-terms-2nd-estimate-tables/govscot%3Adocument/%25281%2529%2BGDP%2BQNAS%2B2020%2BQ2%2B-%2BGDP%2BSecond%2BEstimate%2BTables.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1367,14 +1367,14 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.453125" customWidth="1"/>
     <col min="2" max="2" width="102.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="127.7265625" customWidth="1"/>
+    <col min="3" max="3" width="74.453125" customWidth="1"/>
     <col min="4" max="4" width="26.54296875" customWidth="1"/>
     <col min="5" max="5" width="13.7265625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.453125" customWidth="1"/>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>197</v>
@@ -1752,7 +1752,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>154</v>
@@ -1779,7 +1779,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>155</v>
@@ -1941,7 +1941,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>160</v>
@@ -1968,7 +1968,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>160</v>
@@ -1995,7 +1995,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>180</v>
@@ -2022,7 +2022,7 @@
         <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>160</v>
@@ -2049,7 +2049,7 @@
         <v>54</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>161</v>
@@ -2076,7 +2076,7 @@
         <v>236</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>233</v>
@@ -2100,7 +2100,7 @@
         <v>234</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>233</v>
@@ -2151,7 +2151,7 @@
         <v>58</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>163</v>
@@ -2205,7 +2205,7 @@
         <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>165</v>
@@ -2232,7 +2232,7 @@
         <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>166</v>
@@ -2313,7 +2313,7 @@
         <v>72</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>151</v>
@@ -2340,7 +2340,7 @@
         <v>74</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>151</v>
@@ -2379,7 +2379,7 @@
         <v>76</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>169</v>
@@ -2433,7 +2433,7 @@
         <v>78</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>169</v>
@@ -2825,16 +2825,16 @@
     </row>
     <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>270</v>
+      </c>
+      <c r="B57" t="s">
         <v>271</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>274</v>
       </c>
       <c r="E57" s="1">
         <v>44044</v>
@@ -3133,7 +3133,7 @@
         <v>127</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>175</v>
@@ -3214,20 +3214,20 @@
         <v>135</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>177</v>
       </c>
       <c r="E72" s="1">
-        <v>44041</v>
+        <v>44133</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>182</v>
       </c>
       <c r="G72" s="1">
         <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
-        <v>44133</v>
+        <v>44225</v>
       </c>
       <c r="H72">
         <v>2018</v>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF706978-FF35-4768-9662-789B22E81427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA3DD37-261B-4F6A-A5EF-978FD095A367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1040,16 +1040,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H77" totalsRowShown="0">
-  <autoFilter ref="A1:H77" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="6">
-      <filters>
-        <dateGroupItem year="2020" month="6" dateTimeGrouping="month"/>
-        <dateGroupItem year="2020" month="7" dateTimeGrouping="month"/>
-        <dateGroupItem year="2020" month="9" dateTimeGrouping="month"/>
-        <dateGroupItem year="2020" month="10" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H77" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H77">
     <sortCondition ref="A1:A77"/>
   </sortState>
@@ -1366,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1434,7 +1425,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1460,7 +1451,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1486,7 +1477,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1513,7 +1504,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1540,7 +1531,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1567,7 +1558,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1594,7 +1585,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1621,7 +1612,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>208</v>
       </c>
@@ -1648,7 +1639,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1675,7 +1666,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1695,7 +1686,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1722,7 +1713,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1771,7 +1762,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1798,7 +1789,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1825,7 +1816,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>218</v>
       </c>
@@ -1852,7 +1843,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1879,7 +1870,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1933,7 +1924,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1960,7 +1951,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1987,7 +1978,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -2014,7 +2005,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -2041,7 +2032,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2068,7 +2059,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>235</v>
       </c>
@@ -2092,7 +2083,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>232</v>
       </c>
@@ -2116,7 +2107,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -2170,7 +2161,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -2197,7 +2188,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -2224,7 +2215,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -2251,7 +2242,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -2278,7 +2269,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -2305,7 +2296,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -2332,7 +2323,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -2359,7 +2350,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>216</v>
       </c>
@@ -2371,7 +2362,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -2425,7 +2416,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -2479,7 +2470,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -2506,7 +2497,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -2586,7 +2577,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -2611,7 +2602,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -2636,7 +2627,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>100</v>
       </c>
@@ -2661,7 +2652,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -2686,7 +2677,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>189</v>
       </c>
@@ -2711,7 +2702,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>105</v>
       </c>
@@ -2738,7 +2729,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>143</v>
       </c>
@@ -2765,7 +2756,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>108</v>
       </c>
@@ -2790,7 +2781,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>221</v>
       </c>
@@ -2802,7 +2793,7 @@
       </c>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>237</v>
       </c>
@@ -2823,7 +2814,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>270</v>
       </c>
@@ -2877,7 +2868,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>242</v>
       </c>
@@ -2902,7 +2893,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>114</v>
       </c>
@@ -2929,7 +2920,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>210</v>
       </c>
@@ -2946,7 +2937,7 @@
         <v>43546</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>192</v>
       </c>
@@ -2971,7 +2962,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>147</v>
       </c>
@@ -2998,7 +2989,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>117</v>
       </c>
@@ -3025,7 +3016,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>119</v>
       </c>
@@ -3052,7 +3043,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>121</v>
       </c>
@@ -3079,7 +3070,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>186</v>
       </c>
@@ -3102,7 +3093,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>123</v>
       </c>
@@ -3125,7 +3116,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>126</v>
       </c>
@@ -3172,14 +3163,13 @@
         <v>183</v>
       </c>
       <c r="G70" s="1">
-        <f>DATE(YEAR(E70)+1,MONTH(E70),DAY(E70))</f>
-        <v>44100</v>
+        <v>44197</v>
       </c>
       <c r="H70">
         <v>2018</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>132</v>
       </c>
@@ -3258,7 +3248,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>138</v>
       </c>
@@ -3312,7 +3302,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>225</v>
       </c>
@@ -3336,7 +3326,7 @@
         <v>44273</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>241</v>
       </c>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA3DD37-261B-4F6A-A5EF-978FD095A367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9C05C2-864D-49F4-AB5D-7850117FEA7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="276">
   <si>
     <t>Code</t>
   </si>
@@ -297,9 +297,6 @@
     <t>Energy Savings Trust: Renewable Heat in Scotland</t>
   </si>
   <si>
-    <t>https://energysavingtrust.org.uk/sites/default/files/reports/Renewable%20Heat%20in%20Scotland%2C%202018%20Report.pdf</t>
-  </si>
-  <si>
     <t>EURORenEn</t>
   </si>
   <si>
@@ -537,9 +534,6 @@
     <t>https://www.gov.uk/government/collections/vehicles-statistics</t>
   </si>
   <si>
-    <t>https://energysavingtrust.org.uk/</t>
-  </si>
-  <si>
     <t>https://www.ons.gov.uk/economy/environmentalaccounts/datasets/lowcarbonandrenewableenergyeconomyfirstestimatesdataset</t>
   </si>
   <si>
@@ -856,6 +850,9 @@
   </si>
   <si>
     <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/10/gdp-quarterly-national-accounts-2020-q2/documents/gdp-by-industry-in-real-terms-2nd-estimate-tables/gdp-by-industry-in-real-terms-2nd-estimate-tables/govscot%3Adocument/%25281%2529%2BGDP%2BQNAS%2B2020%2BQ2%2B-%2BGDP%2BSecond%2BEstimate%2BTables.xlsx</t>
+  </si>
+  <si>
+    <t>https://energysavingtrust.org.uk/report/renewable-heat-in-scotland-2019/</t>
   </si>
 </sst>
 </file>
@@ -1357,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1381,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" t="s">
         <v>149</v>
-      </c>
-      <c r="D1" t="s">
-        <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1393,7 +1390,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -1401,28 +1398,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E2" s="1">
         <v>43916</v>
       </c>
       <c r="F2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G2" s="1">
         <v>44008</v>
       </c>
       <c r="H2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1433,16 +1430,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" s="1">
         <v>43983</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G3" s="1">
         <v>44166</v>
@@ -1459,16 +1456,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="1">
         <v>43983</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G4" s="1">
         <v>44166</v>
@@ -1485,16 +1482,16 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E5" s="1">
         <v>44075</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G11" si="0">DATE(YEAR(E5)+1,MONTH(E5),DAY(E5))</f>
@@ -1512,16 +1509,16 @@
         <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E6" s="1">
         <v>44013</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
@@ -1539,16 +1536,16 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E7" s="1">
         <v>44013</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
@@ -1566,16 +1563,16 @@
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E8" s="1">
         <v>44013</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
@@ -1593,16 +1590,16 @@
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E9" s="1">
         <v>44013</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
@@ -1614,22 +1611,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="E10" s="11">
         <v>43862</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
@@ -1650,13 +1647,13 @@
         <v>21</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E11" s="1">
         <v>43800</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
@@ -1680,7 +1677,7 @@
         <v>43916</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H12">
         <v>2018</v>
@@ -1697,13 +1694,13 @@
         <v>27</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E13" s="1">
         <v>43818</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G13" s="1">
         <f>DATE(YEAR(E13)+1,MONTH(E13),DAY(E13))</f>
@@ -1728,7 +1725,7 @@
         <v>43466</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14">
@@ -1743,16 +1740,16 @@
         <v>31</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E15" s="1">
         <v>44075</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G15" s="1">
         <f>DATE(YEAR(E15),MONTH(E15)+1,DAY(E15))</f>
@@ -1770,16 +1767,16 @@
         <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E16" s="1">
         <v>44075</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G16" s="1">
         <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
@@ -1800,13 +1797,13 @@
         <v>36</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E17" s="1">
         <v>43983</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G17" s="1">
         <f>DATE(YEAR(E17)+1,MONTH(E17),DAY(E17))</f>
@@ -1818,22 +1815,22 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>219</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E18" s="1">
         <v>43889</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G18" s="1">
         <f>DATE(YEAR(E18)+1,MONTH(E18),DAY(E18))</f>
@@ -1851,16 +1848,16 @@
         <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E19" s="1">
         <v>44009</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G19" s="1">
         <f>DATE(YEAR(E19)+1,MONTH(E19),DAY(E19))</f>
@@ -1881,13 +1878,13 @@
         <v>41</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E20" s="1">
         <v>43800</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G20" s="1">
         <f>DATE(YEAR(E20)+1,MONTH(E20),DAY(E20))</f>
@@ -1908,13 +1905,13 @@
         <v>44</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E21" s="1">
         <v>44070</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G21" s="1">
         <f>DATE(YEAR(E21),MONTH(E21)+1,DAY(E21))</f>
@@ -1932,16 +1929,16 @@
         <v>46</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E22" s="1">
         <v>44075</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G22" s="1">
         <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
@@ -1959,16 +1956,16 @@
         <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E23" s="1">
         <v>44075</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G23" s="1">
         <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
@@ -1986,16 +1983,16 @@
         <v>50</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E24" s="1">
         <v>44075</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G24" s="1">
         <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
@@ -2013,16 +2010,16 @@
         <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E25" s="1">
         <v>44075</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G25" s="1">
         <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
@@ -2040,16 +2037,16 @@
         <v>54</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E26" s="1">
         <v>44075</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G26" s="1">
         <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
@@ -2061,22 +2058,22 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E27" s="1">
         <v>44075</v>
       </c>
       <c r="F27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G27" s="1">
         <f>DATE(YEAR(E27)+1,MONTH(E27),DAY(E27))</f>
@@ -2085,22 +2082,22 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" t="s">
         <v>232</v>
       </c>
-      <c r="B28" t="s">
-        <v>234</v>
-      </c>
       <c r="C28" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E28" s="1">
         <v>44075</v>
       </c>
       <c r="F28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G28" s="1">
         <f>DATE(YEAR(E28)+1,MONTH(E28),DAY(E28))</f>
@@ -2115,16 +2112,16 @@
         <v>56</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E29" s="1">
         <v>44075</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G29" s="1">
         <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
@@ -2142,16 +2139,16 @@
         <v>58</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E30" s="1">
         <v>44105</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G30" s="1">
         <f>DATE(YEAR(E30),MONTH(E30)+1,DAY(E30))</f>
@@ -2172,13 +2169,13 @@
         <v>61</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E31" s="1">
         <v>43800</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G31" s="1">
         <f>DATE(YEAR(E31)+1,MONTH(E31),DAY(E31))</f>
@@ -2196,16 +2193,16 @@
         <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E32" s="1">
         <v>44075</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G32" s="1">
         <f>DATE(YEAR(E32)+1,MONTH(E32),DAY(E32))</f>
@@ -2223,16 +2220,16 @@
         <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E33" s="1">
         <v>44075</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G33" s="1">
         <f>DATE(YEAR(E33)+1,MONTH(E33),DAY(E33))</f>
@@ -2253,13 +2250,13 @@
         <v>27</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E34" s="1">
         <v>43800</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G34" s="1">
         <f>DATE(YEAR(E34)+1,MONTH(E34),DAY(E34))</f>
@@ -2280,13 +2277,13 @@
         <v>70</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E35" s="1">
         <v>44013</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G35" s="1">
         <f>DATE(YEAR(E35),MONTH(E35)+12,DAY(E35))</f>
@@ -2304,16 +2301,16 @@
         <v>72</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E36" s="1">
         <v>44075</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G36" s="1">
         <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
@@ -2331,16 +2328,16 @@
         <v>74</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E37" s="1">
         <v>44075</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G37" s="1">
         <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
@@ -2352,13 +2349,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B38" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D38" s="6"/>
     </row>
@@ -2370,16 +2367,16 @@
         <v>76</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E39" s="1">
         <v>44075</v>
       </c>
       <c r="F39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G39" s="1">
         <f>DATE(YEAR(E39),MONTH(E39)+3,DAY(E39))</f>
@@ -2391,22 +2388,22 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" t="s">
         <v>145</v>
       </c>
-      <c r="B40" t="s">
-        <v>146</v>
-      </c>
       <c r="C40" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E40" s="1">
         <v>44013</v>
       </c>
       <c r="F40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G40" s="1">
         <f>DATE(YEAR(E40),MONTH(E40)+3,DAY(E40))</f>
@@ -2424,16 +2421,16 @@
         <v>78</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E41" s="1">
         <v>44075</v>
       </c>
       <c r="F41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G41" s="1">
         <f>DATE(YEAR(E41),MONTH(E41)+3,DAY(E41))</f>
@@ -2454,13 +2451,13 @@
         <v>81</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E42" s="1">
         <v>44105</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G42" s="1">
         <f>DATE(YEAR(E42),MONTH(E42)+1,DAY(E42))</f>
@@ -2478,7 +2475,7 @@
         <v>83</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>84</v>
@@ -2487,7 +2484,7 @@
         <v>43831</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G43" s="1">
         <f>DATE(YEAR(E43)+1,MONTH(E43),DAY(E43))</f>
@@ -2508,13 +2505,13 @@
         <v>87</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E44" s="1">
         <v>43831</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G44" s="1">
         <v>44256</v>
@@ -2531,16 +2528,16 @@
         <v>89</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>90</v>
+        <v>275</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>170</v>
+        <v>275</v>
       </c>
       <c r="E45" s="1">
         <v>43739</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G45" s="1">
         <f>DATE(YEAR(E45)+1,MONTH(E45),DAY(E45))</f>
@@ -2552,22 +2549,22 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
         <v>91</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D46" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E46" s="1">
         <v>43922</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G46" s="1">
         <f>DATE(YEAR(E46),MONTH(E46)+3,DAY(E46))</f>
@@ -2579,20 +2576,20 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="1">
         <v>43862</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G47" s="1">
         <f>DATE(YEAR(E47)+1,MONTH(E47),DAY(E47))</f>
@@ -2604,20 +2601,20 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
         <v>97</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="1">
         <v>44075</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G48" s="1">
         <f>DATE(YEAR(E48),MONTH(E48)+3,DAY(E48))</f>
@@ -2629,20 +2626,20 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
         <v>100</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="1">
         <v>44075</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G49" s="1">
         <f>DATE(YEAR(E49),MONTH(E49)+3,DAY(E49))</f>
@@ -2654,20 +2651,20 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
         <v>103</v>
       </c>
-      <c r="B50" t="s">
-        <v>104</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="1">
         <v>44075</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G50" s="1">
         <f>DATE(YEAR(E50),MONTH(E50)+3,DAY(E50))</f>
@@ -2679,20 +2676,20 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="B51" t="s">
-        <v>190</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="1">
         <v>43770</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G51" s="1">
         <f>DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
@@ -2704,22 +2701,22 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
         <v>105</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="D52" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E52" s="1">
         <v>43983</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G52" s="1">
         <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
@@ -2731,22 +2728,22 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E53" s="1">
         <v>43831</v>
       </c>
       <c r="F53" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G53" s="1">
         <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
@@ -2758,20 +2755,20 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="1">
         <v>43983</v>
       </c>
       <c r="F54" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G54" s="1">
         <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
@@ -2783,28 +2780,28 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>219</v>
+      </c>
+      <c r="B55" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="B55" t="s">
-        <v>222</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>235</v>
+      </c>
+      <c r="B56" t="s">
+        <v>236</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="E56" s="1">
         <v>44013</v>
@@ -2816,22 +2813,22 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>268</v>
+      </c>
+      <c r="B57" t="s">
+        <v>269</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D57" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="E57" s="1">
         <v>44044</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G57" s="1">
         <f>DATE(YEAR(E57),MONTH(E57)+3,DAY(E57))</f>
@@ -2843,22 +2840,22 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" t="s">
         <v>111</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="D58" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E58" s="1">
         <v>43734</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G58" s="1">
         <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
@@ -2870,20 +2867,20 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>240</v>
+      </c>
+      <c r="B59" t="s">
+        <v>241</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="B59" t="s">
-        <v>243</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="1">
         <v>44044</v>
       </c>
       <c r="F59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G59" s="1">
         <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
@@ -2895,22 +2892,22 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" t="s">
         <v>114</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="D60" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E60" s="1">
         <v>43846</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G60" s="1">
         <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
@@ -2922,16 +2919,16 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>208</v>
+      </c>
+      <c r="B61" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="B61" t="s">
-        <v>211</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="E61" s="13">
         <v>43546</v>
@@ -2939,20 +2936,20 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>190</v>
+      </c>
+      <c r="B62" t="s">
+        <v>191</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="B62" t="s">
-        <v>193</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="1">
         <v>43862</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G62" s="1">
         <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
@@ -2964,22 +2961,22 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" t="s">
         <v>147</v>
       </c>
-      <c r="B63" t="s">
-        <v>148</v>
-      </c>
       <c r="C63" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E63" s="1">
         <v>43891</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G63" s="1">
         <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
@@ -2991,22 +2988,22 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" t="s">
         <v>117</v>
       </c>
-      <c r="B64" t="s">
-        <v>118</v>
-      </c>
       <c r="C64" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="E64" s="1">
         <v>43993</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G64" s="1">
         <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
@@ -3018,22 +3015,22 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" t="s">
         <v>119</v>
       </c>
-      <c r="B65" t="s">
-        <v>120</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E65" s="1">
         <v>43993</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G65" s="1">
         <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
@@ -3045,22 +3042,22 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" t="s">
         <v>121</v>
       </c>
-      <c r="B66" t="s">
-        <v>122</v>
-      </c>
       <c r="C66" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E66" s="1">
         <v>43885</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G66" s="1">
         <f>DATE(YEAR(E66),MONTH(E66)+12,DAY(E66))</f>
@@ -3072,22 +3069,22 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>184</v>
+      </c>
+      <c r="B67" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B67" t="s">
-        <v>124</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>188</v>
-      </c>
       <c r="D67" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E67" s="1">
         <v>43435</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H67">
         <v>2018</v>
@@ -3095,22 +3092,22 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" t="s">
         <v>123</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D68" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E68" s="1">
         <v>43447</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H68">
         <v>2018</v>
@@ -3118,22 +3115,22 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" t="s">
         <v>126</v>
       </c>
-      <c r="B69" t="s">
-        <v>127</v>
-      </c>
       <c r="C69" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E69" s="1">
         <v>43891</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G69" s="1">
         <f>DATE(YEAR(E69)+1,MONTH(E69),DAY(E69))</f>
@@ -3145,22 +3142,22 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70" t="s">
         <v>129</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="D70" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E70" s="1">
         <v>43734</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G70" s="1">
         <v>44197</v>
@@ -3171,22 +3168,22 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" t="s">
         <v>132</v>
       </c>
-      <c r="B71" t="s">
-        <v>133</v>
-      </c>
       <c r="C71" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E71" s="1">
         <v>43831</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G71" s="1">
         <f>DATE(YEAR(E71)+1,MONTH(E71),DAY(E71))</f>
@@ -3198,22 +3195,22 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" t="s">
         <v>134</v>
       </c>
-      <c r="B72" t="s">
-        <v>135</v>
-      </c>
       <c r="C72" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E72" s="1">
         <v>44133</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G72" s="1">
         <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
@@ -3225,10 +3222,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" t="s">
         <v>136</v>
-      </c>
-      <c r="B73" t="s">
-        <v>137</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>24</v>
@@ -3238,7 +3235,7 @@
         <v>43950</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G73" s="1">
         <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
@@ -3250,22 +3247,22 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" t="s">
         <v>138</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="D74" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E74" s="1">
         <v>43831</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G74" s="1">
         <f>DATE(YEAR(E74)+1,MONTH(E74),DAY(E74))</f>
@@ -3277,22 +3274,22 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75" t="s">
         <v>141</v>
       </c>
-      <c r="B75" t="s">
-        <v>142</v>
-      </c>
       <c r="C75" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E75" s="1">
         <v>43950</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G75" s="1">
         <f>DATE(YEAR(E75),MONTH(E75)+3,DAY(E75))</f>
@@ -3304,22 +3301,22 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>223</v>
+      </c>
+      <c r="B76" t="s">
+        <v>224</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="B76" t="s">
-        <v>226</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="E76" s="1">
         <v>43908</v>
       </c>
       <c r="F76" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G76" s="1">
         <f>DATE(YEAR(E76)+1,MONTH(E76),DAY(E76))</f>
@@ -3328,10 +3325,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B77" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C77" t="s">
         <v>24</v>
@@ -3350,99 +3347,97 @@
     <hyperlink ref="C42" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="D43" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="C44" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C45" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C46" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C47" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C48" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C49" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C50" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C52" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C54" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C58" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C60" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C66" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C68" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C69" r:id="rId23" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C74" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D53" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C40" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C63" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D3" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D4" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D5" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D6" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D6:D8" r:id="rId32" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D15" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D16" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D17" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D26" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D29" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D30" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D31" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D32" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D33" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D34" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D35" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D36" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D37" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D39" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D41" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D45" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D60" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D68" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D69" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D72" r:id="rId54" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D74" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D24" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D11" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D22" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D58" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D75" r:id="rId60" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D67" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C67" r:id="rId62" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C51" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D8" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D9" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C3" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C4" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D10" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D21" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D40" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D42" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C43" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D44" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D46" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D52" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D63" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D66" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D70" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C10" r:id="rId79" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
-    <hyperlink ref="D61" r:id="rId80" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
-    <hyperlink ref="C61" r:id="rId81" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
-    <hyperlink ref="C38" r:id="rId82" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D18" r:id="rId83" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C55" r:id="rId84" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
-    <hyperlink ref="D76" r:id="rId85" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
-    <hyperlink ref="C76" r:id="rId86" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
-    <hyperlink ref="D71" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C71" r:id="rId88" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
-    <hyperlink ref="C75" r:id="rId89" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D28" r:id="rId90" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="D27" r:id="rId91" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="C56" r:id="rId92" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
-    <hyperlink ref="D56" r:id="rId93" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
-    <hyperlink ref="C59" r:id="rId94" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
-    <hyperlink ref="C6" r:id="rId95" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="C15" r:id="rId96" xr:uid="{C1BFBDB0-2B35-4AD8-AF91-B4076067FC65}"/>
-    <hyperlink ref="C57" r:id="rId97" xr:uid="{5EBACD19-6508-4DCC-8020-E41133581023}"/>
-    <hyperlink ref="D57" r:id="rId98" xr:uid="{C1A9EA96-4E85-442C-8FEC-7C356A0A442B}"/>
+    <hyperlink ref="C46" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C47" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C48" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C49" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C50" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C52" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C54" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C58" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C60" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C66" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C68" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C69" r:id="rId22" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C74" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D53" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C63" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D3" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D4" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D5" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D6" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D6:D8" r:id="rId31" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D15" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D16" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D17" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D26" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D29" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D30" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D31" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D32" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D33" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D34" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D35" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D36" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D37" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D39" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D41" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D60" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D69" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D72" r:id="rId52" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D74" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D24" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D11" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D22" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D75" r:id="rId58" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D67" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C67" r:id="rId60" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C51" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D8" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D9" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C3" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C4" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D10" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D21" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D40" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D42" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C43" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D44" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D46" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D52" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D63" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D66" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D70" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C10" r:id="rId77" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
+    <hyperlink ref="D61" r:id="rId78" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
+    <hyperlink ref="C61" r:id="rId79" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
+    <hyperlink ref="C38" r:id="rId80" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
+    <hyperlink ref="D18" r:id="rId81" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="C55" r:id="rId82" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D76" r:id="rId83" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
+    <hyperlink ref="C76" r:id="rId84" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
+    <hyperlink ref="D71" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C71" r:id="rId86" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
+    <hyperlink ref="C75" r:id="rId87" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
+    <hyperlink ref="D28" r:id="rId88" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="D27" r:id="rId89" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="C56" r:id="rId90" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
+    <hyperlink ref="D56" r:id="rId91" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="C59" r:id="rId92" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
+    <hyperlink ref="C6" r:id="rId93" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
+    <hyperlink ref="C15" r:id="rId94" xr:uid="{C1BFBDB0-2B35-4AD8-AF91-B4076067FC65}"/>
+    <hyperlink ref="C57" r:id="rId95" xr:uid="{5EBACD19-6508-4DCC-8020-E41133581023}"/>
+    <hyperlink ref="D57" r:id="rId96" xr:uid="{C1A9EA96-4E85-442C-8FEC-7C356A0A442B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId99"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId97"/>
   <tableParts count="1">
-    <tablePart r:id="rId100"/>
+    <tablePart r:id="rId98"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9C05C2-864D-49F4-AB5D-7850117FEA7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D904BD0-927C-4484-A4A7-FC01F420C572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="870" windowWidth="28800" windowHeight="15470" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="280">
   <si>
     <t>Code</t>
   </si>
@@ -853,6 +853,18 @@
   </si>
   <si>
     <t>https://energysavingtrust.org.uk/report/renewable-heat-in-scotland-2019/</t>
+  </si>
+  <si>
+    <t>DFTCharging</t>
+  </si>
+  <si>
+    <t>DfT: Electric vehicle charging device statistics</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/933589/electric-vehicle-charging-device-statistics-october-2020.ods</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/electric-vehicle-charging-device-statistics-october-2020</t>
   </si>
 </sst>
 </file>
@@ -1036,10 +1048,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H77" totalsRowShown="0">
-  <autoFilter ref="A1:H77" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H77">
-    <sortCondition ref="A1:A77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H78" totalsRowShown="0">
+  <autoFilter ref="A1:H78" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H78">
+    <sortCondition ref="A1:A78"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Code"/>
@@ -1352,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2415,97 +2427,97 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>278</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>168</v>
+        <v>279</v>
       </c>
       <c r="E41" s="1">
-        <v>44075</v>
+        <v>44136</v>
       </c>
       <c r="F41" t="s">
         <v>180</v>
       </c>
       <c r="G41" s="1">
         <f>DATE(YEAR(E41),MONTH(E41)+3,DAY(E41))</f>
-        <v>44166</v>
+        <v>44228</v>
       </c>
       <c r="H41" s="8">
-        <v>43709</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>81</v>
+        <v>264</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="E42" s="1">
-        <v>44105</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>182</v>
+        <v>44075</v>
+      </c>
+      <c r="F42" t="s">
+        <v>180</v>
       </c>
       <c r="G42" s="1">
-        <f>DATE(YEAR(E42),MONTH(E42)+1,DAY(E42))</f>
-        <v>44136</v>
+        <f>DATE(YEAR(E42),MONTH(E42)+3,DAY(E42))</f>
+        <v>44166</v>
       </c>
       <c r="H42" s="8">
-        <v>44013</v>
+        <v>43709</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="E43" s="1">
-        <v>43831</v>
+        <v>44105</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G43" s="1">
-        <f>DATE(YEAR(E43)+1,MONTH(E43),DAY(E43))</f>
-        <v>44197</v>
-      </c>
-      <c r="H43">
-        <v>2019</v>
+        <f>DATE(YEAR(E43),MONTH(E43)+1,DAY(E43))</f>
+        <v>44136</v>
+      </c>
+      <c r="H43" s="8">
+        <v>44013</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>202</v>
+        <v>83</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="E44" s="1">
         <v>43831</v>
@@ -2514,61 +2526,61 @@
         <v>181</v>
       </c>
       <c r="G44" s="1">
-        <v>44256</v>
-      </c>
-      <c r="H44" s="8">
-        <v>43617</v>
+        <f>DATE(YEAR(E44)+1,MONTH(E44),DAY(E44))</f>
+        <v>44197</v>
+      </c>
+      <c r="H44">
+        <v>2019</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>275</v>
+        <v>87</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="E45" s="1">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>181</v>
       </c>
       <c r="G45" s="1">
-        <f>DATE(YEAR(E45)+1,MONTH(E45),DAY(E45))</f>
-        <v>44105</v>
-      </c>
-      <c r="H45">
-        <v>2018</v>
+        <v>44256</v>
+      </c>
+      <c r="H45" s="8">
+        <v>43617</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>203</v>
+        <v>275</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="E46" s="1">
-        <v>43922</v>
+        <v>43739</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G46" s="1">
-        <f>DATE(YEAR(E46),MONTH(E46)+3,DAY(E46))</f>
-        <v>44013</v>
+        <f>DATE(YEAR(E46)+1,MONTH(E46),DAY(E46))</f>
+        <v>44105</v>
       </c>
       <c r="H46">
         <v>2018</v>
@@ -2576,24 +2588,26 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="E47" s="1">
-        <v>43862</v>
+        <v>43922</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G47" s="1">
-        <f>DATE(YEAR(E47)+1,MONTH(E47),DAY(E47))</f>
-        <v>44228</v>
+        <f>DATE(YEAR(E47),MONTH(E47)+3,DAY(E47))</f>
+        <v>44013</v>
       </c>
       <c r="H47">
         <v>2018</v>
@@ -2601,38 +2615,38 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="5"/>
       <c r="E48" s="1">
-        <v>44075</v>
+        <v>43862</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G48" s="1">
-        <f>DATE(YEAR(E48),MONTH(E48)+3,DAY(E48))</f>
-        <v>44166</v>
-      </c>
-      <c r="H48" s="8">
-        <v>43800</v>
+        <f>DATE(YEAR(E48)+1,MONTH(E48),DAY(E48))</f>
+        <v>44228</v>
+      </c>
+      <c r="H48">
+        <v>2018</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="1">
@@ -2651,10 +2665,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>101</v>
@@ -2676,311 +2690,309 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>187</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
-        <v>188</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D51" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="2"/>
       <c r="E51" s="1">
-        <v>43770</v>
+        <v>44075</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G51" s="1">
-        <f>DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
-        <v>44136</v>
-      </c>
-      <c r="H51">
-        <v>2019</v>
+        <f>DATE(YEAR(E51),MONTH(E51)+3,DAY(E51))</f>
+        <v>44166</v>
+      </c>
+      <c r="H51" s="8">
+        <v>43800</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>204</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="7"/>
       <c r="E52" s="1">
-        <v>43983</v>
+        <v>43770</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>181</v>
       </c>
       <c r="G52" s="1">
         <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
-        <v>44348</v>
+        <v>44136</v>
       </c>
       <c r="H52">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>142</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>143</v>
+        <v>105</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="E53" s="1">
-        <v>43831</v>
-      </c>
-      <c r="F53" t="s">
+        <v>43983</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>181</v>
       </c>
       <c r="G53" s="1">
         <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
-        <v>44197</v>
+        <v>44348</v>
       </c>
       <c r="H53">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="E54" s="1">
-        <v>43983</v>
+        <v>43831</v>
       </c>
       <c r="F54" t="s">
         <v>181</v>
       </c>
       <c r="G54" s="1">
         <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
-        <v>44348</v>
+        <v>44197</v>
       </c>
       <c r="H54">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>220</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D55" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F55" t="s">
+        <v>181</v>
+      </c>
+      <c r="G55" s="1">
+        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
+        <v>44348</v>
+      </c>
+      <c r="H55">
+        <v>2018</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B56" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="E56" s="1">
-        <v>44013</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="1">
-        <v>44228</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="B57" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="E57" s="1">
-        <v>44044</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>180</v>
-      </c>
+        <v>44013</v>
+      </c>
+      <c r="F57" s="3"/>
       <c r="G57" s="1">
-        <f>DATE(YEAR(E57),MONTH(E57)+3,DAY(E57))</f>
-        <v>44136</v>
-      </c>
-      <c r="H57" s="8">
-        <v>44013</v>
+        <v>44228</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>268</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>183</v>
+        <v>269</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="E58" s="1">
-        <v>43734</v>
+        <v>44044</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G58" s="1">
-        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
-        <v>44100</v>
-      </c>
-      <c r="H58">
-        <v>2018</v>
+        <f>DATE(YEAR(E58),MONTH(E58)+3,DAY(E58))</f>
+        <v>44136</v>
+      </c>
+      <c r="H58" s="8">
+        <v>44013</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="B59" t="s">
-        <v>241</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D59" s="6"/>
+        <v>111</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>183</v>
+      </c>
       <c r="E59" s="1">
-        <v>44044</v>
-      </c>
-      <c r="F59" t="s">
+        <v>43734</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>181</v>
       </c>
       <c r="G59" s="1">
         <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
-        <v>44409</v>
+        <v>44100</v>
       </c>
       <c r="H59">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>240</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>169</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D60" s="6"/>
       <c r="E60" s="1">
-        <v>43846</v>
-      </c>
-      <c r="F60" s="3" t="s">
+        <v>44044</v>
+      </c>
+      <c r="F60" t="s">
         <v>181</v>
       </c>
       <c r="G60" s="1">
         <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
-        <v>44212</v>
+        <v>44409</v>
       </c>
       <c r="H60">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>209</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E61" s="13">
-        <v>43546</v>
+        <v>114</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E61" s="1">
+        <v>43846</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G61" s="1">
+        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
+        <v>44212</v>
+      </c>
+      <c r="H61">
+        <v>2018</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="B62" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="1">
-        <v>43862</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G62" s="1">
-        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
-        <v>44228</v>
-      </c>
-      <c r="H62">
-        <v>2018</v>
+        <v>211</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E62" s="13">
+        <v>43546</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>173</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="D63" s="6"/>
       <c r="E63" s="1">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>181</v>
       </c>
       <c r="G63" s="1">
         <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="H63">
         <v>2018</v>
@@ -2988,26 +3000,26 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>249</v>
+        <v>147</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="E64" s="1">
-        <v>43993</v>
+        <v>43891</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>181</v>
       </c>
       <c r="G64" s="1">
         <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
-        <v>44358</v>
+        <v>44256</v>
       </c>
       <c r="H64">
         <v>2018</v>
@@ -3015,13 +3027,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>250</v>
+        <v>117</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>251</v>
@@ -3042,26 +3054,26 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>172</v>
+        <v>119</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="E66" s="1">
-        <v>43885</v>
+        <v>43993</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="G66" s="1">
-        <f>DATE(YEAR(E66),MONTH(E66)+12,DAY(E66))</f>
-        <v>44251</v>
+        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
+        <v>44358</v>
       </c>
       <c r="H66">
         <v>2018</v>
@@ -3069,22 +3081,26 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="B67" t="s">
-        <v>123</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>185</v>
+        <v>121</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="E67" s="1">
-        <v>43435</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>194</v>
+        <v>43885</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G67" s="1">
+        <f>DATE(YEAR(E67),MONTH(E67)+12,DAY(E67))</f>
+        <v>44251</v>
       </c>
       <c r="H67">
         <v>2018</v>
@@ -3092,19 +3108,19 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="B68" t="s">
         <v>123</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>170</v>
+      <c r="C68" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="E68" s="1">
-        <v>43447</v>
+        <v>43435</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>194</v>
@@ -3115,26 +3131,22 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B69" t="s">
-        <v>126</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>272</v>
+        <v>123</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E69" s="1">
-        <v>43891</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G69" s="1">
-        <f>DATE(YEAR(E69)+1,MONTH(E69),DAY(E69))</f>
-        <v>44256</v>
+        <v>43447</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="H69">
         <v>2018</v>
@@ -3142,25 +3154,26 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B70" t="s">
-        <v>129</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>205</v>
+        <v>126</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="E70" s="1">
-        <v>43734</v>
+        <v>43891</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>181</v>
       </c>
       <c r="G70" s="1">
-        <v>44197</v>
+        <f>DATE(YEAR(E70)+1,MONTH(E70),DAY(E70))</f>
+        <v>44256</v>
       </c>
       <c r="H70">
         <v>2018</v>
@@ -3168,25 +3181,24 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B71" t="s">
-        <v>132</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>227</v>
+        <v>129</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="E71" s="1">
-        <v>43831</v>
+        <v>43734</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>181</v>
       </c>
       <c r="G71" s="1">
-        <f>DATE(YEAR(E71)+1,MONTH(E71),DAY(E71))</f>
         <v>44197</v>
       </c>
       <c r="H71">
@@ -3195,105 +3207,105 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E72" s="1">
+        <v>43831</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G72" s="1">
+        <f>DATE(YEAR(E72)+1,MONTH(E72),DAY(E72))</f>
+        <v>44197</v>
+      </c>
+      <c r="H72">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>133</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>134</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C73" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D73" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E73" s="1">
         <v>44133</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G73" s="1">
         <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
         <v>44225</v>
       </c>
-      <c r="H72">
+      <c r="H73">
         <v>2018</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>135</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>136</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="1">
+      <c r="D74" s="6"/>
+      <c r="E74" s="1">
         <v>43950</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F74" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G74" s="1">
         <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
         <v>44041</v>
       </c>
-      <c r="H73">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>137</v>
-      </c>
-      <c r="B74" t="s">
-        <v>138</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E74" s="1">
-        <v>43831</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G74" s="1">
-        <f>DATE(YEAR(E74)+1,MONTH(E74),DAY(E74))</f>
-        <v>44197</v>
-      </c>
       <c r="H74">
         <v>2018</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B75" t="s">
-        <v>141</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>229</v>
+        <v>138</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E75" s="1">
-        <v>43950</v>
+        <v>43831</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G75" s="1">
-        <f>DATE(YEAR(E75),MONTH(E75)+3,DAY(E75))</f>
-        <v>44041</v>
+        <f>DATE(YEAR(E75)+1,MONTH(E75),DAY(E75))</f>
+        <v>44197</v>
       </c>
       <c r="H75">
         <v>2018</v>
@@ -3301,39 +3313,66 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>223</v>
+        <v>140</v>
       </c>
       <c r="B76" t="s">
-        <v>224</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>225</v>
+        <v>141</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="E76" s="1">
-        <v>43908</v>
-      </c>
-      <c r="F76" t="s">
-        <v>181</v>
+        <v>43950</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="G76" s="1">
-        <f>DATE(YEAR(E76)+1,MONTH(E76),DAY(E76))</f>
-        <v>44273</v>
+        <f>DATE(YEAR(E76),MONTH(E76)+3,DAY(E76))</f>
+        <v>44041</v>
+      </c>
+      <c r="H76">
+        <v>2018</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>223</v>
+      </c>
+      <c r="B77" t="s">
+        <v>224</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E77" s="1">
+        <v>43908</v>
+      </c>
+      <c r="F77" t="s">
+        <v>181</v>
+      </c>
+      <c r="G77" s="1">
+        <f>DATE(YEAR(E77)+1,MONTH(E77),DAY(E77))</f>
+        <v>44273</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>239</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>239</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>24</v>
       </c>
-      <c r="D77" s="6"/>
+      <c r="D78" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3344,25 +3383,25 @@
     <hyperlink ref="C21" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="C31" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="C34" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C42" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D43" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C44" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C46" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C47" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C48" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C49" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C50" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C52" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C54" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C58" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C60" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C66" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C68" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C69" r:id="rId22" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C74" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D53" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C43" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D44" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C45" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C47" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C48" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C49" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C50" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C51" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C53" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C55" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C59" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C61" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C67" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C69" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C70" r:id="rId22" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C75" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D54" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="C40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C63" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C64" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
     <hyperlink ref="D3" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
     <hyperlink ref="D4" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="D5" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
@@ -3384,20 +3423,20 @@
     <hyperlink ref="D36" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
     <hyperlink ref="D37" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="D39" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D41" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D60" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D69" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D72" r:id="rId52" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D74" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D42" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D61" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D69" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D70" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D73" r:id="rId52" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D75" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
     <hyperlink ref="D24" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
     <hyperlink ref="D11" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
     <hyperlink ref="D22" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D75" r:id="rId58" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D67" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C67" r:id="rId60" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C51" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D76" r:id="rId58" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D68" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C68" r:id="rId60" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C52" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
     <hyperlink ref="D8" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
     <hyperlink ref="D9" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
     <hyperlink ref="C3" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
@@ -3405,39 +3444,40 @@
     <hyperlink ref="D10" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
     <hyperlink ref="D21" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
     <hyperlink ref="D40" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D42" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C43" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D44" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D46" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D52" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D63" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D66" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D70" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D43" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C44" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D45" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D47" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D53" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D64" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D67" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D71" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="C10" r:id="rId77" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
-    <hyperlink ref="D61" r:id="rId78" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
-    <hyperlink ref="C61" r:id="rId79" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
+    <hyperlink ref="D62" r:id="rId78" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
+    <hyperlink ref="C62" r:id="rId79" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
     <hyperlink ref="C38" r:id="rId80" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
     <hyperlink ref="D18" r:id="rId81" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C55" r:id="rId82" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
-    <hyperlink ref="D76" r:id="rId83" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
-    <hyperlink ref="C76" r:id="rId84" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
-    <hyperlink ref="D71" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C71" r:id="rId86" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
-    <hyperlink ref="C75" r:id="rId87" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
+    <hyperlink ref="C56" r:id="rId82" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D77" r:id="rId83" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
+    <hyperlink ref="C77" r:id="rId84" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
+    <hyperlink ref="D72" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C72" r:id="rId86" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
+    <hyperlink ref="C76" r:id="rId87" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
     <hyperlink ref="D28" r:id="rId88" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
     <hyperlink ref="D27" r:id="rId89" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="C56" r:id="rId90" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
-    <hyperlink ref="D56" r:id="rId91" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
-    <hyperlink ref="C59" r:id="rId92" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
+    <hyperlink ref="C57" r:id="rId90" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
+    <hyperlink ref="D57" r:id="rId91" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="C60" r:id="rId92" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
     <hyperlink ref="C6" r:id="rId93" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
     <hyperlink ref="C15" r:id="rId94" xr:uid="{C1BFBDB0-2B35-4AD8-AF91-B4076067FC65}"/>
-    <hyperlink ref="C57" r:id="rId95" xr:uid="{5EBACD19-6508-4DCC-8020-E41133581023}"/>
-    <hyperlink ref="D57" r:id="rId96" xr:uid="{C1A9EA96-4E85-442C-8FEC-7C356A0A442B}"/>
+    <hyperlink ref="C58" r:id="rId95" xr:uid="{5EBACD19-6508-4DCC-8020-E41133581023}"/>
+    <hyperlink ref="D58" r:id="rId96" xr:uid="{C1A9EA96-4E85-442C-8FEC-7C356A0A442B}"/>
+    <hyperlink ref="D41" r:id="rId97" xr:uid="{65EAFE59-9FCB-4DB0-BFF1-3261B2FA52E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId97"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId98"/>
   <tableParts count="1">
-    <tablePart r:id="rId98"/>
+    <tablePart r:id="rId99"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D904BD0-927C-4484-A4A7-FC01F420C572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041F214E-1330-495C-8920-8855954A1CAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="870" windowWidth="28800" windowHeight="15470" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -444,9 +444,6 @@
     <t>Scottish Government: Scottish House Condition Survey</t>
   </si>
   <si>
-    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/01/scottish-house-condition-survey-2018-key-findings/documents/tables-figures/tables-figures/govscot%3Adocument/tables-figures.xlsx</t>
-  </si>
-  <si>
     <t>SGSNAP</t>
   </si>
   <si>
@@ -555,9 +552,6 @@
     <t>https://www.gov.scot/collections/economy-statistics/#gdpquarterlynationalaccounts,scotland(qnas)</t>
   </si>
   <si>
-    <t>https://www.gov.scot/collections/scottish-house-condition-survey/</t>
-  </si>
-  <si>
     <t>https://www.gov.scot/collections/economy-statistics/#thescottishnationalaccountsprogramme(snap)</t>
   </si>
   <si>
@@ -865,6 +859,12 @@
   </si>
   <si>
     <t>https://www.gov.uk/government/statistics/electric-vehicle-charging-device-statistics-october-2020</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/publications/scottish-house-condition-survey-2019-key-findings/</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1366,23 +1366,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="C58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="2" max="2" width="102.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.453125" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="102.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1390,10 +1390,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" t="s">
         <v>148</v>
-      </c>
-      <c r="D1" t="s">
-        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1402,39 +1402,39 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E2" s="1">
         <v>43916</v>
       </c>
       <c r="F2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G2" s="1">
         <v>44008</v>
       </c>
       <c r="H2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1442,16 +1442,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E3" s="1">
         <v>43983</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G3" s="1">
         <v>44166</v>
@@ -1460,7 +1460,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1468,16 +1468,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E4" s="1">
         <v>43983</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G4" s="1">
         <v>44166</v>
@@ -1486,7 +1486,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1494,16 +1494,16 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E5" s="1">
         <v>44075</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G11" si="0">DATE(YEAR(E5)+1,MONTH(E5),DAY(E5))</f>
@@ -1513,7 +1513,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1521,16 +1521,16 @@
         <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E6" s="1">
         <v>44013</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
@@ -1540,7 +1540,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1548,16 +1548,16 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" s="1">
         <v>44013</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
@@ -1567,7 +1567,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1575,16 +1575,16 @@
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E8" s="1">
         <v>44013</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
@@ -1594,7 +1594,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1602,16 +1602,16 @@
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E9" s="1">
         <v>44013</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
@@ -1621,24 +1621,24 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="E10" s="11">
         <v>43862</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
@@ -1648,7 +1648,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1659,13 +1659,13 @@
         <v>21</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E11" s="1">
         <v>43800</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
@@ -1675,7 +1675,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1689,13 +1689,13 @@
         <v>43916</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H12">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1706,13 +1706,13 @@
         <v>27</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E13" s="1">
         <v>43818</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G13" s="1">
         <f>DATE(YEAR(E13)+1,MONTH(E13),DAY(E13))</f>
@@ -1722,7 +1722,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1737,14 +1737,14 @@
         <v>43466</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14">
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1752,16 +1752,16 @@
         <v>31</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E15" s="1">
         <v>44075</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G15" s="1">
         <f>DATE(YEAR(E15),MONTH(E15)+1,DAY(E15))</f>
@@ -1771,7 +1771,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1779,16 +1779,16 @@
         <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E16" s="1">
         <v>44075</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G16" s="1">
         <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
@@ -1798,7 +1798,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1809,13 +1809,13 @@
         <v>36</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E17" s="1">
         <v>43983</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G17" s="1">
         <f>DATE(YEAR(E17)+1,MONTH(E17),DAY(E17))</f>
@@ -1825,24 +1825,24 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E18" s="1">
         <v>43889</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G18" s="1">
         <f>DATE(YEAR(E18)+1,MONTH(E18),DAY(E18))</f>
@@ -1852,7 +1852,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1860,16 +1860,16 @@
         <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E19" s="1">
         <v>44009</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G19" s="1">
         <f>DATE(YEAR(E19)+1,MONTH(E19),DAY(E19))</f>
@@ -1879,7 +1879,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1890,13 +1890,13 @@
         <v>41</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E20" s="1">
         <v>43800</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G20" s="1">
         <f>DATE(YEAR(E20)+1,MONTH(E20),DAY(E20))</f>
@@ -1906,7 +1906,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1917,13 +1917,13 @@
         <v>44</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E21" s="1">
         <v>44070</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G21" s="1">
         <f>DATE(YEAR(E21),MONTH(E21)+1,DAY(E21))</f>
@@ -1933,7 +1933,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1941,16 +1941,16 @@
         <v>46</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E22" s="1">
         <v>44075</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G22" s="1">
         <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
@@ -1960,7 +1960,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1968,16 +1968,16 @@
         <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E23" s="1">
         <v>44075</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G23" s="1">
         <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
@@ -1987,7 +1987,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1995,16 +1995,16 @@
         <v>50</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E24" s="1">
         <v>44075</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G24" s="1">
         <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
@@ -2014,7 +2014,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -2022,16 +2022,16 @@
         <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E25" s="1">
         <v>44075</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G25" s="1">
         <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
@@ -2041,7 +2041,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2049,16 +2049,16 @@
         <v>54</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E26" s="1">
         <v>44075</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G26" s="1">
         <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
@@ -2068,55 +2068,55 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E27" s="1">
         <v>44075</v>
       </c>
       <c r="F27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G27" s="1">
         <f>DATE(YEAR(E27)+1,MONTH(E27),DAY(E27))</f>
         <v>44440</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28" t="s">
         <v>230</v>
       </c>
-      <c r="B28" t="s">
-        <v>232</v>
-      </c>
       <c r="C28" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E28" s="1">
         <v>44075</v>
       </c>
       <c r="F28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G28" s="1">
         <f>DATE(YEAR(E28)+1,MONTH(E28),DAY(E28))</f>
         <v>44440</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -2124,16 +2124,16 @@
         <v>56</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E29" s="1">
         <v>44075</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G29" s="1">
         <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
@@ -2143,7 +2143,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -2151,16 +2151,16 @@
         <v>58</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E30" s="1">
         <v>44105</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G30" s="1">
         <f>DATE(YEAR(E30),MONTH(E30)+1,DAY(E30))</f>
@@ -2170,7 +2170,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -2181,13 +2181,13 @@
         <v>61</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E31" s="1">
         <v>43800</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G31" s="1">
         <f>DATE(YEAR(E31)+1,MONTH(E31),DAY(E31))</f>
@@ -2197,7 +2197,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -2205,16 +2205,16 @@
         <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E32" s="1">
         <v>44075</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G32" s="1">
         <f>DATE(YEAR(E32)+1,MONTH(E32),DAY(E32))</f>
@@ -2224,7 +2224,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -2232,16 +2232,16 @@
         <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E33" s="1">
         <v>44075</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G33" s="1">
         <f>DATE(YEAR(E33)+1,MONTH(E33),DAY(E33))</f>
@@ -2251,7 +2251,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -2262,13 +2262,13 @@
         <v>27</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E34" s="1">
         <v>43800</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G34" s="1">
         <f>DATE(YEAR(E34)+1,MONTH(E34),DAY(E34))</f>
@@ -2278,7 +2278,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -2289,13 +2289,13 @@
         <v>70</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E35" s="1">
         <v>44013</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G35" s="1">
         <f>DATE(YEAR(E35),MONTH(E35)+12,DAY(E35))</f>
@@ -2305,7 +2305,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -2313,16 +2313,16 @@
         <v>72</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E36" s="1">
         <v>44075</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G36" s="1">
         <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
@@ -2332,7 +2332,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -2340,16 +2340,16 @@
         <v>74</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E37" s="1">
         <v>44075</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G37" s="1">
         <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
@@ -2359,19 +2359,19 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -2379,16 +2379,16 @@
         <v>76</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E39" s="1">
         <v>44075</v>
       </c>
       <c r="F39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G39" s="1">
         <f>DATE(YEAR(E39),MONTH(E39)+3,DAY(E39))</f>
@@ -2398,24 +2398,24 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" t="s">
         <v>144</v>
       </c>
-      <c r="B40" t="s">
-        <v>145</v>
-      </c>
       <c r="C40" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E40" s="1">
         <v>44013</v>
       </c>
       <c r="F40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G40" s="1">
         <f>DATE(YEAR(E40),MONTH(E40)+3,DAY(E40))</f>
@@ -2425,24 +2425,24 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>274</v>
+      </c>
+      <c r="B41" t="s">
+        <v>275</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>279</v>
       </c>
       <c r="E41" s="1">
         <v>44136</v>
       </c>
       <c r="F41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G41" s="1">
         <f>DATE(YEAR(E41),MONTH(E41)+3,DAY(E41))</f>
@@ -2452,7 +2452,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -2460,16 +2460,16 @@
         <v>78</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E42" s="1">
         <v>44075</v>
       </c>
       <c r="F42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G42" s="1">
         <f>DATE(YEAR(E42),MONTH(E42)+3,DAY(E42))</f>
@@ -2479,7 +2479,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -2490,13 +2490,13 @@
         <v>81</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E43" s="1">
         <v>44105</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G43" s="1">
         <f>DATE(YEAR(E43),MONTH(E43)+1,DAY(E43))</f>
@@ -2506,7 +2506,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>83</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>84</v>
@@ -2523,7 +2523,7 @@
         <v>43831</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G44" s="1">
         <f>DATE(YEAR(E44)+1,MONTH(E44),DAY(E44))</f>
@@ -2533,7 +2533,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -2544,13 +2544,13 @@
         <v>87</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E45" s="1">
         <v>43831</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G45" s="1">
         <v>44256</v>
@@ -2559,7 +2559,7 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -2567,16 +2567,16 @@
         <v>89</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E46" s="1">
         <v>43739</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G46" s="1">
         <f>DATE(YEAR(E46)+1,MONTH(E46),DAY(E46))</f>
@@ -2586,7 +2586,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -2597,13 +2597,13 @@
         <v>92</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E47" s="1">
         <v>43922</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G47" s="1">
         <f>DATE(YEAR(E47),MONTH(E47)+3,DAY(E47))</f>
@@ -2613,7 +2613,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>43862</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G48" s="1">
         <f>DATE(YEAR(E48)+1,MONTH(E48),DAY(E48))</f>
@@ -2638,7 +2638,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>44075</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G49" s="1">
         <f>DATE(YEAR(E49),MONTH(E49)+3,DAY(E49))</f>
@@ -2663,7 +2663,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>44075</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G50" s="1">
         <f>DATE(YEAR(E50),MONTH(E50)+3,DAY(E50))</f>
@@ -2688,7 +2688,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>44075</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G51" s="1">
         <f>DATE(YEAR(E51),MONTH(E51)+3,DAY(E51))</f>
@@ -2713,22 +2713,22 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="B52" t="s">
-        <v>188</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="1">
         <v>43770</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G52" s="1">
         <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
@@ -2738,7 +2738,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -2749,13 +2749,13 @@
         <v>106</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E53" s="1">
         <v>43983</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G53" s="1">
         <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
@@ -2765,24 +2765,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E54" s="1">
         <v>43831</v>
       </c>
       <c r="F54" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G54" s="1">
         <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
@@ -2792,7 +2792,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>43983</v>
       </c>
       <c r="F55" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G55" s="1">
         <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
@@ -2817,30 +2817,30 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>217</v>
+      </c>
+      <c r="B56" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B56" t="s">
-        <v>220</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>221</v>
-      </c>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>233</v>
+      </c>
+      <c r="B57" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D57" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>238</v>
       </c>
       <c r="E57" s="1">
         <v>44013</v>
@@ -2850,24 +2850,24 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>266</v>
+      </c>
+      <c r="B58" t="s">
+        <v>267</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>271</v>
       </c>
       <c r="E58" s="1">
         <v>44044</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G58" s="1">
         <f>DATE(YEAR(E58),MONTH(E58)+3,DAY(E58))</f>
@@ -2877,7 +2877,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -2888,13 +2888,13 @@
         <v>112</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E59" s="1">
         <v>43734</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G59" s="1">
         <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
@@ -2904,22 +2904,22 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>238</v>
+      </c>
+      <c r="B60" t="s">
+        <v>239</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="B60" t="s">
-        <v>241</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="1">
         <v>44044</v>
       </c>
       <c r="F60" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G60" s="1">
         <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
@@ -2929,7 +2929,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -2940,13 +2940,13 @@
         <v>115</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E61" s="1">
         <v>43846</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G61" s="1">
         <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
@@ -2956,39 +2956,39 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>206</v>
+      </c>
+      <c r="B62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="B62" t="s">
-        <v>209</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>210</v>
       </c>
       <c r="E62" s="13">
         <v>43546</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>188</v>
+      </c>
+      <c r="B63" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="B63" t="s">
-        <v>191</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="1">
         <v>43862</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G63" s="1">
         <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
@@ -2998,24 +2998,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" t="s">
         <v>146</v>
-      </c>
-      <c r="B64" t="s">
-        <v>147</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E64" s="1">
         <v>43891</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G64" s="1">
         <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
@@ -3025,7 +3025,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>116</v>
       </c>
@@ -3033,16 +3033,16 @@
         <v>117</v>
       </c>
       <c r="C65" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="E65" s="1">
         <v>43993</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G65" s="1">
         <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
@@ -3052,7 +3052,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -3060,16 +3060,16 @@
         <v>119</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E66" s="1">
         <v>43993</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G66" s="1">
         <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
@@ -3079,7 +3079,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>120</v>
       </c>
@@ -3087,16 +3087,16 @@
         <v>121</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E67" s="1">
         <v>43885</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G67" s="1">
         <f>DATE(YEAR(E67),MONTH(E67)+12,DAY(E67))</f>
@@ -3106,30 +3106,30 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B68" t="s">
         <v>123</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E68" s="1">
         <v>43435</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H68">
         <v>2018</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>122</v>
       </c>
@@ -3140,19 +3140,19 @@
         <v>124</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E69" s="1">
         <v>43447</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H69">
         <v>2018</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>125</v>
       </c>
@@ -3160,16 +3160,16 @@
         <v>126</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E70" s="1">
         <v>43891</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G70" s="1">
         <f>DATE(YEAR(E70)+1,MONTH(E70),DAY(E70))</f>
@@ -3179,7 +3179,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>128</v>
       </c>
@@ -3190,13 +3190,13 @@
         <v>130</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E71" s="1">
         <v>43734</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G71" s="1">
         <v>44197</v>
@@ -3205,7 +3205,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>131</v>
       </c>
@@ -3213,16 +3213,16 @@
         <v>132</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E72" s="1">
         <v>43831</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G72" s="1">
         <f>DATE(YEAR(E72)+1,MONTH(E72),DAY(E72))</f>
@@ -3232,7 +3232,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -3240,16 +3240,16 @@
         <v>134</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E73" s="1">
         <v>44133</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G73" s="1">
         <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
@@ -3259,7 +3259,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>135</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>43950</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G74" s="1">
         <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
@@ -3284,51 +3284,51 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>137</v>
       </c>
       <c r="B75" t="s">
         <v>138</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>139</v>
+      <c r="C75" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>176</v>
+        <v>278</v>
       </c>
       <c r="E75" s="1">
-        <v>43831</v>
+        <v>44166</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G75" s="1">
         <f>DATE(YEAR(E75)+1,MONTH(E75),DAY(E75))</f>
-        <v>44197</v>
+        <v>44531</v>
       </c>
       <c r="H75">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" t="s">
         <v>140</v>
       </c>
-      <c r="B76" t="s">
-        <v>141</v>
-      </c>
       <c r="C76" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E76" s="1">
         <v>43950</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G76" s="1">
         <f>DATE(YEAR(E76),MONTH(E76)+3,DAY(E76))</f>
@@ -3338,36 +3338,36 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>221</v>
+      </c>
+      <c r="B77" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="B77" t="s">
-        <v>224</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>225</v>
       </c>
       <c r="E77" s="1">
         <v>43908</v>
       </c>
       <c r="F77" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G77" s="1">
         <f>DATE(YEAR(E77)+1,MONTH(E77),DAY(E77))</f>
         <v>44273</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B78" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C78" t="s">
         <v>24</v>
@@ -3398,7 +3398,7 @@
     <hyperlink ref="C67" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
     <hyperlink ref="C69" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="C70" r:id="rId22" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C75" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C75" r:id="rId23" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="D54" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="C40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
     <hyperlink ref="C64" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
@@ -3428,56 +3428,55 @@
     <hyperlink ref="D69" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
     <hyperlink ref="D70" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
     <hyperlink ref="D73" r:id="rId52" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D75" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D24" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D11" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D22" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D76" r:id="rId58" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D68" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C68" r:id="rId60" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C52" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D8" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D9" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C3" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C4" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D10" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D21" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D40" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D43" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C44" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D45" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D47" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D53" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D64" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D67" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D71" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C10" r:id="rId77" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
-    <hyperlink ref="D62" r:id="rId78" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
-    <hyperlink ref="C62" r:id="rId79" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
-    <hyperlink ref="C38" r:id="rId80" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D18" r:id="rId81" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C56" r:id="rId82" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
-    <hyperlink ref="D77" r:id="rId83" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
-    <hyperlink ref="C77" r:id="rId84" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
-    <hyperlink ref="D72" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C72" r:id="rId86" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
-    <hyperlink ref="C76" r:id="rId87" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D28" r:id="rId88" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="D27" r:id="rId89" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="C57" r:id="rId90" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
-    <hyperlink ref="D57" r:id="rId91" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
-    <hyperlink ref="C60" r:id="rId92" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
-    <hyperlink ref="C6" r:id="rId93" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="C15" r:id="rId94" xr:uid="{C1BFBDB0-2B35-4AD8-AF91-B4076067FC65}"/>
-    <hyperlink ref="C58" r:id="rId95" xr:uid="{5EBACD19-6508-4DCC-8020-E41133581023}"/>
-    <hyperlink ref="D58" r:id="rId96" xr:uid="{C1A9EA96-4E85-442C-8FEC-7C356A0A442B}"/>
-    <hyperlink ref="D41" r:id="rId97" xr:uid="{65EAFE59-9FCB-4DB0-BFF1-3261B2FA52E7}"/>
+    <hyperlink ref="D24" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D11" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D22" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D59" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D76" r:id="rId57" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D68" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C68" r:id="rId59" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C52" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D8" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D9" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C3" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C4" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D10" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D21" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D40" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D43" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C44" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D45" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D47" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D53" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D64" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D67" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D71" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C10" r:id="rId76" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
+    <hyperlink ref="D62" r:id="rId77" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
+    <hyperlink ref="C62" r:id="rId78" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
+    <hyperlink ref="C38" r:id="rId79" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
+    <hyperlink ref="D18" r:id="rId80" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="C56" r:id="rId81" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D77" r:id="rId82" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
+    <hyperlink ref="C77" r:id="rId83" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
+    <hyperlink ref="D72" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C72" r:id="rId85" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
+    <hyperlink ref="C76" r:id="rId86" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
+    <hyperlink ref="D28" r:id="rId87" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="D27" r:id="rId88" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="C57" r:id="rId89" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
+    <hyperlink ref="D57" r:id="rId90" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="C60" r:id="rId91" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
+    <hyperlink ref="C6" r:id="rId92" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
+    <hyperlink ref="C15" r:id="rId93" xr:uid="{C1BFBDB0-2B35-4AD8-AF91-B4076067FC65}"/>
+    <hyperlink ref="C58" r:id="rId94" xr:uid="{5EBACD19-6508-4DCC-8020-E41133581023}"/>
+    <hyperlink ref="D58" r:id="rId95" xr:uid="{C1A9EA96-4E85-442C-8FEC-7C356A0A442B}"/>
+    <hyperlink ref="D41" r:id="rId96" xr:uid="{65EAFE59-9FCB-4DB0-BFF1-3261B2FA52E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId98"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId97"/>
   <tableParts count="1">
-    <tablePart r:id="rId99"/>
+    <tablePart r:id="rId98"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041F214E-1330-495C-8920-8855954A1CAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D904BD0-927C-4484-A4A7-FC01F420C572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="870" windowWidth="28800" windowHeight="15470" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -444,6 +444,9 @@
     <t>Scottish Government: Scottish House Condition Survey</t>
   </si>
   <si>
+    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/01/scottish-house-condition-survey-2018-key-findings/documents/tables-figures/tables-figures/govscot%3Adocument/tables-figures.xlsx</t>
+  </si>
+  <si>
     <t>SGSNAP</t>
   </si>
   <si>
@@ -552,6 +555,9 @@
     <t>https://www.gov.scot/collections/economy-statistics/#gdpquarterlynationalaccounts,scotland(qnas)</t>
   </si>
   <si>
+    <t>https://www.gov.scot/collections/scottish-house-condition-survey/</t>
+  </si>
+  <si>
     <t>https://www.gov.scot/collections/economy-statistics/#thescottishnationalaccountsprogramme(snap)</t>
   </si>
   <si>
@@ -859,12 +865,6 @@
   </si>
   <si>
     <t>https://www.gov.uk/government/statistics/electric-vehicle-charging-device-statistics-october-2020</t>
-  </si>
-  <si>
-    <t>https://www.gov.scot/publications/scottish-house-condition-survey-2019-key-findings/</t>
-  </si>
-  <si>
-    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1366,23 +1366,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="102.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="102.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.453125" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1390,10 +1390,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1402,39 +1402,39 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E2" s="1">
         <v>43916</v>
       </c>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G2" s="1">
         <v>44008</v>
       </c>
       <c r="H2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1442,16 +1442,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E3" s="1">
         <v>43983</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G3" s="1">
         <v>44166</v>
@@ -1460,7 +1460,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1468,16 +1468,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E4" s="1">
         <v>43983</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G4" s="1">
         <v>44166</v>
@@ -1486,7 +1486,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1494,16 +1494,16 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E5" s="1">
         <v>44075</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G11" si="0">DATE(YEAR(E5)+1,MONTH(E5),DAY(E5))</f>
@@ -1513,7 +1513,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1521,16 +1521,16 @@
         <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E6" s="1">
         <v>44013</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
@@ -1540,7 +1540,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1548,16 +1548,16 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E7" s="1">
         <v>44013</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
@@ -1567,7 +1567,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1575,16 +1575,16 @@
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E8" s="1">
         <v>44013</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
@@ -1594,7 +1594,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1602,16 +1602,16 @@
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E9" s="1">
         <v>44013</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
@@ -1621,24 +1621,24 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E10" s="11">
         <v>43862</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
@@ -1648,7 +1648,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1659,13 +1659,13 @@
         <v>21</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E11" s="1">
         <v>43800</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
@@ -1675,7 +1675,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1689,13 +1689,13 @@
         <v>43916</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H12">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1706,13 +1706,13 @@
         <v>27</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E13" s="1">
         <v>43818</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G13" s="1">
         <f>DATE(YEAR(E13)+1,MONTH(E13),DAY(E13))</f>
@@ -1722,7 +1722,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1737,14 +1737,14 @@
         <v>43466</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14">
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1752,16 +1752,16 @@
         <v>31</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E15" s="1">
         <v>44075</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G15" s="1">
         <f>DATE(YEAR(E15),MONTH(E15)+1,DAY(E15))</f>
@@ -1771,7 +1771,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1779,16 +1779,16 @@
         <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E16" s="1">
         <v>44075</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G16" s="1">
         <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
@@ -1798,7 +1798,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1809,13 +1809,13 @@
         <v>36</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E17" s="1">
         <v>43983</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G17" s="1">
         <f>DATE(YEAR(E17)+1,MONTH(E17),DAY(E17))</f>
@@ -1825,24 +1825,24 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E18" s="1">
         <v>43889</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G18" s="1">
         <f>DATE(YEAR(E18)+1,MONTH(E18),DAY(E18))</f>
@@ -1852,7 +1852,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1860,16 +1860,16 @@
         <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E19" s="1">
         <v>44009</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G19" s="1">
         <f>DATE(YEAR(E19)+1,MONTH(E19),DAY(E19))</f>
@@ -1879,7 +1879,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1890,13 +1890,13 @@
         <v>41</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E20" s="1">
         <v>43800</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G20" s="1">
         <f>DATE(YEAR(E20)+1,MONTH(E20),DAY(E20))</f>
@@ -1906,7 +1906,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1917,13 +1917,13 @@
         <v>44</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E21" s="1">
         <v>44070</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G21" s="1">
         <f>DATE(YEAR(E21),MONTH(E21)+1,DAY(E21))</f>
@@ -1933,7 +1933,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1941,16 +1941,16 @@
         <v>46</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E22" s="1">
         <v>44075</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G22" s="1">
         <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
@@ -1960,7 +1960,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1968,16 +1968,16 @@
         <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E23" s="1">
         <v>44075</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G23" s="1">
         <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
@@ -1987,7 +1987,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1995,16 +1995,16 @@
         <v>50</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E24" s="1">
         <v>44075</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G24" s="1">
         <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
@@ -2014,7 +2014,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -2022,16 +2022,16 @@
         <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E25" s="1">
         <v>44075</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G25" s="1">
         <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
@@ -2041,7 +2041,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2049,16 +2049,16 @@
         <v>54</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E26" s="1">
         <v>44075</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G26" s="1">
         <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
@@ -2068,55 +2068,55 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="B27" t="s">
-        <v>232</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="E27" s="1">
         <v>44075</v>
       </c>
       <c r="F27" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G27" s="1">
         <f>DATE(YEAR(E27)+1,MONTH(E27),DAY(E27))</f>
         <v>44440</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E28" s="1">
         <v>44075</v>
       </c>
       <c r="F28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G28" s="1">
         <f>DATE(YEAR(E28)+1,MONTH(E28),DAY(E28))</f>
         <v>44440</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -2124,16 +2124,16 @@
         <v>56</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E29" s="1">
         <v>44075</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G29" s="1">
         <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
@@ -2143,7 +2143,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -2151,16 +2151,16 @@
         <v>58</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E30" s="1">
         <v>44105</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G30" s="1">
         <f>DATE(YEAR(E30),MONTH(E30)+1,DAY(E30))</f>
@@ -2170,7 +2170,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -2181,13 +2181,13 @@
         <v>61</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E31" s="1">
         <v>43800</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G31" s="1">
         <f>DATE(YEAR(E31)+1,MONTH(E31),DAY(E31))</f>
@@ -2197,7 +2197,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -2205,16 +2205,16 @@
         <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E32" s="1">
         <v>44075</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G32" s="1">
         <f>DATE(YEAR(E32)+1,MONTH(E32),DAY(E32))</f>
@@ -2224,7 +2224,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -2232,16 +2232,16 @@
         <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E33" s="1">
         <v>44075</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G33" s="1">
         <f>DATE(YEAR(E33)+1,MONTH(E33),DAY(E33))</f>
@@ -2251,7 +2251,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -2262,13 +2262,13 @@
         <v>27</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E34" s="1">
         <v>43800</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G34" s="1">
         <f>DATE(YEAR(E34)+1,MONTH(E34),DAY(E34))</f>
@@ -2278,7 +2278,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -2289,13 +2289,13 @@
         <v>70</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E35" s="1">
         <v>44013</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G35" s="1">
         <f>DATE(YEAR(E35),MONTH(E35)+12,DAY(E35))</f>
@@ -2305,7 +2305,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -2313,16 +2313,16 @@
         <v>72</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E36" s="1">
         <v>44075</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G36" s="1">
         <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
@@ -2332,7 +2332,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -2340,16 +2340,16 @@
         <v>74</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E37" s="1">
         <v>44075</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G37" s="1">
         <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
@@ -2359,19 +2359,19 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B38" t="s">
-        <v>211</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>210</v>
-      </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -2379,16 +2379,16 @@
         <v>76</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E39" s="1">
         <v>44075</v>
       </c>
       <c r="F39" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G39" s="1">
         <f>DATE(YEAR(E39),MONTH(E39)+3,DAY(E39))</f>
@@ -2398,24 +2398,24 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E40" s="1">
         <v>44013</v>
       </c>
       <c r="F40" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G40" s="1">
         <f>DATE(YEAR(E40),MONTH(E40)+3,DAY(E40))</f>
@@ -2425,24 +2425,24 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B41" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E41" s="1">
         <v>44136</v>
       </c>
       <c r="F41" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G41" s="1">
         <f>DATE(YEAR(E41),MONTH(E41)+3,DAY(E41))</f>
@@ -2452,7 +2452,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -2460,16 +2460,16 @@
         <v>78</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E42" s="1">
         <v>44075</v>
       </c>
       <c r="F42" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G42" s="1">
         <f>DATE(YEAR(E42),MONTH(E42)+3,DAY(E42))</f>
@@ -2479,7 +2479,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -2490,13 +2490,13 @@
         <v>81</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E43" s="1">
         <v>44105</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G43" s="1">
         <f>DATE(YEAR(E43),MONTH(E43)+1,DAY(E43))</f>
@@ -2506,7 +2506,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>83</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>84</v>
@@ -2523,7 +2523,7 @@
         <v>43831</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G44" s="1">
         <f>DATE(YEAR(E44)+1,MONTH(E44),DAY(E44))</f>
@@ -2533,7 +2533,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -2544,13 +2544,13 @@
         <v>87</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E45" s="1">
         <v>43831</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G45" s="1">
         <v>44256</v>
@@ -2559,7 +2559,7 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -2567,16 +2567,16 @@
         <v>89</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E46" s="1">
         <v>43739</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G46" s="1">
         <f>DATE(YEAR(E46)+1,MONTH(E46),DAY(E46))</f>
@@ -2586,7 +2586,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -2597,13 +2597,13 @@
         <v>92</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E47" s="1">
         <v>43922</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G47" s="1">
         <f>DATE(YEAR(E47),MONTH(E47)+3,DAY(E47))</f>
@@ -2613,7 +2613,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>43862</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G48" s="1">
         <f>DATE(YEAR(E48)+1,MONTH(E48),DAY(E48))</f>
@@ -2638,7 +2638,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>44075</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G49" s="1">
         <f>DATE(YEAR(E49),MONTH(E49)+3,DAY(E49))</f>
@@ -2663,7 +2663,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>44075</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G50" s="1">
         <f>DATE(YEAR(E50),MONTH(E50)+3,DAY(E50))</f>
@@ -2688,7 +2688,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>44075</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G51" s="1">
         <f>DATE(YEAR(E51),MONTH(E51)+3,DAY(E51))</f>
@@ -2713,22 +2713,22 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B52" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="1">
         <v>43770</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G52" s="1">
         <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
@@ -2738,7 +2738,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -2749,13 +2749,13 @@
         <v>106</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E53" s="1">
         <v>43983</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G53" s="1">
         <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
@@ -2765,24 +2765,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E54" s="1">
         <v>43831</v>
       </c>
       <c r="F54" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G54" s="1">
         <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
@@ -2792,7 +2792,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>43983</v>
       </c>
       <c r="F55" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G55" s="1">
         <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
@@ -2817,30 +2817,30 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B56" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B57" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E57" s="1">
         <v>44013</v>
@@ -2850,24 +2850,24 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B58" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E58" s="1">
         <v>44044</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G58" s="1">
         <f>DATE(YEAR(E58),MONTH(E58)+3,DAY(E58))</f>
@@ -2877,7 +2877,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -2888,13 +2888,13 @@
         <v>112</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E59" s="1">
         <v>43734</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G59" s="1">
         <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
@@ -2904,22 +2904,22 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B60" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="1">
         <v>44044</v>
       </c>
       <c r="F60" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G60" s="1">
         <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
@@ -2929,7 +2929,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -2940,13 +2940,13 @@
         <v>115</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E61" s="1">
         <v>43846</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G61" s="1">
         <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
@@ -2956,39 +2956,39 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B62" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E62" s="13">
         <v>43546</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B63" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="1">
         <v>43862</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G63" s="1">
         <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
@@ -2998,24 +2998,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E64" s="1">
         <v>43891</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G64" s="1">
         <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
@@ -3025,7 +3025,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>116</v>
       </c>
@@ -3033,16 +3033,16 @@
         <v>117</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E65" s="1">
         <v>43993</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G65" s="1">
         <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
@@ -3052,7 +3052,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -3060,16 +3060,16 @@
         <v>119</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E66" s="1">
         <v>43993</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G66" s="1">
         <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
@@ -3079,7 +3079,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>120</v>
       </c>
@@ -3087,16 +3087,16 @@
         <v>121</v>
       </c>
       <c r="C67" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="E67" s="1">
         <v>43885</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G67" s="1">
         <f>DATE(YEAR(E67),MONTH(E67)+12,DAY(E67))</f>
@@ -3106,30 +3106,30 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B68" t="s">
         <v>123</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E68" s="1">
         <v>43435</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H68">
         <v>2018</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>122</v>
       </c>
@@ -3140,19 +3140,19 @@
         <v>124</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E69" s="1">
         <v>43447</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H69">
         <v>2018</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>125</v>
       </c>
@@ -3160,16 +3160,16 @@
         <v>126</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E70" s="1">
         <v>43891</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G70" s="1">
         <f>DATE(YEAR(E70)+1,MONTH(E70),DAY(E70))</f>
@@ -3179,7 +3179,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>128</v>
       </c>
@@ -3190,13 +3190,13 @@
         <v>130</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E71" s="1">
         <v>43734</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G71" s="1">
         <v>44197</v>
@@ -3205,7 +3205,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>131</v>
       </c>
@@ -3213,16 +3213,16 @@
         <v>132</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E72" s="1">
         <v>43831</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G72" s="1">
         <f>DATE(YEAR(E72)+1,MONTH(E72),DAY(E72))</f>
@@ -3232,7 +3232,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -3240,16 +3240,16 @@
         <v>134</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E73" s="1">
         <v>44133</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G73" s="1">
         <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
@@ -3259,7 +3259,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>135</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>43950</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G74" s="1">
         <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
@@ -3284,51 +3284,51 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>137</v>
       </c>
       <c r="B75" t="s">
         <v>138</v>
       </c>
-      <c r="C75" s="7" t="s">
-        <v>279</v>
+      <c r="C75" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>278</v>
+        <v>176</v>
       </c>
       <c r="E75" s="1">
-        <v>44166</v>
+        <v>43831</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G75" s="1">
         <f>DATE(YEAR(E75)+1,MONTH(E75),DAY(E75))</f>
-        <v>44531</v>
+        <v>44197</v>
       </c>
       <c r="H75">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E76" s="1">
         <v>43950</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G76" s="1">
         <f>DATE(YEAR(E76),MONTH(E76)+3,DAY(E76))</f>
@@ -3338,36 +3338,36 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B77" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E77" s="1">
         <v>43908</v>
       </c>
       <c r="F77" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G77" s="1">
         <f>DATE(YEAR(E77)+1,MONTH(E77),DAY(E77))</f>
         <v>44273</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B78" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C78" t="s">
         <v>24</v>
@@ -3398,7 +3398,7 @@
     <hyperlink ref="C67" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
     <hyperlink ref="C69" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="C70" r:id="rId22" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C75" r:id="rId23" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C75" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="D54" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="C40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
     <hyperlink ref="C64" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
@@ -3428,55 +3428,56 @@
     <hyperlink ref="D69" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
     <hyperlink ref="D70" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
     <hyperlink ref="D73" r:id="rId52" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D24" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D11" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D22" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D59" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D76" r:id="rId57" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D68" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C68" r:id="rId59" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C52" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D8" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D9" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C3" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C4" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D10" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D21" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D40" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D43" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C44" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D45" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D47" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D53" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D64" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D67" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D71" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C10" r:id="rId76" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
-    <hyperlink ref="D62" r:id="rId77" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
-    <hyperlink ref="C62" r:id="rId78" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
-    <hyperlink ref="C38" r:id="rId79" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D18" r:id="rId80" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C56" r:id="rId81" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
-    <hyperlink ref="D77" r:id="rId82" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
-    <hyperlink ref="C77" r:id="rId83" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
-    <hyperlink ref="D72" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C72" r:id="rId85" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
-    <hyperlink ref="C76" r:id="rId86" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D28" r:id="rId87" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="D27" r:id="rId88" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="C57" r:id="rId89" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
-    <hyperlink ref="D57" r:id="rId90" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
-    <hyperlink ref="C60" r:id="rId91" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
-    <hyperlink ref="C6" r:id="rId92" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="C15" r:id="rId93" xr:uid="{C1BFBDB0-2B35-4AD8-AF91-B4076067FC65}"/>
-    <hyperlink ref="C58" r:id="rId94" xr:uid="{5EBACD19-6508-4DCC-8020-E41133581023}"/>
-    <hyperlink ref="D58" r:id="rId95" xr:uid="{C1A9EA96-4E85-442C-8FEC-7C356A0A442B}"/>
-    <hyperlink ref="D41" r:id="rId96" xr:uid="{65EAFE59-9FCB-4DB0-BFF1-3261B2FA52E7}"/>
+    <hyperlink ref="D75" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D24" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D11" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D22" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D76" r:id="rId58" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D68" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C68" r:id="rId60" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C52" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D8" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D9" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C3" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C4" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D10" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D21" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D40" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D43" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C44" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D45" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D47" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D53" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D64" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D67" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D71" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C10" r:id="rId77" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
+    <hyperlink ref="D62" r:id="rId78" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
+    <hyperlink ref="C62" r:id="rId79" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
+    <hyperlink ref="C38" r:id="rId80" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
+    <hyperlink ref="D18" r:id="rId81" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="C56" r:id="rId82" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D77" r:id="rId83" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
+    <hyperlink ref="C77" r:id="rId84" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
+    <hyperlink ref="D72" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C72" r:id="rId86" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
+    <hyperlink ref="C76" r:id="rId87" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
+    <hyperlink ref="D28" r:id="rId88" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="D27" r:id="rId89" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="C57" r:id="rId90" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
+    <hyperlink ref="D57" r:id="rId91" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="C60" r:id="rId92" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
+    <hyperlink ref="C6" r:id="rId93" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
+    <hyperlink ref="C15" r:id="rId94" xr:uid="{C1BFBDB0-2B35-4AD8-AF91-B4076067FC65}"/>
+    <hyperlink ref="C58" r:id="rId95" xr:uid="{5EBACD19-6508-4DCC-8020-E41133581023}"/>
+    <hyperlink ref="D58" r:id="rId96" xr:uid="{C1A9EA96-4E85-442C-8FEC-7C356A0A442B}"/>
+    <hyperlink ref="D41" r:id="rId97" xr:uid="{65EAFE59-9FCB-4DB0-BFF1-3261B2FA52E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId97"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId98"/>
   <tableParts count="1">
-    <tablePart r:id="rId98"/>
+    <tablePart r:id="rId99"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041F214E-1330-495C-8920-8855954A1CAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16041A8E-551C-4C59-9C33-E65AC505A41C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -675,9 +675,6 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/868762/LSOA_domestic_elec_2010-18.xlsx</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/883181/2019-fourth-provisional-rf-01-rtfo-tables.ods</t>
-  </si>
-  <si>
     <t>OFGEMSuppliers</t>
   </si>
   <si>
@@ -865,6 +862,9 @@
   </si>
   <si>
     <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/932661/2019-final-rf-01-rtfo-tables.ods</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1049,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H78" totalsRowShown="0">
-  <autoFilter ref="A1:H78" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:H78" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="6">
+      <filters blank="1">
+        <dateGroupItem year="2020" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H78">
     <sortCondition ref="A1:A78"/>
   </sortState>
@@ -1366,23 +1372,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="102.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="102.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.453125" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1408,33 +1414,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="1">
         <v>43916</v>
       </c>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G2" s="1">
         <v>44008</v>
       </c>
       <c r="H2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1460,7 +1466,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1486,7 +1492,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1494,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>193</v>
@@ -1513,7 +1519,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1521,7 +1527,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>150</v>
@@ -1540,7 +1546,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1548,7 +1554,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>150</v>
@@ -1567,7 +1573,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1575,7 +1581,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>150</v>
@@ -1594,7 +1600,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1602,7 +1608,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>150</v>
@@ -1621,7 +1627,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>204</v>
       </c>
@@ -1648,7 +1654,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1675,7 +1681,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1695,7 +1701,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1722,7 +1728,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1744,7 +1750,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1752,7 +1758,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>152</v>
@@ -1771,7 +1777,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1779,7 +1785,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>153</v>
@@ -1798,7 +1804,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1825,7 +1831,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>214</v>
       </c>
@@ -1852,7 +1858,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1860,7 +1866,7 @@
         <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>155</v>
@@ -1879,7 +1885,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1906,7 +1912,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1933,7 +1939,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1941,7 +1947,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>158</v>
@@ -1960,7 +1966,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1968,7 +1974,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>158</v>
@@ -1987,7 +1993,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1995,7 +2001,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>176</v>
@@ -2014,7 +2020,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -2022,7 +2028,7 @@
         <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>158</v>
@@ -2041,7 +2047,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2049,7 +2055,7 @@
         <v>54</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>159</v>
@@ -2068,18 +2074,18 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" t="s">
         <v>231</v>
       </c>
-      <c r="B27" t="s">
-        <v>232</v>
-      </c>
       <c r="C27" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E27" s="1">
         <v>44075</v>
@@ -2092,18 +2098,18 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="B28" t="s">
-        <v>230</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="E28" s="1">
         <v>44075</v>
@@ -2116,7 +2122,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -2124,7 +2130,7 @@
         <v>56</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>160</v>
@@ -2143,7 +2149,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -2151,7 +2157,7 @@
         <v>58</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>161</v>
@@ -2170,7 +2176,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -2197,7 +2203,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -2205,7 +2211,7 @@
         <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>163</v>
@@ -2224,7 +2230,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -2232,7 +2238,7 @@
         <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>164</v>
@@ -2251,7 +2257,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -2278,7 +2284,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -2305,7 +2311,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -2313,7 +2319,7 @@
         <v>72</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>149</v>
@@ -2332,7 +2338,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -2340,7 +2346,7 @@
         <v>74</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>149</v>
@@ -2359,7 +2365,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>212</v>
       </c>
@@ -2371,7 +2377,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -2379,7 +2385,7 @@
         <v>76</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>167</v>
@@ -2398,7 +2404,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>143</v>
       </c>
@@ -2406,37 +2412,37 @@
         <v>144</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>197</v>
       </c>
       <c r="E40" s="1">
-        <v>44013</v>
+        <v>44136</v>
       </c>
       <c r="F40" t="s">
         <v>178</v>
       </c>
       <c r="G40" s="1">
         <f>DATE(YEAR(E40),MONTH(E40)+3,DAY(E40))</f>
-        <v>44105</v>
+        <v>44228</v>
       </c>
       <c r="H40">
         <v>2019</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>273</v>
+      </c>
+      <c r="B41" t="s">
         <v>274</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>277</v>
       </c>
       <c r="E41" s="1">
         <v>44136</v>
@@ -2452,7 +2458,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -2460,7 +2466,7 @@
         <v>78</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>167</v>
@@ -2479,7 +2485,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -2493,20 +2499,20 @@
         <v>198</v>
       </c>
       <c r="E43" s="1">
-        <v>44105</v>
+        <v>44166</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>180</v>
       </c>
       <c r="G43" s="1">
         <f>DATE(YEAR(E43),MONTH(E43)+1,DAY(E43))</f>
-        <v>44136</v>
+        <v>44197</v>
       </c>
       <c r="H43" s="8">
         <v>44013</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -2533,7 +2539,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -2559,7 +2565,7 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -2567,26 +2573,26 @@
         <v>89</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E46" s="1">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>179</v>
       </c>
       <c r="G46" s="1">
         <f>DATE(YEAR(E46)+1,MONTH(E46),DAY(E46))</f>
-        <v>44105</v>
+        <v>44470</v>
       </c>
       <c r="H46">
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -2606,14 +2612,13 @@
         <v>178</v>
       </c>
       <c r="G47" s="1">
-        <f>DATE(YEAR(E47),MONTH(E47)+3,DAY(E47))</f>
-        <v>44013</v>
+        <v>44197</v>
       </c>
       <c r="H47">
         <v>2018</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -2638,7 +2643,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -2650,20 +2655,20 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="1">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>178</v>
       </c>
       <c r="G49" s="1">
         <f>DATE(YEAR(E49),MONTH(E49)+3,DAY(E49))</f>
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="H49" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -2675,20 +2680,20 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="1">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>178</v>
       </c>
       <c r="G50" s="1">
         <f>DATE(YEAR(E50),MONTH(E50)+3,DAY(E50))</f>
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="H50" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -2700,20 +2705,20 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="1">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>178</v>
       </c>
       <c r="G51" s="1">
         <f>DATE(YEAR(E51),MONTH(E51)+3,DAY(E51))</f>
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="H51" s="8">
         <v>43800</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>185</v>
       </c>
@@ -2738,7 +2743,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -2765,7 +2770,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>141</v>
       </c>
@@ -2792,7 +2797,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -2817,30 +2822,30 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" t="s">
         <v>217</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>219</v>
-      </c>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" t="s">
         <v>233</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="E57" s="1">
         <v>44013</v>
@@ -2850,18 +2855,18 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>265</v>
+      </c>
+      <c r="B58" t="s">
         <v>266</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="D58" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="E58" s="1">
         <v>44044</v>
@@ -2877,7 +2882,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -2904,15 +2909,15 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>237</v>
+      </c>
+      <c r="B60" t="s">
         <v>238</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="1">
@@ -2929,7 +2934,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -2956,7 +2961,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>206</v>
       </c>
@@ -2973,7 +2978,7 @@
         <v>43546</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>188</v>
       </c>
@@ -2998,7 +3003,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>145</v>
       </c>
@@ -3025,7 +3030,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>116</v>
       </c>
@@ -3033,10 +3038,10 @@
         <v>117</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E65" s="1">
         <v>43993</v>
@@ -3052,7 +3057,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -3060,10 +3065,10 @@
         <v>119</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="E66" s="1">
         <v>43993</v>
@@ -3079,7 +3084,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>120</v>
       </c>
@@ -3096,7 +3101,7 @@
         <v>43885</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G67" s="1">
         <f>DATE(YEAR(E67),MONTH(E67)+12,DAY(E67))</f>
@@ -3106,7 +3111,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>182</v>
       </c>
@@ -3129,7 +3134,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>122</v>
       </c>
@@ -3152,7 +3157,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>125</v>
       </c>
@@ -3160,7 +3165,7 @@
         <v>126</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>172</v>
@@ -3179,7 +3184,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>128</v>
       </c>
@@ -3205,7 +3210,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>131</v>
       </c>
@@ -3213,7 +3218,7 @@
         <v>132</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>173</v>
@@ -3232,7 +3237,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -3240,7 +3245,7 @@
         <v>134</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>174</v>
@@ -3259,7 +3264,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>135</v>
       </c>
@@ -3284,7 +3289,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>137</v>
       </c>
@@ -3292,10 +3297,10 @@
         <v>138</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E75" s="1">
         <v>44166</v>
@@ -3311,7 +3316,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>139</v>
       </c>
@@ -3319,7 +3324,7 @@
         <v>140</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>175</v>
@@ -3338,18 +3343,18 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" t="s">
         <v>221</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="E77" s="1">
         <v>43908</v>
@@ -3362,12 +3367,12 @@
         <v>44273</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B78" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C78" t="s">
         <v>24</v>
@@ -3400,83 +3405,82 @@
     <hyperlink ref="C70" r:id="rId22" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="C75" r:id="rId23" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="D54" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C64" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D3" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D4" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D5" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D6" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D6:D8" r:id="rId31" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D15" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D16" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D17" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D26" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D29" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D30" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D31" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D32" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D33" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D34" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D35" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D36" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D37" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D39" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D42" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D61" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D69" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D70" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D73" r:id="rId52" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D24" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D11" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D22" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D59" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D76" r:id="rId57" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D68" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C68" r:id="rId59" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C52" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D8" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D9" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C3" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C4" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D10" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D21" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D40" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D43" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C44" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D45" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D47" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D53" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D64" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D67" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D71" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C10" r:id="rId76" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
-    <hyperlink ref="D62" r:id="rId77" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
-    <hyperlink ref="C62" r:id="rId78" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
-    <hyperlink ref="C38" r:id="rId79" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D18" r:id="rId80" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C56" r:id="rId81" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
-    <hyperlink ref="D77" r:id="rId82" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
-    <hyperlink ref="C77" r:id="rId83" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
-    <hyperlink ref="D72" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C72" r:id="rId85" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
-    <hyperlink ref="C76" r:id="rId86" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D28" r:id="rId87" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="D27" r:id="rId88" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="C57" r:id="rId89" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
-    <hyperlink ref="D57" r:id="rId90" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
-    <hyperlink ref="C60" r:id="rId91" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
-    <hyperlink ref="C6" r:id="rId92" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="C15" r:id="rId93" xr:uid="{C1BFBDB0-2B35-4AD8-AF91-B4076067FC65}"/>
-    <hyperlink ref="C58" r:id="rId94" xr:uid="{5EBACD19-6508-4DCC-8020-E41133581023}"/>
-    <hyperlink ref="D58" r:id="rId95" xr:uid="{C1A9EA96-4E85-442C-8FEC-7C356A0A442B}"/>
-    <hyperlink ref="D41" r:id="rId96" xr:uid="{65EAFE59-9FCB-4DB0-BFF1-3261B2FA52E7}"/>
+    <hyperlink ref="C64" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D3" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D4" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D5" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D6" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D6:D8" r:id="rId30" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D15" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D16" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D17" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D26" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D29" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D30" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D31" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D32" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D33" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D34" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D35" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D36" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D37" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D39" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D42" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D61" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D69" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D70" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D73" r:id="rId51" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D24" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D11" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D22" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D59" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D76" r:id="rId56" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D68" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C68" r:id="rId58" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C52" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D8" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D9" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C3" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C4" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D10" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D21" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D40" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D43" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C44" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D45" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D47" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D53" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D64" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D67" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D71" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C10" r:id="rId75" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
+    <hyperlink ref="D62" r:id="rId76" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
+    <hyperlink ref="C62" r:id="rId77" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
+    <hyperlink ref="C38" r:id="rId78" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
+    <hyperlink ref="D18" r:id="rId79" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="C56" r:id="rId80" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D77" r:id="rId81" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
+    <hyperlink ref="C77" r:id="rId82" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
+    <hyperlink ref="D72" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C72" r:id="rId84" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
+    <hyperlink ref="C76" r:id="rId85" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
+    <hyperlink ref="D28" r:id="rId86" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="D27" r:id="rId87" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="C57" r:id="rId88" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
+    <hyperlink ref="D57" r:id="rId89" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="C60" r:id="rId90" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
+    <hyperlink ref="C6" r:id="rId91" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
+    <hyperlink ref="C15" r:id="rId92" xr:uid="{C1BFBDB0-2B35-4AD8-AF91-B4076067FC65}"/>
+    <hyperlink ref="C58" r:id="rId93" xr:uid="{5EBACD19-6508-4DCC-8020-E41133581023}"/>
+    <hyperlink ref="D58" r:id="rId94" xr:uid="{C1A9EA96-4E85-442C-8FEC-7C356A0A442B}"/>
+    <hyperlink ref="D41" r:id="rId95" xr:uid="{65EAFE59-9FCB-4DB0-BFF1-3261B2FA52E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId97"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId96"/>
   <tableParts count="1">
-    <tablePart r:id="rId98"/>
+    <tablePart r:id="rId97"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16041A8E-551C-4C59-9C33-E65AC505A41C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1D407A-99C1-416D-8F31-ADD9926522B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -837,9 +837,6 @@
     <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx</t>
   </si>
   <si>
-    <t>https://www.gov.uk/government/statistics/rhi-monthly-deployment-data-september-2020-quarterly-edition</t>
-  </si>
-  <si>
     <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/10/gdp-quarterly-national-accounts-2020-q2/documents/gdp-by-industry-in-real-terms-2nd-estimate-tables/gdp-by-industry-in-real-terms-2nd-estimate-tables/govscot%3Adocument/%25281%2529%2BGDP%2BQNAS%2B2020%2BQ2%2B-%2BGDP%2BSecond%2BEstimate%2BTables.xlsx</t>
   </si>
   <si>
@@ -865,6 +862,9 @@
   </si>
   <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/932661/2019-final-rf-01-rtfo-tables.ods</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/rhi-monthly-deployment-data-october-2020</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1373,7 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2157,7 +2157,7 @@
         <v>58</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>161</v>
@@ -2412,7 +2412,7 @@
         <v>144</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>197</v>
@@ -2433,16 +2433,16 @@
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>272</v>
+      </c>
+      <c r="B41" t="s">
         <v>273</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>276</v>
       </c>
       <c r="E41" s="1">
         <v>44136</v>
@@ -2573,10 +2573,10 @@
         <v>89</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E46" s="1">
         <v>44105</v>
@@ -3245,7 +3245,7 @@
         <v>134</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>174</v>
@@ -3297,10 +3297,10 @@
         <v>138</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E75" s="1">
         <v>44166</v>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1D407A-99C1-416D-8F31-ADD9926522B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2864170E-168D-4317-9492-10F026387C0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,9 +363,6 @@
     <t xml:space="preserve">Oil &amp; Gas UK: Workforce Report </t>
   </si>
   <si>
-    <t>https://oilandgasuk.co.uk/wp-content/uploads/2019/08/Workforce-Report-2019.pdf</t>
-  </si>
-  <si>
     <t>ONSLowCarbon</t>
   </si>
   <si>
@@ -483,9 +480,6 @@
     <t>https://www.gov.uk/government/collections/energy-trends</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gov.uk/government/collections/household-energy-efficiency-national-statistics </t>
-  </si>
-  <si>
     <t>https://www.gov.uk/government/statistics/electricity-section-5-energy-trends</t>
   </si>
   <si>
@@ -588,9 +582,6 @@
     <t>National Grid: Electricity Ten Year Statement</t>
   </si>
   <si>
-    <t>https://www.nationalgrideso.com/document/157451/download</t>
-  </si>
-  <si>
     <t>SESHEnergyBalance</t>
   </si>
   <si>
@@ -762,9 +753,6 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/895137/Headline_impact_of_measures_Scotland_2017.xlsx</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/901382/renewable-energy-planning-database-june-2020-update.xlsx</t>
-  </si>
-  <si>
     <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/06/scottish-greenhouse-gas-emissions-2018/documents/2018-tables/2018-tables/govscot%3Adocument/2018-tables.xlsx</t>
   </si>
   <si>
@@ -777,9 +765,6 @@
     <t>https://www.gov.uk/government/statistics/household-energy-efficiency-statistics-headline-release-september-2020</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/920617/ET_5.6_SEP_20.xls</t>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/920429/table_242.xlsx</t>
   </si>
   <si>
@@ -828,9 +813,6 @@
     <t>OFGEM: Domestic Renewable Heat Incentive</t>
   </si>
   <si>
-    <t>https://www.ofgem.gov.uk/system/files/docs/2020/08/drhi_quarterly_report_issue_25_aug20.pdf</t>
-  </si>
-  <si>
     <t>https://www.ofgem.gov.uk/environmental-programmes/domestic-rhi</t>
   </si>
   <si>
@@ -864,7 +846,25 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/932661/2019-final-rf-01-rtfo-tables.ods</t>
   </si>
   <si>
-    <t>https://www.gov.uk/government/statistics/rhi-monthly-deployment-data-october-2020</t>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/944309/Headline_HEE_tables_17_DEC_2020_FINAL.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/household-energy-efficiency-national-statistics</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/928876/renewable-energy-planning-database-september-2020-update.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/944296/RHI_monthly_official_stats_tables_Nov_20_final.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.nationalgrideso.com/research-publications/etys-2020</t>
+  </si>
+  <si>
+    <t>https://oilandgasuk.co.uk/wp-content/uploads/2020/10/Workforce-Report-2020.pdf</t>
+  </si>
+  <si>
+    <t>https://www.ofgem.gov.uk/publications-and-updates/domestic-renewable-heat-incentive-quarterly-report-issue-26</t>
   </si>
 </sst>
 </file>
@@ -912,7 +912,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -925,8 +925,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -934,17 +940,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
@@ -953,7 +967,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1051,7 +1089,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H78" totalsRowShown="0">
   <autoFilter ref="A1:H78" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="6">
-      <filters blank="1">
+      <filters>
         <dateGroupItem year="2020" dateTimeGrouping="year"/>
       </filters>
     </filterColumn>
@@ -1373,7 +1411,7 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1396,10 +1434,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" t="s">
         <v>147</v>
-      </c>
-      <c r="D1" t="s">
-        <v>148</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1408,7 +1446,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -1416,79 +1454,79 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="E2" s="1">
         <v>43916</v>
       </c>
       <c r="F2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G2" s="1">
         <v>44008</v>
       </c>
       <c r="H2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C3" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="14">
         <v>43983</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="14">
         <v>44166</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="12">
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C4" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="14">
         <v>43983</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="14">
         <v>44166</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="12">
         <v>2019</v>
       </c>
     </row>
@@ -1500,16 +1538,16 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>193</v>
+        <v>258</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="E5" s="1">
         <v>44075</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G11" si="0">DATE(YEAR(E5)+1,MONTH(E5),DAY(E5))</f>
@@ -1526,17 +1564,17 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>150</v>
+      <c r="C6" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="E6" s="1">
         <v>44013</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
@@ -1554,16 +1592,16 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>150</v>
+        <v>238</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="E7" s="1">
         <v>44013</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
@@ -1581,16 +1619,16 @@
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>150</v>
+        <v>239</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="E8" s="1">
         <v>44013</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
@@ -1608,16 +1646,16 @@
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>150</v>
+        <v>240</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="E9" s="1">
         <v>44013</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
@@ -1628,179 +1666,180 @@
       </c>
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="A10" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="10">
         <v>43862</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10" s="11">
+      <c r="F10" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="10">
         <f t="shared" si="0"/>
         <v>44228</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="14">
         <v>43800</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="F11" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="14">
         <f t="shared" si="0"/>
         <v>44166</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="12">
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="14">
         <v>43916</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H12">
+      <c r="F12" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="12">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="14">
         <v>43818</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="F13" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" s="14">
         <f>DATE(YEAR(E13)+1,MONTH(E13),DAY(E13))</f>
         <v>44184</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="12">
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="1">
+      <c r="D14" s="17"/>
+      <c r="E14" s="14">
         <v>43466</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14">
+      <c r="F14" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="12">
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="15" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="C15" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="E15" s="22">
+        <v>44166</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G15" s="22">
+        <f>DATE(YEAR(E15),MONTH(E15)+1,DAY(E15))</f>
+        <v>44197</v>
+      </c>
+      <c r="H15" s="24">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="14">
         <v>44075</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G15" s="1">
-        <f>DATE(YEAR(E15),MONTH(E15)+1,DAY(E15))</f>
-        <v>44105</v>
-      </c>
-      <c r="H15" s="8">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" s="1">
-        <v>44075</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="F16" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" s="14">
         <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
         <v>44166</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="18">
         <v>43800</v>
       </c>
     </row>
@@ -1814,14 +1853,14 @@
       <c r="C17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>154</v>
+      <c r="D17" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="E17" s="1">
         <v>43983</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G17" s="1">
         <f>DATE(YEAR(E17)+1,MONTH(E17),DAY(E17))</f>
@@ -1833,22 +1872,22 @@
     </row>
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s">
-        <v>213</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>195</v>
+        <v>210</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="E18" s="1">
         <v>43889</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G18" s="1">
         <f>DATE(YEAR(E18)+1,MONTH(E18),DAY(E18))</f>
@@ -1866,16 +1905,16 @@
         <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>155</v>
+        <v>241</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="E19" s="1">
         <v>44009</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G19" s="1">
         <f>DATE(YEAR(E19)+1,MONTH(E19),DAY(E19))</f>
@@ -1885,213 +1924,213 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="20" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="14">
         <v>43800</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="F20" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" s="14">
         <f>DATE(YEAR(E20)+1,MONTH(E20),DAY(E20))</f>
         <v>44166</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="12">
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="21" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" s="1">
-        <v>44070</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="D21" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="14">
+        <v>44136</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" s="14">
         <f>DATE(YEAR(E21),MONTH(E21)+1,DAY(E21))</f>
-        <v>44101</v>
-      </c>
-      <c r="H21" s="8">
+        <v>44166</v>
+      </c>
+      <c r="H21" s="18">
         <v>43831</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="22" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="C22" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="14">
         <v>44075</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="F22" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="14">
         <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
         <v>44166</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="18">
         <v>43800</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="23" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="C23" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="14">
         <v>44075</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="F23" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" s="14">
         <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
         <v>44166</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="18">
         <v>43800</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="24" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="14">
+        <v>44075</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="E24" s="1">
-        <v>44075</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="G24" s="14">
         <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
         <v>44166</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="18">
         <v>43800</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="25" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="C25" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="14">
         <v>44075</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="F25" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="14">
         <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
         <v>44166</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="18">
         <v>43800</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="26" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="C26" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="14">
         <v>44075</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="F26" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" s="14">
         <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
         <v>44166</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="18">
         <v>43800</v>
       </c>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s">
-        <v>231</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D27" s="6" t="s">
         <v>228</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="E27" s="1">
         <v>44075</v>
       </c>
       <c r="F27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G27" s="1">
         <f>DATE(YEAR(E27)+1,MONTH(E27),DAY(E27))</f>
@@ -2100,106 +2139,106 @@
     </row>
     <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s">
-        <v>229</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="E28" s="1">
         <v>44075</v>
       </c>
       <c r="F28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G28" s="1">
         <f>DATE(YEAR(E28)+1,MONTH(E28),DAY(E28))</f>
         <v>44440</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="29" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="C29" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="22">
+        <v>44105</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" s="22">
+        <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
+        <v>44197</v>
+      </c>
+      <c r="H29" s="22">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="22">
+        <v>44166</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G30" s="22">
+        <f>DATE(YEAR(E30),MONTH(E30)+1,DAY(E30))</f>
+        <v>44197</v>
+      </c>
+      <c r="H30" s="24">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E29" s="1">
-        <v>44075</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G29" s="1">
-        <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
-        <v>44166</v>
-      </c>
-      <c r="H29" s="1">
-        <v>43891</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E30" s="1">
-        <v>44105</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G30" s="1">
-        <f>DATE(YEAR(E30),MONTH(E30)+1,DAY(E30))</f>
-        <v>44136</v>
-      </c>
-      <c r="H30" s="8">
-        <v>44013</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="E31" s="14">
         <v>43800</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="F31" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="14">
         <f>DATE(YEAR(E31)+1,MONTH(E31),DAY(E31))</f>
         <v>44166</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="12">
         <v>2018</v>
       </c>
     </row>
@@ -2211,16 +2250,16 @@
         <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>163</v>
+        <v>252</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="E32" s="1">
         <v>44075</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G32" s="1">
         <f>DATE(YEAR(E32)+1,MONTH(E32),DAY(E32))</f>
@@ -2238,16 +2277,16 @@
         <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>164</v>
+        <v>257</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="E33" s="1">
         <v>44075</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G33" s="1">
         <f>DATE(YEAR(E33)+1,MONTH(E33),DAY(E33))</f>
@@ -2257,30 +2296,30 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="34" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D34" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="14">
         <v>43800</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G34" s="1">
+      <c r="F34" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="14">
         <f>DATE(YEAR(E34)+1,MONTH(E34),DAY(E34))</f>
         <v>44166</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="12">
         <v>2018</v>
       </c>
     </row>
@@ -2294,14 +2333,14 @@
       <c r="C35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>166</v>
+      <c r="D35" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="E35" s="1">
         <v>44013</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G35" s="1">
         <f>DATE(YEAR(E35),MONTH(E35)+12,DAY(E35))</f>
@@ -2311,117 +2350,119 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="36" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="C36" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="14">
         <v>44075</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G36" s="1">
+      <c r="F36" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G36" s="14">
         <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
         <v>44166</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="12">
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="37" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="C37" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="14">
         <v>44075</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="F37" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37" s="14">
         <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
         <v>44166</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="12">
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>212</v>
-      </c>
-      <c r="B38" t="s">
-        <v>211</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="38" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="22"/>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:8" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E39" s="1">
-        <v>44075</v>
-      </c>
-      <c r="F39" t="s">
-        <v>178</v>
-      </c>
-      <c r="G39" s="1">
+      <c r="C39" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="29">
+        <v>44166</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="G39" s="29">
         <f>DATE(YEAR(E39),MONTH(E39)+3,DAY(E39))</f>
-        <v>44166</v>
-      </c>
-      <c r="H39" s="8">
+        <v>44256</v>
+      </c>
+      <c r="H39" s="36">
         <v>43709</v>
       </c>
     </row>
     <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" t="s">
         <v>143</v>
       </c>
-      <c r="B40" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>197</v>
+      <c r="C40" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="E40" s="1">
         <v>44136</v>
       </c>
       <c r="F40" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G40" s="1">
         <f>DATE(YEAR(E40),MONTH(E40)+3,DAY(E40))</f>
@@ -2433,55 +2474,55 @@
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B41" t="s">
-        <v>273</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>275</v>
+        <v>267</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="E41" s="1">
         <v>44136</v>
       </c>
       <c r="F41" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G41" s="1">
         <f>DATE(YEAR(E41),MONTH(E41)+3,DAY(E41))</f>
         <v>44228</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="7">
         <v>44105</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="42" spans="1:8" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E42" s="1">
-        <v>44075</v>
-      </c>
-      <c r="F42" t="s">
-        <v>178</v>
-      </c>
-      <c r="G42" s="1">
+      <c r="C42" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" s="29">
+        <v>44166</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="G42" s="29">
         <f>DATE(YEAR(E42),MONTH(E42)+3,DAY(E42))</f>
-        <v>44166</v>
-      </c>
-      <c r="H42" s="8">
+        <v>44256</v>
+      </c>
+      <c r="H42" s="36">
         <v>43709</v>
       </c>
     </row>
@@ -2492,23 +2533,23 @@
       <c r="B43" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>198</v>
+      <c r="D43" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="E43" s="1">
         <v>44166</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G43" s="1">
         <f>DATE(YEAR(E43),MONTH(E43)+1,DAY(E43))</f>
         <v>44197</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="7">
         <v>44013</v>
       </c>
     </row>
@@ -2519,8 +2560,8 @@
       <c r="B44" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>199</v>
+      <c r="C44" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>84</v>
@@ -2529,7 +2570,7 @@
         <v>43831</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G44" s="1">
         <f>DATE(YEAR(E44)+1,MONTH(E44),DAY(E44))</f>
@@ -2549,19 +2590,19 @@
       <c r="C45" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>200</v>
+      <c r="D45" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="E45" s="1">
         <v>43831</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G45" s="1">
         <v>44256</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="7">
         <v>43617</v>
       </c>
     </row>
@@ -2573,16 +2614,16 @@
         <v>89</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="E46" s="1">
         <v>44105</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G46" s="1">
         <f>DATE(YEAR(E46)+1,MONTH(E46),DAY(E46))</f>
@@ -2602,14 +2643,14 @@
       <c r="C47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>201</v>
+      <c r="D47" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="E47" s="1">
         <v>43922</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G47" s="1">
         <v>44197</v>
@@ -2625,15 +2666,15 @@
       <c r="B48" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="5"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="1">
         <v>43862</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G48" s="1">
         <f>DATE(YEAR(E48)+1,MONTH(E48),DAY(E48))</f>
@@ -2658,13 +2699,13 @@
         <v>44166</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G49" s="1">
         <f>DATE(YEAR(E49),MONTH(E49)+3,DAY(E49))</f>
         <v>44256</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="7">
         <v>43800</v>
       </c>
     </row>
@@ -2683,13 +2724,13 @@
         <v>44166</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G50" s="1">
         <f>DATE(YEAR(E50),MONTH(E50)+3,DAY(E50))</f>
         <v>44256</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="7">
         <v>43800</v>
       </c>
     </row>
@@ -2708,38 +2749,38 @@
         <v>44166</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G51" s="1">
         <f>DATE(YEAR(E51),MONTH(E51)+3,DAY(E51))</f>
         <v>44256</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="7">
         <v>43800</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>185</v>
-      </c>
-      <c r="B52" t="s">
-        <v>186</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="1">
-        <v>43770</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G52" s="1">
+    <row r="52" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="D52" s="21"/>
+      <c r="E52" s="22">
+        <v>44136</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G52" s="22">
         <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
-        <v>44136</v>
-      </c>
-      <c r="H52">
+        <v>44501</v>
+      </c>
+      <c r="H52" s="20">
         <v>2019</v>
       </c>
     </row>
@@ -2753,14 +2794,14 @@
       <c r="C53" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>202</v>
+      <c r="D53" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="E53" s="1">
         <v>43983</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G53" s="1">
         <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
@@ -2772,22 +2813,22 @@
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B54" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="E54" s="1">
         <v>43831</v>
       </c>
       <c r="F54" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G54" s="1">
         <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
@@ -2812,7 +2853,7 @@
         <v>43983</v>
       </c>
       <c r="F55" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G55" s="1">
         <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
@@ -2822,30 +2863,32 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>216</v>
-      </c>
-      <c r="B56" t="s">
-        <v>217</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D56" s="7"/>
+    <row r="56" spans="1:8" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="D56" s="32"/>
+      <c r="E56" s="33"/>
+      <c r="G56" s="33"/>
     </row>
     <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>229</v>
+      </c>
+      <c r="B57" t="s">
+        <v>230</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="B57" t="s">
-        <v>233</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="E57" s="1">
         <v>44013</v>
@@ -2855,76 +2898,75 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>265</v>
-      </c>
-      <c r="B58" t="s">
-        <v>266</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="E58" s="1">
-        <v>44044</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G58" s="1">
+    <row r="58" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="E58" s="22">
+        <v>44136</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G58" s="22">
         <f>DATE(YEAR(E58),MONTH(E58)+3,DAY(E58))</f>
-        <v>44136</v>
-      </c>
-      <c r="H58" s="8">
+        <v>44228</v>
+      </c>
+      <c r="H58" s="24">
         <v>44013</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    <row r="59" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="E59" s="1">
+      <c r="C59" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E59" s="22">
         <v>43734</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G59" s="1">
-        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
-        <v>44100</v>
-      </c>
-      <c r="H59">
+      <c r="F59" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G59" s="22">
+        <v>44256</v>
+      </c>
+      <c r="H59" s="20">
         <v>2018</v>
       </c>
     </row>
     <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B60" t="s">
-        <v>238</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D60" s="6"/>
+        <v>235</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D60" s="5"/>
       <c r="E60" s="1">
         <v>44044</v>
       </c>
       <c r="F60" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G60" s="1">
         <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
@@ -2936,22 +2978,22 @@
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" t="s">
         <v>113</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>168</v>
+      <c r="D61" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="E61" s="1">
         <v>43846</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G61" s="1">
         <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
@@ -2961,39 +3003,40 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    <row r="62" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C62" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="B62" t="s">
-        <v>207</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E62" s="13">
+      <c r="D62" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="E62" s="34">
         <v>43546</v>
       </c>
+      <c r="G62" s="22"/>
     </row>
     <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B63" t="s">
-        <v>189</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D63" s="6"/>
+        <v>186</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" s="5"/>
       <c r="E63" s="1">
         <v>43862</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G63" s="1">
         <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
@@ -3005,22 +3048,22 @@
     </row>
     <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" t="s">
         <v>145</v>
       </c>
-      <c r="B64" t="s">
-        <v>146</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>172</v>
+      <c r="C64" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="E64" s="1">
         <v>43891</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G64" s="1">
         <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
@@ -3032,22 +3075,22 @@
     </row>
     <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" t="s">
         <v>116</v>
       </c>
-      <c r="B65" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>248</v>
+      <c r="C65" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="E65" s="1">
         <v>43993</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G65" s="1">
         <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
@@ -3059,22 +3102,22 @@
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" t="s">
         <v>118</v>
       </c>
-      <c r="B66" t="s">
-        <v>119</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="E66" s="1">
         <v>43993</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G66" s="1">
         <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
@@ -3086,22 +3129,22 @@
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" t="s">
         <v>120</v>
       </c>
-      <c r="B67" t="s">
-        <v>121</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>170</v>
+      <c r="C67" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="E67" s="1">
         <v>43885</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G67" s="1">
         <f>DATE(YEAR(E67),MONTH(E67)+12,DAY(E67))</f>
@@ -3111,70 +3154,72 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="68" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="B68" t="s">
+      <c r="D68" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E68" s="22">
+        <v>43435</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G68" s="22"/>
+      <c r="H68" s="20">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E68" s="1">
-        <v>43435</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H68">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" t="s">
-        <v>123</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E69" s="1">
+      <c r="D69" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E69" s="22">
         <v>43447</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H69">
+      <c r="F69" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G69" s="22"/>
+      <c r="H69" s="20">
         <v>2018</v>
       </c>
     </row>
     <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" t="s">
         <v>125</v>
       </c>
-      <c r="B70" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>172</v>
+      <c r="C70" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="E70" s="1">
         <v>43891</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G70" s="1">
         <f>DATE(YEAR(E70)+1,MONTH(E70),DAY(E70))</f>
@@ -3186,22 +3231,22 @@
     </row>
     <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" t="s">
         <v>128</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>203</v>
+      <c r="D71" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="E71" s="1">
         <v>43734</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G71" s="1">
         <v>44197</v>
@@ -3212,22 +3257,22 @@
     </row>
     <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" t="s">
         <v>131</v>
       </c>
-      <c r="B72" t="s">
-        <v>132</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>173</v>
+      <c r="C72" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="E72" s="1">
         <v>43831</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G72" s="1">
         <f>DATE(YEAR(E72)+1,MONTH(E72),DAY(E72))</f>
@@ -3239,22 +3284,22 @@
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" t="s">
         <v>133</v>
       </c>
-      <c r="B73" t="s">
-        <v>134</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>174</v>
+      <c r="C73" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="E73" s="1">
         <v>44133</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G73" s="1">
         <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
@@ -3264,49 +3309,49 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+    <row r="74" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B74" t="s">
-        <v>136</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="1">
+      <c r="D74" s="25"/>
+      <c r="E74" s="22">
         <v>43950</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G74" s="1">
-        <f>EDATE(Table1[[#This Row],[Last Updated]],3)</f>
-        <v>44041</v>
-      </c>
-      <c r="H74">
+      <c r="F74" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G74" s="22">
+        <f>EDATE(Table1[[#This Row],[Last Updated]],12)</f>
+        <v>44315</v>
+      </c>
+      <c r="H74" s="20">
         <v>2018</v>
       </c>
     </row>
     <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" t="s">
         <v>137</v>
       </c>
-      <c r="B75" t="s">
-        <v>138</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>276</v>
+      <c r="C75" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="E75" s="1">
         <v>44166</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G75" s="1">
         <f>DATE(YEAR(E75)+1,MONTH(E75),DAY(E75))</f>
@@ -3316,68 +3361,70 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+    <row r="76" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B76" t="s">
-        <v>140</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E76" s="1">
+      <c r="C76" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E76" s="22">
         <v>43950</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G76" s="1">
-        <f>DATE(YEAR(E76),MONTH(E76)+3,DAY(E76))</f>
-        <v>44041</v>
-      </c>
-      <c r="H76">
+      <c r="F76" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G76" s="22">
+        <f>DATE(YEAR(E76),MONTH(E76)+12,DAY(E76))</f>
+        <v>44315</v>
+      </c>
+      <c r="H76" s="20">
         <v>2018</v>
       </c>
     </row>
     <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>217</v>
+      </c>
+      <c r="B77" t="s">
+        <v>218</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B77" t="s">
-        <v>221</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>222</v>
+      <c r="D77" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="E77" s="1">
         <v>43908</v>
       </c>
       <c r="F77" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G77" s="1">
         <f>DATE(YEAR(E77)+1,MONTH(E77),DAY(E77))</f>
         <v>44273</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>236</v>
-      </c>
-      <c r="B78" t="s">
-        <v>236</v>
-      </c>
-      <c r="C78" t="s">
+    <row r="78" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C78" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D78" s="6"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="22"/>
+      <c r="G78" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3398,89 +3445,90 @@
     <hyperlink ref="C51" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="C53" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="C55" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C59" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C61" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C67" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C69" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C70" r:id="rId22" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C75" r:id="rId23" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D54" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C64" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D3" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D4" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D5" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D6" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D6:D8" r:id="rId30" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D15" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D16" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D17" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D26" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D29" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D30" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D31" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D32" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D33" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D34" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D35" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D36" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D37" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D39" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D42" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D61" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D69" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D70" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D73" r:id="rId51" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D24" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D11" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D22" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D59" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D76" r:id="rId56" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D68" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C68" r:id="rId58" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C52" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D8" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D9" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C3" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C4" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D10" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D21" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D40" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D43" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C44" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D45" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D47" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D53" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D64" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D67" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D71" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C10" r:id="rId75" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
-    <hyperlink ref="D62" r:id="rId76" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
-    <hyperlink ref="C62" r:id="rId77" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
-    <hyperlink ref="C38" r:id="rId78" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D18" r:id="rId79" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C56" r:id="rId80" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
-    <hyperlink ref="D77" r:id="rId81" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
-    <hyperlink ref="C77" r:id="rId82" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
-    <hyperlink ref="D72" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C72" r:id="rId84" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
-    <hyperlink ref="C76" r:id="rId85" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D28" r:id="rId86" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="D27" r:id="rId87" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="C57" r:id="rId88" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
-    <hyperlink ref="D57" r:id="rId89" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
-    <hyperlink ref="C60" r:id="rId90" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
-    <hyperlink ref="C6" r:id="rId91" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="C15" r:id="rId92" xr:uid="{C1BFBDB0-2B35-4AD8-AF91-B4076067FC65}"/>
-    <hyperlink ref="C58" r:id="rId93" xr:uid="{5EBACD19-6508-4DCC-8020-E41133581023}"/>
-    <hyperlink ref="D58" r:id="rId94" xr:uid="{C1A9EA96-4E85-442C-8FEC-7C356A0A442B}"/>
-    <hyperlink ref="D41" r:id="rId95" xr:uid="{65EAFE59-9FCB-4DB0-BFF1-3261B2FA52E7}"/>
+    <hyperlink ref="C61" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C67" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C69" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C70" r:id="rId21" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C75" r:id="rId22" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D54" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C64" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D3" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D4" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D5" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D6" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D6:D8" r:id="rId29" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D20" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D26" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D29" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D30" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D31" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D32" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D33" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D34" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D35" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D36" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D37" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D39" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D42" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D61" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D69" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D70" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D73" r:id="rId49" location="gdpquarterlynationalaccounts,scotland(qnas)" display="https://www.gov.scot/collections/economy-statistics/ - gdpquarterlynationalaccounts,scotland(qnas)" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D24" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D11" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D22" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D59" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D76" r:id="rId54" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D68" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C68" r:id="rId56" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C52" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D8" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D9" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C3" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C4" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D10" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D21" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D40" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D43" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C44" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D45" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D47" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D53" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D64" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D67" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D71" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C10" r:id="rId73" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
+    <hyperlink ref="D62" r:id="rId74" xr:uid="{D2BD7F49-0340-4981-B754-EB87701B8E36}"/>
+    <hyperlink ref="C62" r:id="rId75" xr:uid="{B681D46E-5D19-405D-BB52-FA814D41A87D}"/>
+    <hyperlink ref="C38" r:id="rId76" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
+    <hyperlink ref="D18" r:id="rId77" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="C56" r:id="rId78" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D77" r:id="rId79" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
+    <hyperlink ref="C77" r:id="rId80" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
+    <hyperlink ref="D72" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C72" r:id="rId82" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
+    <hyperlink ref="C76" r:id="rId83" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
+    <hyperlink ref="D28" r:id="rId84" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="D27" r:id="rId85" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="C57" r:id="rId86" xr:uid="{B502B109-2B45-4FC3-9504-EC6541CF7230}"/>
+    <hyperlink ref="D57" r:id="rId87" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="C60" r:id="rId88" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
+    <hyperlink ref="C6" r:id="rId89" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
+    <hyperlink ref="C15" r:id="rId90" xr:uid="{C1BFBDB0-2B35-4AD8-AF91-B4076067FC65}"/>
+    <hyperlink ref="C58" r:id="rId91" xr:uid="{5EBACD19-6508-4DCC-8020-E41133581023}"/>
+    <hyperlink ref="D58" r:id="rId92" xr:uid="{C1A9EA96-4E85-442C-8FEC-7C356A0A442B}"/>
+    <hyperlink ref="D41" r:id="rId93" xr:uid="{65EAFE59-9FCB-4DB0-BFF1-3261B2FA52E7}"/>
+    <hyperlink ref="D23" r:id="rId94" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
+    <hyperlink ref="C29" r:id="rId95" xr:uid="{E621E369-A21D-4750-B119-7C61DC52AB11}"/>
+    <hyperlink ref="C30" r:id="rId96" xr:uid="{7CEF7119-F3DD-4814-9218-A96AB41C09DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId96"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId97"/>
   <tableParts count="1">
-    <tablePart r:id="rId97"/>
+    <tablePart r:id="rId98"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2864170E-168D-4317-9492-10F026387C0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA82635-C05E-4CD9-9C10-24AF8EF6CE25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1411,7 +1411,7 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1452,7 +1452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>216</v>
       </c>
@@ -1466,13 +1466,13 @@
         <v>216</v>
       </c>
       <c r="E2" s="1">
-        <v>43916</v>
+        <v>44646</v>
       </c>
       <c r="F2" t="s">
         <v>216</v>
       </c>
       <c r="G2" s="1">
-        <v>44008</v>
+        <v>44738</v>
       </c>
       <c r="H2" t="s">
         <v>216</v>
@@ -1692,7 +1692,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>19</v>
       </c>
@@ -1706,14 +1706,14 @@
         <v>150</v>
       </c>
       <c r="E11" s="14">
-        <v>43800</v>
+        <v>44166</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>177</v>
       </c>
       <c r="G11" s="14">
         <f t="shared" si="0"/>
-        <v>44166</v>
+        <v>44531</v>
       </c>
       <c r="H11" s="12">
         <v>2018</v>
@@ -1740,7 +1740,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>25</v>
       </c>
@@ -1754,14 +1754,14 @@
         <v>163</v>
       </c>
       <c r="E13" s="14">
-        <v>43818</v>
+        <v>44166</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>177</v>
       </c>
       <c r="G13" s="14">
         <f>DATE(YEAR(E13)+1,MONTH(E13),DAY(E13))</f>
-        <v>44184</v>
+        <v>44531</v>
       </c>
       <c r="H13" s="12">
         <v>2018</v>
@@ -1816,7 +1816,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>32</v>
       </c>
@@ -1830,14 +1830,14 @@
         <v>151</v>
       </c>
       <c r="E16" s="14">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>176</v>
       </c>
       <c r="G16" s="14">
         <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="H16" s="18">
         <v>43800</v>
@@ -1951,30 +1951,30 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="E21" s="14">
-        <v>44136</v>
-      </c>
-      <c r="F21" s="15" t="s">
+      <c r="E21" s="22">
+        <v>44166</v>
+      </c>
+      <c r="F21" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="22">
         <f>DATE(YEAR(E21),MONTH(E21)+1,DAY(E21))</f>
-        <v>44166</v>
-      </c>
-      <c r="H21" s="18">
+        <v>44197</v>
+      </c>
+      <c r="H21" s="24">
         <v>43831</v>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>53</v>
       </c>
@@ -2100,14 +2100,14 @@
         <v>157</v>
       </c>
       <c r="E26" s="14">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>176</v>
       </c>
       <c r="G26" s="14">
         <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="H26" s="18">
         <v>43800</v>
@@ -2215,7 +2215,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>59</v>
       </c>
@@ -2229,14 +2229,14 @@
         <v>160</v>
       </c>
       <c r="E31" s="14">
-        <v>43800</v>
+        <v>44166</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>177</v>
       </c>
       <c r="G31" s="14">
         <f>DATE(YEAR(E31)+1,MONTH(E31),DAY(E31))</f>
-        <v>44166</v>
+        <v>44531</v>
       </c>
       <c r="H31" s="12">
         <v>2018</v>
@@ -2296,7 +2296,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>66</v>
       </c>
@@ -2310,14 +2310,14 @@
         <v>163</v>
       </c>
       <c r="E34" s="14">
-        <v>43800</v>
+        <v>44166</v>
       </c>
       <c r="F34" s="15" t="s">
         <v>177</v>
       </c>
       <c r="G34" s="14">
         <f>DATE(YEAR(E34)+1,MONTH(E34),DAY(E34))</f>
-        <v>44166</v>
+        <v>44531</v>
       </c>
       <c r="H34" s="12">
         <v>2018</v>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA82635-C05E-4CD9-9C10-24AF8EF6CE25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4627A1-4C6E-4E15-BD58-16C09CF3746C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1411,7 +1411,7 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1492,7 +1492,7 @@
         <v>148</v>
       </c>
       <c r="E3" s="14">
-        <v>43983</v>
+        <v>44166</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>176</v>
@@ -1518,7 +1518,7 @@
         <v>148</v>
       </c>
       <c r="E4" s="14">
-        <v>43983</v>
+        <v>44166</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>176</v>
@@ -1938,14 +1938,14 @@
         <v>154</v>
       </c>
       <c r="E20" s="14">
-        <v>43800</v>
+        <v>44166</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>177</v>
       </c>
       <c r="G20" s="14">
         <f>DATE(YEAR(E20)+1,MONTH(E20),DAY(E20))</f>
-        <v>44166</v>
+        <v>44531</v>
       </c>
       <c r="H20" s="12">
         <v>2018</v>
@@ -1992,14 +1992,14 @@
         <v>156</v>
       </c>
       <c r="E22" s="14">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>176</v>
       </c>
       <c r="G22" s="14">
         <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="H22" s="18">
         <v>43800</v>
@@ -2019,14 +2019,14 @@
         <v>156</v>
       </c>
       <c r="E23" s="14">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>176</v>
       </c>
       <c r="G23" s="14">
         <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="H23" s="18">
         <v>43800</v>
@@ -2046,14 +2046,14 @@
         <v>174</v>
       </c>
       <c r="E24" s="14">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>176</v>
       </c>
       <c r="G24" s="14">
         <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="H24" s="18">
         <v>43800</v>
@@ -2073,14 +2073,14 @@
         <v>156</v>
       </c>
       <c r="E25" s="14">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>176</v>
       </c>
       <c r="G25" s="14">
         <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="H25" s="18">
         <v>43800</v>
@@ -2364,14 +2364,14 @@
         <v>148</v>
       </c>
       <c r="E36" s="14">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="F36" s="15" t="s">
         <v>176</v>
       </c>
       <c r="G36" s="14">
         <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="H36" s="12">
         <v>2019</v>
@@ -2391,14 +2391,14 @@
         <v>148</v>
       </c>
       <c r="E37" s="14">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="F37" s="15" t="s">
         <v>176</v>
       </c>
       <c r="G37" s="14">
         <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="H37" s="12">
         <v>2019</v>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4627A1-4C6E-4E15-BD58-16C09CF3746C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1EF289-5964-4DF0-B230-FA348BC6D6DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="283">
   <si>
     <t>Code</t>
   </si>
@@ -865,6 +865,15 @@
   </si>
   <si>
     <t>https://www.ofgem.gov.uk/publications-and-updates/domestic-renewable-heat-incentive-quarterly-report-issue-26</t>
+  </si>
+  <si>
+    <t>SPICeCovid</t>
+  </si>
+  <si>
+    <t>SPICe: Timeline of Coronavirus (COVID-19) in Scotland</t>
+  </si>
+  <si>
+    <t>https://spice-spotlight.scot/2021/01/08/timeline-of-coronavirus-covid-19-in-scotland/</t>
   </si>
 </sst>
 </file>
@@ -1086,8 +1095,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H78" totalsRowShown="0">
-  <autoFilter ref="A1:H78" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H79" totalsRowShown="0">
+  <autoFilter ref="A1:H79" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="6">
       <filters>
         <dateGroupItem year="2020" dateTimeGrouping="year"/>
@@ -1408,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3425,6 +3434,32 @@
       <c r="D78" s="25"/>
       <c r="E78" s="22"/>
       <c r="G78" s="22"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>280</v>
+      </c>
+      <c r="B79" t="s">
+        <v>281</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E79" s="1">
+        <v>44197</v>
+      </c>
+      <c r="F79" t="s">
+        <v>177</v>
+      </c>
+      <c r="G79" s="1">
+        <v>45292</v>
+      </c>
+      <c r="H79">
+        <v>2020</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4627A1-4C6E-4E15-BD58-16C09CF3746C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF7AC28-B5E0-4D1C-B0A8-797DB4275FD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1089,7 +1089,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H78" totalsRowShown="0">
   <autoFilter ref="A1:H78" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="6">
-      <filters>
+      <filters blank="1">
+        <dateGroupItem year="2021" month="1" dateTimeGrouping="month"/>
         <dateGroupItem year="2020" dateTimeGrouping="year"/>
       </filters>
     </filterColumn>
@@ -1411,7 +1412,7 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1719,7 +1720,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
@@ -1767,7 +1768,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>28</v>
       </c>
@@ -1789,7 +1790,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
         <v>30</v>
       </c>
@@ -1924,7 +1925,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -1951,7 +1952,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
         <v>42</v>
       </c>
@@ -1978,7 +1979,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>47</v>
       </c>
@@ -2032,7 +2033,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>49</v>
       </c>
@@ -2059,7 +2060,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>51</v>
       </c>
@@ -2161,7 +2162,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
         <v>55</v>
       </c>
@@ -2188,7 +2189,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20" t="s">
         <v>57</v>
       </c>
@@ -2350,7 +2351,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>71</v>
       </c>
@@ -2377,7 +2378,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>73</v>
       </c>
@@ -2404,7 +2405,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20" t="s">
         <v>209</v>
       </c>
@@ -2526,7 +2527,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -2540,20 +2541,20 @@
         <v>195</v>
       </c>
       <c r="E43" s="1">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>178</v>
       </c>
       <c r="G43" s="1">
         <f>DATE(YEAR(E43),MONTH(E43)+1,DAY(E43))</f>
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="H43" s="7">
         <v>44013</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -2633,7 +2634,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -2811,7 +2812,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>140</v>
       </c>
@@ -2863,7 +2864,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="30" t="s">
         <v>213</v>
       </c>
@@ -2976,7 +2977,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>112</v>
       </c>
@@ -3003,7 +3004,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="20" t="s">
         <v>203</v>
       </c>
@@ -3154,7 +3155,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="20" t="s">
         <v>180</v>
       </c>
@@ -3178,7 +3179,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="20" t="s">
         <v>121</v>
       </c>
@@ -3229,7 +3230,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -3255,7 +3256,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>130</v>
       </c>
@@ -3282,7 +3283,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>132</v>
       </c>
@@ -3412,7 +3413,7 @@
         <v>44273</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="20" t="s">
         <v>233</v>
       </c>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF7AC28-B5E0-4D1C-B0A8-797DB4275FD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83376678-8BFA-4358-AB46-04440F171C1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="1820" windowWidth="14400" windowHeight="6060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="283">
   <si>
     <t>Code</t>
   </si>
@@ -865,6 +865,15 @@
   </si>
   <si>
     <t>https://www.ofgem.gov.uk/publications-and-updates/domestic-renewable-heat-incentive-quarterly-report-issue-26</t>
+  </si>
+  <si>
+    <t>SPICeCovid</t>
+  </si>
+  <si>
+    <t>SPICe: Timeline of Coronavirus (COVID-19) in Scotland</t>
+  </si>
+  <si>
+    <t>https://spice-spotlight.scot/2021/01/08/timeline-of-coronavirus-covid-19-in-scotland/</t>
   </si>
 </sst>
 </file>
@@ -875,7 +884,7 @@
     <numFmt numFmtId="164" formatCode="[$-809]mmm\-yy"/>
     <numFmt numFmtId="165" formatCode="[$-809]dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -910,6 +919,13 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -954,7 +970,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -992,6 +1008,9 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="17" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1086,8 +1105,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H78" totalsRowShown="0">
-  <autoFilter ref="A1:H78" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H79" totalsRowShown="0">
+  <autoFilter ref="A1:H79" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="6">
       <filters blank="1">
         <dateGroupItem year="2021" month="1" dateTimeGrouping="month"/>
@@ -1409,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3426,6 +3445,32 @@
       <c r="D78" s="25"/>
       <c r="E78" s="22"/>
       <c r="G78" s="22"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="B79" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="C79" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="D79" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="E79" s="39">
+        <v>44197</v>
+      </c>
+      <c r="F79" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="G79" s="39">
+        <v>45292</v>
+      </c>
+      <c r="H79" s="37">
+        <v>2020</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83376678-8BFA-4358-AB46-04440F171C1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F95F74-0276-4161-9465-B7F959D98177}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="1820" windowWidth="14400" windowHeight="6060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="285">
   <si>
     <t>Code</t>
   </si>
@@ -874,6 +874,12 @@
   </si>
   <si>
     <t>https://spice-spotlight.scot/2021/01/08/timeline-of-coronavirus-covid-19-in-scotland/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ja2021</t>
   </si>
 </sst>
 </file>
@@ -1430,23 +1436,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:H79"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="2" max="2" width="102.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.453125" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="102.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>216</v>
       </c>
@@ -1498,7 +1504,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
@@ -1517,14 +1523,14 @@
       <c r="F3" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="G3" s="14">
-        <v>44166</v>
+      <c r="G3" s="14" t="s">
+        <v>283</v>
       </c>
       <c r="H3" s="12">
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
@@ -1543,14 +1549,14 @@
       <c r="F4" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="14">
-        <v>44166</v>
+      <c r="G4" s="14" t="s">
+        <v>283</v>
       </c>
       <c r="H4" s="12">
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1577,7 +1583,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1631,7 +1637,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1658,7 +1664,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1685,7 +1691,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>201</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>19</v>
       </c>
@@ -1739,7 +1745,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
@@ -1760,7 +1766,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>25</v>
       </c>
@@ -1787,7 +1793,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>28</v>
       </c>
@@ -1809,7 +1815,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>30</v>
       </c>
@@ -1819,24 +1825,24 @@
       <c r="C15" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="6" t="s">
         <v>274</v>
       </c>
       <c r="E15" s="22">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>178</v>
       </c>
       <c r="G15" s="22">
         <f>DATE(YEAR(E15),MONTH(E15)+1,DAY(E15))</f>
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="H15" s="24">
         <v>43800</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>32</v>
       </c>
@@ -1863,7 +1869,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1890,7 +1896,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>211</v>
       </c>
@@ -1917,7 +1923,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1944,7 +1950,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -1971,7 +1977,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>42</v>
       </c>
@@ -1998,7 +2004,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -2025,7 +2031,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>47</v>
       </c>
@@ -2052,7 +2058,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>49</v>
       </c>
@@ -2079,7 +2085,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>51</v>
       </c>
@@ -2106,7 +2112,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>53</v>
       </c>
@@ -2133,7 +2139,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>227</v>
       </c>
@@ -2157,7 +2163,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>224</v>
       </c>
@@ -2181,7 +2187,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>55</v>
       </c>
@@ -2194,21 +2200,21 @@
       <c r="D29" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="22">
-        <v>44105</v>
+      <c r="E29" s="22" t="s">
+        <v>284</v>
       </c>
       <c r="F29" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="22" t="e">
         <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
-        <v>44197</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H29" s="22">
         <v>43891</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>57</v>
       </c>
@@ -2222,20 +2228,20 @@
         <v>159</v>
       </c>
       <c r="E30" s="22">
-        <v>44166</v>
+        <v>43831</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>178</v>
       </c>
       <c r="G30" s="22">
         <f>DATE(YEAR(E30),MONTH(E30)+1,DAY(E30))</f>
-        <v>44197</v>
+        <v>43862</v>
       </c>
       <c r="H30" s="24">
         <v>44013</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>59</v>
       </c>
@@ -2262,7 +2268,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -2289,7 +2295,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -2316,7 +2322,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>66</v>
       </c>
@@ -2343,7 +2349,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -2370,7 +2376,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>71</v>
       </c>
@@ -2397,7 +2403,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>73</v>
       </c>
@@ -2424,7 +2430,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>209</v>
       </c>
@@ -2438,7 +2444,7 @@
       <c r="E38" s="22"/>
       <c r="G38" s="22"/>
     </row>
-    <row r="39" spans="1:8" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>75</v>
       </c>
@@ -2465,7 +2471,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>142</v>
       </c>
@@ -2492,7 +2498,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>266</v>
       </c>
@@ -2519,7 +2525,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>77</v>
       </c>
@@ -2546,7 +2552,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -2573,7 +2579,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -2600,7 +2606,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -2626,7 +2632,7 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -2653,7 +2659,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -2679,7 +2685,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -2704,7 +2710,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -2729,7 +2735,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -2754,7 +2760,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -2779,7 +2785,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>183</v>
       </c>
@@ -2804,7 +2810,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -2831,7 +2837,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>140</v>
       </c>
@@ -2858,7 +2864,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -2883,7 +2889,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>213</v>
       </c>
@@ -2897,7 +2903,7 @@
       <c r="E56" s="33"/>
       <c r="G56" s="33"/>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>229</v>
       </c>
@@ -2918,7 +2924,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
         <v>260</v>
       </c>
@@ -2945,7 +2951,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>110</v>
       </c>
@@ -2971,7 +2977,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>234</v>
       </c>
@@ -2996,7 +3002,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>112</v>
       </c>
@@ -3023,7 +3029,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
         <v>203</v>
       </c>
@@ -3041,7 +3047,7 @@
       </c>
       <c r="G62" s="22"/>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>185</v>
       </c>
@@ -3066,7 +3072,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>144</v>
       </c>
@@ -3093,7 +3099,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>115</v>
       </c>
@@ -3120,7 +3126,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>117</v>
       </c>
@@ -3147,7 +3153,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>119</v>
       </c>
@@ -3174,7 +3180,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
         <v>180</v>
       </c>
@@ -3198,7 +3204,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
         <v>121</v>
       </c>
@@ -3222,7 +3228,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>124</v>
       </c>
@@ -3249,7 +3255,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -3275,7 +3281,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>130</v>
       </c>
@@ -3302,7 +3308,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>132</v>
       </c>
@@ -3329,7 +3335,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
         <v>134</v>
       </c>
@@ -3354,7 +3360,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>136</v>
       </c>
@@ -3381,7 +3387,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
         <v>138</v>
       </c>
@@ -3408,7 +3414,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>217</v>
       </c>
@@ -3432,7 +3438,7 @@
         <v>44273</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
         <v>233</v>
       </c>
@@ -3446,7 +3452,7 @@
       <c r="E78" s="22"/>
       <c r="G78" s="22"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="37" t="s">
         <v>280</v>
       </c>
@@ -3570,11 +3576,12 @@
     <hyperlink ref="D23" r:id="rId94" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
     <hyperlink ref="C29" r:id="rId95" xr:uid="{E621E369-A21D-4750-B119-7C61DC52AB11}"/>
     <hyperlink ref="C30" r:id="rId96" xr:uid="{7CEF7119-F3DD-4814-9218-A96AB41C09DC}"/>
+    <hyperlink ref="D15" r:id="rId97" xr:uid="{6B93B751-E660-4631-9EE9-8E84447CF281}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId97"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId98"/>
   <tableParts count="1">
-    <tablePart r:id="rId98"/>
+    <tablePart r:id="rId99"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F95F74-0276-4161-9465-B7F959D98177}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1068EE5F-98A0-4012-BD8C-CA934452E8C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="284">
   <si>
     <t>Code</t>
   </si>
@@ -877,9 +873,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>ja2021</t>
   </si>
 </sst>
 </file>
@@ -934,7 +927,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -950,6 +943,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,7 +975,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1017,6 +1016,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1437,22 +1442,22 @@
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+      <selection activeCell="B72" sqref="A72:XFD73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="102.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="102.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.453125" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1478,7 +1483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>216</v>
       </c>
@@ -1504,7 +1509,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
@@ -1530,7 +1535,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
@@ -1556,7 +1561,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1583,7 +1588,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1610,7 +1615,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1637,7 +1642,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1664,7 +1669,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1691,7 +1696,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>201</v>
       </c>
@@ -1718,7 +1723,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>19</v>
       </c>
@@ -1745,7 +1750,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
@@ -1766,7 +1771,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>25</v>
       </c>
@@ -1793,7 +1798,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>28</v>
       </c>
@@ -1815,7 +1820,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
         <v>30</v>
       </c>
@@ -1842,7 +1847,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
     